--- a/ra1/ra1字符串表.xlsx
+++ b/ra1/ra1字符串表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="界面字符串conquer.eng" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980">
   <si>
     <t>编号</t>
   </si>
@@ -3802,6 +3802,12 @@
     <t>Build your base</t>
   </si>
   <si>
+    <t>建立基地</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
     <t>;Specific text</t>
   </si>
   <si>
@@ -3895,9 +3901,15 @@
     <t>Capture Radar Dome</t>
   </si>
   <si>
+    <t>占领雷达站</t>
+  </si>
+  <si>
     <t>Destroy Sub Pens</t>
   </si>
   <si>
+    <t>摧毁潜艇坞</t>
+  </si>
+  <si>
     <t>Keep the Chronosphere on-line</t>
   </si>
   <si>
@@ -3992,6 +4004,12 @@
   </si>
   <si>
     <t>Get spy into enemy tech center</t>
+  </si>
+  <si>
+    <t>让间谍潜入科技中心</t>
+  </si>
+  <si>
+    <t>e0</t>
   </si>
   <si>
     <t>;Death explanation text</t>
@@ -4727,9 +4745,21 @@
     <t>2=Soviet tech centers in the base across the gulf. Data on the Iron Curtain</t>
   </si>
   <si>
+    <t>建立基地,并让间谍潜入苏军科技中心窃取铁幕</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
     <t>3=is in there and we need it. Once you get the data complete your mission...</t>
   </si>
   <si>
+    <t>数据,然后全歼敌军.</t>
+  </si>
+  <si>
+    <t>e1ea.</t>
+  </si>
+  <si>
     <t>4=wipe out everything.</t>
   </si>
   <si>
@@ -5886,6 +5916,9 @@
   </si>
   <si>
     <t>火箭</t>
+  </si>
+  <si>
+    <t>数据,然后</t>
   </si>
   <si>
     <t>空后直升机会去营救.最后</t>
@@ -5933,10 +5966,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -5975,28 +6008,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6004,14 +6016,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6041,16 +6061,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6072,11 +6115,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6088,24 +6137,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6139,55 +6172,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6211,19 +6214,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6236,6 +6227,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6259,13 +6268,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6283,19 +6292,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6313,13 +6346,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6348,17 +6381,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6378,10 +6420,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -6397,31 +6456,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6434,17 +6478,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6453,10 +6486,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6465,133 +6498,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7068,6 +7101,47 @@
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
+            <xdr:cNvPr id="1061" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1061"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5000625" y="36518850"/>
+              <a:ext cx="8890" cy="4445"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>225</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>39370</xdr:colOff>
+          <xdr:row>225</xdr:row>
+          <xdr:rowOff>5080</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="Object 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
@@ -7079,8 +7153,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5000625" y="36518850"/>
-              <a:ext cx="8890" cy="4445"/>
+              <a:off x="1619250" y="38576250"/>
+              <a:ext cx="39370" cy="5080"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7356,9 +7430,9 @@
   <dimension ref="A1:P555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="$A83:$XFD83"/>
+      <selection pane="bottomLeft" activeCell="B413" sqref="B413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16355,8 +16429,8 @@
   <sheetPr/>
   <dimension ref="A1:D235"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -16437,27 +16511,33 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>1260</v>
       </c>
+      <c r="C8" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -16465,13 +16545,13 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="C14" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="D14" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -16479,13 +16559,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="C15" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="D15" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -16493,13 +16573,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="C16" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="D16" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -16507,13 +16587,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="C17" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="D17" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -16521,13 +16601,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="C18" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="D18" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -16535,13 +16615,13 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="C19" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="D19" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -16549,13 +16629,13 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="C20" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="D20" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -16563,13 +16643,13 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="C21" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="D21" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -16577,29 +16657,35 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="C22" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="D22" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>1293</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>1292</v>
+        <v>1295</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1296</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -16607,7 +16693,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>1293</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -16615,7 +16701,7 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>1294</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -16623,7 +16709,7 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -16631,7 +16717,7 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>1296</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -16639,7 +16725,7 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>1297</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -16647,7 +16733,7 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>1298</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -16655,7 +16741,7 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>1299</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -16663,7 +16749,7 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>1300</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -16671,7 +16757,7 @@
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>1301</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -16679,7 +16765,7 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -16687,7 +16773,7 @@
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>1303</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -16695,7 +16781,7 @@
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>1304</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -16703,7 +16789,7 @@
         <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>1305</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -16711,7 +16797,7 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>1306</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -16719,7 +16805,7 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>1307</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -16727,7 +16813,7 @@
         <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>1308</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -16735,7 +16821,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>1309</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -16743,7 +16829,7 @@
         <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>1310</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -16751,7 +16837,7 @@
         <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>1311</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -16759,7 +16845,7 @@
         <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>1312</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -16767,7 +16853,7 @@
         <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>1313</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -16775,7 +16861,7 @@
         <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>1314</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -16783,7 +16869,7 @@
         <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>1315</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -16791,7 +16877,7 @@
         <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>1316</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -16799,7 +16885,7 @@
         <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>1317</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -16807,7 +16893,7 @@
         <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -16815,7 +16901,7 @@
         <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>1319</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -16823,7 +16909,7 @@
         <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>1320</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -16831,7 +16917,7 @@
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>1321</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -16839,7 +16925,7 @@
         <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>1322</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -16847,20 +16933,26 @@
         <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>1324</v>
+        <v>1328</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1330</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>1325</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -16868,7 +16960,7 @@
         <v>51</v>
       </c>
       <c r="B60" t="s">
-        <v>1326</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -16876,7 +16968,7 @@
         <v>52</v>
       </c>
       <c r="B61" t="s">
-        <v>1327</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -16884,7 +16976,7 @@
         <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>1328</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -16892,7 +16984,7 @@
         <v>54</v>
       </c>
       <c r="B63" t="s">
-        <v>1329</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -16900,7 +16992,7 @@
         <v>55</v>
       </c>
       <c r="B64" t="s">
-        <v>1330</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -16908,7 +17000,7 @@
         <v>56</v>
       </c>
       <c r="B65" t="s">
-        <v>1331</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -16916,7 +17008,7 @@
         <v>57</v>
       </c>
       <c r="B66" t="s">
-        <v>1332</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -16924,7 +17016,7 @@
         <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>1333</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -16932,7 +17024,7 @@
         <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>1334</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -16940,7 +17032,7 @@
         <v>60</v>
       </c>
       <c r="B69" t="s">
-        <v>1335</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -16948,7 +17040,7 @@
         <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>1336</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -16956,7 +17048,7 @@
         <v>62</v>
       </c>
       <c r="B71" t="s">
-        <v>1337</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -16964,12 +17056,12 @@
         <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>1338</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>1339</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -16977,7 +17069,7 @@
         <v>64</v>
       </c>
       <c r="B76" t="s">
-        <v>1340</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -16985,12 +17077,12 @@
         <v>65</v>
       </c>
       <c r="B77" t="s">
-        <v>1341</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>1342</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -16998,7 +17090,7 @@
         <v>66</v>
       </c>
       <c r="B81" t="s">
-        <v>1343</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -17006,7 +17098,7 @@
         <v>67</v>
       </c>
       <c r="B82" t="s">
-        <v>1344</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -17014,7 +17106,7 @@
         <v>68</v>
       </c>
       <c r="B83" t="s">
-        <v>1345</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -17022,7 +17114,7 @@
         <v>69</v>
       </c>
       <c r="B84" t="s">
-        <v>1346</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -17030,7 +17122,7 @@
         <v>70</v>
       </c>
       <c r="B85" t="s">
-        <v>1347</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -17038,7 +17130,7 @@
         <v>71</v>
       </c>
       <c r="B86" t="s">
-        <v>1348</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -17046,7 +17138,7 @@
         <v>72</v>
       </c>
       <c r="B87" t="s">
-        <v>1349</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -17054,7 +17146,7 @@
         <v>73</v>
       </c>
       <c r="B88" t="s">
-        <v>1350</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -17062,7 +17154,7 @@
         <v>74</v>
       </c>
       <c r="B89" t="s">
-        <v>1351</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -17070,7 +17162,7 @@
         <v>75</v>
       </c>
       <c r="B90" t="s">
-        <v>1352</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -17078,7 +17170,7 @@
         <v>76</v>
       </c>
       <c r="B91" t="s">
-        <v>1353</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -17086,7 +17178,7 @@
         <v>77</v>
       </c>
       <c r="B92" t="s">
-        <v>1354</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -17094,7 +17186,7 @@
         <v>78</v>
       </c>
       <c r="B93" t="s">
-        <v>1355</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -17102,7 +17194,7 @@
         <v>79</v>
       </c>
       <c r="B94" t="s">
-        <v>1356</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -17110,7 +17202,7 @@
         <v>80</v>
       </c>
       <c r="B95" t="s">
-        <v>1357</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -17118,7 +17210,7 @@
         <v>81</v>
       </c>
       <c r="B96" t="s">
-        <v>1358</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -17126,7 +17218,7 @@
         <v>82</v>
       </c>
       <c r="B97" t="s">
-        <v>1359</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -17134,7 +17226,7 @@
         <v>83</v>
       </c>
       <c r="B98" t="s">
-        <v>1360</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -17142,7 +17234,7 @@
         <v>84</v>
       </c>
       <c r="B99" t="s">
-        <v>1361</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -17150,7 +17242,7 @@
         <v>85</v>
       </c>
       <c r="B100" t="s">
-        <v>1362</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -17158,7 +17250,7 @@
         <v>86</v>
       </c>
       <c r="B101" t="s">
-        <v>1363</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -17166,7 +17258,7 @@
         <v>87</v>
       </c>
       <c r="B102" t="s">
-        <v>1364</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -17174,7 +17266,7 @@
         <v>88</v>
       </c>
       <c r="B103" t="s">
-        <v>1365</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -17182,7 +17274,7 @@
         <v>89</v>
       </c>
       <c r="B104" t="s">
-        <v>1366</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -17190,7 +17282,7 @@
         <v>90</v>
       </c>
       <c r="B105" t="s">
-        <v>1367</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -17198,7 +17290,7 @@
         <v>91</v>
       </c>
       <c r="B106" t="s">
-        <v>1368</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -17206,7 +17298,7 @@
         <v>92</v>
       </c>
       <c r="B107" t="s">
-        <v>1369</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -17214,7 +17306,7 @@
         <v>93</v>
       </c>
       <c r="B108" t="s">
-        <v>1370</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -17222,7 +17314,7 @@
         <v>94</v>
       </c>
       <c r="B109" t="s">
-        <v>1371</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -17230,7 +17322,7 @@
         <v>95</v>
       </c>
       <c r="B110" t="s">
-        <v>1372</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -17238,7 +17330,7 @@
         <v>96</v>
       </c>
       <c r="B111" t="s">
-        <v>1373</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -17246,7 +17338,7 @@
         <v>97</v>
       </c>
       <c r="B112" t="s">
-        <v>1374</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -17254,7 +17346,7 @@
         <v>98</v>
       </c>
       <c r="B113" t="s">
-        <v>1375</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -17262,7 +17354,7 @@
         <v>99</v>
       </c>
       <c r="B114" t="s">
-        <v>1376</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -17270,7 +17362,7 @@
         <v>100</v>
       </c>
       <c r="B115" t="s">
-        <v>1377</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -17278,7 +17370,7 @@
         <v>101</v>
       </c>
       <c r="B116" t="s">
-        <v>1378</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -17286,32 +17378,32 @@
         <v>102</v>
       </c>
       <c r="B117" t="s">
-        <v>1379</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>1380</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" t="s">
-        <v>1381</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>1382</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>1383</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" t="s">
-        <v>1384</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -17319,7 +17411,7 @@
         <v>103</v>
       </c>
       <c r="B125" t="s">
-        <v>1385</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -17327,7 +17419,7 @@
         <v>104</v>
       </c>
       <c r="B126" t="s">
-        <v>1386</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -17335,7 +17427,7 @@
         <v>105</v>
       </c>
       <c r="B127" t="s">
-        <v>1387</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -17343,7 +17435,7 @@
         <v>106</v>
       </c>
       <c r="B128" t="s">
-        <v>1388</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -17351,7 +17443,7 @@
         <v>107</v>
       </c>
       <c r="B129" t="s">
-        <v>1389</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -17359,7 +17451,7 @@
         <v>108</v>
       </c>
       <c r="B130" t="s">
-        <v>1390</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -17367,7 +17459,7 @@
         <v>109</v>
       </c>
       <c r="B131" t="s">
-        <v>1391</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -17375,7 +17467,7 @@
         <v>110</v>
       </c>
       <c r="B132" t="s">
-        <v>1392</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -17383,7 +17475,7 @@
         <v>111</v>
       </c>
       <c r="B133" t="s">
-        <v>1393</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -17391,7 +17483,7 @@
         <v>112</v>
       </c>
       <c r="B134" t="s">
-        <v>1394</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -17399,7 +17491,7 @@
         <v>113</v>
       </c>
       <c r="B135" t="s">
-        <v>1395</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -17407,7 +17499,7 @@
         <v>114</v>
       </c>
       <c r="B136" t="s">
-        <v>1396</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -17415,7 +17507,7 @@
         <v>115</v>
       </c>
       <c r="B137" t="s">
-        <v>1397</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -17423,7 +17515,7 @@
         <v>116</v>
       </c>
       <c r="B138" t="s">
-        <v>1398</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -17431,7 +17523,7 @@
         <v>117</v>
       </c>
       <c r="B139" t="s">
-        <v>1399</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -17439,7 +17531,7 @@
         <v>118</v>
       </c>
       <c r="B140" t="s">
-        <v>1400</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -17447,7 +17539,7 @@
         <v>119</v>
       </c>
       <c r="B141" t="s">
-        <v>1401</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -17455,7 +17547,7 @@
         <v>120</v>
       </c>
       <c r="B142" t="s">
-        <v>1402</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -17463,7 +17555,7 @@
         <v>121</v>
       </c>
       <c r="B143" t="s">
-        <v>1403</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -17471,7 +17563,7 @@
         <v>122</v>
       </c>
       <c r="B144" t="s">
-        <v>1404</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -17479,7 +17571,7 @@
         <v>123</v>
       </c>
       <c r="B145" t="s">
-        <v>1405</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -17487,7 +17579,7 @@
         <v>124</v>
       </c>
       <c r="B146" t="s">
-        <v>1406</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -17495,7 +17587,7 @@
         <v>125</v>
       </c>
       <c r="B147" t="s">
-        <v>1407</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -17503,7 +17595,7 @@
         <v>126</v>
       </c>
       <c r="B148" t="s">
-        <v>1408</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -17511,7 +17603,7 @@
         <v>127</v>
       </c>
       <c r="B149" t="s">
-        <v>1409</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -17519,7 +17611,7 @@
         <v>128</v>
       </c>
       <c r="B150" t="s">
-        <v>1410</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -17527,7 +17619,7 @@
         <v>129</v>
       </c>
       <c r="B151" t="s">
-        <v>1411</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -17535,7 +17627,7 @@
         <v>130</v>
       </c>
       <c r="B152" t="s">
-        <v>1412</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -17543,7 +17635,7 @@
         <v>131</v>
       </c>
       <c r="B153" t="s">
-        <v>1413</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -17551,7 +17643,7 @@
         <v>132</v>
       </c>
       <c r="B154" t="s">
-        <v>1414</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -17559,7 +17651,7 @@
         <v>133</v>
       </c>
       <c r="B155" t="s">
-        <v>1415</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -17567,7 +17659,7 @@
         <v>134</v>
       </c>
       <c r="B156" t="s">
-        <v>1416</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -17575,7 +17667,7 @@
         <v>135</v>
       </c>
       <c r="B157" t="s">
-        <v>1417</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -17583,7 +17675,7 @@
         <v>136</v>
       </c>
       <c r="B158" t="s">
-        <v>1418</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -17591,7 +17683,7 @@
         <v>137</v>
       </c>
       <c r="B159" t="s">
-        <v>1419</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -17599,7 +17691,7 @@
         <v>138</v>
       </c>
       <c r="B160" t="s">
-        <v>1420</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -17607,7 +17699,7 @@
         <v>139</v>
       </c>
       <c r="B161" t="s">
-        <v>1421</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -17615,7 +17707,7 @@
         <v>140</v>
       </c>
       <c r="B162" t="s">
-        <v>1422</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -17623,7 +17715,7 @@
         <v>141</v>
       </c>
       <c r="B163" t="s">
-        <v>1423</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -17631,7 +17723,7 @@
         <v>142</v>
       </c>
       <c r="B164" t="s">
-        <v>1424</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -17639,7 +17731,7 @@
         <v>143</v>
       </c>
       <c r="B165" t="s">
-        <v>1425</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -17647,7 +17739,7 @@
         <v>144</v>
       </c>
       <c r="B166" t="s">
-        <v>1426</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -17655,7 +17747,7 @@
         <v>145</v>
       </c>
       <c r="B167" t="s">
-        <v>1427</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -17663,7 +17755,7 @@
         <v>146</v>
       </c>
       <c r="B168" t="s">
-        <v>1428</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -17671,7 +17763,7 @@
         <v>147</v>
       </c>
       <c r="B169" t="s">
-        <v>1429</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -17679,7 +17771,7 @@
         <v>148</v>
       </c>
       <c r="B170" t="s">
-        <v>1430</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -17687,7 +17779,7 @@
         <v>149</v>
       </c>
       <c r="B171" t="s">
-        <v>1431</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -17695,7 +17787,7 @@
         <v>150</v>
       </c>
       <c r="B172" t="s">
-        <v>1432</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -17703,7 +17795,7 @@
         <v>151</v>
       </c>
       <c r="B173" t="s">
-        <v>1433</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -17711,7 +17803,7 @@
         <v>152</v>
       </c>
       <c r="B174" t="s">
-        <v>1434</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -17719,7 +17811,7 @@
         <v>153</v>
       </c>
       <c r="B175" t="s">
-        <v>1435</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -17727,7 +17819,7 @@
         <v>154</v>
       </c>
       <c r="B176" t="s">
-        <v>1436</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -17735,7 +17827,7 @@
         <v>155</v>
       </c>
       <c r="B177" t="s">
-        <v>1437</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -17743,7 +17835,7 @@
         <v>156</v>
       </c>
       <c r="B178" t="s">
-        <v>1438</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -17751,7 +17843,7 @@
         <v>157</v>
       </c>
       <c r="B179" t="s">
-        <v>1439</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -17759,7 +17851,7 @@
         <v>158</v>
       </c>
       <c r="B180" t="s">
-        <v>1440</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -17767,7 +17859,7 @@
         <v>159</v>
       </c>
       <c r="B181" t="s">
-        <v>1441</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -17775,7 +17867,7 @@
         <v>160</v>
       </c>
       <c r="B182" t="s">
-        <v>1442</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -17783,7 +17875,7 @@
         <v>161</v>
       </c>
       <c r="B183" t="s">
-        <v>1443</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -17791,7 +17883,7 @@
         <v>162</v>
       </c>
       <c r="B184" t="s">
-        <v>1444</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -17799,7 +17891,7 @@
         <v>163</v>
       </c>
       <c r="B185" t="s">
-        <v>1445</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -17807,7 +17899,7 @@
         <v>164</v>
       </c>
       <c r="B186" t="s">
-        <v>1446</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -17815,7 +17907,7 @@
         <v>165</v>
       </c>
       <c r="B187" t="s">
-        <v>1447</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -17823,7 +17915,7 @@
         <v>166</v>
       </c>
       <c r="B188" t="s">
-        <v>1448</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -17831,7 +17923,7 @@
         <v>167</v>
       </c>
       <c r="B189" t="s">
-        <v>1449</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -17839,7 +17931,7 @@
         <v>168</v>
       </c>
       <c r="B190" t="s">
-        <v>1450</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -17847,7 +17939,7 @@
         <v>169</v>
       </c>
       <c r="B191" t="s">
-        <v>1451</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -17855,7 +17947,7 @@
         <v>170</v>
       </c>
       <c r="B192" t="s">
-        <v>1452</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -17863,7 +17955,7 @@
         <v>171</v>
       </c>
       <c r="B193" t="s">
-        <v>1453</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -17871,7 +17963,7 @@
         <v>172</v>
       </c>
       <c r="B194" t="s">
-        <v>1454</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -17879,7 +17971,7 @@
         <v>173</v>
       </c>
       <c r="B195" t="s">
-        <v>1455</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -17887,7 +17979,7 @@
         <v>174</v>
       </c>
       <c r="B196" t="s">
-        <v>1456</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -17895,7 +17987,7 @@
         <v>175</v>
       </c>
       <c r="B197" t="s">
-        <v>1457</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -17903,7 +17995,7 @@
         <v>176</v>
       </c>
       <c r="B198" t="s">
-        <v>1458</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -17911,7 +18003,7 @@
         <v>177</v>
       </c>
       <c r="B199" t="s">
-        <v>1459</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -17919,7 +18011,7 @@
         <v>178</v>
       </c>
       <c r="B200" t="s">
-        <v>1460</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -17927,7 +18019,7 @@
         <v>179</v>
       </c>
       <c r="B201" t="s">
-        <v>1461</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -17935,7 +18027,7 @@
         <v>180</v>
       </c>
       <c r="B202" t="s">
-        <v>1462</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -17943,7 +18035,7 @@
         <v>181</v>
       </c>
       <c r="B203" t="s">
-        <v>1463</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -17951,7 +18043,7 @@
         <v>182</v>
       </c>
       <c r="B204" t="s">
-        <v>1464</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -17959,7 +18051,7 @@
         <v>183</v>
       </c>
       <c r="B205" t="s">
-        <v>1465</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -17967,7 +18059,7 @@
         <v>184</v>
       </c>
       <c r="B206" t="s">
-        <v>1466</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -17975,7 +18067,7 @@
         <v>185</v>
       </c>
       <c r="B207" t="s">
-        <v>1467</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -17983,7 +18075,7 @@
         <v>186</v>
       </c>
       <c r="B208" t="s">
-        <v>1468</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -17991,7 +18083,7 @@
         <v>187</v>
       </c>
       <c r="B209" t="s">
-        <v>1469</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -17999,7 +18091,7 @@
         <v>188</v>
       </c>
       <c r="B210" t="s">
-        <v>1470</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -18007,7 +18099,7 @@
         <v>189</v>
       </c>
       <c r="B211" t="s">
-        <v>1471</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -18015,7 +18107,7 @@
         <v>190</v>
       </c>
       <c r="B212" t="s">
-        <v>1472</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -18023,7 +18115,7 @@
         <v>191</v>
       </c>
       <c r="B213" t="s">
-        <v>1473</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -18031,7 +18123,7 @@
         <v>192</v>
       </c>
       <c r="B214" t="s">
-        <v>1474</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -18039,7 +18131,7 @@
         <v>193</v>
       </c>
       <c r="B215" t="s">
-        <v>1475</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -18047,7 +18139,7 @@
         <v>194</v>
       </c>
       <c r="B216" t="s">
-        <v>1476</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -18055,7 +18147,7 @@
         <v>195</v>
       </c>
       <c r="B217" t="s">
-        <v>1477</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -18063,7 +18155,7 @@
         <v>196</v>
       </c>
       <c r="B218" t="s">
-        <v>1478</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -18071,7 +18163,7 @@
         <v>197</v>
       </c>
       <c r="B219" t="s">
-        <v>1479</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -18079,7 +18171,7 @@
         <v>198</v>
       </c>
       <c r="B220" t="s">
-        <v>1480</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -18087,7 +18179,7 @@
         <v>199</v>
       </c>
       <c r="B221" t="s">
-        <v>1481</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -18095,7 +18187,7 @@
         <v>200</v>
       </c>
       <c r="B222" t="s">
-        <v>1482</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -18103,7 +18195,7 @@
         <v>201</v>
       </c>
       <c r="B223" t="s">
-        <v>1483</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -18111,7 +18203,7 @@
         <v>202</v>
       </c>
       <c r="B224" t="s">
-        <v>1484</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -18119,7 +18211,7 @@
         <v>203</v>
       </c>
       <c r="B225" t="s">
-        <v>1485</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -18127,7 +18219,7 @@
         <v>204</v>
       </c>
       <c r="B226" t="s">
-        <v>1486</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -18135,7 +18227,7 @@
         <v>205</v>
       </c>
       <c r="B227" t="s">
-        <v>1487</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -18143,7 +18235,7 @@
         <v>206</v>
       </c>
       <c r="B228" t="s">
-        <v>1488</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -18151,7 +18243,7 @@
         <v>207</v>
       </c>
       <c r="B229" t="s">
-        <v>1489</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -18159,7 +18251,7 @@
         <v>208</v>
       </c>
       <c r="B230" t="s">
-        <v>1490</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -18167,17 +18259,17 @@
         <v>209</v>
       </c>
       <c r="B231" t="s">
-        <v>1491</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="234" spans="2:2">
       <c r="B234" t="s">
-        <v>1383</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="235" spans="2:2">
       <c r="B235" t="s">
-        <v>1384</v>
+        <v>1390</v>
       </c>
     </row>
   </sheetData>
@@ -18191,8 +18283,8 @@
   <sheetPr/>
   <dimension ref="A1:E272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:C54"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -18211,7 +18303,7 @@
         <v>1251</v>
       </c>
       <c r="C1" t="s">
-        <v>1492</v>
+        <v>1498</v>
       </c>
       <c r="E1" t="s">
         <v>1251</v>
@@ -18219,2429 +18311,2441 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1493</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1494</v>
+        <v>1500</v>
       </c>
       <c r="B3" t="s">
-        <v>1495</v>
+        <v>1501</v>
       </c>
       <c r="C3" t="s">
-        <v>1496</v>
+        <v>1502</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>1493</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>1497</v>
+        <v>1503</v>
       </c>
       <c r="B4" t="s">
-        <v>1498</v>
+        <v>1504</v>
       </c>
       <c r="C4" t="s">
-        <v>1499</v>
+        <v>1505</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>1500</v>
+        <v>1506</v>
       </c>
       <c r="E4" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>1502</v>
+        <v>1508</v>
       </c>
       <c r="B5" t="s">
-        <v>1503</v>
+        <v>1509</v>
       </c>
       <c r="C5" t="s">
-        <v>1504</v>
+        <v>1510</v>
       </c>
       <c r="E5" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>1505</v>
+        <v>1511</v>
       </c>
       <c r="E6" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="7" spans="5:5">
       <c r="E7" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>1506</v>
+        <v>1512</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>1506</v>
+        <v>1512</v>
       </c>
       <c r="E8" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>1507</v>
+        <v>1513</v>
       </c>
       <c r="B9" t="s">
-        <v>1508</v>
+        <v>1514</v>
       </c>
       <c r="C9" t="s">
-        <v>1509</v>
+        <v>1515</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>1510</v>
+        <v>1516</v>
       </c>
       <c r="E9" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>1511</v>
+        <v>1517</v>
       </c>
       <c r="B10" t="s">
-        <v>1512</v>
+        <v>1518</v>
       </c>
       <c r="C10" t="s">
-        <v>1513</v>
+        <v>1519</v>
       </c>
       <c r="E10" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>1514</v>
+        <v>1520</v>
       </c>
       <c r="E11" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>1515</v>
+        <v>1521</v>
       </c>
       <c r="E12" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>1516</v>
+        <v>1522</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>1516</v>
+        <v>1522</v>
       </c>
       <c r="E14" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="15" ht="27" spans="1:5">
       <c r="A15" t="s">
-        <v>1517</v>
+        <v>1523</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>1518</v>
+        <v>1524</v>
       </c>
       <c r="C15" t="s">
-        <v>1519</v>
+        <v>1525</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>1520</v>
+        <v>1526</v>
       </c>
       <c r="E15" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>1522</v>
+        <v>1528</v>
       </c>
       <c r="C16" t="s">
-        <v>1523</v>
+        <v>1529</v>
       </c>
       <c r="E16" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>1524</v>
+        <v>1530</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>1525</v>
+        <v>1531</v>
       </c>
       <c r="C17" t="s">
-        <v>1526</v>
+        <v>1532</v>
       </c>
       <c r="E17" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>1527</v>
+        <v>1533</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>1528</v>
+        <v>1534</v>
       </c>
       <c r="C18" t="s">
-        <v>1529</v>
+        <v>1535</v>
       </c>
       <c r="E18" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>1530</v>
+        <v>1536</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C19" t="s">
-        <v>1532</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>1533</v>
+        <v>1539</v>
       </c>
       <c r="B20" t="s">
-        <v>1534</v>
+        <v>1540</v>
       </c>
       <c r="C20" t="s">
-        <v>1535</v>
+        <v>1541</v>
       </c>
       <c r="E20" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="B21" t="s">
-        <v>1537</v>
+        <v>1543</v>
       </c>
       <c r="C21" t="s">
-        <v>1538</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:5">
       <c r="A22" t="s">
-        <v>1539</v>
+        <v>1545</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>1518</v>
+        <v>1524</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>1539</v>
+        <v>1545</v>
       </c>
       <c r="E22" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>1517</v>
+        <v>1523</v>
       </c>
       <c r="B23" s="19"/>
       <c r="D23" s="22" t="s">
-        <v>1520</v>
+        <v>1526</v>
       </c>
       <c r="E23" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="B24" s="19"/>
       <c r="E24" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>1524</v>
+        <v>1530</v>
       </c>
       <c r="B25" s="19"/>
       <c r="E25" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>1527</v>
+        <v>1533</v>
       </c>
       <c r="B26" s="19"/>
       <c r="E26" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>1540</v>
+        <v>1546</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>1540</v>
+        <v>1546</v>
       </c>
       <c r="E28" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>1541</v>
+        <v>1547</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>1542</v>
+        <v>1548</v>
       </c>
       <c r="E29" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>1543</v>
+        <v>1549</v>
       </c>
       <c r="B30" t="s">
-        <v>1544</v>
+        <v>1550</v>
       </c>
       <c r="C30" t="s">
-        <v>1545</v>
+        <v>1551</v>
       </c>
       <c r="E30" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>1546</v>
+        <v>1552</v>
       </c>
       <c r="B31" t="s">
         <v>1257</v>
       </c>
       <c r="C31" t="s">
-        <v>1547</v>
+        <v>1553</v>
       </c>
       <c r="E31" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>1548</v>
+        <v>1554</v>
       </c>
       <c r="E32" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>1549</v>
+        <v>1555</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>1549</v>
+        <v>1555</v>
       </c>
       <c r="E34" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>1550</v>
+        <v>1556</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>1551</v>
+        <v>1557</v>
       </c>
       <c r="E35" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>1552</v>
+        <v>1558</v>
       </c>
       <c r="B36" t="s">
-        <v>1553</v>
+        <v>1559</v>
       </c>
       <c r="C36" t="s">
-        <v>1554</v>
+        <v>1560</v>
       </c>
       <c r="E36" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>1555</v>
+        <v>1561</v>
       </c>
       <c r="B37" t="s">
-        <v>1556</v>
+        <v>1562</v>
       </c>
       <c r="C37" t="s">
-        <v>1557</v>
+        <v>1563</v>
       </c>
       <c r="E37" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>1558</v>
+        <v>1564</v>
       </c>
       <c r="B38" t="s">
-        <v>1559</v>
+        <v>1565</v>
       </c>
       <c r="C38" t="s">
-        <v>1560</v>
+        <v>1566</v>
       </c>
       <c r="E38" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>1561</v>
+        <v>1567</v>
       </c>
       <c r="E39" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>1562</v>
+        <v>1568</v>
       </c>
       <c r="E40" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>1563</v>
+        <v>1569</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>1563</v>
+        <v>1569</v>
       </c>
       <c r="E42" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>1550</v>
+        <v>1556</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>1551</v>
+        <v>1557</v>
       </c>
       <c r="E43" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>1552</v>
+        <v>1558</v>
       </c>
       <c r="B44" t="s">
-        <v>1553</v>
+        <v>1559</v>
       </c>
       <c r="C44" t="s">
-        <v>1554</v>
+        <v>1560</v>
       </c>
       <c r="E44" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>1555</v>
+        <v>1561</v>
       </c>
       <c r="B45" t="s">
-        <v>1556</v>
+        <v>1562</v>
       </c>
       <c r="C45" t="s">
-        <v>1557</v>
+        <v>1563</v>
       </c>
       <c r="E45" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>1558</v>
+        <v>1564</v>
       </c>
       <c r="B46" t="s">
-        <v>1559</v>
+        <v>1565</v>
       </c>
       <c r="C46" t="s">
-        <v>1560</v>
+        <v>1566</v>
       </c>
       <c r="E46" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>1561</v>
+        <v>1567</v>
       </c>
       <c r="E47" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>1562</v>
+        <v>1568</v>
       </c>
       <c r="E48" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>1564</v>
+        <v>1570</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>1564</v>
+        <v>1570</v>
       </c>
       <c r="E50" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>1550</v>
+        <v>1556</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>1551</v>
+        <v>1557</v>
       </c>
       <c r="E51" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>1552</v>
+        <v>1558</v>
       </c>
       <c r="B52" t="s">
-        <v>1553</v>
+        <v>1559</v>
       </c>
       <c r="C52" t="s">
-        <v>1554</v>
+        <v>1560</v>
       </c>
       <c r="E52" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>1555</v>
+        <v>1561</v>
       </c>
       <c r="B53" t="s">
-        <v>1556</v>
+        <v>1562</v>
       </c>
       <c r="C53" t="s">
-        <v>1557</v>
+        <v>1563</v>
       </c>
       <c r="E53" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>1558</v>
+        <v>1564</v>
       </c>
       <c r="B54" t="s">
-        <v>1559</v>
+        <v>1565</v>
       </c>
       <c r="C54" t="s">
-        <v>1560</v>
+        <v>1566</v>
       </c>
       <c r="E54" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>1561</v>
+        <v>1567</v>
       </c>
       <c r="E55" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>1562</v>
+        <v>1568</v>
       </c>
       <c r="E56" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="57" spans="5:5">
       <c r="E57" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>1565</v>
+        <v>1571</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>1565</v>
+        <v>1571</v>
       </c>
       <c r="E58" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>1566</v>
+        <v>1572</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>1567</v>
+        <v>1573</v>
       </c>
       <c r="E59" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>1568</v>
+        <v>1574</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1576</v>
       </c>
       <c r="E60" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>1569</v>
+        <v>1577</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1579</v>
       </c>
       <c r="E61" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>1570</v>
+        <v>1580</v>
       </c>
       <c r="E62" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="63" spans="5:5">
       <c r="E63" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>1571</v>
+        <v>1581</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>1571</v>
+        <v>1581</v>
       </c>
       <c r="E64" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>1566</v>
+        <v>1572</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>1567</v>
+        <v>1573</v>
       </c>
       <c r="E65" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>1568</v>
+        <v>1574</v>
       </c>
       <c r="E66" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>1569</v>
+        <v>1577</v>
       </c>
       <c r="E67" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>1570</v>
+        <v>1580</v>
       </c>
       <c r="E68" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="69" spans="5:5">
       <c r="E69" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>1572</v>
+        <v>1582</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>1572</v>
+        <v>1582</v>
       </c>
       <c r="E70" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>1573</v>
+        <v>1583</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>1574</v>
+        <v>1584</v>
       </c>
       <c r="E71" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>1575</v>
+        <v>1585</v>
       </c>
       <c r="E72" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>1576</v>
+        <v>1586</v>
       </c>
       <c r="E73" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>1577</v>
+        <v>1587</v>
       </c>
       <c r="E74" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>1578</v>
+        <v>1588</v>
       </c>
       <c r="E75" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>1579</v>
+        <v>1589</v>
       </c>
       <c r="E76" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="77" spans="5:5">
       <c r="E77" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>1580</v>
+        <v>1590</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>1580</v>
+        <v>1590</v>
       </c>
       <c r="E78" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>1581</v>
+        <v>1591</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>1582</v>
+        <v>1592</v>
       </c>
       <c r="E79" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>1583</v>
+        <v>1593</v>
       </c>
       <c r="E80" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>1584</v>
+        <v>1594</v>
       </c>
       <c r="E81" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>1585</v>
+        <v>1595</v>
       </c>
       <c r="E82" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>1586</v>
+        <v>1596</v>
       </c>
       <c r="E83" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="84" spans="5:5">
       <c r="E84" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>1587</v>
+        <v>1597</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>1587</v>
+        <v>1597</v>
       </c>
       <c r="E85" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>1581</v>
+        <v>1591</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>1582</v>
+        <v>1592</v>
       </c>
       <c r="E86" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>1583</v>
+        <v>1593</v>
       </c>
       <c r="E87" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>1584</v>
+        <v>1594</v>
       </c>
       <c r="E88" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>1585</v>
+        <v>1595</v>
       </c>
       <c r="E89" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>1586</v>
+        <v>1596</v>
       </c>
       <c r="E90" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="91" spans="5:5">
       <c r="E91" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>1588</v>
+        <v>1598</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>1588</v>
+        <v>1598</v>
       </c>
       <c r="E92" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>1589</v>
+        <v>1599</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>1590</v>
+        <v>1600</v>
       </c>
       <c r="E93" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>1591</v>
+        <v>1601</v>
       </c>
       <c r="E94" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>1592</v>
+        <v>1602</v>
       </c>
       <c r="E95" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>1593</v>
+        <v>1603</v>
       </c>
       <c r="E96" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>1594</v>
+        <v>1604</v>
       </c>
       <c r="E97" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>1595</v>
+        <v>1605</v>
       </c>
       <c r="E98" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="99" spans="5:5">
       <c r="E99" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>1596</v>
+        <v>1606</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>1596</v>
+        <v>1606</v>
       </c>
       <c r="E100" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>1589</v>
+        <v>1599</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>1590</v>
+        <v>1600</v>
       </c>
       <c r="E101" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>1591</v>
+        <v>1601</v>
       </c>
       <c r="E102" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>1597</v>
+        <v>1607</v>
       </c>
       <c r="E103" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>1593</v>
+        <v>1603</v>
       </c>
       <c r="E104" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>1598</v>
+        <v>1608</v>
       </c>
       <c r="E105" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>1595</v>
+        <v>1605</v>
       </c>
       <c r="E106" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="107" spans="5:5">
       <c r="E107" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>1599</v>
+        <v>1609</v>
       </c>
       <c r="D108" s="22" t="s">
-        <v>1599</v>
+        <v>1609</v>
       </c>
       <c r="E108" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>1600</v>
+        <v>1610</v>
       </c>
       <c r="D109" s="22" t="s">
-        <v>1601</v>
+        <v>1611</v>
       </c>
       <c r="E109" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>1602</v>
+        <v>1612</v>
       </c>
       <c r="E110" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>1603</v>
+        <v>1613</v>
       </c>
       <c r="E111" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>1604</v>
+        <v>1614</v>
       </c>
       <c r="E112" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="113" spans="5:5">
       <c r="E113" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>1605</v>
+        <v>1615</v>
       </c>
       <c r="D114" s="22" t="s">
-        <v>1605</v>
+        <v>1615</v>
       </c>
       <c r="E114" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>1606</v>
+        <v>1616</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>1607</v>
+        <v>1617</v>
       </c>
       <c r="E115" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>1608</v>
+        <v>1618</v>
       </c>
       <c r="E116" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>1609</v>
+        <v>1619</v>
       </c>
       <c r="E117" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>1610</v>
+        <v>1620</v>
       </c>
       <c r="E118" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="119" spans="5:5">
       <c r="E119" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>1611</v>
+        <v>1621</v>
       </c>
       <c r="D120" s="22" t="s">
-        <v>1611</v>
+        <v>1621</v>
       </c>
       <c r="E120" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>1612</v>
+        <v>1622</v>
       </c>
       <c r="D121" s="22" t="s">
-        <v>1613</v>
+        <v>1623</v>
       </c>
       <c r="E121" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>1614</v>
+        <v>1624</v>
       </c>
       <c r="E122" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>1615</v>
+        <v>1625</v>
       </c>
       <c r="E123" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>1616</v>
+        <v>1626</v>
       </c>
       <c r="E124" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>1617</v>
+        <v>1627</v>
       </c>
       <c r="E125" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="126" spans="5:5">
       <c r="E126" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>1618</v>
+        <v>1628</v>
       </c>
       <c r="D127" s="22" t="s">
-        <v>1618</v>
+        <v>1628</v>
       </c>
       <c r="E127" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>1612</v>
+        <v>1622</v>
       </c>
       <c r="D128" s="22" t="s">
-        <v>1613</v>
+        <v>1623</v>
       </c>
       <c r="E128" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>1614</v>
+        <v>1624</v>
       </c>
       <c r="E129" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>1615</v>
+        <v>1625</v>
       </c>
       <c r="E130" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>1616</v>
+        <v>1626</v>
       </c>
       <c r="E131" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>1617</v>
+        <v>1627</v>
       </c>
       <c r="E132" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="133" spans="5:5">
       <c r="E133" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>1619</v>
+        <v>1629</v>
       </c>
       <c r="D134" s="22" t="s">
-        <v>1619</v>
+        <v>1629</v>
       </c>
       <c r="E134" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>1620</v>
+        <v>1630</v>
       </c>
       <c r="D135" s="22" t="s">
-        <v>1621</v>
+        <v>1631</v>
       </c>
       <c r="E135" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>1622</v>
+        <v>1632</v>
       </c>
       <c r="E136" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>1623</v>
+        <v>1633</v>
       </c>
       <c r="E137" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>1624</v>
+        <v>1634</v>
       </c>
       <c r="E138" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>1625</v>
+        <v>1635</v>
       </c>
       <c r="E139" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>1626</v>
+        <v>1636</v>
       </c>
       <c r="E140" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="141" spans="5:5">
       <c r="E141" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>1627</v>
+        <v>1637</v>
       </c>
       <c r="D142" s="22" t="s">
-        <v>1627</v>
+        <v>1637</v>
       </c>
       <c r="E142" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>1628</v>
+        <v>1638</v>
       </c>
       <c r="D143" s="22" t="s">
-        <v>1629</v>
+        <v>1639</v>
       </c>
       <c r="E143" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>1630</v>
+        <v>1640</v>
       </c>
       <c r="E144" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>1631</v>
+        <v>1641</v>
       </c>
       <c r="E145" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>1632</v>
+        <v>1642</v>
       </c>
       <c r="E146" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="147" spans="5:5">
       <c r="E147" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>1633</v>
+        <v>1643</v>
       </c>
       <c r="D148" s="22" t="s">
-        <v>1633</v>
+        <v>1643</v>
       </c>
       <c r="E148" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>1634</v>
+        <v>1644</v>
       </c>
       <c r="D149" s="22" t="s">
-        <v>1635</v>
+        <v>1645</v>
       </c>
       <c r="E149" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>1636</v>
+        <v>1646</v>
       </c>
       <c r="E150" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>1637</v>
+        <v>1647</v>
       </c>
       <c r="E151" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>1638</v>
+        <v>1648</v>
       </c>
       <c r="E152" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="153" spans="5:5">
       <c r="E153" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>1639</v>
+        <v>1649</v>
       </c>
       <c r="D154" s="22" t="s">
-        <v>1639</v>
+        <v>1649</v>
       </c>
       <c r="E154" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>1640</v>
+        <v>1650</v>
       </c>
       <c r="D155" s="22" t="s">
-        <v>1641</v>
+        <v>1651</v>
       </c>
       <c r="E155" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>1642</v>
+        <v>1652</v>
       </c>
       <c r="E156" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>1643</v>
+        <v>1653</v>
       </c>
       <c r="E157" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>1644</v>
+        <v>1654</v>
       </c>
       <c r="E158" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="159" spans="5:5">
       <c r="E159" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>1645</v>
+        <v>1655</v>
       </c>
       <c r="D160" s="22" t="s">
-        <v>1645</v>
+        <v>1655</v>
       </c>
       <c r="E160" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>1646</v>
+        <v>1656</v>
       </c>
       <c r="D161" s="22" t="s">
-        <v>1647</v>
+        <v>1657</v>
       </c>
       <c r="E161" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>1648</v>
+        <v>1658</v>
       </c>
       <c r="E162" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>1649</v>
+        <v>1659</v>
       </c>
       <c r="E163" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="164" spans="5:5">
       <c r="E164" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="D165" s="22" t="s">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="E165" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>1646</v>
+        <v>1656</v>
       </c>
       <c r="D166" s="22" t="s">
-        <v>1647</v>
+        <v>1657</v>
       </c>
       <c r="E166" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>1648</v>
+        <v>1658</v>
       </c>
       <c r="E167" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>1649</v>
+        <v>1659</v>
       </c>
       <c r="E168" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="169" spans="5:5">
       <c r="E169" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>1651</v>
+        <v>1661</v>
       </c>
       <c r="D170" s="22" t="s">
-        <v>1651</v>
+        <v>1661</v>
       </c>
       <c r="E170" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>1652</v>
+        <v>1662</v>
       </c>
       <c r="D171" s="22" t="s">
-        <v>1653</v>
+        <v>1663</v>
       </c>
       <c r="E171" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>1654</v>
+        <v>1664</v>
       </c>
       <c r="E172" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>1655</v>
+        <v>1665</v>
       </c>
       <c r="E173" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>1656</v>
+        <v>1666</v>
       </c>
       <c r="E174" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="175" spans="5:5">
       <c r="E175" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="D176" s="22" t="s">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="E176" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="D177" s="22" t="s">
-        <v>1659</v>
+        <v>1669</v>
       </c>
       <c r="E177" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>1660</v>
+        <v>1670</v>
       </c>
       <c r="E178" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>1661</v>
+        <v>1671</v>
       </c>
       <c r="E179" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>1662</v>
+        <v>1672</v>
       </c>
       <c r="E180" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>1663</v>
+        <v>1673</v>
       </c>
       <c r="E181" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="182" spans="5:5">
       <c r="E182" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>1664</v>
+        <v>1674</v>
       </c>
       <c r="D183" s="22" t="s">
-        <v>1664</v>
+        <v>1674</v>
       </c>
       <c r="E183" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
       <c r="D184" s="22" t="s">
-        <v>1659</v>
+        <v>1669</v>
       </c>
       <c r="E184" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>1660</v>
+        <v>1670</v>
       </c>
       <c r="E185" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>1661</v>
+        <v>1671</v>
       </c>
       <c r="E186" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>1662</v>
+        <v>1672</v>
       </c>
       <c r="E187" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>1663</v>
+        <v>1673</v>
       </c>
       <c r="E188" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="189" spans="5:5">
       <c r="E189" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>1665</v>
+        <v>1675</v>
       </c>
       <c r="D190" s="22" t="s">
-        <v>1665</v>
+        <v>1675</v>
       </c>
       <c r="E190" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>1666</v>
+        <v>1676</v>
       </c>
       <c r="D191" s="22" t="s">
-        <v>1667</v>
+        <v>1677</v>
       </c>
       <c r="E191" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>1668</v>
+        <v>1678</v>
       </c>
       <c r="E192" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>1669</v>
+        <v>1679</v>
       </c>
       <c r="E193" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>1670</v>
+        <v>1680</v>
       </c>
       <c r="E194" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="195" spans="5:5">
       <c r="E195" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>1671</v>
+        <v>1681</v>
       </c>
       <c r="D196" s="22" t="s">
-        <v>1671</v>
+        <v>1681</v>
       </c>
       <c r="E196" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>1672</v>
+        <v>1682</v>
       </c>
       <c r="D197" s="22" t="s">
-        <v>1673</v>
+        <v>1683</v>
       </c>
       <c r="E197" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>1674</v>
+        <v>1684</v>
       </c>
       <c r="E198" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>1675</v>
+        <v>1685</v>
       </c>
       <c r="E199" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>1676</v>
+        <v>1686</v>
       </c>
       <c r="E200" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>1677</v>
+        <v>1687</v>
       </c>
       <c r="E201" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="202" spans="5:5">
       <c r="E202" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>1678</v>
+        <v>1688</v>
       </c>
       <c r="D203" s="22" t="s">
-        <v>1678</v>
+        <v>1688</v>
       </c>
       <c r="E203" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>1672</v>
+        <v>1682</v>
       </c>
       <c r="D204" s="22" t="s">
-        <v>1673</v>
+        <v>1683</v>
       </c>
       <c r="E204" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>1674</v>
+        <v>1684</v>
       </c>
       <c r="E205" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>1675</v>
+        <v>1685</v>
       </c>
       <c r="E206" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>1679</v>
+        <v>1689</v>
       </c>
       <c r="E207" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>1680</v>
+        <v>1690</v>
       </c>
       <c r="E208" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="209" spans="5:5">
       <c r="E209" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>1681</v>
+        <v>1691</v>
       </c>
       <c r="D210" s="22" t="s">
-        <v>1681</v>
+        <v>1691</v>
       </c>
       <c r="E210" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>1682</v>
+        <v>1692</v>
       </c>
       <c r="D211" s="22" t="s">
-        <v>1683</v>
+        <v>1693</v>
       </c>
       <c r="E211" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>1684</v>
+        <v>1694</v>
       </c>
       <c r="E212" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>1685</v>
+        <v>1695</v>
       </c>
       <c r="E213" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>1686</v>
+        <v>1696</v>
       </c>
       <c r="E214" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>1687</v>
+        <v>1697</v>
       </c>
       <c r="E215" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>1688</v>
+        <v>1698</v>
       </c>
       <c r="E216" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="217" spans="5:5">
       <c r="E217" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>1689</v>
+        <v>1699</v>
       </c>
       <c r="D218" s="22" t="s">
-        <v>1689</v>
+        <v>1699</v>
       </c>
       <c r="E218" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>1690</v>
+        <v>1700</v>
       </c>
       <c r="D219" s="22" t="s">
-        <v>1691</v>
+        <v>1701</v>
       </c>
       <c r="E219" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>1692</v>
+        <v>1702</v>
       </c>
       <c r="E220" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>1693</v>
+        <v>1703</v>
       </c>
       <c r="E221" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>1694</v>
+        <v>1704</v>
       </c>
       <c r="E222" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>1695</v>
+        <v>1705</v>
       </c>
       <c r="E223" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="224" spans="5:5">
       <c r="E224" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>1696</v>
+        <v>1706</v>
       </c>
       <c r="D225" s="22" t="s">
-        <v>1696</v>
+        <v>1706</v>
       </c>
       <c r="E225" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>1690</v>
+        <v>1700</v>
       </c>
       <c r="D226" s="22" t="s">
-        <v>1691</v>
+        <v>1701</v>
       </c>
       <c r="E226" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>1692</v>
+        <v>1702</v>
       </c>
       <c r="E227" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>1693</v>
+        <v>1703</v>
       </c>
       <c r="E228" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>1694</v>
+        <v>1704</v>
       </c>
       <c r="E229" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>1695</v>
+        <v>1705</v>
       </c>
       <c r="E230" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="231" spans="5:5">
       <c r="E231" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>1697</v>
+        <v>1707</v>
       </c>
       <c r="D232" s="22" t="s">
-        <v>1697</v>
+        <v>1707</v>
       </c>
       <c r="E232" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>1698</v>
+        <v>1708</v>
       </c>
       <c r="D233" s="22" t="s">
-        <v>1699</v>
+        <v>1709</v>
       </c>
       <c r="E233" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>1700</v>
+        <v>1710</v>
       </c>
       <c r="E234" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>1701</v>
+        <v>1711</v>
       </c>
       <c r="E235" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="E236" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="237" spans="5:5">
       <c r="E237" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>1703</v>
+        <v>1713</v>
       </c>
       <c r="D238" s="22" t="s">
-        <v>1703</v>
+        <v>1713</v>
       </c>
       <c r="E238" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="D239" s="22" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="E239" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>1706</v>
+        <v>1716</v>
       </c>
       <c r="E240" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>1707</v>
+        <v>1717</v>
       </c>
       <c r="E241" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>1708</v>
+        <v>1718</v>
       </c>
       <c r="E242" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>1709</v>
+        <v>1719</v>
       </c>
       <c r="E243" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="244" spans="5:5">
       <c r="E244" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="D245" s="22" t="s">
-        <v>1710</v>
+        <v>1720</v>
       </c>
       <c r="E245" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>1711</v>
+        <v>1721</v>
       </c>
       <c r="D246" s="22" t="s">
-        <v>1712</v>
+        <v>1722</v>
       </c>
       <c r="E246" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="E247" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>1714</v>
+        <v>1724</v>
       </c>
       <c r="E248" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="249" spans="5:5">
       <c r="E249" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="D250" s="22" t="s">
-        <v>1715</v>
+        <v>1725</v>
       </c>
       <c r="E250" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>1711</v>
+        <v>1721</v>
       </c>
       <c r="D251" s="22" t="s">
-        <v>1712</v>
+        <v>1722</v>
       </c>
       <c r="E251" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>1713</v>
+        <v>1723</v>
       </c>
       <c r="E252" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>1714</v>
+        <v>1724</v>
       </c>
       <c r="E253" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="254" spans="5:5">
       <c r="E254" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>1716</v>
+        <v>1726</v>
       </c>
       <c r="D255" s="22" t="s">
-        <v>1716</v>
+        <v>1726</v>
       </c>
       <c r="E255" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
-        <v>1717</v>
+        <v>1727</v>
       </c>
       <c r="D256" s="22" t="s">
-        <v>1718</v>
+        <v>1728</v>
       </c>
       <c r="E256" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>1719</v>
+        <v>1729</v>
       </c>
       <c r="E257" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>1720</v>
+        <v>1730</v>
       </c>
       <c r="E258" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>1721</v>
+        <v>1731</v>
       </c>
       <c r="E259" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="260" spans="5:5">
       <c r="E260" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>1722</v>
+        <v>1732</v>
       </c>
       <c r="D261" s="22" t="s">
-        <v>1722</v>
+        <v>1732</v>
       </c>
       <c r="E261" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>1723</v>
+        <v>1733</v>
       </c>
       <c r="D262" s="22" t="s">
-        <v>1724</v>
+        <v>1734</v>
       </c>
       <c r="E262" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>1725</v>
+        <v>1735</v>
       </c>
       <c r="E263" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="264" spans="5:5">
       <c r="E264" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>1726</v>
+        <v>1736</v>
       </c>
       <c r="D265" s="22" t="s">
-        <v>1726</v>
+        <v>1736</v>
       </c>
       <c r="E265" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>1723</v>
+        <v>1733</v>
       </c>
       <c r="D266" s="22" t="s">
-        <v>1724</v>
+        <v>1734</v>
       </c>
       <c r="E266" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="s">
-        <v>1725</v>
+        <v>1735</v>
       </c>
       <c r="E267" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="268" spans="5:5">
       <c r="E268" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>1727</v>
+        <v>1737</v>
       </c>
       <c r="D269" s="22" t="s">
-        <v>1727</v>
+        <v>1737</v>
       </c>
       <c r="E269" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
-        <v>1728</v>
+        <v>1738</v>
       </c>
       <c r="D270" s="22" t="s">
-        <v>1729</v>
+        <v>1739</v>
       </c>
       <c r="E270" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>1730</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>1731</v>
+        <v>1741</v>
       </c>
     </row>
   </sheetData>
@@ -20656,9 +20760,9 @@
   <dimension ref="A1:G257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D227" sqref="D227"/>
+      <selection pane="bottomLeft" activeCell="D226" sqref="D226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -20681,19 +20785,19 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1732</v>
+        <v>1742</v>
       </c>
       <c r="D1" t="s">
-        <v>1733</v>
+        <v>1743</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1734</v>
+        <v>1744</v>
       </c>
       <c r="F1" t="s">
-        <v>1735</v>
+        <v>1745</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1736</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
@@ -20705,7 +20809,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1737</v>
+        <v>1747</v>
       </c>
       <c r="E2" s="2"/>
       <c r="G2" s="2"/>
@@ -20722,7 +20826,7 @@
         <v>475</v>
       </c>
       <c r="F3" t="s">
-        <v>1738</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -20737,7 +20841,7 @@
         <v>707</v>
       </c>
       <c r="F4" t="s">
-        <v>1739</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -20749,10 +20853,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1740</v>
+        <v>1750</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1741</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -20764,10 +20868,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1742</v>
+        <v>1752</v>
       </c>
       <c r="F6" t="s">
-        <v>1743</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -20782,7 +20886,7 @@
         <v>683</v>
       </c>
       <c r="F7" t="s">
-        <v>1744</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -20794,10 +20898,10 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1745</v>
+        <v>1755</v>
       </c>
       <c r="F8" t="s">
-        <v>1746</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -20812,7 +20916,7 @@
         <v>813</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>1747</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -20827,7 +20931,7 @@
         <v>460</v>
       </c>
       <c r="F10" t="s">
-        <v>1748</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -20839,7 +20943,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1737</v>
+        <v>1747</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>300</v>
@@ -20854,10 +20958,10 @@
         <v>A</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1737</v>
+        <v>1747</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1737</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -20869,10 +20973,10 @@
         <v>B</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1749</v>
+        <v>1759</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>1749</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -20887,7 +20991,7 @@
         <v>1104</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1750</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -20899,10 +21003,10 @@
         <v>D</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1737</v>
+        <v>1747</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1737</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -20914,10 +21018,10 @@
         <v>E</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>1751</v>
+        <v>1761</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>1752</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -20929,10 +21033,10 @@
         <v>F</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>1753</v>
+        <v>1763</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>1754</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -20944,10 +21048,10 @@
         <v>10</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>1755</v>
+        <v>1765</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>1756</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -20959,10 +21063,10 @@
         <v>11</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>1757</v>
+        <v>1767</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>1758</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -20977,7 +21081,7 @@
         <v>1071</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>1759</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -20992,7 +21096,7 @@
         <v>1077</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1760</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -21007,7 +21111,7 @@
         <v>1074</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>1761</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -21019,10 +21123,10 @@
         <v>15</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1762</v>
+        <v>1772</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>1762</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -21034,10 +21138,10 @@
         <v>16</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1763</v>
+        <v>1773</v>
       </c>
       <c r="F24" t="s">
-        <v>1763</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -21049,10 +21153,10 @@
         <v>17</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>1764</v>
+        <v>1774</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>1765</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -21064,10 +21168,10 @@
         <v>18</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>1766</v>
+        <v>1776</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>1767</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -21082,7 +21186,7 @@
         <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>1768</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -21097,7 +21201,7 @@
         <v>120</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>1769</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -21112,7 +21216,7 @@
         <v>66</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>1770</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -21127,7 +21231,7 @@
         <v>98</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1771</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -21139,7 +21243,7 @@
         <v>1D</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>1772</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -21163,7 +21267,7 @@
         <v>1F</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>1773</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -21175,7 +21279,7 @@
         <v>20</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1737</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -21187,7 +21291,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1774</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -21199,7 +21303,7 @@
         <v>22</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1775</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -21211,7 +21315,7 @@
         <v>23</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>1776</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -21223,7 +21327,7 @@
         <v>24</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>1777</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -21235,7 +21339,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>1778</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -21247,7 +21351,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>1779</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -21259,7 +21363,7 @@
         <v>27</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>1780</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -21271,7 +21375,7 @@
         <v>28</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>1781</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -21283,7 +21387,7 @@
         <v>29</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>1782</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -21295,7 +21399,7 @@
         <v>2A</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>1783</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -21307,7 +21411,7 @@
         <v>2B</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>1784</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -21319,7 +21423,7 @@
         <v>2C</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>1785</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -21331,7 +21435,7 @@
         <v>2D</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>1786</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -21343,7 +21447,7 @@
         <v>2E</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>1787</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -21355,7 +21459,7 @@
         <v>2F</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>1788</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -21367,7 +21471,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>1789</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -21379,7 +21483,7 @@
         <v>31</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>1790</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -21391,7 +21495,7 @@
         <v>32</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>1791</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -21403,7 +21507,7 @@
         <v>33</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>1792</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -21415,7 +21519,7 @@
         <v>34</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>1793</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -21427,7 +21531,7 @@
         <v>35</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>1794</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -21439,7 +21543,7 @@
         <v>36</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>1795</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -21451,7 +21555,7 @@
         <v>37</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>1796</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -21463,7 +21567,7 @@
         <v>38</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1797</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -21475,7 +21579,7 @@
         <v>39</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>1798</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -21487,7 +21591,7 @@
         <v>3A</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>1799</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -21499,7 +21603,7 @@
         <v>3B</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>1800</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -21511,7 +21615,7 @@
         <v>3C</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>1801</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -21523,7 +21627,7 @@
         <v>3D</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>1802</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -21535,7 +21639,7 @@
         <v>3E</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>1803</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -21547,7 +21651,7 @@
         <v>3F</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>1804</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -21559,7 +21663,7 @@
         <v>40</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>1805</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -21571,7 +21675,7 @@
         <v>41</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>1806</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -21583,7 +21687,7 @@
         <v>42</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>1807</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -21595,7 +21699,7 @@
         <v>43</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>1808</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -21607,7 +21711,7 @@
         <v>44</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>1809</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -21619,7 +21723,7 @@
         <v>45</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>1810</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -21631,7 +21735,7 @@
         <v>46</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>1811</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -21643,7 +21747,7 @@
         <v>47</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>1812</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -21655,7 +21759,7 @@
         <v>48</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>1813</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -21667,7 +21771,7 @@
         <v>49</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>1814</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -21679,7 +21783,7 @@
         <v>4A</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>1815</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -21691,7 +21795,7 @@
         <v>4B</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>1816</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -21703,7 +21807,7 @@
         <v>4C</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>1817</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -21715,7 +21819,7 @@
         <v>4D</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>1818</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -21727,7 +21831,7 @@
         <v>4E</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>1819</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -21739,7 +21843,7 @@
         <v>4F</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>1820</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -21751,7 +21855,7 @@
         <v>50</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>1821</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -21763,7 +21867,7 @@
         <v>51</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>1822</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -21775,7 +21879,7 @@
         <v>52</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>1823</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -21787,7 +21891,7 @@
         <v>53</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>1824</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -21799,7 +21903,7 @@
         <v>54</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>1825</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -21811,7 +21915,7 @@
         <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>1826</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -21823,7 +21927,7 @@
         <v>56</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>1827</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -21835,7 +21939,7 @@
         <v>57</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>1828</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -21847,7 +21951,7 @@
         <v>58</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>1829</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -21859,7 +21963,7 @@
         <v>59</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>1830</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -21871,7 +21975,7 @@
         <v>5A</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>1831</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -21883,7 +21987,7 @@
         <v>5B</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>1832</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -21895,7 +21999,7 @@
         <v>5C</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>1833</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -21907,7 +22011,7 @@
         <v>5D</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>1834</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -21919,7 +22023,7 @@
         <v>5E</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>1835</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -21931,7 +22035,7 @@
         <v>5F</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>1836</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -21943,7 +22047,7 @@
         <v>60</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>1837</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -21955,7 +22059,7 @@
         <v>61</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>1838</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -21967,7 +22071,7 @@
         <v>62</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>1839</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -21979,7 +22083,7 @@
         <v>63</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>1840</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -21991,7 +22095,7 @@
         <v>64</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>1841</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -22003,7 +22107,7 @@
         <v>65</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>1842</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -22015,7 +22119,7 @@
         <v>66</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>1843</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -22027,7 +22131,7 @@
         <v>67</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>1844</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -22039,7 +22143,7 @@
         <v>68</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>1845</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -22051,7 +22155,7 @@
         <v>69</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>1846</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -22063,7 +22167,7 @@
         <v>6A</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>1847</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -22075,7 +22179,7 @@
         <v>6B</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>1848</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -22087,7 +22191,7 @@
         <v>6C</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>1849</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -22099,7 +22203,7 @@
         <v>6D</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>1850</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -22111,7 +22215,7 @@
         <v>6E</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>1851</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -22123,7 +22227,7 @@
         <v>6F</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>1852</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -22135,7 +22239,7 @@
         <v>70</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>1853</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -22147,7 +22251,7 @@
         <v>71</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>1854</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -22159,7 +22263,7 @@
         <v>72</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>1855</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -22171,7 +22275,7 @@
         <v>73</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>1856</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -22183,7 +22287,7 @@
         <v>74</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>1857</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -22195,7 +22299,7 @@
         <v>75</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>1858</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -22207,7 +22311,7 @@
         <v>76</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>1859</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -22219,7 +22323,7 @@
         <v>77</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>1860</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -22231,7 +22335,7 @@
         <v>78</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>1861</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -22243,7 +22347,7 @@
         <v>79</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>1862</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -22255,7 +22359,7 @@
         <v>7A</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>1863</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -22267,7 +22371,7 @@
         <v>7B</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>1864</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -22279,7 +22383,7 @@
         <v>7C</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>1865</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -22291,7 +22395,7 @@
         <v>7D</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>1866</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -22303,7 +22407,7 @@
         <v>7E</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>1867</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -22327,7 +22431,7 @@
         <v>80</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>1868</v>
+        <v>1878</v>
       </c>
       <c r="E130" s="10" t="s">
         <v>151</v>
@@ -22348,7 +22452,7 @@
         <v>155</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>1869</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -22366,7 +22470,7 @@
         <v>158</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>1870</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -22381,10 +22485,10 @@
         <v>683</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>1871</v>
+        <v>1881</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>1872</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -22399,10 +22503,10 @@
         <v>98</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>1873</v>
+        <v>1883</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>1874</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -22420,7 +22524,7 @@
         <v>161</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>1875</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -22432,13 +22536,13 @@
         <v>86</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1772</v>
+        <v>1782</v>
       </c>
       <c r="E136" s="12" t="s">
         <v>167</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>1876</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -22468,7 +22572,7 @@
         <v>349</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>1877</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -22480,10 +22584,10 @@
         <v>89</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>1773</v>
+        <v>1783</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>1878</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -22495,10 +22599,10 @@
         <v>8A</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>1879</v>
+        <v>1889</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>1880</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -22510,10 +22614,10 @@
         <v>8B</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>1881</v>
+        <v>1891</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>1882</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -22528,7 +22632,7 @@
         <v>416</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>1883</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -22543,7 +22647,7 @@
         <v>419</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>1884</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -22555,10 +22659,10 @@
         <v>8E</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>1885</v>
+        <v>1895</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>1886</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -22570,10 +22674,10 @@
         <v>8F</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>1887</v>
+        <v>1897</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>1888</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -22588,7 +22692,7 @@
         <v>387</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>1889</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -22600,7 +22704,7 @@
         <v>91</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>1890</v>
+        <v>1900</v>
       </c>
       <c r="E147" t="s">
         <v>179</v>
@@ -22630,10 +22734,10 @@
         <v>93</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>1891</v>
+        <v>1901</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>1892</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -22663,7 +22767,7 @@
         <v>370</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>1893</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -22693,7 +22797,7 @@
         <v>364</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>1894</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -22708,7 +22812,7 @@
         <v>367</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>1895</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -22723,7 +22827,7 @@
         <v>56</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>1896</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -22735,10 +22839,10 @@
         <v>9A</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>1897</v>
+        <v>1907</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>1898</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -22753,7 +22857,7 @@
         <v>1132</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>1899</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -22765,10 +22869,10 @@
         <v>9C</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>1900</v>
+        <v>1910</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>1901</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -22780,10 +22884,10 @@
         <v>9D</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>1902</v>
+        <v>1912</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>1903</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -22795,10 +22899,10 @@
         <v>9E</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>1904</v>
+        <v>1914</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>1905</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -22813,7 +22917,7 @@
         <v>37</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>1906</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -22828,7 +22932,7 @@
         <v>41</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>1907</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -22843,7 +22947,7 @@
         <v>816</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>1908</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -22870,7 +22974,7 @@
         <v>A3</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>1909</v>
+        <v>1919</v>
       </c>
       <c r="E165" s="10" t="s">
         <v>216</v>
@@ -22885,7 +22989,7 @@
         <v>A4</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>1910</v>
+        <v>1920</v>
       </c>
       <c r="E166" s="10" t="s">
         <v>219</v>
@@ -22900,10 +23004,10 @@
         <v>A5</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>1911</v>
+        <v>1921</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>1912</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -22930,10 +23034,10 @@
         <v>A7</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>1913</v>
+        <v>1923</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1914</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -22945,7 +23049,7 @@
         <v>A8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>1915</v>
+        <v>1925</v>
       </c>
       <c r="E170" s="13" t="s">
         <v>309</v>
@@ -22960,10 +23064,10 @@
         <v>A9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>1916</v>
+        <v>1926</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>1917</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -22975,7 +23079,7 @@
         <v>AA</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>1918</v>
+        <v>1928</v>
       </c>
       <c r="E172" s="13" t="s">
         <v>312</v>
@@ -23005,7 +23109,7 @@
         <v>AC</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>1919</v>
+        <v>1929</v>
       </c>
       <c r="E174" s="13" t="s">
         <v>320</v>
@@ -23020,7 +23124,7 @@
         <v>AD</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>1764</v>
+        <v>1774</v>
       </c>
       <c r="E175" s="13" t="s">
         <v>327</v>
@@ -23035,7 +23139,7 @@
         <v>AE</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>1920</v>
+        <v>1930</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>926</v>
@@ -23065,10 +23169,10 @@
         <v>B0</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>1921</v>
+        <v>1931</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>1922</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -23080,10 +23184,10 @@
         <v>B1</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>1923</v>
+        <v>1933</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>1924</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -23095,7 +23199,7 @@
         <v>B2</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>1925</v>
+        <v>1935</v>
       </c>
       <c r="E180" s="13" t="s">
         <v>339</v>
@@ -23110,10 +23214,10 @@
         <v>B3</v>
       </c>
       <c r="D181" s="14" t="s">
-        <v>1926</v>
+        <v>1936</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>1927</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -23125,10 +23229,10 @@
         <v>B4</v>
       </c>
       <c r="D182" s="14" t="s">
-        <v>1928</v>
+        <v>1938</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>1929</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -23140,10 +23244,10 @@
         <v>B5</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>1930</v>
+        <v>1940</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>1931</v>
+        <v>1941</v>
       </c>
       <c r="F183"/>
     </row>
@@ -23156,10 +23260,10 @@
         <v>B6</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>1932</v>
+        <v>1942</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>1933</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -23174,7 +23278,7 @@
         <v>522</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>1934</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -23201,7 +23305,7 @@
         <v>B9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>1935</v>
+        <v>1945</v>
       </c>
       <c r="E187" s="13" t="s">
         <v>936</v>
@@ -23219,7 +23323,7 @@
         <v>525</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>1936</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -23231,7 +23335,7 @@
         <v>BB</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>1937</v>
+        <v>1947</v>
       </c>
       <c r="E189" s="13" t="s">
         <v>671</v>
@@ -23246,10 +23350,10 @@
         <v>BC</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>1938</v>
+        <v>1948</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>1939</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -23264,7 +23368,7 @@
         <v>300</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>1940</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -23291,10 +23395,10 @@
         <v>BF</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>1941</v>
+        <v>1951</v>
       </c>
       <c r="E193" s="12" t="s">
-        <v>1942</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -23306,7 +23410,7 @@
         <v>C0</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>1943</v>
+        <v>1953</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>800</v>
@@ -23321,10 +23425,10 @@
         <v>C1</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>1944</v>
+        <v>1954</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>1945</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -23336,7 +23440,7 @@
         <v>C2</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>1946</v>
+        <v>1956</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>69</v>
@@ -23351,7 +23455,7 @@
         <v>C3</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>1947</v>
+        <v>1957</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>61</v>
@@ -23366,10 +23470,10 @@
         <v>C4</v>
       </c>
       <c r="D198" t="s">
-        <v>1948</v>
+        <v>1958</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>1949</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -23396,7 +23500,7 @@
         <v>C6</v>
       </c>
       <c r="D200" t="s">
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>1109</v>
@@ -23411,7 +23515,7 @@
         <v>C7</v>
       </c>
       <c r="D201" t="s">
-        <v>1951</v>
+        <v>1961</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>945</v>
@@ -23471,7 +23575,7 @@
         <v>CB</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>1952</v>
+        <v>1962</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>928</v>
@@ -23486,7 +23590,7 @@
         <v>CC</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>1953</v>
+        <v>1963</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>1045</v>
@@ -23501,7 +23605,7 @@
         <v>CD</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>1954</v>
+        <v>1964</v>
       </c>
       <c r="E207" t="s">
         <v>174</v>
@@ -23651,7 +23755,7 @@
         <v>D9</v>
       </c>
       <c r="E219" t="s">
-        <v>1955</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -23702,7 +23806,7 @@
         <v>DE</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:4">
       <c r="A225" s="2">
         <v>223</v>
       </c>
@@ -23710,8 +23814,11 @@
         <f t="shared" si="3"/>
         <v>DF</v>
       </c>
-    </row>
-    <row r="226" spans="1:2">
+      <c r="D225" s="2" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226" s="2">
         <v>224</v>
       </c>
@@ -23719,8 +23826,11 @@
         <f t="shared" si="3"/>
         <v>E0</v>
       </c>
-    </row>
-    <row r="227" spans="1:2">
+      <c r="D226" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
       <c r="A227" s="2">
         <v>225</v>
       </c>
@@ -23728,8 +23838,11 @@
         <f t="shared" si="3"/>
         <v>E1</v>
       </c>
-    </row>
-    <row r="228" spans="1:2">
+      <c r="D227" s="2" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228" s="2">
         <v>226</v>
       </c>
@@ -23737,6 +23850,9 @@
         <f t="shared" si="3"/>
         <v>E2</v>
       </c>
+      <c r="D228" s="2" t="s">
+        <v>1575</v>
+      </c>
     </row>
     <row r="229" ht="17" customHeight="1" spans="1:6">
       <c r="A229" s="2">
@@ -23747,7 +23863,7 @@
         <v>E3</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="F229" s="17"/>
     </row>
@@ -23760,7 +23876,7 @@
         <v>E4</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -23772,7 +23888,7 @@
         <v>E5</v>
       </c>
       <c r="D231" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -23784,7 +23900,7 @@
         <v>E6</v>
       </c>
       <c r="D232" t="s">
-        <v>1956</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -23796,7 +23912,7 @@
         <v>E7</v>
       </c>
       <c r="D233" t="s">
-        <v>1556</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -23808,7 +23924,7 @@
         <v>E8</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>1553</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -23820,7 +23936,7 @@
         <v>E9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>1957</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -23844,7 +23960,7 @@
         <v>EB</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>1958</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -23856,7 +23972,7 @@
         <v>EC</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>1959</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -23868,7 +23984,7 @@
         <v>ED</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>1960</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -23880,7 +23996,7 @@
         <v>EE</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>1961</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -23892,7 +24008,7 @@
         <v>EF</v>
       </c>
       <c r="D241" s="18" t="s">
-        <v>1962</v>
+        <v>1973</v>
       </c>
       <c r="F241" s="18"/>
     </row>
@@ -23905,7 +24021,7 @@
         <v>F0</v>
       </c>
       <c r="D242" s="19" t="s">
-        <v>1963</v>
+        <v>1974</v>
       </c>
       <c r="F242" s="20"/>
     </row>
@@ -23918,7 +24034,7 @@
         <v>F1</v>
       </c>
       <c r="D243" s="21" t="s">
-        <v>1964</v>
+        <v>1975</v>
       </c>
       <c r="F243" s="21"/>
     </row>
@@ -23931,7 +24047,7 @@
         <v>F2</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -23943,7 +24059,7 @@
         <v>F3</v>
       </c>
       <c r="D245" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -23955,7 +24071,7 @@
         <v>F4</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -23967,7 +24083,7 @@
         <v>F5</v>
       </c>
       <c r="D247" t="s">
-        <v>1512</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -23979,7 +24095,7 @@
         <v>F6</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>1965</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -23991,7 +24107,7 @@
         <v>F7</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -24003,7 +24119,7 @@
         <v>F8</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>1966</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -24015,7 +24131,7 @@
         <v>F9</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>1967</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -24039,7 +24155,7 @@
         <v>FB</v>
       </c>
       <c r="D253" t="s">
-        <v>1503</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -24047,10 +24163,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>1968</v>
+        <v>1979</v>
       </c>
       <c r="D254" t="s">
-        <v>1498</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -24062,7 +24178,7 @@
         <v>FD</v>
       </c>
       <c r="D255" t="s">
-        <v>1495</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -24074,7 +24190,7 @@
         <v>FE</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -24086,19 +24202,19 @@
         <v>FF</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E137" r:id="rId18" display="猛犸坦克" tooltip="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw62XHkp2x5MUcGmUAUoartlviTz0tw/9iqe3pfKJtUWCTh9ssyDK1SDlnhDg47fRGLxIC1WNLHU2MljwrjhG0RrI6lQyh32ruvJlFB9PMSW9A2sc3xqgi987iFh8pU6zS1F6dsONfpMJCMzknPYuVhrdFVbh/grezcrKq8EYKcRO"/>
-    <hyperlink ref="E141" r:id="rId19" display="火箭炮" tooltip="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw60ZXXreRZ24crv2maV2Cbqg9Bf/w51mkM8iY65SX2hsh16xSq+FxHP6FdK7DP1v3oStqBaZnWN6vVdC7Gg5eFCxTqR7wNSKxAXwtZ2Osrfrc8wdB9i6IJmC/1VT2nHJFGFJSFv/NWJcoLE5c+inlMfFB6YMi4j8yEI7yxuZoiNl"/>
-    <hyperlink ref="E149" r:id="rId20" display="导弹发射车" tooltip="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw61i16Uc5tAgb6thxUoJyeRCtbGCOxToQgUiY65SX2hsh16xSq+FxHP6FdK7DP1v3oStqBaZnWN6vVdC7Gg5eFCxTqR7wNSKxAXwtZ2Osrfrc8wdB9i6IJmC/1VT2nHJFGFJSFv/NWJcoLE5c+inlMfFB6YMi4j8yEI7yxuZoiNl"/>
-    <hyperlink ref="E153" r:id="rId21" display="火焰兵" tooltip="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw60ZXXreRZ24cgbKDy1pWkKK9Bf/w51mkM8iY65SX2hsh16xSq+FxHP6FdK7DP1v3oStqBaZnWN6vVdC7Gg5eFCxTqR7wNSKxAXwtZ2Osrfrc8wdB9i6IJmC/1VT2nHJFGFJSFv/NWJcoLE5c+inlMfFB6YMi4j8yEI7yxuZoiNl"/>
-    <hyperlink ref="E154" r:id="rId22" display="生化兵" tooltip="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw61rofGdU90WFoaU8Oq5pkxzImOuUl9obIdesUqvhcRz+hXSuwz9b96EragWmZ1jer1XQuxoOXhQsU6ke8DUisQF8LWdjrK363PMHQfYuiCZgv9VU9pxyRRhSUhb/zViXKCxOXPop5THxQemDIuI/MhCO8sbmaIjZT52Pah4egTN"/>
-    <hyperlink ref="E156" r:id="rId23" display="气垫船" tooltip="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw63g/4amvNcorwLFQ596c5GzImOuUl9obIdesUqvhcRz+hXSuwz9b96EragWmZ1jer1XQuxoOXhQsU6ke8DUisQF8LWdjrK363PMHQfYuiCZgv9VU9pxyRRhSUhb/zViXKCxOXPop5THxQemDIuI/MhCO8sbmaIjZT52Pah4egTN"/>
-    <hyperlink ref="E157" r:id="rId24" display="阿帕奇直升机" tooltip="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw62+PuBOITBh934ZafzVzsgxwPNgv20Edexz+dKqym4+rTzk5sxH2rgIt6XyibVFgk4fbLMgytUg5Z4Q4OO30Ri8SAtVjSx1NjJY8K44RtEayOpUMod9q7ryZRQfTzElvQNrHN8aoIvfO4hYfKVOs0tRenbDjX6TCQjM5Jz2LlYa"/>
-    <hyperlink ref="E159" r:id="rId25" display="装甲运兵车(APC)" tooltip="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw60LIbkeqzb3nB19KwlOyvpxt6XyibVFgk4fbLMgytUg5Z4Q4OO30Ri8SAtVjSx1NjJY8K44RtEayOpUMod9q7ryZRQfTzElvQNrHN8aoIvfO4hYfKVOs0tRenbDjX6TCQjM5Jz2LlYa3RVW4f4K3s3KyqvBGCnETvQwPGbuJnYG"/>
+    <hyperlink ref="E137" r:id="rId20" display="猛犸坦克" tooltip="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw62XHkp2x5MUcGmUAUoartlviTz0tw/9iqe3pfKJtUWCTh9ssyDK1SDlnhDg47fRGLxIC1WNLHU2MljwrjhG0RrI6lQyh32ruvJlFB9PMSW9A2sc3xqgi987iFh8pU6zS1F6dsONfpMJCMzknPYuVhrdFVbh/grezcrKq8EYKcRO"/>
+    <hyperlink ref="E141" r:id="rId21" display="火箭炮" tooltip="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw60ZXXreRZ24crv2maV2Cbqg9Bf/w51mkM8iY65SX2hsh16xSq+FxHP6FdK7DP1v3oStqBaZnWN6vVdC7Gg5eFCxTqR7wNSKxAXwtZ2Osrfrc8wdB9i6IJmC/1VT2nHJFGFJSFv/NWJcoLE5c+inlMfFB6YMi4j8yEI7yxuZoiNl"/>
+    <hyperlink ref="E149" r:id="rId22" display="导弹发射车" tooltip="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw61i16Uc5tAgb6thxUoJyeRCtbGCOxToQgUiY65SX2hsh16xSq+FxHP6FdK7DP1v3oStqBaZnWN6vVdC7Gg5eFCxTqR7wNSKxAXwtZ2Osrfrc8wdB9i6IJmC/1VT2nHJFGFJSFv/NWJcoLE5c+inlMfFB6YMi4j8yEI7yxuZoiNl"/>
+    <hyperlink ref="E153" r:id="rId23" display="火焰兵" tooltip="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw60ZXXreRZ24cgbKDy1pWkKK9Bf/w51mkM8iY65SX2hsh16xSq+FxHP6FdK7DP1v3oStqBaZnWN6vVdC7Gg5eFCxTqR7wNSKxAXwtZ2Osrfrc8wdB9i6IJmC/1VT2nHJFGFJSFv/NWJcoLE5c+inlMfFB6YMi4j8yEI7yxuZoiNl"/>
+    <hyperlink ref="E154" r:id="rId24" display="生化兵" tooltip="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw61rofGdU90WFoaU8Oq5pkxzImOuUl9obIdesUqvhcRz+hXSuwz9b96EragWmZ1jer1XQuxoOXhQsU6ke8DUisQF8LWdjrK363PMHQfYuiCZgv9VU9pxyRRhSUhb/zViXKCxOXPop5THxQemDIuI/MhCO8sbmaIjZT52Pah4egTN"/>
+    <hyperlink ref="E156" r:id="rId25" display="气垫船" tooltip="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw63g/4amvNcorwLFQ596c5GzImOuUl9obIdesUqvhcRz+hXSuwz9b96EragWmZ1jer1XQuxoOXhQsU6ke8DUisQF8LWdjrK363PMHQfYuiCZgv9VU9pxyRRhSUhb/zViXKCxOXPop5THxQemDIuI/MhCO8sbmaIjZT52Pah4egTN"/>
+    <hyperlink ref="E157" r:id="rId26" display="阿帕奇直升机" tooltip="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw62+PuBOITBh934ZafzVzsgxwPNgv20Edexz+dKqym4+rTzk5sxH2rgIt6XyibVFgk4fbLMgytUg5Z4Q4OO30Ri8SAtVjSx1NjJY8K44RtEayOpUMod9q7ryZRQfTzElvQNrHN8aoIvfO4hYfKVOs0tRenbDjX6TCQjM5Jz2LlYa"/>
+    <hyperlink ref="E159" r:id="rId27" display="装甲运兵车(APC)" tooltip="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw60LIbkeqzb3nB19KwlOyvpxt6XyibVFgk4fbLMgytUg5Z4Q4OO30Ri8SAtVjSx1NjJY8K44RtEayOpUMod9q7ryZRQfTzElvQNrHN8aoIvfO4hYfKVOs0tRenbDjX6TCQjM5Jz2LlYa3RVW4f4K3s3KyqvBGCnETvQwPGbuJnYG"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -24282,7 +24398,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="2" progId="Photoshop.Image.19" r:id="rId16">
+        <oleObject shapeId="1061" progId="Photoshop.Image.19" r:id="rId16">
           <objectPr defaultSize="0" r:id="rId17">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -24302,7 +24418,32 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="2" progId="Photoshop.Image.19" r:id="rId16"/>
+        <oleObject shapeId="1061" progId="Photoshop.Image.19" r:id="rId16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject shapeId="2" progId="Photoshop.Image.19" r:id="rId18">
+          <objectPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>225</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>39370</xdr:colOff>
+                <xdr:row>225</xdr:row>
+                <xdr:rowOff>5080</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject shapeId="2" progId="Photoshop.Image.19" r:id="rId18"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/ra1/ra1字符串表.xlsx
+++ b/ra1/ra1字符串表.xlsx
@@ -6947,10 +6947,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -6978,6 +6978,14 @@
       <color theme="9" tint="-0.5"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7049,6 +7057,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -7078,43 +7115,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7188,54 +7188,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7278,6 +7230,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7297,6 +7255,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7374,6 +7374,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -7422,30 +7446,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7454,10 +7454,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7466,133 +7466,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8486,9 +8486,9 @@
   <dimension ref="A1:Q555"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9486,8 +9486,6 @@
         <v>138</v>
       </c>
       <c r="D54" s="12"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
       <c r="I54" s="31"/>
       <c r="O54" s="31"/>
     </row>
@@ -26029,9 +26027,9 @@
   <dimension ref="A1:G257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G131" sqref="A131:G131"/>
+      <selection pane="bottomLeft" activeCell="D246" sqref="D246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/ra1/ra1字符串表.xlsx
+++ b/ra1/ra1字符串表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="界面字符串conquer.eng" sheetId="1" r:id="rId1"/>
@@ -7139,9 +7139,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -7180,29 +7180,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -7234,26 +7211,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7278,6 +7262,22 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7332,6 +7332,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7350,19 +7380,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7392,19 +7428,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7428,7 +7464,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7441,24 +7489,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7482,37 +7512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7565,6 +7565,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7591,26 +7611,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7646,10 +7646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7658,133 +7658,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8677,10 +8677,10 @@
   <sheetPr/>
   <dimension ref="A1:Q555"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
+      <selection pane="bottomLeft" activeCell="E177" sqref="A78:B177 E78:E177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8805,8 +8805,6 @@
       <c r="I3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="J3"/>
-      <c r="K3"/>
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
@@ -9653,9 +9651,6 @@
       <c r="K31" t="s">
         <v>103</v>
       </c>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
       <c r="O31" s="15"/>
       <c r="P31" s="25"/>
       <c r="Q31" s="25"/>
@@ -9682,17 +9677,12 @@
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
-      <c r="I32"/>
       <c r="J32" t="s">
         <v>107</v>
       </c>
       <c r="K32" t="s">
         <v>103</v>
       </c>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
       <c r="P32" s="22"/>
       <c r="Q32" s="22"/>
     </row>
@@ -9719,8 +9709,6 @@
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
       <c r="I33" s="33"/>
-      <c r="J33"/>
-      <c r="K33"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -10150,8 +10138,6 @@
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
       <c r="I49" s="33"/>
-      <c r="J49"/>
-      <c r="K49"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -10180,8 +10166,6 @@
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
-      <c r="J50"/>
-      <c r="K50"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -10210,8 +10194,6 @@
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
       <c r="I51" s="33"/>
-      <c r="J51"/>
-      <c r="K51"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -10624,8 +10606,6 @@
       <c r="I67" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J67"/>
-      <c r="K67"/>
       <c r="L67" s="22"/>
       <c r="M67" s="22"/>
       <c r="N67" s="22"/>
@@ -10717,8 +10697,6 @@
       <c r="G70" s="22"/>
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
-      <c r="J70"/>
-      <c r="K70"/>
       <c r="L70" s="22"/>
       <c r="M70" s="22"/>
       <c r="N70" s="22"/>
@@ -10829,8 +10807,6 @@
       <c r="I74" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J74"/>
-      <c r="K74"/>
       <c r="L74" s="22"/>
       <c r="M74" s="22"/>
       <c r="N74" s="22"/>
@@ -11418,8 +11394,6 @@
       <c r="F93" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="G93"/>
-      <c r="H93"/>
       <c r="I93" s="15" t="s">
         <v>15</v>
       </c>
@@ -11429,9 +11403,6 @@
       <c r="K93" t="s">
         <v>103</v>
       </c>
-      <c r="L93"/>
-      <c r="M93"/>
-      <c r="N93"/>
       <c r="O93" s="15"/>
     </row>
     <row r="94" spans="1:9">
@@ -11478,16 +11449,9 @@
       <c r="F95" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="G95"/>
-      <c r="H95"/>
       <c r="I95" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J95"/>
-      <c r="K95"/>
-      <c r="L95"/>
-      <c r="M95"/>
-      <c r="N95"/>
       <c r="O95" s="15"/>
     </row>
     <row r="96" spans="1:17">
@@ -11544,8 +11508,6 @@
       <c r="F97" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="G97"/>
-      <c r="H97"/>
       <c r="I97" s="15" t="s">
         <v>15</v>
       </c>
@@ -11555,9 +11517,6 @@
       <c r="K97" t="s">
         <v>103</v>
       </c>
-      <c r="L97"/>
-      <c r="M97"/>
-      <c r="N97"/>
       <c r="O97" s="15"/>
     </row>
     <row r="98" spans="1:17">
@@ -11821,9 +11780,10 @@
       <c r="C106" t="s">
         <v>322</v>
       </c>
-      <c r="D106" s="2"/>
       <c r="E106" s="22"/>
-      <c r="F106" s="24"/>
+      <c r="F106" s="24" t="s">
+        <v>233</v>
+      </c>
       <c r="I106" t="s">
         <v>15</v>
       </c>
@@ -12429,8 +12389,6 @@
       <c r="F125" t="s">
         <v>233</v>
       </c>
-      <c r="G125"/>
-      <c r="H125"/>
       <c r="I125" s="15" t="s">
         <v>15</v>
       </c>
@@ -12440,9 +12398,6 @@
       <c r="K125" t="s">
         <v>103</v>
       </c>
-      <c r="L125"/>
-      <c r="M125"/>
-      <c r="N125"/>
       <c r="O125" s="15"/>
     </row>
     <row r="126" s="22" customFormat="1" spans="1:17">
@@ -12601,16 +12556,9 @@
       <c r="F130" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="G130" s="22"/>
-      <c r="H130" s="22"/>
       <c r="I130" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J130" s="22"/>
-      <c r="K130" s="22"/>
-      <c r="L130" s="22"/>
-      <c r="M130" s="22"/>
-      <c r="N130" s="22"/>
       <c r="O130" s="33"/>
     </row>
     <row r="131" spans="1:11">
@@ -12633,8 +12581,6 @@
       <c r="F131" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="G131"/>
-      <c r="H131"/>
       <c r="I131" t="s">
         <v>15</v>
       </c>
@@ -12699,8 +12645,6 @@
       <c r="F133" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="G133" s="22"/>
-      <c r="H133" s="22"/>
       <c r="I133" s="22" t="s">
         <v>15</v>
       </c>
@@ -12725,16 +12669,9 @@
       <c r="F134" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="G134"/>
-      <c r="H134"/>
       <c r="I134" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J134"/>
-      <c r="K134"/>
-      <c r="L134"/>
-      <c r="M134"/>
-      <c r="N134"/>
       <c r="O134" s="15"/>
     </row>
     <row r="135" s="22" customFormat="1" spans="1:9">
@@ -12757,8 +12694,6 @@
       <c r="F135" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="G135" s="22"/>
-      <c r="H135" s="22"/>
       <c r="I135" s="22" t="s">
         <v>103</v>
       </c>
@@ -12821,8 +12756,6 @@
       <c r="F137" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="G137"/>
-      <c r="H137"/>
       <c r="I137" t="s">
         <v>15</v>
       </c>
@@ -12953,8 +12886,6 @@
       <c r="F141" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="G141" s="22"/>
-      <c r="H141" s="22"/>
       <c r="I141" s="22" t="s">
         <v>15</v>
       </c>
@@ -12979,16 +12910,9 @@
       <c r="F142" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="G142"/>
-      <c r="H142"/>
       <c r="I142" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J142"/>
-      <c r="K142"/>
-      <c r="L142"/>
-      <c r="M142"/>
-      <c r="N142"/>
       <c r="O142" s="15"/>
     </row>
     <row r="143" s="22" customFormat="1" spans="1:17">
@@ -13045,8 +12969,6 @@
       <c r="F144" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="G144"/>
-      <c r="H144"/>
       <c r="I144" s="15" t="s">
         <v>15</v>
       </c>
@@ -13056,9 +12978,6 @@
       <c r="K144" t="s">
         <v>103</v>
       </c>
-      <c r="L144"/>
-      <c r="M144"/>
-      <c r="N144"/>
       <c r="O144" s="15"/>
     </row>
     <row r="145" spans="1:17">
@@ -13287,16 +13206,9 @@
       <c r="F151" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="G151" s="22"/>
-      <c r="H151" s="22"/>
       <c r="I151" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J151" s="22"/>
-      <c r="K151" s="22"/>
-      <c r="L151" s="22"/>
-      <c r="M151" s="22"/>
-      <c r="N151" s="22"/>
       <c r="O151" s="33"/>
     </row>
     <row r="152" s="22" customFormat="1" spans="1:9">
@@ -13319,8 +13231,6 @@
       <c r="F152" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="G152" s="22"/>
-      <c r="H152" s="22"/>
       <c r="I152" s="22" t="s">
         <v>15</v>
       </c>
@@ -13379,8 +13289,6 @@
       <c r="F154" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="G154" s="22"/>
-      <c r="H154" s="22"/>
       <c r="I154" s="22" t="s">
         <v>103</v>
       </c>
@@ -13439,8 +13347,6 @@
       <c r="F156" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="G156"/>
-      <c r="H156"/>
       <c r="I156" t="s">
         <v>15</v>
       </c>
@@ -13522,16 +13428,9 @@
       <c r="F159" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="G159" s="22"/>
-      <c r="H159" s="22"/>
       <c r="I159" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J159" s="22"/>
-      <c r="K159" s="22"/>
-      <c r="L159" s="22"/>
-      <c r="M159" s="22"/>
-      <c r="N159" s="22"/>
       <c r="O159" s="33"/>
     </row>
     <row r="160" s="22" customFormat="1" spans="1:6">
@@ -13575,16 +13474,9 @@
       <c r="F161" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="G161"/>
-      <c r="H161"/>
       <c r="I161" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J161"/>
-      <c r="K161"/>
-      <c r="L161"/>
-      <c r="M161"/>
-      <c r="N161"/>
       <c r="O161" s="15"/>
     </row>
     <row r="162" spans="1:17">
@@ -13639,16 +13531,9 @@
       <c r="F163" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="G163"/>
-      <c r="H163"/>
       <c r="I163" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J163"/>
-      <c r="K163"/>
-      <c r="L163"/>
-      <c r="M163"/>
-      <c r="N163"/>
       <c r="O163" s="15"/>
     </row>
     <row r="164" spans="1:10">
@@ -13671,8 +13556,6 @@
       <c r="F164" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="G164"/>
-      <c r="H164"/>
       <c r="I164" t="s">
         <v>15</v>
       </c>
@@ -13732,8 +13615,6 @@
       <c r="F166" t="s">
         <v>233</v>
       </c>
-      <c r="G166"/>
-      <c r="H166"/>
       <c r="I166" t="s">
         <v>15</v>
       </c>
@@ -13758,16 +13639,9 @@
       <c r="F167" t="s">
         <v>233</v>
       </c>
-      <c r="G167"/>
-      <c r="H167"/>
       <c r="I167" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J167"/>
-      <c r="K167"/>
-      <c r="L167"/>
-      <c r="M167"/>
-      <c r="N167"/>
       <c r="O167" s="15"/>
     </row>
     <row r="168" spans="1:9">
@@ -13790,8 +13664,6 @@
       <c r="F168" t="s">
         <v>233</v>
       </c>
-      <c r="G168"/>
-      <c r="H168"/>
       <c r="I168" t="s">
         <v>15</v>
       </c>
@@ -13850,16 +13722,9 @@
       <c r="F170" t="s">
         <v>233</v>
       </c>
-      <c r="G170"/>
-      <c r="H170"/>
       <c r="I170" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="J170"/>
-      <c r="K170"/>
-      <c r="L170"/>
-      <c r="M170"/>
-      <c r="N170"/>
       <c r="O170" s="15"/>
     </row>
     <row r="171" spans="1:9">
@@ -13882,8 +13747,6 @@
       <c r="F171" t="s">
         <v>233</v>
       </c>
-      <c r="G171"/>
-      <c r="H171"/>
       <c r="I171" t="s">
         <v>15</v>
       </c>
@@ -14104,8 +13967,6 @@
       <c r="I178" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J178"/>
-      <c r="K178"/>
       <c r="L178" s="22"/>
       <c r="M178" s="22"/>
       <c r="N178" s="22"/>
@@ -14138,8 +13999,6 @@
       <c r="I179" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="J179"/>
-      <c r="K179"/>
       <c r="L179" s="22"/>
       <c r="M179" s="22"/>
       <c r="N179" s="22"/>
@@ -14172,8 +14031,6 @@
       <c r="I180" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J180"/>
-      <c r="K180"/>
       <c r="L180" s="22"/>
       <c r="M180" s="22"/>
       <c r="N180" s="22"/>
@@ -14204,8 +14061,6 @@
       <c r="G181" s="22"/>
       <c r="H181" s="22"/>
       <c r="I181" s="22"/>
-      <c r="J181"/>
-      <c r="K181"/>
       <c r="L181" s="22"/>
       <c r="M181" s="22"/>
       <c r="N181" s="22"/>
@@ -14236,8 +14091,6 @@
       <c r="G182" s="22"/>
       <c r="H182" s="22"/>
       <c r="I182" s="33"/>
-      <c r="J182"/>
-      <c r="K182"/>
       <c r="L182" s="22"/>
       <c r="M182" s="22"/>
       <c r="N182" s="22"/>
@@ -14265,14 +14118,9 @@
       <c r="F183" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="G183" s="22"/>
-      <c r="H183" s="22"/>
       <c r="I183" s="33"/>
       <c r="J183"/>
       <c r="K183"/>
-      <c r="L183" s="22"/>
-      <c r="M183" s="22"/>
-      <c r="N183" s="22"/>
       <c r="O183" s="33"/>
     </row>
     <row r="184" spans="1:17">
@@ -14298,8 +14146,6 @@
       <c r="G184" s="22"/>
       <c r="H184" s="22"/>
       <c r="I184" s="22"/>
-      <c r="J184"/>
-      <c r="K184"/>
       <c r="L184" s="22"/>
       <c r="M184" s="22"/>
       <c r="N184" s="22"/>
@@ -14327,8 +14173,6 @@
       <c r="F185" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="G185" s="22"/>
-      <c r="H185" s="22"/>
       <c r="I185" s="33"/>
       <c r="J185" t="s">
         <v>569</v>
@@ -14360,16 +14204,9 @@
       <c r="F186" s="22" t="s">
         <v>573</v>
       </c>
-      <c r="G186" s="22"/>
-      <c r="H186" s="22"/>
       <c r="I186" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J186" s="22"/>
-      <c r="K186" s="22"/>
-      <c r="L186" s="22"/>
-      <c r="M186" s="22"/>
-      <c r="N186" s="22"/>
       <c r="O186" s="33"/>
     </row>
     <row r="187" spans="1:17">
@@ -14418,9 +14255,6 @@
       </c>
       <c r="D188"/>
       <c r="E188"/>
-      <c r="F188"/>
-      <c r="G188"/>
-      <c r="H188"/>
       <c r="I188" t="s">
         <v>15</v>
       </c>
@@ -14437,9 +14271,6 @@
       </c>
       <c r="D189"/>
       <c r="E189"/>
-      <c r="F189"/>
-      <c r="G189"/>
-      <c r="H189"/>
       <c r="I189" t="s">
         <v>15</v>
       </c>
@@ -14456,17 +14287,9 @@
       </c>
       <c r="D190"/>
       <c r="E190"/>
-      <c r="F190"/>
-      <c r="G190"/>
-      <c r="H190"/>
       <c r="I190" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J190"/>
-      <c r="K190"/>
-      <c r="L190"/>
-      <c r="M190"/>
-      <c r="N190"/>
       <c r="O190" s="15"/>
     </row>
     <row r="191" spans="1:9">
@@ -14481,9 +14304,6 @@
       </c>
       <c r="D191"/>
       <c r="E191"/>
-      <c r="F191"/>
-      <c r="G191"/>
-      <c r="H191"/>
       <c r="I191" t="s">
         <v>15</v>
       </c>
@@ -14500,17 +14320,9 @@
       </c>
       <c r="D192"/>
       <c r="E192"/>
-      <c r="F192"/>
-      <c r="G192"/>
-      <c r="H192"/>
       <c r="I192" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J192"/>
-      <c r="K192"/>
-      <c r="L192"/>
-      <c r="M192"/>
-      <c r="N192"/>
       <c r="O192" s="15"/>
     </row>
     <row r="193" spans="1:9">
@@ -14525,9 +14337,6 @@
       </c>
       <c r="D193"/>
       <c r="E193"/>
-      <c r="F193"/>
-      <c r="G193"/>
-      <c r="H193"/>
       <c r="I193" t="s">
         <v>15</v>
       </c>
@@ -14544,17 +14353,9 @@
       </c>
       <c r="D194"/>
       <c r="E194"/>
-      <c r="F194"/>
-      <c r="G194"/>
-      <c r="H194"/>
       <c r="I194" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J194"/>
-      <c r="K194"/>
-      <c r="L194"/>
-      <c r="M194"/>
-      <c r="N194"/>
       <c r="O194" s="15"/>
     </row>
     <row r="195" s="22" customFormat="1" spans="1:17">
@@ -14650,9 +14451,6 @@
       </c>
       <c r="D198"/>
       <c r="E198"/>
-      <c r="F198"/>
-      <c r="G198"/>
-      <c r="H198"/>
       <c r="I198" t="s">
         <v>15</v>
       </c>
@@ -14669,17 +14467,9 @@
       </c>
       <c r="D199"/>
       <c r="E199"/>
-      <c r="F199"/>
-      <c r="G199"/>
-      <c r="H199"/>
       <c r="I199" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J199"/>
-      <c r="K199"/>
-      <c r="L199"/>
-      <c r="M199"/>
-      <c r="N199"/>
       <c r="O199" s="15"/>
     </row>
     <row r="200" s="22" customFormat="1" spans="1:17">
@@ -14721,9 +14511,6 @@
       </c>
       <c r="D201"/>
       <c r="E201"/>
-      <c r="F201"/>
-      <c r="G201"/>
-      <c r="H201"/>
       <c r="I201" t="s">
         <v>15</v>
       </c>
@@ -14732,27 +14519,15 @@
       <c r="A202">
         <v>25</v>
       </c>
-      <c r="B202"/>
-      <c r="C202"/>
       <c r="D202"/>
       <c r="E202"/>
-      <c r="F202"/>
-      <c r="G202"/>
-      <c r="H202"/>
       <c r="I202" s="15"/>
-      <c r="J202"/>
-      <c r="K202"/>
-      <c r="L202"/>
-      <c r="M202"/>
-      <c r="N202"/>
       <c r="O202" s="15"/>
     </row>
     <row r="203" spans="1:5">
       <c r="A203">
         <v>26</v>
       </c>
-      <c r="B203"/>
-      <c r="C203"/>
       <c r="D203"/>
       <c r="E203"/>
     </row>
@@ -14763,18 +14538,9 @@
       <c r="B204" t="s">
         <v>605</v>
       </c>
-      <c r="C204"/>
       <c r="D204"/>
       <c r="E204"/>
-      <c r="F204"/>
-      <c r="G204"/>
-      <c r="H204"/>
       <c r="I204" s="15"/>
-      <c r="J204"/>
-      <c r="K204"/>
-      <c r="L204"/>
-      <c r="M204"/>
-      <c r="N204"/>
       <c r="O204" s="15"/>
     </row>
     <row r="205" spans="1:5">
@@ -14784,7 +14550,6 @@
       <c r="B205" t="s">
         <v>606</v>
       </c>
-      <c r="C205"/>
       <c r="D205"/>
       <c r="E205"/>
     </row>
@@ -14827,9 +14592,6 @@
       </c>
       <c r="D207"/>
       <c r="E207"/>
-      <c r="F207"/>
-      <c r="G207"/>
-      <c r="H207"/>
       <c r="I207" t="s">
         <v>15</v>
       </c>
@@ -14846,17 +14608,9 @@
       </c>
       <c r="D208"/>
       <c r="E208"/>
-      <c r="F208"/>
-      <c r="G208"/>
-      <c r="H208"/>
       <c r="I208" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J208"/>
-      <c r="K208"/>
-      <c r="L208"/>
-      <c r="M208"/>
-      <c r="N208"/>
       <c r="O208" s="15"/>
     </row>
     <row r="209" spans="1:9">
@@ -14871,9 +14625,6 @@
       </c>
       <c r="D209"/>
       <c r="E209"/>
-      <c r="F209"/>
-      <c r="G209"/>
-      <c r="H209"/>
       <c r="I209" t="s">
         <v>15</v>
       </c>
@@ -14890,17 +14641,9 @@
       </c>
       <c r="D210"/>
       <c r="E210"/>
-      <c r="F210"/>
-      <c r="G210"/>
-      <c r="H210"/>
       <c r="I210" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J210"/>
-      <c r="K210"/>
-      <c r="L210"/>
-      <c r="M210"/>
-      <c r="N210"/>
       <c r="O210" s="15"/>
     </row>
     <row r="211" spans="1:9">
@@ -14915,9 +14658,6 @@
       </c>
       <c r="D211"/>
       <c r="E211"/>
-      <c r="F211"/>
-      <c r="G211"/>
-      <c r="H211"/>
       <c r="I211" t="s">
         <v>15</v>
       </c>
@@ -14934,9 +14674,6 @@
       </c>
       <c r="D212"/>
       <c r="E212"/>
-      <c r="F212"/>
-      <c r="G212"/>
-      <c r="H212"/>
       <c r="I212" t="s">
         <v>15</v>
       </c>
@@ -14953,17 +14690,9 @@
       </c>
       <c r="D213"/>
       <c r="E213"/>
-      <c r="F213"/>
-      <c r="G213"/>
-      <c r="H213"/>
       <c r="I213" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J213"/>
-      <c r="K213"/>
-      <c r="L213"/>
-      <c r="M213"/>
-      <c r="N213"/>
       <c r="O213" s="15"/>
     </row>
     <row r="214" spans="1:9">
@@ -14978,9 +14707,6 @@
       </c>
       <c r="D214"/>
       <c r="E214"/>
-      <c r="F214"/>
-      <c r="G214"/>
-      <c r="H214"/>
       <c r="I214" t="s">
         <v>15</v>
       </c>
@@ -15078,9 +14804,6 @@
       <c r="K218" t="s">
         <v>103</v>
       </c>
-      <c r="L218"/>
-      <c r="M218"/>
-      <c r="N218"/>
       <c r="O218" s="15"/>
     </row>
     <row r="219" spans="1:9">
@@ -15180,11 +14903,6 @@
       <c r="I222" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J222"/>
-      <c r="K222"/>
-      <c r="L222"/>
-      <c r="M222"/>
-      <c r="N222"/>
       <c r="O222" s="15"/>
     </row>
     <row r="223" spans="1:9">
@@ -15279,9 +14997,6 @@
       <c r="K226" t="s">
         <v>103</v>
       </c>
-      <c r="L226"/>
-      <c r="M226"/>
-      <c r="N226"/>
       <c r="O226" s="15"/>
     </row>
     <row r="227" spans="1:9">
@@ -15321,11 +15036,6 @@
       <c r="I228" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J228"/>
-      <c r="K228"/>
-      <c r="L228"/>
-      <c r="M228"/>
-      <c r="N228"/>
       <c r="O228" s="15"/>
     </row>
     <row r="229" spans="1:9">
@@ -15365,11 +15075,6 @@
       <c r="I230" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J230"/>
-      <c r="K230"/>
-      <c r="L230"/>
-      <c r="M230"/>
-      <c r="N230"/>
       <c r="O230" s="15"/>
     </row>
     <row r="231" spans="1:11">
@@ -15415,11 +15120,6 @@
       <c r="I232" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J232"/>
-      <c r="K232"/>
-      <c r="L232"/>
-      <c r="M232"/>
-      <c r="N232"/>
       <c r="O232" s="15"/>
     </row>
     <row r="233" spans="1:9">
@@ -15459,11 +15159,6 @@
       <c r="I234" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J234"/>
-      <c r="K234"/>
-      <c r="L234"/>
-      <c r="M234"/>
-      <c r="N234"/>
       <c r="O234" s="15"/>
     </row>
     <row r="235" spans="1:9">
@@ -15556,11 +15251,6 @@
       <c r="I238" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="J238"/>
-      <c r="K238"/>
-      <c r="L238"/>
-      <c r="M238"/>
-      <c r="N238"/>
       <c r="O238" s="15"/>
     </row>
     <row r="239" spans="1:9">
@@ -15575,9 +15265,6 @@
       </c>
       <c r="D239"/>
       <c r="E239" s="23"/>
-      <c r="F239"/>
-      <c r="G239"/>
-      <c r="H239"/>
       <c r="I239" t="s">
         <v>15</v>
       </c>
@@ -15594,17 +15281,9 @@
       </c>
       <c r="D240"/>
       <c r="E240" s="23"/>
-      <c r="F240"/>
-      <c r="G240"/>
-      <c r="H240"/>
       <c r="I240" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J240"/>
-      <c r="K240"/>
-      <c r="L240"/>
-      <c r="M240"/>
-      <c r="N240"/>
       <c r="O240" s="15"/>
     </row>
     <row r="241" spans="1:9">
@@ -15619,9 +15298,6 @@
       </c>
       <c r="D241"/>
       <c r="E241"/>
-      <c r="F241"/>
-      <c r="G241"/>
-      <c r="H241"/>
       <c r="I241" t="s">
         <v>15</v>
       </c>
@@ -15638,17 +15314,9 @@
       </c>
       <c r="D242"/>
       <c r="E242"/>
-      <c r="F242"/>
-      <c r="G242"/>
-      <c r="H242"/>
       <c r="I242" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J242"/>
-      <c r="K242"/>
-      <c r="L242"/>
-      <c r="M242"/>
-      <c r="N242"/>
       <c r="O242" s="15"/>
     </row>
     <row r="243" spans="1:9">
@@ -15663,9 +15331,6 @@
       </c>
       <c r="D243"/>
       <c r="E243"/>
-      <c r="F243"/>
-      <c r="G243"/>
-      <c r="H243"/>
       <c r="I243" t="s">
         <v>15</v>
       </c>
@@ -15682,17 +15347,9 @@
       </c>
       <c r="D244"/>
       <c r="E244"/>
-      <c r="F244"/>
-      <c r="G244"/>
-      <c r="H244"/>
       <c r="I244" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J244"/>
-      <c r="K244"/>
-      <c r="L244"/>
-      <c r="M244"/>
-      <c r="N244"/>
       <c r="O244" s="15"/>
     </row>
     <row r="245" spans="1:9">
@@ -15707,9 +15364,6 @@
       </c>
       <c r="D245"/>
       <c r="E245"/>
-      <c r="F245"/>
-      <c r="G245"/>
-      <c r="H245"/>
       <c r="I245" t="s">
         <v>15</v>
       </c>
@@ -15726,17 +15380,9 @@
       </c>
       <c r="D246"/>
       <c r="E246"/>
-      <c r="F246"/>
-      <c r="G246"/>
-      <c r="H246"/>
       <c r="I246" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J246"/>
-      <c r="K246"/>
-      <c r="L246"/>
-      <c r="M246"/>
-      <c r="N246"/>
       <c r="O246" s="15"/>
     </row>
     <row r="247" spans="1:15">
@@ -15751,17 +15397,9 @@
       </c>
       <c r="D247"/>
       <c r="E247"/>
-      <c r="F247"/>
-      <c r="G247"/>
-      <c r="H247"/>
       <c r="I247" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J247"/>
-      <c r="K247"/>
-      <c r="L247"/>
-      <c r="M247"/>
-      <c r="N247"/>
       <c r="O247" s="15"/>
     </row>
     <row r="248" spans="1:9">
@@ -15776,9 +15414,6 @@
       </c>
       <c r="D248"/>
       <c r="E248"/>
-      <c r="F248"/>
-      <c r="G248"/>
-      <c r="H248"/>
       <c r="I248" t="s">
         <v>15</v>
       </c>
@@ -15795,17 +15430,9 @@
       </c>
       <c r="D249"/>
       <c r="E249"/>
-      <c r="F249"/>
-      <c r="G249"/>
-      <c r="H249"/>
       <c r="I249" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J249"/>
-      <c r="K249"/>
-      <c r="L249"/>
-      <c r="M249"/>
-      <c r="N249"/>
       <c r="O249" s="15"/>
     </row>
     <row r="250" spans="1:9">
@@ -15883,11 +15510,6 @@
       <c r="I253" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J253"/>
-      <c r="K253"/>
-      <c r="L253"/>
-      <c r="M253"/>
-      <c r="N253"/>
       <c r="O253" s="15"/>
     </row>
     <row r="254" spans="1:15">
@@ -15940,17 +15562,9 @@
       </c>
       <c r="D256"/>
       <c r="E256"/>
-      <c r="F256"/>
-      <c r="G256"/>
-      <c r="H256"/>
       <c r="I256" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J256"/>
-      <c r="K256"/>
-      <c r="L256"/>
-      <c r="M256"/>
-      <c r="N256"/>
       <c r="O256" s="15"/>
     </row>
     <row r="257" spans="1:15">
@@ -15965,17 +15579,9 @@
       </c>
       <c r="D257"/>
       <c r="E257"/>
-      <c r="F257"/>
-      <c r="G257"/>
-      <c r="H257"/>
       <c r="I257" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J257"/>
-      <c r="K257"/>
-      <c r="L257"/>
-      <c r="M257"/>
-      <c r="N257"/>
       <c r="O257" s="15"/>
     </row>
     <row r="258" spans="1:9">
@@ -16454,17 +16060,9 @@
       </c>
       <c r="D283"/>
       <c r="E283"/>
-      <c r="F283"/>
-      <c r="G283"/>
-      <c r="H283"/>
       <c r="I283" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J283"/>
-      <c r="K283"/>
-      <c r="L283"/>
-      <c r="M283"/>
-      <c r="N283"/>
       <c r="O283" s="15"/>
     </row>
     <row r="284" spans="1:9">
@@ -16479,9 +16077,6 @@
       </c>
       <c r="D284"/>
       <c r="E284"/>
-      <c r="F284"/>
-      <c r="G284"/>
-      <c r="H284"/>
       <c r="I284" t="s">
         <v>15</v>
       </c>
@@ -16498,17 +16093,9 @@
       </c>
       <c r="D285"/>
       <c r="E285"/>
-      <c r="F285"/>
-      <c r="G285"/>
-      <c r="H285"/>
       <c r="I285" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J285"/>
-      <c r="K285"/>
-      <c r="L285"/>
-      <c r="M285"/>
-      <c r="N285"/>
       <c r="O285" s="15"/>
     </row>
     <row r="286" spans="1:9">
@@ -16523,9 +16110,6 @@
       </c>
       <c r="D286"/>
       <c r="E286"/>
-      <c r="F286"/>
-      <c r="G286"/>
-      <c r="H286"/>
       <c r="I286" t="s">
         <v>15</v>
       </c>
@@ -16542,17 +16126,9 @@
       </c>
       <c r="D287"/>
       <c r="E287"/>
-      <c r="F287"/>
-      <c r="G287"/>
-      <c r="H287"/>
       <c r="I287" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J287"/>
-      <c r="K287"/>
-      <c r="L287"/>
-      <c r="M287"/>
-      <c r="N287"/>
       <c r="O287" s="15"/>
     </row>
     <row r="288" spans="1:9">
@@ -16567,9 +16143,6 @@
       </c>
       <c r="D288"/>
       <c r="E288"/>
-      <c r="F288"/>
-      <c r="G288"/>
-      <c r="H288"/>
       <c r="I288" t="s">
         <v>15</v>
       </c>
@@ -16640,17 +16213,9 @@
       </c>
       <c r="D291"/>
       <c r="E291"/>
-      <c r="F291"/>
-      <c r="G291"/>
-      <c r="H291"/>
       <c r="I291" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J291"/>
-      <c r="K291"/>
-      <c r="L291"/>
-      <c r="M291"/>
-      <c r="N291"/>
       <c r="O291" s="15"/>
     </row>
     <row r="292" spans="1:15">
@@ -16665,17 +16230,9 @@
       </c>
       <c r="D292"/>
       <c r="E292"/>
-      <c r="F292"/>
-      <c r="G292"/>
-      <c r="H292"/>
       <c r="I292" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J292"/>
-      <c r="K292"/>
-      <c r="L292"/>
-      <c r="M292"/>
-      <c r="N292"/>
       <c r="O292" s="15"/>
     </row>
     <row r="293" spans="1:9">
@@ -16690,9 +16247,6 @@
       </c>
       <c r="D293"/>
       <c r="E293"/>
-      <c r="F293"/>
-      <c r="G293"/>
-      <c r="H293"/>
       <c r="I293" t="s">
         <v>15</v>
       </c>
@@ -16736,9 +16290,6 @@
       </c>
       <c r="D295"/>
       <c r="E295"/>
-      <c r="F295"/>
-      <c r="G295"/>
-      <c r="H295"/>
       <c r="I295" s="15" t="s">
         <v>15</v>
       </c>
@@ -16748,9 +16299,6 @@
       <c r="K295" t="s">
         <v>103</v>
       </c>
-      <c r="L295"/>
-      <c r="M295"/>
-      <c r="N295"/>
       <c r="O295" s="15"/>
     </row>
     <row r="296" s="22" customFormat="1" spans="1:17">
@@ -16819,9 +16367,6 @@
       </c>
       <c r="D298"/>
       <c r="E298"/>
-      <c r="F298"/>
-      <c r="G298"/>
-      <c r="H298"/>
       <c r="I298" t="s">
         <v>15</v>
       </c>
@@ -16838,9 +16383,6 @@
       </c>
       <c r="D299"/>
       <c r="E299"/>
-      <c r="F299"/>
-      <c r="G299"/>
-      <c r="H299"/>
       <c r="I299" t="s">
         <v>15</v>
       </c>
@@ -16884,9 +16426,6 @@
       </c>
       <c r="D301"/>
       <c r="E301"/>
-      <c r="F301"/>
-      <c r="G301"/>
-      <c r="H301"/>
       <c r="I301" t="s">
         <v>15</v>
       </c>
@@ -16930,9 +16469,6 @@
       </c>
       <c r="D303"/>
       <c r="E303"/>
-      <c r="F303"/>
-      <c r="G303"/>
-      <c r="H303"/>
       <c r="I303" t="s">
         <v>15</v>
       </c>
@@ -16949,17 +16485,9 @@
       </c>
       <c r="D304"/>
       <c r="E304"/>
-      <c r="F304"/>
-      <c r="G304"/>
-      <c r="H304"/>
       <c r="I304" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J304"/>
-      <c r="K304"/>
-      <c r="L304"/>
-      <c r="M304"/>
-      <c r="N304"/>
       <c r="O304" s="15"/>
     </row>
     <row r="305" spans="1:9">
@@ -16974,9 +16502,6 @@
       </c>
       <c r="D305"/>
       <c r="E305"/>
-      <c r="F305"/>
-      <c r="G305"/>
-      <c r="H305"/>
       <c r="I305" t="s">
         <v>15</v>
       </c>
@@ -17020,9 +16545,6 @@
       </c>
       <c r="D307"/>
       <c r="E307"/>
-      <c r="F307"/>
-      <c r="G307"/>
-      <c r="H307"/>
       <c r="I307" t="s">
         <v>15</v>
       </c>
@@ -17039,17 +16561,9 @@
       </c>
       <c r="D308"/>
       <c r="E308"/>
-      <c r="F308"/>
-      <c r="G308"/>
-      <c r="H308"/>
       <c r="I308" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J308"/>
-      <c r="K308"/>
-      <c r="L308"/>
-      <c r="M308"/>
-      <c r="N308"/>
       <c r="O308" s="15"/>
     </row>
     <row r="309" spans="1:9">
@@ -17064,9 +16578,6 @@
       </c>
       <c r="D309"/>
       <c r="E309"/>
-      <c r="F309"/>
-      <c r="G309"/>
-      <c r="H309"/>
       <c r="I309" t="s">
         <v>15</v>
       </c>
@@ -17110,9 +16621,6 @@
       </c>
       <c r="D311"/>
       <c r="E311"/>
-      <c r="F311"/>
-      <c r="G311"/>
-      <c r="H311"/>
       <c r="I311" t="s">
         <v>15</v>
       </c>
@@ -17129,17 +16637,9 @@
       </c>
       <c r="D312"/>
       <c r="E312"/>
-      <c r="F312"/>
-      <c r="G312"/>
-      <c r="H312"/>
       <c r="I312" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J312"/>
-      <c r="K312"/>
-      <c r="L312"/>
-      <c r="M312"/>
-      <c r="N312"/>
       <c r="O312" s="15"/>
     </row>
     <row r="313" spans="1:9">
@@ -17154,9 +16654,6 @@
       </c>
       <c r="D313"/>
       <c r="E313"/>
-      <c r="F313"/>
-      <c r="G313"/>
-      <c r="H313"/>
       <c r="I313" t="s">
         <v>15</v>
       </c>
@@ -17173,9 +16670,6 @@
       </c>
       <c r="D314"/>
       <c r="E314"/>
-      <c r="F314"/>
-      <c r="G314"/>
-      <c r="H314"/>
       <c r="I314" t="s">
         <v>15</v>
       </c>
@@ -17192,17 +16686,9 @@
       </c>
       <c r="D315"/>
       <c r="E315"/>
-      <c r="F315"/>
-      <c r="G315"/>
-      <c r="H315"/>
       <c r="I315" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J315"/>
-      <c r="K315"/>
-      <c r="L315"/>
-      <c r="M315"/>
-      <c r="N315"/>
       <c r="O315" s="15"/>
     </row>
     <row r="316" spans="1:9">
@@ -17217,9 +16703,6 @@
       </c>
       <c r="D316"/>
       <c r="E316"/>
-      <c r="F316"/>
-      <c r="G316"/>
-      <c r="H316"/>
       <c r="I316" t="s">
         <v>15</v>
       </c>
@@ -17236,17 +16719,9 @@
       </c>
       <c r="D317"/>
       <c r="E317"/>
-      <c r="F317"/>
-      <c r="G317"/>
-      <c r="H317"/>
       <c r="I317" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J317"/>
-      <c r="K317"/>
-      <c r="L317"/>
-      <c r="M317"/>
-      <c r="N317"/>
       <c r="O317" s="15"/>
     </row>
     <row r="318" spans="1:9">
@@ -17261,9 +16736,6 @@
       </c>
       <c r="D318"/>
       <c r="E318"/>
-      <c r="F318"/>
-      <c r="G318"/>
-      <c r="H318"/>
       <c r="I318" t="s">
         <v>15</v>
       </c>
@@ -17280,17 +16752,9 @@
       </c>
       <c r="D319"/>
       <c r="E319"/>
-      <c r="F319"/>
-      <c r="G319"/>
-      <c r="H319"/>
       <c r="I319" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J319"/>
-      <c r="K319"/>
-      <c r="L319"/>
-      <c r="M319"/>
-      <c r="N319"/>
       <c r="O319" s="15"/>
     </row>
     <row r="320" spans="1:9">
@@ -17305,9 +16769,6 @@
       </c>
       <c r="D320"/>
       <c r="E320"/>
-      <c r="F320"/>
-      <c r="G320"/>
-      <c r="H320"/>
       <c r="I320" t="s">
         <v>15</v>
       </c>
@@ -17324,17 +16785,9 @@
       </c>
       <c r="D321"/>
       <c r="E321"/>
-      <c r="F321"/>
-      <c r="G321"/>
-      <c r="H321"/>
       <c r="I321" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J321"/>
-      <c r="K321"/>
-      <c r="L321"/>
-      <c r="M321"/>
-      <c r="N321"/>
       <c r="O321" s="15"/>
     </row>
     <row r="322" spans="1:9">
@@ -17349,9 +16802,6 @@
       </c>
       <c r="D322"/>
       <c r="E322"/>
-      <c r="F322"/>
-      <c r="G322"/>
-      <c r="H322"/>
       <c r="I322" t="s">
         <v>15</v>
       </c>
@@ -17368,17 +16818,9 @@
       </c>
       <c r="D323"/>
       <c r="E323"/>
-      <c r="F323"/>
-      <c r="G323"/>
-      <c r="H323"/>
       <c r="I323" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J323"/>
-      <c r="K323"/>
-      <c r="L323"/>
-      <c r="M323"/>
-      <c r="N323"/>
       <c r="O323" s="15"/>
     </row>
     <row r="324" spans="1:9">
@@ -17393,9 +16835,6 @@
       </c>
       <c r="D324"/>
       <c r="E324"/>
-      <c r="F324"/>
-      <c r="G324"/>
-      <c r="H324"/>
       <c r="I324" t="s">
         <v>15</v>
       </c>
@@ -17412,17 +16851,9 @@
       </c>
       <c r="D325"/>
       <c r="E325"/>
-      <c r="F325"/>
-      <c r="G325"/>
-      <c r="H325"/>
       <c r="I325" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J325"/>
-      <c r="K325"/>
-      <c r="L325"/>
-      <c r="M325"/>
-      <c r="N325"/>
       <c r="O325" s="15"/>
     </row>
     <row r="326" spans="1:9">
@@ -17437,9 +16868,6 @@
       </c>
       <c r="D326"/>
       <c r="E326"/>
-      <c r="F326"/>
-      <c r="G326"/>
-      <c r="H326"/>
       <c r="I326" t="s">
         <v>15</v>
       </c>
@@ -17456,17 +16884,9 @@
       </c>
       <c r="D327"/>
       <c r="E327"/>
-      <c r="F327"/>
-      <c r="G327"/>
-      <c r="H327"/>
       <c r="I327" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J327"/>
-      <c r="K327"/>
-      <c r="L327"/>
-      <c r="M327"/>
-      <c r="N327"/>
       <c r="O327" s="15"/>
     </row>
     <row r="328" spans="1:9">
@@ -17481,9 +16901,6 @@
       </c>
       <c r="D328"/>
       <c r="E328"/>
-      <c r="F328"/>
-      <c r="G328"/>
-      <c r="H328"/>
       <c r="I328" t="s">
         <v>15</v>
       </c>
@@ -17500,17 +16917,9 @@
       </c>
       <c r="D329"/>
       <c r="E329"/>
-      <c r="F329"/>
-      <c r="G329"/>
-      <c r="H329"/>
       <c r="I329" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J329"/>
-      <c r="K329"/>
-      <c r="L329"/>
-      <c r="M329"/>
-      <c r="N329"/>
       <c r="O329" s="15"/>
     </row>
     <row r="330" spans="1:9">
@@ -17525,9 +16934,6 @@
       </c>
       <c r="D330"/>
       <c r="E330"/>
-      <c r="F330"/>
-      <c r="G330"/>
-      <c r="H330"/>
       <c r="I330" t="s">
         <v>15</v>
       </c>
@@ -17544,17 +16950,9 @@
       </c>
       <c r="D331"/>
       <c r="E331"/>
-      <c r="F331"/>
-      <c r="G331"/>
-      <c r="H331"/>
       <c r="I331" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J331"/>
-      <c r="K331"/>
-      <c r="L331"/>
-      <c r="M331"/>
-      <c r="N331"/>
       <c r="O331" s="15"/>
     </row>
     <row r="332" spans="1:9">
@@ -17569,9 +16967,6 @@
       </c>
       <c r="D332"/>
       <c r="E332"/>
-      <c r="F332"/>
-      <c r="G332"/>
-      <c r="H332"/>
       <c r="I332" t="s">
         <v>15</v>
       </c>
@@ -17657,9 +17052,6 @@
       </c>
       <c r="D336"/>
       <c r="E336"/>
-      <c r="F336"/>
-      <c r="G336"/>
-      <c r="H336"/>
       <c r="I336" t="s">
         <v>15</v>
       </c>
@@ -17749,9 +17141,6 @@
       </c>
       <c r="D342"/>
       <c r="E342"/>
-      <c r="F342"/>
-      <c r="G342"/>
-      <c r="H342"/>
       <c r="I342" t="s">
         <v>15</v>
       </c>
@@ -17768,17 +17157,9 @@
       </c>
       <c r="D343"/>
       <c r="E343"/>
-      <c r="F343"/>
-      <c r="G343"/>
-      <c r="H343"/>
       <c r="I343" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J343"/>
-      <c r="K343"/>
-      <c r="L343"/>
-      <c r="M343"/>
-      <c r="N343"/>
       <c r="O343" s="15"/>
     </row>
     <row r="344" spans="1:9">
@@ -17793,9 +17174,6 @@
       </c>
       <c r="D344"/>
       <c r="E344"/>
-      <c r="F344"/>
-      <c r="G344"/>
-      <c r="H344"/>
       <c r="I344" t="s">
         <v>15</v>
       </c>
@@ -17812,17 +17190,9 @@
       </c>
       <c r="D345"/>
       <c r="E345"/>
-      <c r="F345"/>
-      <c r="G345"/>
-      <c r="H345"/>
       <c r="I345" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J345"/>
-      <c r="K345"/>
-      <c r="L345"/>
-      <c r="M345"/>
-      <c r="N345"/>
       <c r="O345" s="15"/>
     </row>
     <row r="346" spans="1:9">
@@ -17837,9 +17207,6 @@
       </c>
       <c r="D346"/>
       <c r="E346"/>
-      <c r="F346"/>
-      <c r="G346"/>
-      <c r="H346"/>
       <c r="I346" t="s">
         <v>15</v>
       </c>
@@ -17856,17 +17223,9 @@
       </c>
       <c r="D347"/>
       <c r="E347"/>
-      <c r="F347"/>
-      <c r="G347"/>
-      <c r="H347"/>
       <c r="I347" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J347"/>
-      <c r="K347"/>
-      <c r="L347"/>
-      <c r="M347"/>
-      <c r="N347"/>
       <c r="O347" s="15"/>
     </row>
     <row r="348" spans="1:9">
@@ -17881,9 +17240,6 @@
       </c>
       <c r="D348"/>
       <c r="E348"/>
-      <c r="F348"/>
-      <c r="G348"/>
-      <c r="H348"/>
       <c r="I348" t="s">
         <v>15</v>
       </c>
@@ -17900,17 +17256,9 @@
       </c>
       <c r="D349"/>
       <c r="E349"/>
-      <c r="F349"/>
-      <c r="G349"/>
-      <c r="H349"/>
       <c r="I349" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J349"/>
-      <c r="K349"/>
-      <c r="L349"/>
-      <c r="M349"/>
-      <c r="N349"/>
       <c r="O349" s="15"/>
     </row>
     <row r="350" s="22" customFormat="1" spans="1:17">
@@ -17952,17 +17300,9 @@
       </c>
       <c r="D351"/>
       <c r="E351"/>
-      <c r="F351"/>
-      <c r="G351"/>
-      <c r="H351"/>
       <c r="I351" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J351"/>
-      <c r="K351"/>
-      <c r="L351"/>
-      <c r="M351"/>
-      <c r="N351"/>
       <c r="O351" s="15"/>
     </row>
     <row r="352" spans="1:9">
@@ -17977,9 +17317,6 @@
       </c>
       <c r="D352"/>
       <c r="E352"/>
-      <c r="F352"/>
-      <c r="G352"/>
-      <c r="H352"/>
       <c r="I352" t="s">
         <v>15</v>
       </c>
@@ -17996,17 +17333,9 @@
       </c>
       <c r="D353"/>
       <c r="E353"/>
-      <c r="F353"/>
-      <c r="G353"/>
-      <c r="H353"/>
       <c r="I353" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J353"/>
-      <c r="K353"/>
-      <c r="L353"/>
-      <c r="M353"/>
-      <c r="N353"/>
       <c r="O353" s="15"/>
     </row>
     <row r="354" spans="1:9">
@@ -18021,9 +17350,6 @@
       </c>
       <c r="D354"/>
       <c r="E354"/>
-      <c r="F354"/>
-      <c r="G354"/>
-      <c r="H354"/>
       <c r="I354" t="s">
         <v>15</v>
       </c>
@@ -18148,17 +17474,9 @@
       </c>
       <c r="D359"/>
       <c r="E359"/>
-      <c r="F359"/>
-      <c r="G359"/>
-      <c r="H359"/>
       <c r="I359" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J359"/>
-      <c r="K359"/>
-      <c r="L359"/>
-      <c r="M359"/>
-      <c r="N359"/>
       <c r="O359" s="15"/>
     </row>
     <row r="360" spans="1:9">
@@ -18173,9 +17491,6 @@
       </c>
       <c r="D360"/>
       <c r="E360"/>
-      <c r="F360"/>
-      <c r="G360"/>
-      <c r="H360"/>
       <c r="I360" t="s">
         <v>15</v>
       </c>
@@ -18236,11 +17551,6 @@
       <c r="I363" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J363"/>
-      <c r="K363"/>
-      <c r="L363"/>
-      <c r="M363"/>
-      <c r="N363"/>
       <c r="O363" s="15"/>
     </row>
     <row r="364" spans="1:9">
@@ -18255,9 +17565,6 @@
       </c>
       <c r="D364"/>
       <c r="E364"/>
-      <c r="F364"/>
-      <c r="G364"/>
-      <c r="H364"/>
       <c r="I364" t="s">
         <v>15</v>
       </c>
@@ -18274,17 +17581,9 @@
       </c>
       <c r="D365"/>
       <c r="E365"/>
-      <c r="F365"/>
-      <c r="G365"/>
-      <c r="H365"/>
       <c r="I365" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J365"/>
-      <c r="K365"/>
-      <c r="L365"/>
-      <c r="M365"/>
-      <c r="N365"/>
       <c r="O365" s="15"/>
     </row>
     <row r="366" spans="1:9">
@@ -18299,9 +17598,6 @@
       </c>
       <c r="D366"/>
       <c r="E366"/>
-      <c r="F366"/>
-      <c r="G366"/>
-      <c r="H366"/>
       <c r="I366" t="s">
         <v>15</v>
       </c>
@@ -18372,17 +17668,9 @@
       </c>
       <c r="D369"/>
       <c r="E369"/>
-      <c r="F369"/>
-      <c r="G369"/>
-      <c r="H369"/>
       <c r="I369" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J369"/>
-      <c r="K369"/>
-      <c r="L369"/>
-      <c r="M369"/>
-      <c r="N369"/>
       <c r="O369" s="15"/>
     </row>
     <row r="370" spans="1:9">
@@ -18397,9 +17685,6 @@
       </c>
       <c r="D370"/>
       <c r="E370"/>
-      <c r="F370"/>
-      <c r="G370"/>
-      <c r="H370"/>
       <c r="I370" t="s">
         <v>15</v>
       </c>
@@ -18416,17 +17701,9 @@
       </c>
       <c r="D371"/>
       <c r="E371"/>
-      <c r="F371"/>
-      <c r="G371"/>
-      <c r="H371"/>
       <c r="I371" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J371"/>
-      <c r="K371"/>
-      <c r="L371"/>
-      <c r="M371"/>
-      <c r="N371"/>
       <c r="O371" s="15"/>
     </row>
     <row r="372" spans="1:9">
@@ -18441,9 +17718,6 @@
       </c>
       <c r="D372"/>
       <c r="E372"/>
-      <c r="F372"/>
-      <c r="G372"/>
-      <c r="H372"/>
       <c r="I372" t="s">
         <v>15</v>
       </c>
@@ -18460,9 +17734,6 @@
       </c>
       <c r="D373"/>
       <c r="E373"/>
-      <c r="F373"/>
-      <c r="G373"/>
-      <c r="H373"/>
       <c r="I373" t="s">
         <v>15</v>
       </c>
@@ -18479,17 +17750,9 @@
       </c>
       <c r="D374"/>
       <c r="E374"/>
-      <c r="F374"/>
-      <c r="G374"/>
-      <c r="H374"/>
       <c r="I374" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J374"/>
-      <c r="K374"/>
-      <c r="L374"/>
-      <c r="M374"/>
-      <c r="N374"/>
       <c r="O374" s="15"/>
     </row>
     <row r="375" spans="1:9">
@@ -18504,9 +17767,6 @@
       </c>
       <c r="D375"/>
       <c r="E375"/>
-      <c r="F375"/>
-      <c r="G375"/>
-      <c r="H375"/>
       <c r="I375" t="s">
         <v>15</v>
       </c>
@@ -18523,9 +17783,6 @@
       </c>
       <c r="D376"/>
       <c r="E376"/>
-      <c r="F376"/>
-      <c r="G376"/>
-      <c r="H376"/>
       <c r="I376" t="s">
         <v>15</v>
       </c>
@@ -18542,9 +17799,6 @@
       </c>
       <c r="D377"/>
       <c r="E377"/>
-      <c r="F377"/>
-      <c r="G377"/>
-      <c r="H377"/>
       <c r="I377" t="s">
         <v>15</v>
       </c>
@@ -18561,17 +17815,9 @@
       </c>
       <c r="D378"/>
       <c r="E378"/>
-      <c r="F378"/>
-      <c r="G378"/>
-      <c r="H378"/>
       <c r="I378" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J378"/>
-      <c r="K378"/>
-      <c r="L378"/>
-      <c r="M378"/>
-      <c r="N378"/>
       <c r="O378" s="15"/>
     </row>
     <row r="379" spans="1:9">
@@ -18586,9 +17832,6 @@
       </c>
       <c r="D379"/>
       <c r="E379"/>
-      <c r="F379"/>
-      <c r="G379"/>
-      <c r="H379"/>
       <c r="I379" t="s">
         <v>15</v>
       </c>
@@ -18659,9 +17902,6 @@
       </c>
       <c r="D382"/>
       <c r="E382"/>
-      <c r="F382"/>
-      <c r="G382"/>
-      <c r="H382"/>
       <c r="I382" t="s">
         <v>15</v>
       </c>
@@ -18732,17 +17972,9 @@
       </c>
       <c r="D385"/>
       <c r="E385"/>
-      <c r="F385"/>
-      <c r="G385"/>
-      <c r="H385"/>
       <c r="I385" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J385"/>
-      <c r="K385"/>
-      <c r="L385"/>
-      <c r="M385"/>
-      <c r="N385"/>
       <c r="O385" s="15"/>
     </row>
     <row r="386" spans="1:9">
@@ -18757,9 +17989,6 @@
       </c>
       <c r="D386"/>
       <c r="E386"/>
-      <c r="F386"/>
-      <c r="G386"/>
-      <c r="H386"/>
       <c r="I386" t="s">
         <v>15</v>
       </c>
@@ -18776,17 +18005,9 @@
       </c>
       <c r="D387"/>
       <c r="E387"/>
-      <c r="F387"/>
-      <c r="G387"/>
-      <c r="H387"/>
       <c r="I387" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J387"/>
-      <c r="K387"/>
-      <c r="L387"/>
-      <c r="M387"/>
-      <c r="N387"/>
       <c r="O387" s="15"/>
     </row>
     <row r="388" spans="1:9">
@@ -18801,9 +18022,6 @@
       </c>
       <c r="D388"/>
       <c r="E388"/>
-      <c r="F388"/>
-      <c r="G388"/>
-      <c r="H388"/>
       <c r="I388" t="s">
         <v>15</v>
       </c>
@@ -18820,17 +18038,9 @@
       </c>
       <c r="D389"/>
       <c r="E389"/>
-      <c r="F389"/>
-      <c r="G389"/>
-      <c r="H389"/>
       <c r="I389" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J389"/>
-      <c r="K389"/>
-      <c r="L389"/>
-      <c r="M389"/>
-      <c r="N389"/>
       <c r="O389" s="15"/>
     </row>
     <row r="390" spans="1:9">
@@ -18845,9 +18055,6 @@
       </c>
       <c r="D390"/>
       <c r="E390"/>
-      <c r="F390"/>
-      <c r="G390"/>
-      <c r="H390"/>
       <c r="I390" t="s">
         <v>15</v>
       </c>
@@ -18864,17 +18071,9 @@
       </c>
       <c r="D391"/>
       <c r="E391"/>
-      <c r="F391"/>
-      <c r="G391"/>
-      <c r="H391"/>
       <c r="I391" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J391"/>
-      <c r="K391"/>
-      <c r="L391"/>
-      <c r="M391"/>
-      <c r="N391"/>
       <c r="O391" s="15"/>
     </row>
     <row r="392" spans="1:9">
@@ -18889,9 +18088,6 @@
       </c>
       <c r="D392"/>
       <c r="E392"/>
-      <c r="F392"/>
-      <c r="G392"/>
-      <c r="H392"/>
       <c r="I392" t="s">
         <v>15</v>
       </c>
@@ -18908,17 +18104,9 @@
       </c>
       <c r="D393"/>
       <c r="E393"/>
-      <c r="F393"/>
-      <c r="G393"/>
-      <c r="H393"/>
       <c r="I393" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J393"/>
-      <c r="K393"/>
-      <c r="L393"/>
-      <c r="M393"/>
-      <c r="N393"/>
       <c r="O393" s="15"/>
     </row>
     <row r="394" spans="1:9">
@@ -18933,9 +18121,6 @@
       </c>
       <c r="D394"/>
       <c r="E394"/>
-      <c r="F394"/>
-      <c r="G394"/>
-      <c r="H394"/>
       <c r="I394" t="s">
         <v>15</v>
       </c>
@@ -18952,17 +18137,9 @@
       </c>
       <c r="D395"/>
       <c r="E395"/>
-      <c r="F395"/>
-      <c r="G395"/>
-      <c r="H395"/>
       <c r="I395" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J395"/>
-      <c r="K395"/>
-      <c r="L395"/>
-      <c r="M395"/>
-      <c r="N395"/>
       <c r="O395" s="15"/>
     </row>
     <row r="396" spans="1:9">
@@ -18977,9 +18154,6 @@
       </c>
       <c r="D396"/>
       <c r="E396"/>
-      <c r="F396"/>
-      <c r="G396"/>
-      <c r="H396"/>
       <c r="I396" t="s">
         <v>15</v>
       </c>
@@ -19077,9 +18251,6 @@
       </c>
       <c r="D400"/>
       <c r="E400"/>
-      <c r="F400"/>
-      <c r="G400"/>
-      <c r="H400"/>
       <c r="I400" t="s">
         <v>15</v>
       </c>
@@ -19096,17 +18267,9 @@
       </c>
       <c r="D401"/>
       <c r="E401"/>
-      <c r="F401"/>
-      <c r="G401"/>
-      <c r="H401"/>
       <c r="I401" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J401"/>
-      <c r="K401"/>
-      <c r="L401"/>
-      <c r="M401"/>
-      <c r="N401"/>
       <c r="O401" s="15"/>
     </row>
     <row r="402" spans="1:9">
@@ -19121,9 +18284,6 @@
       </c>
       <c r="D402"/>
       <c r="E402"/>
-      <c r="F402"/>
-      <c r="G402"/>
-      <c r="H402"/>
       <c r="I402" t="s">
         <v>15</v>
       </c>
@@ -19167,9 +18327,6 @@
       </c>
       <c r="D404"/>
       <c r="E404"/>
-      <c r="F404"/>
-      <c r="G404"/>
-      <c r="H404"/>
       <c r="I404" t="s">
         <v>15</v>
       </c>
@@ -19213,9 +18370,6 @@
       </c>
       <c r="D406"/>
       <c r="E406"/>
-      <c r="F406"/>
-      <c r="G406"/>
-      <c r="H406"/>
       <c r="I406" t="s">
         <v>15</v>
       </c>
@@ -19232,17 +18386,9 @@
       </c>
       <c r="D407"/>
       <c r="E407"/>
-      <c r="F407"/>
-      <c r="G407"/>
-      <c r="H407"/>
       <c r="I407" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J407"/>
-      <c r="K407"/>
-      <c r="L407"/>
-      <c r="M407"/>
-      <c r="N407"/>
       <c r="O407" s="15"/>
     </row>
     <row r="408" s="22" customFormat="1" spans="1:17">
@@ -19284,17 +18430,9 @@
       </c>
       <c r="D409"/>
       <c r="E409"/>
-      <c r="F409"/>
-      <c r="G409"/>
-      <c r="H409"/>
       <c r="I409" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J409"/>
-      <c r="K409"/>
-      <c r="L409"/>
-      <c r="M409"/>
-      <c r="N409"/>
       <c r="O409" s="15"/>
     </row>
     <row r="410" spans="1:9">
@@ -19309,9 +18447,6 @@
       </c>
       <c r="D410"/>
       <c r="E410"/>
-      <c r="F410"/>
-      <c r="G410"/>
-      <c r="H410"/>
       <c r="I410" t="s">
         <v>15</v>
       </c>
@@ -19328,17 +18463,9 @@
       </c>
       <c r="D411"/>
       <c r="E411"/>
-      <c r="F411"/>
-      <c r="G411"/>
-      <c r="H411"/>
       <c r="I411" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J411"/>
-      <c r="K411"/>
-      <c r="L411"/>
-      <c r="M411"/>
-      <c r="N411"/>
       <c r="O411" s="15"/>
     </row>
     <row r="412" s="22" customFormat="1" spans="1:17">
@@ -19407,9 +18534,6 @@
       </c>
       <c r="D414"/>
       <c r="E414"/>
-      <c r="F414"/>
-      <c r="G414"/>
-      <c r="H414"/>
       <c r="I414" t="s">
         <v>15</v>
       </c>
@@ -19426,17 +18550,9 @@
       </c>
       <c r="D415"/>
       <c r="E415"/>
-      <c r="F415"/>
-      <c r="G415"/>
-      <c r="H415"/>
       <c r="I415" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J415"/>
-      <c r="K415"/>
-      <c r="L415"/>
-      <c r="M415"/>
-      <c r="N415"/>
       <c r="O415" s="15"/>
     </row>
     <row r="416" spans="1:9">
@@ -19451,9 +18567,6 @@
       </c>
       <c r="D416"/>
       <c r="E416"/>
-      <c r="F416"/>
-      <c r="G416"/>
-      <c r="H416"/>
       <c r="I416" t="s">
         <v>15</v>
       </c>
@@ -19497,9 +18610,6 @@
       </c>
       <c r="D418"/>
       <c r="E418"/>
-      <c r="F418"/>
-      <c r="G418"/>
-      <c r="H418"/>
       <c r="I418" t="s">
         <v>15</v>
       </c>
@@ -19516,9 +18626,6 @@
       </c>
       <c r="D419"/>
       <c r="E419"/>
-      <c r="F419"/>
-      <c r="G419"/>
-      <c r="H419"/>
       <c r="I419" t="s">
         <v>15</v>
       </c>
@@ -19535,17 +18642,9 @@
       </c>
       <c r="D420"/>
       <c r="E420"/>
-      <c r="F420"/>
-      <c r="G420"/>
-      <c r="H420"/>
       <c r="I420" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J420"/>
-      <c r="K420"/>
-      <c r="L420"/>
-      <c r="M420"/>
-      <c r="N420"/>
       <c r="O420" s="15"/>
     </row>
     <row r="421" spans="1:9">
@@ -19560,9 +18659,6 @@
       </c>
       <c r="D421"/>
       <c r="E421"/>
-      <c r="F421"/>
-      <c r="G421"/>
-      <c r="H421"/>
       <c r="I421" t="s">
         <v>15</v>
       </c>
@@ -19579,17 +18675,9 @@
       </c>
       <c r="D422"/>
       <c r="E422"/>
-      <c r="F422"/>
-      <c r="G422"/>
-      <c r="H422"/>
       <c r="I422" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J422"/>
-      <c r="K422"/>
-      <c r="L422"/>
-      <c r="M422"/>
-      <c r="N422"/>
       <c r="O422" s="15"/>
     </row>
     <row r="423" spans="1:9">
@@ -19604,9 +18692,6 @@
       </c>
       <c r="D423"/>
       <c r="E423"/>
-      <c r="F423"/>
-      <c r="G423"/>
-      <c r="H423"/>
       <c r="I423" t="s">
         <v>15</v>
       </c>
@@ -19623,9 +18708,6 @@
       </c>
       <c r="D424"/>
       <c r="E424"/>
-      <c r="F424"/>
-      <c r="G424"/>
-      <c r="H424"/>
       <c r="I424" s="15" t="s">
         <v>15</v>
       </c>
@@ -19635,9 +18717,6 @@
       <c r="K424" t="s">
         <v>103</v>
       </c>
-      <c r="L424"/>
-      <c r="M424"/>
-      <c r="N424"/>
       <c r="O424" s="15"/>
     </row>
     <row r="425" spans="1:9">
@@ -19652,9 +18731,6 @@
       </c>
       <c r="D425"/>
       <c r="E425" s="22"/>
-      <c r="F425"/>
-      <c r="G425"/>
-      <c r="H425"/>
       <c r="I425" t="s">
         <v>15</v>
       </c>
@@ -19671,17 +18747,9 @@
       </c>
       <c r="D426"/>
       <c r="E426" s="22"/>
-      <c r="F426"/>
-      <c r="G426"/>
-      <c r="H426"/>
       <c r="I426" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J426"/>
-      <c r="K426"/>
-      <c r="L426"/>
-      <c r="M426"/>
-      <c r="N426"/>
       <c r="O426" s="15"/>
     </row>
     <row r="427" s="22" customFormat="1" spans="1:17">
@@ -19695,7 +18763,6 @@
         <v>1051</v>
       </c>
       <c r="D427"/>
-      <c r="E427" s="22"/>
       <c r="F427"/>
       <c r="G427"/>
       <c r="H427"/>
@@ -19723,17 +18790,9 @@
       </c>
       <c r="D428"/>
       <c r="E428" s="22"/>
-      <c r="F428"/>
-      <c r="G428"/>
-      <c r="H428"/>
       <c r="I428" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J428"/>
-      <c r="K428"/>
-      <c r="L428"/>
-      <c r="M428"/>
-      <c r="N428"/>
       <c r="O428" s="15"/>
     </row>
     <row r="429" spans="1:9">
@@ -19762,7 +18821,6 @@
         <v>1057</v>
       </c>
       <c r="D430"/>
-      <c r="E430" s="22"/>
       <c r="F430"/>
       <c r="G430"/>
       <c r="H430"/>
@@ -19789,7 +18847,6 @@
         <v>1059</v>
       </c>
       <c r="D431"/>
-      <c r="E431" s="22"/>
       <c r="F431"/>
       <c r="G431"/>
       <c r="H431"/>
@@ -19817,17 +18874,9 @@
       </c>
       <c r="D432"/>
       <c r="E432" s="22"/>
-      <c r="F432"/>
-      <c r="G432"/>
-      <c r="H432"/>
       <c r="I432" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J432"/>
-      <c r="K432"/>
-      <c r="L432"/>
-      <c r="M432"/>
-      <c r="N432"/>
       <c r="O432" s="15"/>
     </row>
     <row r="433" s="22" customFormat="1" spans="1:17">
@@ -19841,7 +18890,6 @@
         <v>1063</v>
       </c>
       <c r="D433"/>
-      <c r="E433" s="22"/>
       <c r="F433"/>
       <c r="G433"/>
       <c r="H433"/>
@@ -19869,17 +18917,9 @@
       </c>
       <c r="D434"/>
       <c r="E434" s="22"/>
-      <c r="F434"/>
-      <c r="G434"/>
-      <c r="H434"/>
       <c r="I434" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="J434"/>
-      <c r="K434"/>
-      <c r="L434"/>
-      <c r="M434"/>
-      <c r="N434"/>
       <c r="O434" s="15"/>
     </row>
     <row r="435" spans="1:9">
@@ -19894,9 +18934,6 @@
       </c>
       <c r="D435"/>
       <c r="E435" s="22"/>
-      <c r="F435"/>
-      <c r="G435"/>
-      <c r="H435"/>
       <c r="I435" t="s">
         <v>15</v>
       </c>
@@ -19913,9 +18950,6 @@
       </c>
       <c r="D436"/>
       <c r="E436"/>
-      <c r="F436"/>
-      <c r="G436"/>
-      <c r="H436"/>
       <c r="I436" t="s">
         <v>15</v>
       </c>
@@ -19932,17 +18966,9 @@
       </c>
       <c r="D437"/>
       <c r="E437"/>
-      <c r="F437"/>
-      <c r="G437"/>
-      <c r="H437"/>
       <c r="I437" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J437"/>
-      <c r="K437"/>
-      <c r="L437"/>
-      <c r="M437"/>
-      <c r="N437"/>
       <c r="O437" s="15"/>
     </row>
     <row r="438" spans="1:9">
@@ -19957,9 +18983,6 @@
       </c>
       <c r="D438"/>
       <c r="E438"/>
-      <c r="F438"/>
-      <c r="G438"/>
-      <c r="H438"/>
       <c r="I438" t="s">
         <v>15</v>
       </c>
@@ -19976,17 +18999,9 @@
       </c>
       <c r="D439"/>
       <c r="E439"/>
-      <c r="F439"/>
-      <c r="G439"/>
-      <c r="H439"/>
       <c r="I439" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J439"/>
-      <c r="K439"/>
-      <c r="L439"/>
-      <c r="M439"/>
-      <c r="N439"/>
       <c r="O439" s="15"/>
     </row>
     <row r="440" spans="1:9">
@@ -20001,9 +19016,6 @@
       </c>
       <c r="D440"/>
       <c r="E440"/>
-      <c r="F440"/>
-      <c r="G440"/>
-      <c r="H440"/>
       <c r="I440" t="s">
         <v>15</v>
       </c>
@@ -20020,17 +19032,9 @@
       </c>
       <c r="D441"/>
       <c r="E441"/>
-      <c r="F441"/>
-      <c r="G441"/>
-      <c r="H441"/>
       <c r="I441" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J441"/>
-      <c r="K441"/>
-      <c r="L441"/>
-      <c r="M441"/>
-      <c r="N441"/>
       <c r="O441" s="15"/>
     </row>
     <row r="442" spans="1:9">
@@ -20045,9 +19049,6 @@
       </c>
       <c r="D442"/>
       <c r="E442"/>
-      <c r="F442"/>
-      <c r="G442"/>
-      <c r="H442"/>
       <c r="I442" t="s">
         <v>15</v>
       </c>
@@ -20064,17 +19065,9 @@
       </c>
       <c r="D443"/>
       <c r="E443"/>
-      <c r="F443"/>
-      <c r="G443"/>
-      <c r="H443"/>
       <c r="I443" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J443"/>
-      <c r="K443"/>
-      <c r="L443"/>
-      <c r="M443"/>
-      <c r="N443"/>
       <c r="O443" s="15"/>
     </row>
     <row r="444" spans="1:9">
@@ -20089,9 +19082,6 @@
       </c>
       <c r="D444"/>
       <c r="E444"/>
-      <c r="F444"/>
-      <c r="G444"/>
-      <c r="H444"/>
       <c r="I444" t="s">
         <v>15</v>
       </c>
@@ -20108,17 +19098,9 @@
       </c>
       <c r="D445"/>
       <c r="E445"/>
-      <c r="F445"/>
-      <c r="G445"/>
-      <c r="H445"/>
       <c r="I445" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J445"/>
-      <c r="K445"/>
-      <c r="L445"/>
-      <c r="M445"/>
-      <c r="N445"/>
       <c r="O445" s="15"/>
     </row>
     <row r="446" spans="1:15">
@@ -20131,7 +19113,6 @@
       <c r="C446" s="15" t="s">
         <v>1087</v>
       </c>
-      <c r="D446" s="2"/>
       <c r="E446" s="22" t="e">
         <f>VLOOKUP(MID(D446,1,2),字库代码!B:E,4,TRUE)</f>
         <v>#N/A</v>
@@ -20139,11 +19120,6 @@
       <c r="I446" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J446"/>
-      <c r="K446"/>
-      <c r="L446"/>
-      <c r="M446"/>
-      <c r="N446"/>
       <c r="O446" s="15"/>
     </row>
     <row r="447" spans="1:9">
@@ -20456,9 +19432,6 @@
       </c>
       <c r="D462"/>
       <c r="E462"/>
-      <c r="F462"/>
-      <c r="G462"/>
-      <c r="H462"/>
       <c r="I462" t="s">
         <v>15</v>
       </c>
@@ -20475,17 +19448,9 @@
       </c>
       <c r="D463"/>
       <c r="E463"/>
-      <c r="F463"/>
-      <c r="G463"/>
-      <c r="H463"/>
       <c r="I463" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J463"/>
-      <c r="K463"/>
-      <c r="L463"/>
-      <c r="M463"/>
-      <c r="N463"/>
       <c r="O463" s="15"/>
     </row>
     <row r="464" spans="1:11">
@@ -20500,9 +19465,6 @@
       </c>
       <c r="D464"/>
       <c r="E464"/>
-      <c r="F464"/>
-      <c r="G464"/>
-      <c r="H464"/>
       <c r="I464" t="s">
         <v>15</v>
       </c>
@@ -20525,9 +19487,6 @@
       </c>
       <c r="D465"/>
       <c r="E465"/>
-      <c r="F465"/>
-      <c r="G465"/>
-      <c r="H465"/>
       <c r="I465" s="15" t="s">
         <v>15</v>
       </c>
@@ -20537,9 +19496,6 @@
       <c r="K465" t="s">
         <v>103</v>
       </c>
-      <c r="L465"/>
-      <c r="M465"/>
-      <c r="N465"/>
       <c r="O465" s="15"/>
     </row>
     <row r="466" spans="1:9">
@@ -20554,9 +19510,6 @@
       </c>
       <c r="D466"/>
       <c r="E466"/>
-      <c r="F466"/>
-      <c r="G466"/>
-      <c r="H466"/>
       <c r="I466" t="s">
         <v>15</v>
       </c>
@@ -20573,17 +19526,9 @@
       </c>
       <c r="D467"/>
       <c r="E467"/>
-      <c r="F467"/>
-      <c r="G467"/>
-      <c r="H467"/>
       <c r="I467" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J467"/>
-      <c r="K467"/>
-      <c r="L467"/>
-      <c r="M467"/>
-      <c r="N467"/>
       <c r="O467" s="15"/>
     </row>
     <row r="468" spans="1:9">
@@ -20598,9 +19543,6 @@
       </c>
       <c r="D468"/>
       <c r="E468"/>
-      <c r="F468"/>
-      <c r="G468"/>
-      <c r="H468"/>
       <c r="I468" t="s">
         <v>15</v>
       </c>
@@ -20617,17 +19559,9 @@
       </c>
       <c r="D469"/>
       <c r="E469"/>
-      <c r="F469"/>
-      <c r="G469"/>
-      <c r="H469"/>
       <c r="I469" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J469"/>
-      <c r="K469"/>
-      <c r="L469"/>
-      <c r="M469"/>
-      <c r="N469"/>
       <c r="O469" s="15"/>
     </row>
     <row r="470" s="22" customFormat="1" spans="1:17">
@@ -20804,9 +19738,6 @@
       </c>
       <c r="D476"/>
       <c r="E476"/>
-      <c r="F476"/>
-      <c r="G476"/>
-      <c r="H476"/>
       <c r="I476" t="s">
         <v>15</v>
       </c>
@@ -20877,17 +19808,9 @@
       </c>
       <c r="D479"/>
       <c r="E479"/>
-      <c r="F479"/>
-      <c r="G479"/>
-      <c r="H479"/>
       <c r="I479" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J479"/>
-      <c r="K479"/>
-      <c r="L479"/>
-      <c r="M479"/>
-      <c r="N479"/>
       <c r="O479" s="15"/>
     </row>
     <row r="480" spans="1:9">
@@ -20902,9 +19825,6 @@
       </c>
       <c r="D480"/>
       <c r="E480"/>
-      <c r="F480"/>
-      <c r="G480"/>
-      <c r="H480"/>
       <c r="I480" t="s">
         <v>15</v>
       </c>
@@ -20921,9 +19841,6 @@
       </c>
       <c r="D481"/>
       <c r="E481"/>
-      <c r="F481"/>
-      <c r="G481"/>
-      <c r="H481"/>
       <c r="I481" t="s">
         <v>15</v>
       </c>
@@ -20940,17 +19857,9 @@
       </c>
       <c r="D482"/>
       <c r="E482"/>
-      <c r="F482"/>
-      <c r="G482"/>
-      <c r="H482"/>
       <c r="I482" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J482"/>
-      <c r="K482"/>
-      <c r="L482"/>
-      <c r="M482"/>
-      <c r="N482"/>
       <c r="O482" s="15"/>
     </row>
     <row r="483" spans="1:11">
@@ -20965,9 +19874,6 @@
       </c>
       <c r="D483"/>
       <c r="E483"/>
-      <c r="F483"/>
-      <c r="G483"/>
-      <c r="H483"/>
       <c r="I483" t="s">
         <v>15</v>
       </c>
@@ -21044,17 +19950,9 @@
       </c>
       <c r="D486"/>
       <c r="E486"/>
-      <c r="F486"/>
-      <c r="G486"/>
-      <c r="H486"/>
       <c r="I486" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J486"/>
-      <c r="K486"/>
-      <c r="L486"/>
-      <c r="M486"/>
-      <c r="N486"/>
       <c r="O486" s="15"/>
     </row>
     <row r="487" spans="1:9">
@@ -21069,9 +19967,6 @@
       </c>
       <c r="D487"/>
       <c r="E487"/>
-      <c r="F487"/>
-      <c r="G487"/>
-      <c r="H487"/>
       <c r="I487" t="s">
         <v>15</v>
       </c>
@@ -21088,17 +19983,9 @@
       </c>
       <c r="D488"/>
       <c r="E488"/>
-      <c r="F488"/>
-      <c r="G488"/>
-      <c r="H488"/>
       <c r="I488" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J488"/>
-      <c r="K488"/>
-      <c r="L488"/>
-      <c r="M488"/>
-      <c r="N488"/>
       <c r="O488" s="15"/>
     </row>
     <row r="489" spans="1:15">
@@ -21113,17 +20000,9 @@
       </c>
       <c r="D489"/>
       <c r="E489"/>
-      <c r="F489"/>
-      <c r="G489"/>
-      <c r="H489"/>
       <c r="I489" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J489"/>
-      <c r="K489"/>
-      <c r="L489"/>
-      <c r="M489"/>
-      <c r="N489"/>
       <c r="O489" s="15"/>
     </row>
     <row r="490" spans="1:17">
@@ -21145,8 +20024,6 @@
       <c r="G490" s="22"/>
       <c r="H490" s="22"/>
       <c r="I490" s="33"/>
-      <c r="J490"/>
-      <c r="K490"/>
       <c r="L490" s="22"/>
       <c r="M490" s="22"/>
       <c r="N490" s="22"/>
@@ -21166,9 +20043,6 @@
       </c>
       <c r="D491"/>
       <c r="E491"/>
-      <c r="F491"/>
-      <c r="G491"/>
-      <c r="H491"/>
       <c r="I491" t="s">
         <v>15</v>
       </c>
@@ -21185,17 +20059,9 @@
       </c>
       <c r="D492"/>
       <c r="E492"/>
-      <c r="F492"/>
-      <c r="G492"/>
-      <c r="H492"/>
       <c r="I492" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J492"/>
-      <c r="K492"/>
-      <c r="L492"/>
-      <c r="M492"/>
-      <c r="N492"/>
       <c r="O492" s="15"/>
     </row>
     <row r="493" spans="1:9">
@@ -21210,9 +20076,6 @@
       </c>
       <c r="D493"/>
       <c r="E493"/>
-      <c r="F493"/>
-      <c r="G493"/>
-      <c r="H493"/>
       <c r="I493" t="s">
         <v>15</v>
       </c>
@@ -21557,9 +20420,6 @@
       </c>
       <c r="D515"/>
       <c r="E515"/>
-      <c r="F515"/>
-      <c r="G515"/>
-      <c r="H515"/>
       <c r="I515" t="s">
         <v>15</v>
       </c>
@@ -21603,9 +20463,6 @@
       </c>
       <c r="D517"/>
       <c r="E517"/>
-      <c r="F517"/>
-      <c r="G517"/>
-      <c r="H517"/>
       <c r="I517" t="s">
         <v>15</v>
       </c>
@@ -21622,9 +20479,6 @@
       </c>
       <c r="D518"/>
       <c r="E518"/>
-      <c r="F518"/>
-      <c r="G518"/>
-      <c r="H518"/>
       <c r="I518" t="s">
         <v>15</v>
       </c>
@@ -21641,17 +20495,9 @@
       </c>
       <c r="D519"/>
       <c r="E519"/>
-      <c r="F519"/>
-      <c r="G519"/>
-      <c r="H519"/>
       <c r="I519" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J519"/>
-      <c r="K519"/>
-      <c r="L519"/>
-      <c r="M519"/>
-      <c r="N519"/>
       <c r="O519" s="15"/>
     </row>
     <row r="520" spans="1:9">
@@ -21666,9 +20512,6 @@
       </c>
       <c r="D520"/>
       <c r="E520"/>
-      <c r="F520"/>
-      <c r="G520"/>
-      <c r="H520"/>
       <c r="I520" t="s">
         <v>15</v>
       </c>
@@ -21704,9 +20547,6 @@
       </c>
       <c r="D522"/>
       <c r="E522"/>
-      <c r="F522"/>
-      <c r="G522"/>
-      <c r="H522"/>
       <c r="I522" t="s">
         <v>15</v>
       </c>
@@ -21723,9 +20563,6 @@
       </c>
       <c r="D523"/>
       <c r="E523"/>
-      <c r="F523"/>
-      <c r="G523"/>
-      <c r="H523"/>
       <c r="I523" t="s">
         <v>15</v>
       </c>
@@ -21994,9 +20831,6 @@
       </c>
       <c r="D541"/>
       <c r="E541"/>
-      <c r="F541"/>
-      <c r="G541"/>
-      <c r="H541"/>
       <c r="I541" t="s">
         <v>15</v>
       </c>
@@ -22013,17 +20847,9 @@
       </c>
       <c r="D542"/>
       <c r="E542"/>
-      <c r="F542"/>
-      <c r="G542"/>
-      <c r="H542"/>
       <c r="I542" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J542"/>
-      <c r="K542"/>
-      <c r="L542"/>
-      <c r="M542"/>
-      <c r="N542"/>
       <c r="O542" s="15"/>
     </row>
     <row r="543" spans="1:9">
@@ -22038,9 +20864,6 @@
       </c>
       <c r="D543"/>
       <c r="E543"/>
-      <c r="F543"/>
-      <c r="G543"/>
-      <c r="H543"/>
       <c r="I543" t="s">
         <v>15</v>
       </c>
@@ -22057,17 +20880,9 @@
       </c>
       <c r="D544"/>
       <c r="E544"/>
-      <c r="F544"/>
-      <c r="G544"/>
-      <c r="H544"/>
       <c r="I544" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J544"/>
-      <c r="K544"/>
-      <c r="L544"/>
-      <c r="M544"/>
-      <c r="N544"/>
       <c r="O544" s="15"/>
     </row>
     <row r="545" spans="1:15">
@@ -22241,17 +21056,9 @@
       </c>
       <c r="D555"/>
       <c r="E555"/>
-      <c r="F555"/>
-      <c r="G555"/>
-      <c r="H555"/>
       <c r="I555" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J555"/>
-      <c r="K555"/>
-      <c r="L555"/>
-      <c r="M555"/>
-      <c r="N555"/>
       <c r="O555" s="15"/>
     </row>
   </sheetData>
@@ -29920,7 +28727,7 @@
   <sheetPr/>
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F230" sqref="F230"/>

--- a/ra1/ra1字符串表.xlsx
+++ b/ra1/ra1字符串表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375">
   <si>
     <t>编号</t>
   </si>
@@ -1549,7 +1549,7 @@
     <t>GPS卫星</t>
   </si>
   <si>
-    <t>gps f8</t>
+    <t>f8</t>
   </si>
   <si>
     <t>Atom Bomb</t>
@@ -6825,6 +6825,9 @@
     <t>卸载跑道</t>
   </si>
   <si>
+    <t>矿石储存仓</t>
+  </si>
+  <si>
     <t>影像</t>
   </si>
   <si>
@@ -6930,6 +6933,9 @@
     <t>已渗透入苏军基地.在导弹发射前</t>
   </si>
   <si>
+    <t>暗堡</t>
+  </si>
+  <si>
     <t>核设施,然后摧毁所有现存的核武器</t>
   </si>
   <si>
@@ -6963,10 +6969,13 @@
     <t>防空炮离线</t>
   </si>
   <si>
+    <t>雅克战机</t>
+  </si>
+  <si>
     <t>恢复</t>
   </si>
   <si>
-    <t>火箭</t>
+    <t>火箭发射车</t>
   </si>
   <si>
     <t>可能也在研究铁幕</t>
@@ -7005,6 +7014,9 @@
     <t>獾式轰炸机</t>
   </si>
   <si>
+    <t>米格战机</t>
+  </si>
+  <si>
     <t>劫持卡车</t>
   </si>
   <si>
@@ -7020,6 +7032,9 @@
     <t>正试图夺回清理出的道路.守住道路</t>
   </si>
   <si>
+    <t>铁幕发生器</t>
+  </si>
+  <si>
     <t>全歼敌</t>
   </si>
   <si>
@@ -7053,7 +7068,7 @@
     <t>绝密</t>
   </si>
   <si>
-    <t>无差别攻击坦克</t>
+    <t>毁灭者坦克</t>
   </si>
   <si>
     <t>来自蓝港16总部</t>
@@ -7092,22 +7107,19 @@
     <t>爱因斯坦</t>
   </si>
   <si>
-    <t>卫星</t>
+    <t>间谍卫星</t>
   </si>
   <si>
     <t>死亡</t>
   </si>
   <si>
-    <t>时空传送</t>
+    <t>超时空传送</t>
   </si>
   <si>
     <t>维修工</t>
   </si>
   <si>
     <t>必须存活</t>
-  </si>
-  <si>
-    <t>时空传送坦克</t>
   </si>
   <si>
     <t>FC</t>
@@ -7139,10 +7151,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -7243,6 +7255,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -7262,22 +7290,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7380,24 +7392,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7423,6 +7417,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7565,26 +7577,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7611,6 +7603,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7670,7 +7682,7 @@
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7679,7 +7691,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7691,13 +7703,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -7706,16 +7718,16 @@
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -7724,13 +7736,13 @@
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7742,7 +7754,7 @@
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7757,10 +7769,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7769,7 +7781,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7778,7 +7790,7 @@
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7834,9 +7846,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7844,6 +7853,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -8414,6 +8426,88 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>230</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>17780</xdr:colOff>
+          <xdr:row>230</xdr:row>
+          <xdr:rowOff>169545</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1065" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1065"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6496050" y="39643050"/>
+              <a:ext cx="17780" cy="4445"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>226</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>26670</xdr:colOff>
+          <xdr:row>226</xdr:row>
+          <xdr:rowOff>4445</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1066" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1066"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6496050" y="38747700"/>
+              <a:ext cx="26670" cy="4445"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -8678,9 +8772,9 @@
   <dimension ref="A1:Q555"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E177" sqref="A78:B177 E78:E177"/>
+      <selection pane="bottomLeft" activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9644,14 +9738,14 @@
       </c>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
-      <c r="I31" s="15"/>
+      <c r="I31" s="18"/>
       <c r="J31" t="s">
         <v>102</v>
       </c>
       <c r="K31" t="s">
         <v>103</v>
       </c>
-      <c r="O31" s="15"/>
+      <c r="O31" s="18"/>
       <c r="P31" s="25"/>
       <c r="Q31" s="25"/>
     </row>
@@ -11147,7 +11241,7 @@
       </c>
       <c r="G85"/>
       <c r="H85"/>
-      <c r="I85" s="15" t="s">
+      <c r="I85" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J85" t="s">
@@ -11159,7 +11253,7 @@
       <c r="L85"/>
       <c r="M85"/>
       <c r="N85"/>
-      <c r="O85" s="15"/>
+      <c r="O85" s="18"/>
       <c r="P85"/>
       <c r="Q85"/>
     </row>
@@ -11204,10 +11298,10 @@
       <c r="F87" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="I87" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O87" s="15"/>
+      <c r="I87" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O87" s="18"/>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="22">
@@ -11335,10 +11429,10 @@
       <c r="F91" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="I91" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O91" s="15"/>
+      <c r="I91" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O91" s="18"/>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="22">
@@ -11394,7 +11488,7 @@
       <c r="F93" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="I93" s="15" t="s">
+      <c r="I93" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J93" t="s">
@@ -11403,7 +11497,7 @@
       <c r="K93" t="s">
         <v>103</v>
       </c>
-      <c r="O93" s="15"/>
+      <c r="O93" s="18"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94">
@@ -11436,7 +11530,7 @@
       <c r="B95" t="s">
         <v>286</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C95" s="18" t="s">
         <v>287</v>
       </c>
       <c r="D95" s="2" t="s">
@@ -11449,10 +11543,10 @@
       <c r="F95" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="I95" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O95" s="15"/>
+      <c r="I95" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O95" s="18"/>
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="24">
@@ -11508,7 +11602,7 @@
       <c r="F97" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="I97" s="15" t="s">
+      <c r="I97" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J97" t="s">
@@ -11517,7 +11611,7 @@
       <c r="K97" t="s">
         <v>103</v>
       </c>
-      <c r="O97" s="15"/>
+      <c r="O97" s="18"/>
     </row>
     <row r="98" spans="1:17">
       <c r="A98" s="22">
@@ -11575,10 +11669,10 @@
       <c r="F99" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="I99" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O99" s="15"/>
+      <c r="I99" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O99" s="18"/>
     </row>
     <row r="100" spans="1:17">
       <c r="A100" s="22">
@@ -11629,7 +11723,7 @@
       </c>
       <c r="E101" s="22" t="str">
         <f>VLOOKUP(MID(D101,1,2),字库代码!B:E,4,TRUE)</f>
-        <v>矿石储藏井</v>
+        <v>矿石储存仓</v>
       </c>
       <c r="F101" s="22" t="s">
         <v>233</v>
@@ -12066,10 +12160,10 @@
       <c r="F115" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="I115" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O115" s="15"/>
+      <c r="I115" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O115" s="18"/>
     </row>
     <row r="116" spans="1:17">
       <c r="A116" s="22">
@@ -12389,7 +12483,7 @@
       <c r="F125" t="s">
         <v>233</v>
       </c>
-      <c r="I125" s="15" t="s">
+      <c r="I125" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J125" t="s">
@@ -12398,7 +12492,7 @@
       <c r="K125" t="s">
         <v>103</v>
       </c>
-      <c r="O125" s="15"/>
+      <c r="O125" s="18"/>
     </row>
     <row r="126" s="22" customFormat="1" spans="1:17">
       <c r="A126">
@@ -12422,7 +12516,7 @@
       </c>
       <c r="G126"/>
       <c r="H126"/>
-      <c r="I126" s="15" t="s">
+      <c r="I126" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J126"/>
@@ -12430,7 +12524,7 @@
       <c r="L126"/>
       <c r="M126"/>
       <c r="N126"/>
-      <c r="O126" s="15"/>
+      <c r="O126" s="18"/>
       <c r="P126"/>
       <c r="Q126"/>
     </row>
@@ -12490,7 +12584,7 @@
       </c>
       <c r="G128"/>
       <c r="H128"/>
-      <c r="I128" s="15" t="s">
+      <c r="I128" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J128"/>
@@ -12498,7 +12592,7 @@
       <c r="L128"/>
       <c r="M128"/>
       <c r="N128"/>
-      <c r="O128" s="15"/>
+      <c r="O128" s="18"/>
       <c r="P128"/>
       <c r="Q128"/>
     </row>
@@ -12551,7 +12645,7 @@
       </c>
       <c r="E130" s="22" t="str">
         <f>VLOOKUP(MID(D130,1,2),字库代码!B:E,4,TRUE)</f>
-        <v>迷彩地堡</v>
+        <v>暗堡</v>
       </c>
       <c r="F130" s="22" t="s">
         <v>233</v>
@@ -12669,10 +12763,10 @@
       <c r="F134" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="I134" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O134" s="15"/>
+      <c r="I134" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O134" s="18"/>
     </row>
     <row r="135" s="22" customFormat="1" spans="1:9">
       <c r="A135" s="22">
@@ -12782,7 +12876,7 @@
       </c>
       <c r="G138"/>
       <c r="H138"/>
-      <c r="I138" s="15" t="s">
+      <c r="I138" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J138" t="s">
@@ -12794,7 +12888,7 @@
       <c r="L138"/>
       <c r="M138"/>
       <c r="N138"/>
-      <c r="O138" s="15"/>
+      <c r="O138" s="18"/>
       <c r="P138"/>
       <c r="Q138"/>
     </row>
@@ -12910,10 +13004,10 @@
       <c r="F142" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="I142" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O142" s="15"/>
+      <c r="I142" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O142" s="18"/>
     </row>
     <row r="143" s="22" customFormat="1" spans="1:17">
       <c r="A143">
@@ -12956,7 +13050,7 @@
       <c r="B144" t="s">
         <v>436</v>
       </c>
-      <c r="C144" s="15" t="s">
+      <c r="C144" s="18" t="s">
         <v>437</v>
       </c>
       <c r="D144" s="2" t="s">
@@ -12964,12 +13058,12 @@
       </c>
       <c r="E144" s="22" t="str">
         <f>VLOOKUP(MID(D144,1,2),字库代码!B:E,4,TRUE)</f>
-        <v>米格攻击机</v>
+        <v>米格战机</v>
       </c>
       <c r="F144" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="I144" s="15" t="s">
+      <c r="I144" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J144" t="s">
@@ -12978,7 +13072,7 @@
       <c r="K144" t="s">
         <v>103</v>
       </c>
-      <c r="O144" s="15"/>
+      <c r="O144" s="18"/>
     </row>
     <row r="145" spans="1:17">
       <c r="A145" s="22">
@@ -12995,7 +13089,7 @@
       </c>
       <c r="E145" s="22" t="str">
         <f>VLOOKUP(MID(D145,1,2),字库代码!B:E,4,TRUE)</f>
-        <v>雅克强击机</v>
+        <v>雅克战机</v>
       </c>
       <c r="F145" s="22" t="s">
         <v>233</v>
@@ -13038,7 +13132,7 @@
       </c>
       <c r="G146"/>
       <c r="H146"/>
-      <c r="I146" s="15" t="s">
+      <c r="I146" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J146"/>
@@ -13046,7 +13140,7 @@
       <c r="L146"/>
       <c r="M146"/>
       <c r="N146"/>
-      <c r="O146" s="15"/>
+      <c r="O146" s="18"/>
       <c r="P146"/>
       <c r="Q146"/>
     </row>
@@ -13127,7 +13221,7 @@
       <c r="B149" t="s">
         <v>454</v>
       </c>
-      <c r="C149" s="15" t="s">
+      <c r="C149" s="18" t="s">
         <v>455</v>
       </c>
       <c r="D149" s="2"/>
@@ -13174,7 +13268,7 @@
       </c>
       <c r="G150"/>
       <c r="H150"/>
-      <c r="I150" s="15" t="s">
+      <c r="I150" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J150"/>
@@ -13182,7 +13276,7 @@
       <c r="L150"/>
       <c r="M150"/>
       <c r="N150"/>
-      <c r="O150" s="15"/>
+      <c r="O150" s="18"/>
       <c r="P150"/>
       <c r="Q150"/>
     </row>
@@ -13315,7 +13409,7 @@
       </c>
       <c r="G155"/>
       <c r="H155"/>
-      <c r="I155" s="15" t="s">
+      <c r="I155" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J155"/>
@@ -13323,7 +13417,7 @@
       <c r="L155"/>
       <c r="M155"/>
       <c r="N155"/>
-      <c r="O155" s="15"/>
+      <c r="O155" s="18"/>
       <c r="P155"/>
       <c r="Q155"/>
     </row>
@@ -13342,7 +13436,7 @@
       </c>
       <c r="E156" s="22" t="str">
         <f>VLOOKUP(MID(D156,1,2),字库代码!B:E,4,TRUE)</f>
-        <v>铁幕</v>
+        <v>铁幕发生器</v>
       </c>
       <c r="F156" s="22" t="s">
         <v>233</v>
@@ -13358,7 +13452,7 @@
       <c r="B157" t="s">
         <v>477</v>
       </c>
-      <c r="C157" s="15" t="s">
+      <c r="C157" s="18" t="s">
         <v>478</v>
       </c>
       <c r="D157" s="2" t="s">
@@ -13371,10 +13465,10 @@
       <c r="F157" t="s">
         <v>233</v>
       </c>
-      <c r="I157" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O157" s="15"/>
+      <c r="I157" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O157" s="18"/>
     </row>
     <row r="158" spans="1:17">
       <c r="A158" s="22">
@@ -13391,7 +13485,7 @@
       </c>
       <c r="E158" s="22" t="str">
         <f>"V2"&amp;VLOOKUP(MID(D158,4,2),字库代码!B:E,4,TRUE)</f>
-        <v>V2火箭</v>
+        <v>V2火箭发射车</v>
       </c>
       <c r="F158" s="22" t="s">
         <v>233</v>
@@ -13474,10 +13568,10 @@
       <c r="F161" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="I161" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O161" s="15"/>
+      <c r="I161" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O161" s="18"/>
     </row>
     <row r="162" spans="1:17">
       <c r="A162" s="22">
@@ -13518,7 +13612,7 @@
       <c r="B163" t="s">
         <v>495</v>
       </c>
-      <c r="C163" s="15" t="s">
+      <c r="C163" s="18" t="s">
         <v>496</v>
       </c>
       <c r="D163" s="2" t="s">
@@ -13531,10 +13625,10 @@
       <c r="F163" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="I163" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O163" s="15"/>
+      <c r="I163" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O163" s="18"/>
     </row>
     <row r="164" spans="1:10">
       <c r="A164">
@@ -13543,7 +13637,7 @@
       <c r="B164" t="s">
         <v>498</v>
       </c>
-      <c r="C164" s="15" t="s">
+      <c r="C164" s="18" t="s">
         <v>499</v>
       </c>
       <c r="D164" s="2" t="s">
@@ -13633,16 +13727,16 @@
         <v>510</v>
       </c>
       <c r="E167" s="22" t="str">
-        <f>"GPS"&amp;VLOOKUP(MID(D167,5,2),字库代码!B:E,4,TRUE)</f>
-        <v>GPS卫星</v>
+        <f>VLOOKUP(MID(D167,1,2),字库代码!B:E,4,TRUE)</f>
+        <v>间谍卫星</v>
       </c>
       <c r="F167" t="s">
         <v>233</v>
       </c>
-      <c r="I167" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O167" s="15"/>
+      <c r="I167" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O167" s="18"/>
     </row>
     <row r="168" spans="1:9">
       <c r="A168">
@@ -13717,15 +13811,15 @@
       </c>
       <c r="E170" s="22" t="str">
         <f>VLOOKUP(MID(D170,1,2),字库代码!B:E,4,TRUE)</f>
-        <v>时空传送</v>
+        <v>超时空传送</v>
       </c>
       <c r="F170" t="s">
         <v>233</v>
       </c>
-      <c r="I170" s="15" t="s">
+      <c r="I170" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="O170" s="15"/>
+      <c r="O170" s="18"/>
     </row>
     <row r="171" spans="1:9">
       <c r="A171">
@@ -13734,7 +13828,7 @@
       <c r="B171" t="s">
         <v>520</v>
       </c>
-      <c r="C171" s="15" t="s">
+      <c r="C171" s="18" t="s">
         <v>521</v>
       </c>
       <c r="D171" t="s">
@@ -13834,14 +13928,14 @@
       </c>
       <c r="E174" s="22" t="str">
         <f>VLOOKUP(MID(D174,1,2),字库代码!B:E,4,TRUE)</f>
-        <v>时空传送坦克</v>
+        <v>超时空坦克</v>
       </c>
       <c r="F174" t="s">
         <v>233</v>
       </c>
       <c r="G174"/>
       <c r="H174"/>
-      <c r="I174" s="15" t="s">
+      <c r="I174" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J174" t="s">
@@ -13853,7 +13947,7 @@
       <c r="L174"/>
       <c r="M174"/>
       <c r="N174"/>
-      <c r="O174" s="15"/>
+      <c r="O174" s="18"/>
       <c r="P174"/>
       <c r="Q174"/>
     </row>
@@ -13896,12 +13990,12 @@
       </c>
       <c r="E176" s="22" t="str">
         <f>VLOOKUP(MID(D176,1,2),字库代码!B:E,4,TRUE)</f>
-        <v>无差别攻击坦克</v>
+        <v>毁灭者坦克</v>
       </c>
       <c r="F176" t="s">
         <v>233</v>
       </c>
-      <c r="I176" s="15" t="s">
+      <c r="I176" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J176" t="s">
@@ -13910,7 +14004,7 @@
       <c r="K176" t="s">
         <v>103</v>
       </c>
-      <c r="O176" s="15"/>
+      <c r="O176" s="18"/>
     </row>
     <row r="177" spans="1:11">
       <c r="A177">
@@ -14177,7 +14271,7 @@
       <c r="J185" t="s">
         <v>569</v>
       </c>
-      <c r="K185" s="15" t="s">
+      <c r="K185" s="18" t="s">
         <v>103</v>
       </c>
       <c r="L185"/>
@@ -14266,7 +14360,7 @@
       <c r="B189" t="s">
         <v>579</v>
       </c>
-      <c r="C189" s="15" t="s">
+      <c r="C189" s="18" t="s">
         <v>580</v>
       </c>
       <c r="D189"/>
@@ -14282,15 +14376,15 @@
       <c r="B190" t="s">
         <v>581</v>
       </c>
-      <c r="C190" s="15" t="s">
+      <c r="C190" s="18" t="s">
         <v>582</v>
       </c>
       <c r="D190"/>
       <c r="E190"/>
-      <c r="I190" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O190" s="15"/>
+      <c r="I190" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O190" s="18"/>
     </row>
     <row r="191" spans="1:9">
       <c r="A191">
@@ -14320,10 +14414,10 @@
       </c>
       <c r="D192"/>
       <c r="E192"/>
-      <c r="I192" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O192" s="15"/>
+      <c r="I192" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O192" s="18"/>
     </row>
     <row r="193" spans="1:9">
       <c r="A193">
@@ -14348,15 +14442,15 @@
       <c r="B194" t="s">
         <v>589</v>
       </c>
-      <c r="C194" s="15" t="s">
+      <c r="C194" s="18" t="s">
         <v>590</v>
       </c>
       <c r="D194"/>
       <c r="E194"/>
-      <c r="I194" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O194" s="15"/>
+      <c r="I194" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O194" s="18"/>
     </row>
     <row r="195" s="22" customFormat="1" spans="1:17">
       <c r="A195">
@@ -14365,7 +14459,7 @@
       <c r="B195" t="s">
         <v>591</v>
       </c>
-      <c r="C195" s="15" t="s">
+      <c r="C195" s="18" t="s">
         <v>592</v>
       </c>
       <c r="D195"/>
@@ -14400,7 +14494,7 @@
       <c r="F196"/>
       <c r="G196"/>
       <c r="H196"/>
-      <c r="I196" s="15" t="s">
+      <c r="I196" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J196"/>
@@ -14408,7 +14502,7 @@
       <c r="L196"/>
       <c r="M196"/>
       <c r="N196"/>
-      <c r="O196" s="15"/>
+      <c r="O196" s="18"/>
       <c r="P196"/>
       <c r="Q196"/>
     </row>
@@ -14446,7 +14540,7 @@
       <c r="B198" t="s">
         <v>597</v>
       </c>
-      <c r="C198" s="15" t="s">
+      <c r="C198" s="18" t="s">
         <v>598</v>
       </c>
       <c r="D198"/>
@@ -14467,10 +14561,10 @@
       </c>
       <c r="D199"/>
       <c r="E199"/>
-      <c r="I199" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O199" s="15"/>
+      <c r="I199" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O199" s="18"/>
     </row>
     <row r="200" s="22" customFormat="1" spans="1:17">
       <c r="A200">
@@ -14521,8 +14615,8 @@
       </c>
       <c r="D202"/>
       <c r="E202"/>
-      <c r="I202" s="15"/>
-      <c r="O202" s="15"/>
+      <c r="I202" s="18"/>
+      <c r="O202" s="18"/>
     </row>
     <row r="203" spans="1:5">
       <c r="A203">
@@ -14540,8 +14634,8 @@
       </c>
       <c r="D204"/>
       <c r="E204"/>
-      <c r="I204" s="15"/>
-      <c r="O204" s="15"/>
+      <c r="I204" s="18"/>
+      <c r="O204" s="18"/>
     </row>
     <row r="205" spans="1:5">
       <c r="A205">
@@ -14568,7 +14662,7 @@
       <c r="F206"/>
       <c r="G206"/>
       <c r="H206"/>
-      <c r="I206" s="15" t="s">
+      <c r="I206" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J206"/>
@@ -14576,7 +14670,7 @@
       <c r="L206"/>
       <c r="M206"/>
       <c r="N206"/>
-      <c r="O206" s="15"/>
+      <c r="O206" s="18"/>
       <c r="P206"/>
       <c r="Q206"/>
     </row>
@@ -14608,10 +14702,10 @@
       </c>
       <c r="D208"/>
       <c r="E208"/>
-      <c r="I208" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O208" s="15"/>
+      <c r="I208" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O208" s="18"/>
     </row>
     <row r="209" spans="1:9">
       <c r="A209">
@@ -14641,10 +14735,10 @@
       </c>
       <c r="D210"/>
       <c r="E210"/>
-      <c r="I210" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O210" s="15"/>
+      <c r="I210" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O210" s="18"/>
     </row>
     <row r="211" spans="1:9">
       <c r="A211">
@@ -14669,7 +14763,7 @@
       <c r="B212" t="s">
         <v>619</v>
       </c>
-      <c r="C212" s="15" t="s">
+      <c r="C212" s="18" t="s">
         <v>620</v>
       </c>
       <c r="D212"/>
@@ -14690,10 +14784,10 @@
       </c>
       <c r="D213"/>
       <c r="E213"/>
-      <c r="I213" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O213" s="15"/>
+      <c r="I213" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O213" s="18"/>
     </row>
     <row r="214" spans="1:9">
       <c r="A214">
@@ -14702,7 +14796,7 @@
       <c r="B214" t="s">
         <v>623</v>
       </c>
-      <c r="C214" s="15" t="s">
+      <c r="C214" s="18" t="s">
         <v>624</v>
       </c>
       <c r="D214"/>
@@ -14795,7 +14889,7 @@
         <f>VLOOKUP(MID(D218,1,2),字库代码!B:E,4,TRUE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I218" s="15" t="s">
+      <c r="I218" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J218" t="s">
@@ -14804,7 +14898,7 @@
       <c r="K218" t="s">
         <v>103</v>
       </c>
-      <c r="O218" s="15"/>
+      <c r="O218" s="18"/>
     </row>
     <row r="219" spans="1:9">
       <c r="A219">
@@ -14832,7 +14926,7 @@
       <c r="B220" t="s">
         <v>634</v>
       </c>
-      <c r="C220" s="15" t="s">
+      <c r="C220" s="18" t="s">
         <v>635</v>
       </c>
       <c r="D220"/>
@@ -14843,7 +14937,7 @@
       <c r="F220"/>
       <c r="G220"/>
       <c r="H220"/>
-      <c r="I220" s="15" t="s">
+      <c r="I220" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J220"/>
@@ -14851,7 +14945,7 @@
       <c r="L220"/>
       <c r="M220"/>
       <c r="N220"/>
-      <c r="O220" s="15"/>
+      <c r="O220" s="18"/>
       <c r="P220"/>
       <c r="Q220"/>
     </row>
@@ -14862,7 +14956,7 @@
       <c r="B221" t="s">
         <v>636</v>
       </c>
-      <c r="C221" s="15" t="s">
+      <c r="C221" s="18" t="s">
         <v>637</v>
       </c>
       <c r="D221"/>
@@ -14900,10 +14994,10 @@
         <f>VLOOKUP(MID(D222,1,2),字库代码!B:E,4,TRUE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I222" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O222" s="15"/>
+      <c r="I222" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O222" s="18"/>
     </row>
     <row r="223" spans="1:9">
       <c r="A223">
@@ -14942,7 +15036,7 @@
       <c r="F224"/>
       <c r="G224"/>
       <c r="H224"/>
-      <c r="I224" s="15" t="s">
+      <c r="I224" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J224"/>
@@ -14950,7 +15044,7 @@
       <c r="L224"/>
       <c r="M224"/>
       <c r="N224"/>
-      <c r="O224" s="15"/>
+      <c r="O224" s="18"/>
       <c r="P224"/>
       <c r="Q224"/>
     </row>
@@ -14988,7 +15082,7 @@
         <f>VLOOKUP(MID(D226,1,2),字库代码!B:E,4,TRUE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I226" s="15" t="s">
+      <c r="I226" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J226" t="s">
@@ -14997,7 +15091,7 @@
       <c r="K226" t="s">
         <v>103</v>
       </c>
-      <c r="O226" s="15"/>
+      <c r="O226" s="18"/>
     </row>
     <row r="227" spans="1:9">
       <c r="A227">
@@ -15033,10 +15127,10 @@
         <f>VLOOKUP(MID(D228,1,2),字库代码!B:E,4,TRUE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I228" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O228" s="15"/>
+      <c r="I228" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O228" s="18"/>
     </row>
     <row r="229" spans="1:9">
       <c r="A229">
@@ -15072,10 +15166,10 @@
         <f>VLOOKUP(MID(D230,1,2),字库代码!B:E,4,TRUE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I230" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O230" s="15"/>
+      <c r="I230" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O230" s="18"/>
     </row>
     <row r="231" spans="1:11">
       <c r="A231">
@@ -15117,10 +15211,10 @@
         <f>VLOOKUP(MID(D232,1,2),字库代码!B:E,4,TRUE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I232" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O232" s="15"/>
+      <c r="I232" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O232" s="18"/>
     </row>
     <row r="233" spans="1:9">
       <c r="A233">
@@ -15129,7 +15223,7 @@
       <c r="B233" t="s">
         <v>661</v>
       </c>
-      <c r="C233" s="15" t="s">
+      <c r="C233" s="18" t="s">
         <v>662</v>
       </c>
       <c r="D233"/>
@@ -15156,10 +15250,10 @@
         <f>VLOOKUP(MID(D234,1,2),字库代码!B:E,4,TRUE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I234" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O234" s="15"/>
+      <c r="I234" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O234" s="18"/>
     </row>
     <row r="235" spans="1:9">
       <c r="A235">
@@ -15198,7 +15292,7 @@
       <c r="F236"/>
       <c r="G236"/>
       <c r="H236"/>
-      <c r="I236" s="15" t="s">
+      <c r="I236" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J236" t="s">
@@ -15210,7 +15304,7 @@
       <c r="L236"/>
       <c r="M236"/>
       <c r="N236"/>
-      <c r="O236" s="15"/>
+      <c r="O236" s="18"/>
       <c r="P236"/>
       <c r="Q236"/>
     </row>
@@ -15248,10 +15342,10 @@
         <f>VLOOKUP(MID(D238,1,2),字库代码!B:E,4,TRUE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I238" s="15" t="s">
+      <c r="I238" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="O238" s="15"/>
+      <c r="O238" s="18"/>
     </row>
     <row r="239" spans="1:9">
       <c r="A239">
@@ -15276,15 +15370,15 @@
       <c r="B240" t="s">
         <v>676</v>
       </c>
-      <c r="C240" s="15" t="s">
+      <c r="C240" s="18" t="s">
         <v>677</v>
       </c>
       <c r="D240"/>
       <c r="E240" s="23"/>
-      <c r="I240" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O240" s="15"/>
+      <c r="I240" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O240" s="18"/>
     </row>
     <row r="241" spans="1:9">
       <c r="A241">
@@ -15293,7 +15387,7 @@
       <c r="B241" t="s">
         <v>678</v>
       </c>
-      <c r="C241" s="15" t="s">
+      <c r="C241" s="18" t="s">
         <v>679</v>
       </c>
       <c r="D241"/>
@@ -15314,10 +15408,10 @@
       </c>
       <c r="D242"/>
       <c r="E242"/>
-      <c r="I242" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O242" s="15"/>
+      <c r="I242" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O242" s="18"/>
     </row>
     <row r="243" spans="1:9">
       <c r="A243">
@@ -15342,15 +15436,15 @@
       <c r="B244" t="s">
         <v>684</v>
       </c>
-      <c r="C244" s="15" t="s">
+      <c r="C244" s="18" t="s">
         <v>685</v>
       </c>
       <c r="D244"/>
       <c r="E244"/>
-      <c r="I244" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O244" s="15"/>
+      <c r="I244" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O244" s="18"/>
     </row>
     <row r="245" spans="1:9">
       <c r="A245">
@@ -15375,15 +15469,15 @@
       <c r="B246" t="s">
         <v>688</v>
       </c>
-      <c r="C246" s="15" t="s">
+      <c r="C246" s="18" t="s">
         <v>689</v>
       </c>
       <c r="D246"/>
       <c r="E246"/>
-      <c r="I246" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O246" s="15"/>
+      <c r="I246" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O246" s="18"/>
     </row>
     <row r="247" spans="1:15">
       <c r="A247">
@@ -15392,15 +15486,15 @@
       <c r="B247" t="s">
         <v>690</v>
       </c>
-      <c r="C247" s="15" t="s">
+      <c r="C247" s="18" t="s">
         <v>691</v>
       </c>
       <c r="D247"/>
       <c r="E247"/>
-      <c r="I247" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O247" s="15"/>
+      <c r="I247" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O247" s="18"/>
     </row>
     <row r="248" spans="1:9">
       <c r="A248">
@@ -15430,10 +15524,10 @@
       </c>
       <c r="D249"/>
       <c r="E249"/>
-      <c r="I249" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O249" s="15"/>
+      <c r="I249" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O249" s="18"/>
     </row>
     <row r="250" spans="1:9">
       <c r="A250">
@@ -15487,10 +15581,10 @@
         <f>VLOOKUP(MID(D252,1,2),字库代码!B:E,4,TRUE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I252" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O252" s="15"/>
+      <c r="I252" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O252" s="18"/>
     </row>
     <row r="253" spans="1:15">
       <c r="A253">
@@ -15507,10 +15601,10 @@
         <f>VLOOKUP(MID(D253,1,2),字库代码!B:E,4,TRUE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I253" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O253" s="15"/>
+      <c r="I253" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O253" s="18"/>
     </row>
     <row r="254" spans="1:15">
       <c r="A254">
@@ -15526,10 +15620,10 @@
         <f>VLOOKUP(MID(D254,1,2),字库代码!B:E,4,TRUE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I254" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O254" s="15"/>
+      <c r="I254" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O254" s="18"/>
     </row>
     <row r="255" spans="1:9">
       <c r="A255">
@@ -15562,10 +15656,10 @@
       </c>
       <c r="D256"/>
       <c r="E256"/>
-      <c r="I256" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O256" s="15"/>
+      <c r="I256" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O256" s="18"/>
     </row>
     <row r="257" spans="1:15">
       <c r="A257">
@@ -15579,10 +15673,10 @@
       </c>
       <c r="D257"/>
       <c r="E257"/>
-      <c r="I257" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O257" s="15"/>
+      <c r="I257" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O257" s="18"/>
     </row>
     <row r="258" spans="1:9">
       <c r="A258">
@@ -15608,7 +15702,7 @@
       <c r="C259" t="s">
         <v>715</v>
       </c>
-      <c r="I259" s="15" t="s">
+      <c r="I259" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J259" t="s">
@@ -15617,7 +15711,7 @@
       <c r="K259" t="s">
         <v>103</v>
       </c>
-      <c r="O259" s="15"/>
+      <c r="O259" s="18"/>
     </row>
     <row r="260" spans="1:15">
       <c r="A260">
@@ -15629,10 +15723,10 @@
       <c r="C260" t="s">
         <v>718</v>
       </c>
-      <c r="I260" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O260" s="15"/>
+      <c r="I260" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O260" s="18"/>
     </row>
     <row r="261" spans="1:9">
       <c r="A261">
@@ -15655,13 +15749,13 @@
       <c r="B262" t="s">
         <v>721</v>
       </c>
-      <c r="C262" s="15" t="s">
+      <c r="C262" s="18" t="s">
         <v>722</v>
       </c>
-      <c r="I262" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O262" s="15"/>
+      <c r="I262" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O262" s="18"/>
     </row>
     <row r="263" spans="1:9">
       <c r="A263">
@@ -15687,10 +15781,10 @@
       <c r="C264" t="s">
         <v>726</v>
       </c>
-      <c r="I264" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O264" s="15"/>
+      <c r="I264" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O264" s="18"/>
     </row>
     <row r="265" spans="1:9">
       <c r="A265">
@@ -15716,10 +15810,10 @@
       <c r="C266" t="s">
         <v>730</v>
       </c>
-      <c r="I266" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O266" s="15"/>
+      <c r="I266" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O266" s="18"/>
     </row>
     <row r="267" spans="1:9">
       <c r="A267">
@@ -15745,10 +15839,10 @@
       <c r="C268" t="s">
         <v>734</v>
       </c>
-      <c r="I268" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O268" s="15"/>
+      <c r="I268" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O268" s="18"/>
     </row>
     <row r="269" spans="1:9">
       <c r="A269">
@@ -15774,10 +15868,10 @@
       <c r="C270" t="s">
         <v>738</v>
       </c>
-      <c r="I270" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O270" s="15"/>
+      <c r="I270" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O270" s="18"/>
     </row>
     <row r="271" spans="1:9">
       <c r="A271">
@@ -15808,7 +15902,7 @@
       <c r="F272"/>
       <c r="G272"/>
       <c r="H272"/>
-      <c r="I272" s="15" t="s">
+      <c r="I272" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J272"/>
@@ -15816,7 +15910,7 @@
       <c r="L272"/>
       <c r="M272"/>
       <c r="N272"/>
-      <c r="O272" s="15"/>
+      <c r="O272" s="18"/>
       <c r="P272"/>
       <c r="Q272"/>
     </row>
@@ -15860,13 +15954,13 @@
       <c r="F274"/>
       <c r="G274"/>
       <c r="H274"/>
-      <c r="I274" s="15"/>
+      <c r="I274" s="18"/>
       <c r="J274"/>
       <c r="K274"/>
       <c r="L274"/>
       <c r="M274"/>
       <c r="N274"/>
-      <c r="O274" s="15"/>
+      <c r="O274" s="18"/>
       <c r="P274"/>
       <c r="Q274"/>
     </row>
@@ -15912,7 +16006,7 @@
       <c r="F276"/>
       <c r="G276"/>
       <c r="H276"/>
-      <c r="I276" s="15" t="s">
+      <c r="I276" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J276"/>
@@ -15920,7 +16014,7 @@
       <c r="L276"/>
       <c r="M276"/>
       <c r="N276"/>
-      <c r="O276" s="15"/>
+      <c r="O276" s="18"/>
       <c r="P276"/>
       <c r="Q276"/>
     </row>
@@ -15953,7 +16047,7 @@
       <c r="F278"/>
       <c r="G278"/>
       <c r="H278"/>
-      <c r="I278" s="15" t="s">
+      <c r="I278" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J278"/>
@@ -15961,7 +16055,7 @@
       <c r="L278"/>
       <c r="M278"/>
       <c r="N278"/>
-      <c r="O278" s="15"/>
+      <c r="O278" s="18"/>
       <c r="P278"/>
       <c r="Q278"/>
     </row>
@@ -15989,10 +16083,10 @@
       <c r="C280" t="s">
         <v>757</v>
       </c>
-      <c r="I280" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O280" s="15"/>
+      <c r="I280" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O280" s="18"/>
     </row>
     <row r="281" s="22" customFormat="1" spans="1:17">
       <c r="A281">
@@ -16036,7 +16130,7 @@
       <c r="F282"/>
       <c r="G282"/>
       <c r="H282"/>
-      <c r="I282" s="15" t="s">
+      <c r="I282" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J282"/>
@@ -16044,7 +16138,7 @@
       <c r="L282"/>
       <c r="M282"/>
       <c r="N282"/>
-      <c r="O282" s="15"/>
+      <c r="O282" s="18"/>
       <c r="P282"/>
       <c r="Q282"/>
     </row>
@@ -16060,10 +16154,10 @@
       </c>
       <c r="D283"/>
       <c r="E283"/>
-      <c r="I283" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O283" s="15"/>
+      <c r="I283" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O283" s="18"/>
     </row>
     <row r="284" spans="1:9">
       <c r="A284">
@@ -16093,10 +16187,10 @@
       </c>
       <c r="D285"/>
       <c r="E285"/>
-      <c r="I285" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O285" s="15"/>
+      <c r="I285" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O285" s="18"/>
     </row>
     <row r="286" spans="1:9">
       <c r="A286">
@@ -16126,10 +16220,10 @@
       </c>
       <c r="D287"/>
       <c r="E287"/>
-      <c r="I287" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O287" s="15"/>
+      <c r="I287" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O287" s="18"/>
     </row>
     <row r="288" spans="1:9">
       <c r="A288">
@@ -16162,7 +16256,7 @@
       <c r="F289"/>
       <c r="G289"/>
       <c r="H289"/>
-      <c r="I289" s="15" t="s">
+      <c r="I289" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J289"/>
@@ -16170,7 +16264,7 @@
       <c r="L289"/>
       <c r="M289"/>
       <c r="N289"/>
-      <c r="O289" s="15"/>
+      <c r="O289" s="18"/>
       <c r="P289"/>
       <c r="Q289"/>
     </row>
@@ -16213,10 +16307,10 @@
       </c>
       <c r="D291"/>
       <c r="E291"/>
-      <c r="I291" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O291" s="15"/>
+      <c r="I291" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O291" s="18"/>
     </row>
     <row r="292" spans="1:15">
       <c r="A292">
@@ -16230,10 +16324,10 @@
       </c>
       <c r="D292"/>
       <c r="E292"/>
-      <c r="I292" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O292" s="15"/>
+      <c r="I292" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O292" s="18"/>
     </row>
     <row r="293" spans="1:9">
       <c r="A293">
@@ -16258,7 +16352,7 @@
       <c r="B294" t="s">
         <v>784</v>
       </c>
-      <c r="C294" s="15" t="s">
+      <c r="C294" s="18" t="s">
         <v>785</v>
       </c>
       <c r="D294"/>
@@ -16290,7 +16384,7 @@
       </c>
       <c r="D295"/>
       <c r="E295"/>
-      <c r="I295" s="15" t="s">
+      <c r="I295" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J295" t="s">
@@ -16299,7 +16393,7 @@
       <c r="K295" t="s">
         <v>103</v>
       </c>
-      <c r="O295" s="15"/>
+      <c r="O295" s="18"/>
     </row>
     <row r="296" s="22" customFormat="1" spans="1:17">
       <c r="A296">
@@ -16343,7 +16437,7 @@
       <c r="F297"/>
       <c r="G297"/>
       <c r="H297"/>
-      <c r="I297" s="15" t="s">
+      <c r="I297" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J297"/>
@@ -16351,7 +16445,7 @@
       <c r="L297"/>
       <c r="M297"/>
       <c r="N297"/>
-      <c r="O297" s="15"/>
+      <c r="O297" s="18"/>
       <c r="P297"/>
       <c r="Q297"/>
     </row>
@@ -16402,7 +16496,7 @@
       <c r="F300"/>
       <c r="G300"/>
       <c r="H300"/>
-      <c r="I300" s="15" t="s">
+      <c r="I300" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J300"/>
@@ -16410,7 +16504,7 @@
       <c r="L300"/>
       <c r="M300"/>
       <c r="N300"/>
-      <c r="O300" s="15"/>
+      <c r="O300" s="18"/>
       <c r="P300"/>
       <c r="Q300"/>
     </row>
@@ -16445,7 +16539,7 @@
       <c r="F302"/>
       <c r="G302"/>
       <c r="H302"/>
-      <c r="I302" s="15" t="s">
+      <c r="I302" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J302"/>
@@ -16453,7 +16547,7 @@
       <c r="L302"/>
       <c r="M302"/>
       <c r="N302"/>
-      <c r="O302" s="15"/>
+      <c r="O302" s="18"/>
       <c r="P302"/>
       <c r="Q302"/>
     </row>
@@ -16485,10 +16579,10 @@
       </c>
       <c r="D304"/>
       <c r="E304"/>
-      <c r="I304" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O304" s="15"/>
+      <c r="I304" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O304" s="18"/>
     </row>
     <row r="305" spans="1:9">
       <c r="A305">
@@ -16521,7 +16615,7 @@
       <c r="F306"/>
       <c r="G306"/>
       <c r="H306"/>
-      <c r="I306" s="15" t="s">
+      <c r="I306" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J306"/>
@@ -16529,7 +16623,7 @@
       <c r="L306"/>
       <c r="M306"/>
       <c r="N306"/>
-      <c r="O306" s="15"/>
+      <c r="O306" s="18"/>
       <c r="P306"/>
       <c r="Q306"/>
     </row>
@@ -16561,10 +16655,10 @@
       </c>
       <c r="D308"/>
       <c r="E308"/>
-      <c r="I308" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O308" s="15"/>
+      <c r="I308" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O308" s="18"/>
     </row>
     <row r="309" spans="1:9">
       <c r="A309">
@@ -16597,7 +16691,7 @@
       <c r="F310"/>
       <c r="G310"/>
       <c r="H310"/>
-      <c r="I310" s="15" t="s">
+      <c r="I310" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J310"/>
@@ -16605,7 +16699,7 @@
       <c r="L310"/>
       <c r="M310"/>
       <c r="N310"/>
-      <c r="O310" s="15"/>
+      <c r="O310" s="18"/>
       <c r="P310"/>
       <c r="Q310"/>
     </row>
@@ -16616,7 +16710,7 @@
       <c r="B311" t="s">
         <v>819</v>
       </c>
-      <c r="C311" s="15" t="s">
+      <c r="C311" s="18" t="s">
         <v>820</v>
       </c>
       <c r="D311"/>
@@ -16637,10 +16731,10 @@
       </c>
       <c r="D312"/>
       <c r="E312"/>
-      <c r="I312" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O312" s="15"/>
+      <c r="I312" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O312" s="18"/>
     </row>
     <row r="313" spans="1:9">
       <c r="A313">
@@ -16665,7 +16759,7 @@
       <c r="B314" t="s">
         <v>825</v>
       </c>
-      <c r="C314" s="15" t="s">
+      <c r="C314" s="18" t="s">
         <v>826</v>
       </c>
       <c r="D314"/>
@@ -16686,10 +16780,10 @@
       </c>
       <c r="D315"/>
       <c r="E315"/>
-      <c r="I315" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O315" s="15"/>
+      <c r="I315" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O315" s="18"/>
     </row>
     <row r="316" spans="1:9">
       <c r="A316">
@@ -16698,7 +16792,7 @@
       <c r="B316" t="s">
         <v>829</v>
       </c>
-      <c r="C316" s="15" t="s">
+      <c r="C316" s="18" t="s">
         <v>830</v>
       </c>
       <c r="D316"/>
@@ -16714,15 +16808,15 @@
       <c r="B317" t="s">
         <v>831</v>
       </c>
-      <c r="C317" s="15" t="s">
+      <c r="C317" s="18" t="s">
         <v>832</v>
       </c>
       <c r="D317"/>
       <c r="E317"/>
-      <c r="I317" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O317" s="15"/>
+      <c r="I317" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O317" s="18"/>
     </row>
     <row r="318" spans="1:9">
       <c r="A318">
@@ -16752,10 +16846,10 @@
       </c>
       <c r="D319"/>
       <c r="E319"/>
-      <c r="I319" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O319" s="15"/>
+      <c r="I319" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O319" s="18"/>
     </row>
     <row r="320" spans="1:9">
       <c r="A320">
@@ -16785,10 +16879,10 @@
       </c>
       <c r="D321"/>
       <c r="E321"/>
-      <c r="I321" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O321" s="15"/>
+      <c r="I321" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O321" s="18"/>
     </row>
     <row r="322" spans="1:9">
       <c r="A322">
@@ -16818,10 +16912,10 @@
       </c>
       <c r="D323"/>
       <c r="E323"/>
-      <c r="I323" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O323" s="15"/>
+      <c r="I323" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O323" s="18"/>
     </row>
     <row r="324" spans="1:9">
       <c r="A324">
@@ -16851,10 +16945,10 @@
       </c>
       <c r="D325"/>
       <c r="E325"/>
-      <c r="I325" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O325" s="15"/>
+      <c r="I325" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O325" s="18"/>
     </row>
     <row r="326" spans="1:9">
       <c r="A326">
@@ -16884,10 +16978,10 @@
       </c>
       <c r="D327"/>
       <c r="E327"/>
-      <c r="I327" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O327" s="15"/>
+      <c r="I327" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O327" s="18"/>
     </row>
     <row r="328" spans="1:9">
       <c r="A328">
@@ -16917,10 +17011,10 @@
       </c>
       <c r="D329"/>
       <c r="E329"/>
-      <c r="I329" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O329" s="15"/>
+      <c r="I329" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O329" s="18"/>
     </row>
     <row r="330" spans="1:9">
       <c r="A330">
@@ -16950,10 +17044,10 @@
       </c>
       <c r="D331"/>
       <c r="E331"/>
-      <c r="I331" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O331" s="15"/>
+      <c r="I331" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O331" s="18"/>
     </row>
     <row r="332" spans="1:9">
       <c r="A332">
@@ -16986,7 +17080,7 @@
       <c r="F333"/>
       <c r="G333"/>
       <c r="H333"/>
-      <c r="I333" s="15" t="s">
+      <c r="I333" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J333"/>
@@ -16994,7 +17088,7 @@
       <c r="L333"/>
       <c r="M333"/>
       <c r="N333"/>
-      <c r="O333" s="15"/>
+      <c r="O333" s="18"/>
       <c r="P333"/>
       <c r="Q333"/>
     </row>
@@ -17035,10 +17129,10 @@
       <c r="C335" t="s">
         <v>868</v>
       </c>
-      <c r="I335" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O335" s="15"/>
+      <c r="I335" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O335" s="18"/>
     </row>
     <row r="336" spans="1:9">
       <c r="A336">
@@ -17066,10 +17160,10 @@
       <c r="C337" t="s">
         <v>872</v>
       </c>
-      <c r="I337" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O337" s="15"/>
+      <c r="I337" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O337" s="18"/>
     </row>
     <row r="338" spans="1:9">
       <c r="A338">
@@ -17095,10 +17189,10 @@
       <c r="C339" t="s">
         <v>876</v>
       </c>
-      <c r="I339" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O339" s="15"/>
+      <c r="I339" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O339" s="18"/>
     </row>
     <row r="340" spans="1:9">
       <c r="A340">
@@ -17124,10 +17218,10 @@
       <c r="C341" t="s">
         <v>880</v>
       </c>
-      <c r="I341" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O341" s="15"/>
+      <c r="I341" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O341" s="18"/>
     </row>
     <row r="342" spans="1:9">
       <c r="A342">
@@ -17152,15 +17246,15 @@
       <c r="B343" t="s">
         <v>883</v>
       </c>
-      <c r="C343" s="15" t="s">
+      <c r="C343" s="18" t="s">
         <v>884</v>
       </c>
       <c r="D343"/>
       <c r="E343"/>
-      <c r="I343" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O343" s="15"/>
+      <c r="I343" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O343" s="18"/>
     </row>
     <row r="344" spans="1:9">
       <c r="A344">
@@ -17190,10 +17284,10 @@
       </c>
       <c r="D345"/>
       <c r="E345"/>
-      <c r="I345" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O345" s="15"/>
+      <c r="I345" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O345" s="18"/>
     </row>
     <row r="346" spans="1:9">
       <c r="A346">
@@ -17223,10 +17317,10 @@
       </c>
       <c r="D347"/>
       <c r="E347"/>
-      <c r="I347" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O347" s="15"/>
+      <c r="I347" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O347" s="18"/>
     </row>
     <row r="348" spans="1:9">
       <c r="A348">
@@ -17256,10 +17350,10 @@
       </c>
       <c r="D349"/>
       <c r="E349"/>
-      <c r="I349" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O349" s="15"/>
+      <c r="I349" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O349" s="18"/>
     </row>
     <row r="350" s="22" customFormat="1" spans="1:17">
       <c r="A350">
@@ -17300,10 +17394,10 @@
       </c>
       <c r="D351"/>
       <c r="E351"/>
-      <c r="I351" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O351" s="15"/>
+      <c r="I351" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O351" s="18"/>
     </row>
     <row r="352" spans="1:9">
       <c r="A352">
@@ -17333,10 +17427,10 @@
       </c>
       <c r="D353"/>
       <c r="E353"/>
-      <c r="I353" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O353" s="15"/>
+      <c r="I353" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O353" s="18"/>
     </row>
     <row r="354" spans="1:9">
       <c r="A354">
@@ -17369,7 +17463,7 @@
       <c r="F355"/>
       <c r="G355"/>
       <c r="H355"/>
-      <c r="I355" s="15" t="s">
+      <c r="I355" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J355"/>
@@ -17377,7 +17471,7 @@
       <c r="L355"/>
       <c r="M355"/>
       <c r="N355"/>
-      <c r="O355" s="15"/>
+      <c r="O355" s="18"/>
       <c r="P355"/>
       <c r="Q355"/>
     </row>
@@ -17423,7 +17517,7 @@
       <c r="F357"/>
       <c r="G357"/>
       <c r="H357"/>
-      <c r="I357" s="15" t="s">
+      <c r="I357" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J357"/>
@@ -17431,7 +17525,7 @@
       <c r="L357"/>
       <c r="M357"/>
       <c r="N357"/>
-      <c r="O357" s="15"/>
+      <c r="O357" s="18"/>
       <c r="P357"/>
       <c r="Q357"/>
     </row>
@@ -17469,15 +17563,15 @@
       <c r="B359" t="s">
         <v>914</v>
       </c>
-      <c r="C359" s="15" t="s">
+      <c r="C359" s="18" t="s">
         <v>915</v>
       </c>
       <c r="D359"/>
       <c r="E359"/>
-      <c r="I359" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O359" s="15"/>
+      <c r="I359" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O359" s="18"/>
     </row>
     <row r="360" spans="1:9">
       <c r="A360">
@@ -17540,7 +17634,7 @@
       <c r="B363" t="s">
         <v>922</v>
       </c>
-      <c r="C363" s="15" t="s">
+      <c r="C363" s="18" t="s">
         <v>923</v>
       </c>
       <c r="D363"/>
@@ -17548,10 +17642,10 @@
         <f>VLOOKUP(MID(D363,1,2),字库代码!B:F,5,TRUE)&amp;VLOOKUP(MID(D363,4,2),字库代码!B:F,5,TRUE)&amp;VLOOKUP(MID(D363,7,2),字库代码!B:F,5,TRUE)&amp;VLOOKUP(MID(D363,10,2),字库代码!B:F,5,TRUE)&amp;VLOOKUP(MID(D363,13,2),字库代码!B:F,5,TRUE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I363" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O363" s="15"/>
+      <c r="I363" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O363" s="18"/>
     </row>
     <row r="364" spans="1:9">
       <c r="A364">
@@ -17581,10 +17675,10 @@
       </c>
       <c r="D365"/>
       <c r="E365"/>
-      <c r="I365" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O365" s="15"/>
+      <c r="I365" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O365" s="18"/>
     </row>
     <row r="366" spans="1:9">
       <c r="A366">
@@ -17617,7 +17711,7 @@
       <c r="F367"/>
       <c r="G367"/>
       <c r="H367"/>
-      <c r="I367" s="15" t="s">
+      <c r="I367" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J367"/>
@@ -17625,7 +17719,7 @@
       <c r="L367"/>
       <c r="M367"/>
       <c r="N367"/>
-      <c r="O367" s="15"/>
+      <c r="O367" s="18"/>
       <c r="P367"/>
       <c r="Q367"/>
     </row>
@@ -17668,10 +17762,10 @@
       </c>
       <c r="D369"/>
       <c r="E369"/>
-      <c r="I369" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O369" s="15"/>
+      <c r="I369" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O369" s="18"/>
     </row>
     <row r="370" spans="1:9">
       <c r="A370">
@@ -17701,10 +17795,10 @@
       </c>
       <c r="D371"/>
       <c r="E371"/>
-      <c r="I371" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O371" s="15"/>
+      <c r="I371" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O371" s="18"/>
     </row>
     <row r="372" spans="1:9">
       <c r="A372">
@@ -17750,10 +17844,10 @@
       </c>
       <c r="D374"/>
       <c r="E374"/>
-      <c r="I374" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O374" s="15"/>
+      <c r="I374" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O374" s="18"/>
     </row>
     <row r="375" spans="1:9">
       <c r="A375">
@@ -17815,10 +17909,10 @@
       </c>
       <c r="D378"/>
       <c r="E378"/>
-      <c r="I378" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O378" s="15"/>
+      <c r="I378" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O378" s="18"/>
     </row>
     <row r="379" spans="1:9">
       <c r="A379">
@@ -17851,7 +17945,7 @@
       <c r="F380"/>
       <c r="G380"/>
       <c r="H380"/>
-      <c r="I380" s="15" t="s">
+      <c r="I380" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J380"/>
@@ -17859,7 +17953,7 @@
       <c r="L380"/>
       <c r="M380"/>
       <c r="N380"/>
-      <c r="O380" s="15"/>
+      <c r="O380" s="18"/>
       <c r="P380"/>
       <c r="Q380"/>
     </row>
@@ -17921,7 +18015,7 @@
       <c r="F383"/>
       <c r="G383"/>
       <c r="H383"/>
-      <c r="I383" s="15" t="s">
+      <c r="I383" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J383"/>
@@ -17929,7 +18023,7 @@
       <c r="L383"/>
       <c r="M383"/>
       <c r="N383"/>
-      <c r="O383" s="15"/>
+      <c r="O383" s="18"/>
       <c r="P383"/>
       <c r="Q383"/>
     </row>
@@ -17972,10 +18066,10 @@
       </c>
       <c r="D385"/>
       <c r="E385"/>
-      <c r="I385" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O385" s="15"/>
+      <c r="I385" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O385" s="18"/>
     </row>
     <row r="386" spans="1:9">
       <c r="A386">
@@ -18005,10 +18099,10 @@
       </c>
       <c r="D387"/>
       <c r="E387"/>
-      <c r="I387" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O387" s="15"/>
+      <c r="I387" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O387" s="18"/>
     </row>
     <row r="388" spans="1:9">
       <c r="A388">
@@ -18038,10 +18132,10 @@
       </c>
       <c r="D389"/>
       <c r="E389"/>
-      <c r="I389" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O389" s="15"/>
+      <c r="I389" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O389" s="18"/>
     </row>
     <row r="390" spans="1:9">
       <c r="A390">
@@ -18071,10 +18165,10 @@
       </c>
       <c r="D391"/>
       <c r="E391"/>
-      <c r="I391" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O391" s="15"/>
+      <c r="I391" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O391" s="18"/>
     </row>
     <row r="392" spans="1:9">
       <c r="A392">
@@ -18099,15 +18193,15 @@
       <c r="B393" t="s">
         <v>981</v>
       </c>
-      <c r="C393" s="15" t="s">
+      <c r="C393" s="18" t="s">
         <v>982</v>
       </c>
       <c r="D393"/>
       <c r="E393"/>
-      <c r="I393" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O393" s="15"/>
+      <c r="I393" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O393" s="18"/>
     </row>
     <row r="394" spans="1:9">
       <c r="A394">
@@ -18137,10 +18231,10 @@
       </c>
       <c r="D395"/>
       <c r="E395"/>
-      <c r="I395" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O395" s="15"/>
+      <c r="I395" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O395" s="18"/>
     </row>
     <row r="396" spans="1:9">
       <c r="A396">
@@ -18165,7 +18259,7 @@
       <c r="B397" t="s">
         <v>989</v>
       </c>
-      <c r="C397" s="15" t="s">
+      <c r="C397" s="18" t="s">
         <v>990</v>
       </c>
       <c r="D397"/>
@@ -18173,7 +18267,7 @@
       <c r="F397"/>
       <c r="G397"/>
       <c r="H397"/>
-      <c r="I397" s="15" t="s">
+      <c r="I397" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J397"/>
@@ -18181,7 +18275,7 @@
       <c r="L397"/>
       <c r="M397"/>
       <c r="N397"/>
-      <c r="O397" s="15"/>
+      <c r="O397" s="18"/>
       <c r="P397"/>
       <c r="Q397"/>
     </row>
@@ -18219,7 +18313,7 @@
       <c r="B399" t="s">
         <v>993</v>
       </c>
-      <c r="C399" s="15" t="s">
+      <c r="C399" s="18" t="s">
         <v>994</v>
       </c>
       <c r="D399"/>
@@ -18227,7 +18321,7 @@
       <c r="F399"/>
       <c r="G399"/>
       <c r="H399"/>
-      <c r="I399" s="15" t="s">
+      <c r="I399" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J399"/>
@@ -18235,7 +18329,7 @@
       <c r="L399"/>
       <c r="M399"/>
       <c r="N399"/>
-      <c r="O399" s="15"/>
+      <c r="O399" s="18"/>
       <c r="P399"/>
       <c r="Q399"/>
     </row>
@@ -18267,10 +18361,10 @@
       </c>
       <c r="D401"/>
       <c r="E401"/>
-      <c r="I401" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O401" s="15"/>
+      <c r="I401" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O401" s="18"/>
     </row>
     <row r="402" spans="1:9">
       <c r="A402">
@@ -18303,7 +18397,7 @@
       <c r="F403"/>
       <c r="G403"/>
       <c r="H403"/>
-      <c r="I403" s="15" t="s">
+      <c r="I403" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J403"/>
@@ -18311,7 +18405,7 @@
       <c r="L403"/>
       <c r="M403"/>
       <c r="N403"/>
-      <c r="O403" s="15"/>
+      <c r="O403" s="18"/>
       <c r="P403"/>
       <c r="Q403"/>
     </row>
@@ -18346,7 +18440,7 @@
       <c r="F405"/>
       <c r="G405"/>
       <c r="H405"/>
-      <c r="I405" s="15" t="s">
+      <c r="I405" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J405"/>
@@ -18354,7 +18448,7 @@
       <c r="L405"/>
       <c r="M405"/>
       <c r="N405"/>
-      <c r="O405" s="15"/>
+      <c r="O405" s="18"/>
       <c r="P405"/>
       <c r="Q405"/>
     </row>
@@ -18381,15 +18475,15 @@
       <c r="B407" t="s">
         <v>1009</v>
       </c>
-      <c r="C407" s="15" t="s">
+      <c r="C407" s="18" t="s">
         <v>1010</v>
       </c>
       <c r="D407"/>
       <c r="E407"/>
-      <c r="I407" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O407" s="15"/>
+      <c r="I407" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O407" s="18"/>
     </row>
     <row r="408" s="22" customFormat="1" spans="1:17">
       <c r="A408">
@@ -18425,15 +18519,15 @@
       <c r="B409" t="s">
         <v>1013</v>
       </c>
-      <c r="C409" s="15" t="s">
+      <c r="C409" s="18" t="s">
         <v>1014</v>
       </c>
       <c r="D409"/>
       <c r="E409"/>
-      <c r="I409" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O409" s="15"/>
+      <c r="I409" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O409" s="18"/>
     </row>
     <row r="410" spans="1:9">
       <c r="A410">
@@ -18463,10 +18557,10 @@
       </c>
       <c r="D411"/>
       <c r="E411"/>
-      <c r="I411" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O411" s="15"/>
+      <c r="I411" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O411" s="18"/>
     </row>
     <row r="412" s="22" customFormat="1" spans="1:17">
       <c r="A412">
@@ -18510,7 +18604,7 @@
       <c r="F413"/>
       <c r="G413"/>
       <c r="H413"/>
-      <c r="I413" s="15" t="s">
+      <c r="I413" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J413"/>
@@ -18518,7 +18612,7 @@
       <c r="L413"/>
       <c r="M413"/>
       <c r="N413"/>
-      <c r="O413" s="15"/>
+      <c r="O413" s="18"/>
       <c r="P413"/>
       <c r="Q413"/>
     </row>
@@ -18550,10 +18644,10 @@
       </c>
       <c r="D415"/>
       <c r="E415"/>
-      <c r="I415" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O415" s="15"/>
+      <c r="I415" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O415" s="18"/>
     </row>
     <row r="416" spans="1:9">
       <c r="A416">
@@ -18586,7 +18680,7 @@
       <c r="F417"/>
       <c r="G417"/>
       <c r="H417"/>
-      <c r="I417" s="15" t="s">
+      <c r="I417" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J417"/>
@@ -18594,7 +18688,7 @@
       <c r="L417"/>
       <c r="M417"/>
       <c r="N417"/>
-      <c r="O417" s="15"/>
+      <c r="O417" s="18"/>
       <c r="P417"/>
       <c r="Q417"/>
     </row>
@@ -18642,10 +18736,10 @@
       </c>
       <c r="D420"/>
       <c r="E420"/>
-      <c r="I420" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O420" s="15"/>
+      <c r="I420" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O420" s="18"/>
     </row>
     <row r="421" spans="1:9">
       <c r="A421">
@@ -18675,10 +18769,10 @@
       </c>
       <c r="D422"/>
       <c r="E422"/>
-      <c r="I422" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O422" s="15"/>
+      <c r="I422" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O422" s="18"/>
     </row>
     <row r="423" spans="1:9">
       <c r="A423">
@@ -18687,7 +18781,7 @@
       <c r="B423" t="s">
         <v>1041</v>
       </c>
-      <c r="C423" s="15" t="s">
+      <c r="C423" s="18" t="s">
         <v>1042</v>
       </c>
       <c r="D423"/>
@@ -18708,7 +18802,7 @@
       </c>
       <c r="D424"/>
       <c r="E424"/>
-      <c r="I424" s="15" t="s">
+      <c r="I424" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J424" t="s">
@@ -18717,7 +18811,7 @@
       <c r="K424" t="s">
         <v>103</v>
       </c>
-      <c r="O424" s="15"/>
+      <c r="O424" s="18"/>
     </row>
     <row r="425" spans="1:9">
       <c r="A425">
@@ -18747,10 +18841,10 @@
       </c>
       <c r="D426"/>
       <c r="E426" s="22"/>
-      <c r="I426" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O426" s="15"/>
+      <c r="I426" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O426" s="18"/>
     </row>
     <row r="427" s="22" customFormat="1" spans="1:17">
       <c r="A427">
@@ -18790,10 +18884,10 @@
       </c>
       <c r="D428"/>
       <c r="E428" s="22"/>
-      <c r="I428" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O428" s="15"/>
+      <c r="I428" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O428" s="18"/>
     </row>
     <row r="429" spans="1:9">
       <c r="A429">
@@ -18824,7 +18918,7 @@
       <c r="F430"/>
       <c r="G430"/>
       <c r="H430"/>
-      <c r="I430" s="15" t="s">
+      <c r="I430" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J430"/>
@@ -18832,7 +18926,7 @@
       <c r="L430"/>
       <c r="M430"/>
       <c r="N430"/>
-      <c r="O430" s="15"/>
+      <c r="O430" s="18"/>
       <c r="P430"/>
       <c r="Q430"/>
     </row>
@@ -18874,10 +18968,10 @@
       </c>
       <c r="D432"/>
       <c r="E432" s="22"/>
-      <c r="I432" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O432" s="15"/>
+      <c r="I432" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O432" s="18"/>
     </row>
     <row r="433" s="22" customFormat="1" spans="1:17">
       <c r="A433">
@@ -18886,7 +18980,7 @@
       <c r="B433" t="s">
         <v>1062</v>
       </c>
-      <c r="C433" s="15" t="s">
+      <c r="C433" s="18" t="s">
         <v>1063</v>
       </c>
       <c r="D433"/>
@@ -18917,10 +19011,10 @@
       </c>
       <c r="D434"/>
       <c r="E434" s="22"/>
-      <c r="I434" s="15" t="s">
+      <c r="I434" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="O434" s="15"/>
+      <c r="O434" s="18"/>
     </row>
     <row r="435" spans="1:9">
       <c r="A435">
@@ -18945,7 +19039,7 @@
       <c r="B436" t="s">
         <v>1068</v>
       </c>
-      <c r="C436" s="15" t="s">
+      <c r="C436" s="18" t="s">
         <v>1069</v>
       </c>
       <c r="D436"/>
@@ -18966,10 +19060,10 @@
       </c>
       <c r="D437"/>
       <c r="E437"/>
-      <c r="I437" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O437" s="15"/>
+      <c r="I437" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O437" s="18"/>
     </row>
     <row r="438" spans="1:9">
       <c r="A438">
@@ -18999,10 +19093,10 @@
       </c>
       <c r="D439"/>
       <c r="E439"/>
-      <c r="I439" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O439" s="15"/>
+      <c r="I439" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O439" s="18"/>
     </row>
     <row r="440" spans="1:9">
       <c r="A440">
@@ -19032,10 +19126,10 @@
       </c>
       <c r="D441"/>
       <c r="E441"/>
-      <c r="I441" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O441" s="15"/>
+      <c r="I441" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O441" s="18"/>
     </row>
     <row r="442" spans="1:9">
       <c r="A442">
@@ -19065,10 +19159,10 @@
       </c>
       <c r="D443"/>
       <c r="E443"/>
-      <c r="I443" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O443" s="15"/>
+      <c r="I443" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O443" s="18"/>
     </row>
     <row r="444" spans="1:9">
       <c r="A444">
@@ -19098,10 +19192,10 @@
       </c>
       <c r="D445"/>
       <c r="E445"/>
-      <c r="I445" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O445" s="15"/>
+      <c r="I445" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O445" s="18"/>
     </row>
     <row r="446" spans="1:15">
       <c r="A446">
@@ -19110,17 +19204,17 @@
       <c r="B446" t="s">
         <v>1086</v>
       </c>
-      <c r="C446" s="15" t="s">
+      <c r="C446" s="18" t="s">
         <v>1087</v>
       </c>
       <c r="E446" s="22" t="e">
         <f>VLOOKUP(MID(D446,1,2),字库代码!B:E,4,TRUE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I446" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O446" s="15"/>
+      <c r="I446" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O446" s="18"/>
     </row>
     <row r="447" spans="1:9">
       <c r="A447">
@@ -19129,7 +19223,7 @@
       <c r="B447" t="s">
         <v>1088</v>
       </c>
-      <c r="C447" s="15" t="s">
+      <c r="C447" s="18" t="s">
         <v>1089</v>
       </c>
       <c r="D447"/>
@@ -19180,10 +19274,10 @@
         <f>VLOOKUP(MID(D449,1,2),字库代码!B:E,4,TRUE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I449" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O449" s="15"/>
+      <c r="I449" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O449" s="18"/>
     </row>
     <row r="450" spans="1:15">
       <c r="A450">
@@ -19199,10 +19293,10 @@
         <f>VLOOKUP(MID(D450,1,2),字库代码!B:E,4,TRUE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I450" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O450" s="15"/>
+      <c r="I450" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O450" s="18"/>
     </row>
     <row r="451" spans="1:15">
       <c r="A451">
@@ -19218,10 +19312,10 @@
         <f>VLOOKUP(MID(D451,1,2),字库代码!B:E,4,TRUE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I451" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O451" s="15"/>
+      <c r="I451" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O451" s="18"/>
     </row>
     <row r="452" spans="1:9">
       <c r="A452">
@@ -19255,10 +19349,10 @@
         <f>VLOOKUP(MID(D453,1,2),字库代码!B:E,4,TRUE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I453" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O453" s="15"/>
+      <c r="I453" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O453" s="18"/>
     </row>
     <row r="454" spans="1:9">
       <c r="A454">
@@ -19292,10 +19386,10 @@
         <f>VLOOKUP(MID(D455,1,2),字库代码!B:E,4,TRUE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I455" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O455" s="15"/>
+      <c r="I455" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O455" s="18"/>
     </row>
     <row r="456" spans="1:11">
       <c r="A456">
@@ -19328,17 +19422,17 @@
       <c r="B457" t="s">
         <v>1107</v>
       </c>
-      <c r="C457" s="15" t="s">
+      <c r="C457" s="18" t="s">
         <v>1108</v>
       </c>
       <c r="E457" s="22" t="e">
         <f>VLOOKUP(MID(D457,1,2),字库代码!B:E,4,TRUE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I457" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O457" s="15"/>
+      <c r="I457" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O457" s="18"/>
     </row>
     <row r="458" s="22" customFormat="1" spans="1:17">
       <c r="A458">
@@ -19347,7 +19441,7 @@
       <c r="B458" t="s">
         <v>1109</v>
       </c>
-      <c r="C458" s="15" t="s">
+      <c r="C458" s="18" t="s">
         <v>1110</v>
       </c>
       <c r="D458"/>
@@ -19380,7 +19474,7 @@
       <c r="C459" t="s">
         <v>1112</v>
       </c>
-      <c r="I459" s="15" t="s">
+      <c r="I459" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J459" t="s">
@@ -19389,7 +19483,7 @@
       <c r="K459" t="s">
         <v>103</v>
       </c>
-      <c r="O459" s="15"/>
+      <c r="O459" s="18"/>
     </row>
     <row r="460" spans="1:9">
       <c r="A460">
@@ -19415,10 +19509,10 @@
       <c r="C461" t="s">
         <v>1117</v>
       </c>
-      <c r="I461" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O461" s="15"/>
+      <c r="I461" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O461" s="18"/>
     </row>
     <row r="462" spans="1:9">
       <c r="A462">
@@ -19443,15 +19537,15 @@
       <c r="B463" t="s">
         <v>1120</v>
       </c>
-      <c r="C463" s="15" t="s">
+      <c r="C463" s="18" t="s">
         <v>1121</v>
       </c>
       <c r="D463"/>
       <c r="E463"/>
-      <c r="I463" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O463" s="15"/>
+      <c r="I463" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O463" s="18"/>
     </row>
     <row r="464" spans="1:11">
       <c r="A464">
@@ -19487,7 +19581,7 @@
       </c>
       <c r="D465"/>
       <c r="E465"/>
-      <c r="I465" s="15" t="s">
+      <c r="I465" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J465" t="s">
@@ -19496,7 +19590,7 @@
       <c r="K465" t="s">
         <v>103</v>
       </c>
-      <c r="O465" s="15"/>
+      <c r="O465" s="18"/>
     </row>
     <row r="466" spans="1:9">
       <c r="A466">
@@ -19526,10 +19620,10 @@
       </c>
       <c r="D467"/>
       <c r="E467"/>
-      <c r="I467" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O467" s="15"/>
+      <c r="I467" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O467" s="18"/>
     </row>
     <row r="468" spans="1:9">
       <c r="A468">
@@ -19559,10 +19653,10 @@
       </c>
       <c r="D469"/>
       <c r="E469"/>
-      <c r="I469" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O469" s="15"/>
+      <c r="I469" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O469" s="18"/>
     </row>
     <row r="470" s="22" customFormat="1" spans="1:17">
       <c r="A470">
@@ -19604,13 +19698,13 @@
       <c r="F471"/>
       <c r="G471"/>
       <c r="H471"/>
-      <c r="I471" s="15"/>
+      <c r="I471" s="18"/>
       <c r="J471"/>
       <c r="K471"/>
       <c r="L471"/>
       <c r="M471"/>
       <c r="N471"/>
-      <c r="O471" s="15"/>
+      <c r="O471" s="18"/>
       <c r="P471"/>
       <c r="Q471"/>
     </row>
@@ -19656,7 +19750,7 @@
       <c r="F473"/>
       <c r="G473"/>
       <c r="H473"/>
-      <c r="I473" s="15" t="s">
+      <c r="I473" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J473"/>
@@ -19664,7 +19758,7 @@
       <c r="L473"/>
       <c r="M473"/>
       <c r="N473"/>
-      <c r="O473" s="15"/>
+      <c r="O473" s="18"/>
       <c r="P473"/>
       <c r="Q473"/>
     </row>
@@ -19714,7 +19808,7 @@
       <c r="F475"/>
       <c r="G475"/>
       <c r="H475"/>
-      <c r="I475" s="15" t="s">
+      <c r="I475" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J475"/>
@@ -19722,7 +19816,7 @@
       <c r="L475"/>
       <c r="M475"/>
       <c r="N475"/>
-      <c r="O475" s="15"/>
+      <c r="O475" s="18"/>
       <c r="P475"/>
       <c r="Q475"/>
     </row>
@@ -19757,7 +19851,7 @@
       <c r="F477"/>
       <c r="G477"/>
       <c r="H477"/>
-      <c r="I477" s="15" t="s">
+      <c r="I477" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J477"/>
@@ -19765,7 +19859,7 @@
       <c r="L477"/>
       <c r="M477"/>
       <c r="N477"/>
-      <c r="O477" s="15"/>
+      <c r="O477" s="18"/>
       <c r="P477"/>
       <c r="Q477"/>
     </row>
@@ -19808,10 +19902,10 @@
       </c>
       <c r="D479"/>
       <c r="E479"/>
-      <c r="I479" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O479" s="15"/>
+      <c r="I479" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O479" s="18"/>
     </row>
     <row r="480" spans="1:9">
       <c r="A480">
@@ -19857,10 +19951,10 @@
       </c>
       <c r="D482"/>
       <c r="E482"/>
-      <c r="I482" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O482" s="15"/>
+      <c r="I482" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O482" s="18"/>
     </row>
     <row r="483" spans="1:11">
       <c r="A483">
@@ -19899,7 +19993,7 @@
       <c r="F484"/>
       <c r="G484"/>
       <c r="H484"/>
-      <c r="I484" s="15" t="s">
+      <c r="I484" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J484"/>
@@ -19907,7 +20001,7 @@
       <c r="L484"/>
       <c r="M484"/>
       <c r="N484"/>
-      <c r="O484" s="15"/>
+      <c r="O484" s="18"/>
       <c r="P484"/>
       <c r="Q484"/>
     </row>
@@ -19950,10 +20044,10 @@
       </c>
       <c r="D486"/>
       <c r="E486"/>
-      <c r="I486" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O486" s="15"/>
+      <c r="I486" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O486" s="18"/>
     </row>
     <row r="487" spans="1:9">
       <c r="A487">
@@ -19983,10 +20077,10 @@
       </c>
       <c r="D488"/>
       <c r="E488"/>
-      <c r="I488" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O488" s="15"/>
+      <c r="I488" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O488" s="18"/>
     </row>
     <row r="489" spans="1:15">
       <c r="A489">
@@ -20000,10 +20094,10 @@
       </c>
       <c r="D489"/>
       <c r="E489"/>
-      <c r="I489" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O489" s="15"/>
+      <c r="I489" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O489" s="18"/>
     </row>
     <row r="490" spans="1:17">
       <c r="A490" s="22">
@@ -20059,10 +20153,10 @@
       </c>
       <c r="D492"/>
       <c r="E492"/>
-      <c r="I492" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O492" s="15"/>
+      <c r="I492" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O492" s="18"/>
     </row>
     <row r="493" spans="1:9">
       <c r="A493">
@@ -20091,10 +20185,10 @@
         <v>1184</v>
       </c>
       <c r="E494"/>
-      <c r="I494" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O494" s="15"/>
+      <c r="I494" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O494" s="18"/>
     </row>
     <row r="495" spans="1:5">
       <c r="A495">
@@ -20118,10 +20212,10 @@
       <c r="C496" t="s">
         <v>1188</v>
       </c>
-      <c r="I496" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O496" s="15"/>
+      <c r="I496" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O496" s="18"/>
     </row>
     <row r="497" spans="1:9">
       <c r="A497">
@@ -20147,10 +20241,10 @@
       <c r="C498" t="s">
         <v>1192</v>
       </c>
-      <c r="I498" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O498" s="15"/>
+      <c r="I498" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O498" s="18"/>
     </row>
     <row r="499" spans="1:9">
       <c r="A499">
@@ -20176,10 +20270,10 @@
       <c r="C500" t="s">
         <v>1196</v>
       </c>
-      <c r="I500" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O500" s="15"/>
+      <c r="I500" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O500" s="18"/>
     </row>
     <row r="501" spans="1:9">
       <c r="A501">
@@ -20205,10 +20299,10 @@
       <c r="C502" t="s">
         <v>1200</v>
       </c>
-      <c r="I502" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O502" s="15"/>
+      <c r="I502" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O502" s="18"/>
     </row>
     <row r="503" spans="1:9">
       <c r="A503">
@@ -20234,10 +20328,10 @@
       <c r="C504" t="s">
         <v>1204</v>
       </c>
-      <c r="I504" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O504" s="15"/>
+      <c r="I504" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O504" s="18"/>
     </row>
     <row r="505" spans="1:9">
       <c r="A505">
@@ -20263,10 +20357,10 @@
       <c r="C506" t="s">
         <v>1208</v>
       </c>
-      <c r="I506" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O506" s="15"/>
+      <c r="I506" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O506" s="18"/>
     </row>
     <row r="507" spans="1:9">
       <c r="A507">
@@ -20292,10 +20386,10 @@
       <c r="C508" t="s">
         <v>1212</v>
       </c>
-      <c r="I508" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O508" s="15"/>
+      <c r="I508" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O508" s="18"/>
     </row>
     <row r="509" spans="1:9">
       <c r="A509">
@@ -20321,10 +20415,10 @@
       <c r="C510" t="s">
         <v>1216</v>
       </c>
-      <c r="I510" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O510" s="15"/>
+      <c r="I510" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O510" s="18"/>
     </row>
     <row r="511" spans="1:9">
       <c r="A511">
@@ -20355,7 +20449,7 @@
       <c r="F512"/>
       <c r="G512"/>
       <c r="H512"/>
-      <c r="I512" s="15" t="s">
+      <c r="I512" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J512"/>
@@ -20363,7 +20457,7 @@
       <c r="L512"/>
       <c r="M512"/>
       <c r="N512"/>
-      <c r="O512" s="15"/>
+      <c r="O512" s="18"/>
       <c r="P512"/>
       <c r="Q512"/>
     </row>
@@ -20374,7 +20468,7 @@
       <c r="B513" t="s">
         <v>1221</v>
       </c>
-      <c r="C513" s="15" t="s">
+      <c r="C513" s="18" t="s">
         <v>1222</v>
       </c>
       <c r="I513" t="s">
@@ -20396,7 +20490,7 @@
       <c r="F514"/>
       <c r="G514"/>
       <c r="H514"/>
-      <c r="I514" s="15" t="s">
+      <c r="I514" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J514"/>
@@ -20404,7 +20498,7 @@
       <c r="L514"/>
       <c r="M514"/>
       <c r="N514"/>
-      <c r="O514" s="15"/>
+      <c r="O514" s="18"/>
       <c r="P514"/>
       <c r="Q514"/>
     </row>
@@ -20439,7 +20533,7 @@
       <c r="F516"/>
       <c r="G516"/>
       <c r="H516"/>
-      <c r="I516" s="15" t="s">
+      <c r="I516" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J516"/>
@@ -20447,7 +20541,7 @@
       <c r="L516"/>
       <c r="M516"/>
       <c r="N516"/>
-      <c r="O516" s="15"/>
+      <c r="O516" s="18"/>
       <c r="P516"/>
       <c r="Q516"/>
     </row>
@@ -20458,7 +20552,7 @@
       <c r="B517" t="s">
         <v>1229</v>
       </c>
-      <c r="C517" s="15" t="s">
+      <c r="C517" s="18" t="s">
         <v>1230</v>
       </c>
       <c r="D517"/>
@@ -20495,10 +20589,10 @@
       </c>
       <c r="D519"/>
       <c r="E519"/>
-      <c r="I519" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O519" s="15"/>
+      <c r="I519" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O519" s="18"/>
     </row>
     <row r="520" spans="1:9">
       <c r="A520">
@@ -20542,7 +20636,7 @@
       <c r="B522" t="s">
         <v>1239</v>
       </c>
-      <c r="C522" s="15" t="s">
+      <c r="C522" s="18" t="s">
         <v>1240</v>
       </c>
       <c r="D522"/>
@@ -20577,10 +20671,10 @@
       <c r="C524" t="s">
         <v>1244</v>
       </c>
-      <c r="I524" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O524" s="15"/>
+      <c r="I524" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O524" s="18"/>
     </row>
     <row r="525" spans="1:9">
       <c r="A525">
@@ -20606,10 +20700,10 @@
       <c r="C526" t="s">
         <v>1248</v>
       </c>
-      <c r="I526" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O526" s="15"/>
+      <c r="I526" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O526" s="18"/>
     </row>
     <row r="527" spans="1:9">
       <c r="A527">
@@ -20635,10 +20729,10 @@
       <c r="C528" t="s">
         <v>1252</v>
       </c>
-      <c r="I528" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O528" s="15"/>
+      <c r="I528" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O528" s="18"/>
     </row>
     <row r="529" spans="1:9">
       <c r="A529">
@@ -20664,10 +20758,10 @@
       <c r="C530" t="s">
         <v>1256</v>
       </c>
-      <c r="I530" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O530" s="15"/>
+      <c r="I530" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O530" s="18"/>
     </row>
     <row r="531" spans="1:9">
       <c r="A531">
@@ -20693,10 +20787,10 @@
       <c r="C532" t="s">
         <v>1260</v>
       </c>
-      <c r="I532" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O532" s="15"/>
+      <c r="I532" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O532" s="18"/>
     </row>
     <row r="533" spans="1:9">
       <c r="A533">
@@ -20719,8 +20813,8 @@
       <c r="B534" t="s">
         <v>1263</v>
       </c>
-      <c r="I534" s="15"/>
-      <c r="O534" s="15"/>
+      <c r="I534" s="18"/>
+      <c r="O534" s="18"/>
     </row>
     <row r="535" spans="1:9">
       <c r="A535">
@@ -20746,10 +20840,10 @@
       <c r="C536" t="s">
         <v>1267</v>
       </c>
-      <c r="I536" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O536" s="15"/>
+      <c r="I536" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O536" s="18"/>
     </row>
     <row r="537" spans="1:9">
       <c r="A537">
@@ -20781,10 +20875,10 @@
       <c r="G538" t="s">
         <v>1270</v>
       </c>
-      <c r="I538" s="15" t="s">
+      <c r="I538" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="O538" s="15"/>
+      <c r="O538" s="18"/>
     </row>
     <row r="539" s="22" customFormat="1" spans="1:17">
       <c r="A539">
@@ -20816,8 +20910,8 @@
       <c r="B540" t="s">
         <v>1274</v>
       </c>
-      <c r="I540" s="15"/>
-      <c r="O540" s="15"/>
+      <c r="I540" s="18"/>
+      <c r="O540" s="18"/>
     </row>
     <row r="541" spans="1:9">
       <c r="A541">
@@ -20826,7 +20920,7 @@
       <c r="B541" t="s">
         <v>1275</v>
       </c>
-      <c r="C541" s="15" t="s">
+      <c r="C541" s="18" t="s">
         <v>1276</v>
       </c>
       <c r="D541"/>
@@ -20842,15 +20936,15 @@
       <c r="B542" t="s">
         <v>1277</v>
       </c>
-      <c r="C542" s="15" t="s">
+      <c r="C542" s="18" t="s">
         <v>1278</v>
       </c>
       <c r="D542"/>
       <c r="E542"/>
-      <c r="I542" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O542" s="15"/>
+      <c r="I542" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O542" s="18"/>
     </row>
     <row r="543" spans="1:9">
       <c r="A543">
@@ -20859,7 +20953,7 @@
       <c r="B543" t="s">
         <v>1279</v>
       </c>
-      <c r="C543" s="15" t="s">
+      <c r="C543" s="18" t="s">
         <v>1280</v>
       </c>
       <c r="D543"/>
@@ -20880,10 +20974,10 @@
       </c>
       <c r="D544"/>
       <c r="E544"/>
-      <c r="I544" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O544" s="15"/>
+      <c r="I544" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O544" s="18"/>
     </row>
     <row r="545" spans="1:15">
       <c r="A545">
@@ -20892,13 +20986,13 @@
       <c r="B545" t="s">
         <v>1283</v>
       </c>
-      <c r="C545" s="15" t="s">
+      <c r="C545" s="18" t="s">
         <v>1284</v>
       </c>
-      <c r="I545" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O545" s="15"/>
+      <c r="I545" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O545" s="18"/>
     </row>
     <row r="546" spans="1:9">
       <c r="A546">
@@ -20934,10 +21028,10 @@
       <c r="G547" t="s">
         <v>1270</v>
       </c>
-      <c r="I547" s="15" t="s">
+      <c r="I547" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="O547" s="15"/>
+      <c r="O547" s="18"/>
     </row>
     <row r="548" spans="1:9">
       <c r="A548">
@@ -20965,13 +21059,13 @@
       <c r="B549" t="s">
         <v>1291</v>
       </c>
-      <c r="C549" s="15" t="s">
+      <c r="C549" s="18" t="s">
         <v>445</v>
       </c>
-      <c r="I549" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O549" s="15"/>
+      <c r="I549" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O549" s="18"/>
     </row>
     <row r="550" spans="1:9">
       <c r="A550">
@@ -21002,10 +21096,10 @@
       <c r="C551" t="s">
         <v>1295</v>
       </c>
-      <c r="I551" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O551" s="15"/>
+      <c r="I551" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O551" s="18"/>
     </row>
     <row r="552" spans="1:2">
       <c r="A552">
@@ -21028,10 +21122,10 @@
       <c r="G553" t="s">
         <v>1270</v>
       </c>
-      <c r="I553" s="15" t="s">
+      <c r="I553" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="O553" s="15"/>
+      <c r="O553" s="18"/>
     </row>
     <row r="554" spans="1:9">
       <c r="A554">
@@ -21040,7 +21134,7 @@
       <c r="B554" t="s">
         <v>1299</v>
       </c>
-      <c r="C554" s="15" t="s">
+      <c r="C554" s="18" t="s">
         <v>1300</v>
       </c>
       <c r="I554" t="s">
@@ -21056,10 +21150,10 @@
       </c>
       <c r="D555"/>
       <c r="E555"/>
-      <c r="I555" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O555" s="15"/>
+      <c r="I555" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O555" s="18"/>
     </row>
   </sheetData>
   <sortState ref="A2:Q555">
@@ -28728,9 +28822,9 @@
   <dimension ref="A1:H257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F230" sqref="F230"/>
+      <selection pane="bottomLeft" activeCell="C262" sqref="C262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -31460,7 +31554,7 @@
         <v>A2</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>307</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -31472,7 +31566,7 @@
         <v>A3</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>310</v>
@@ -31499,7 +31593,7 @@
         <v>A5</v>
       </c>
       <c r="E167" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -31550,7 +31644,7 @@
         <v>A9</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -31637,7 +31731,7 @@
         <v>B0</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -31649,7 +31743,7 @@
         <v>B1</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -31673,10 +31767,10 @@
         <v>B3</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -31689,7 +31783,7 @@
       </c>
       <c r="D182" s="8"/>
       <c r="E182" s="1" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -31702,7 +31796,7 @@
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="3" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -31714,7 +31808,7 @@
         <v>B6</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -31729,7 +31823,7 @@
         <v>164</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -31741,7 +31835,7 @@
         <v>B8</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>351</v>
@@ -31756,7 +31850,7 @@
         <v>B9</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>452</v>
@@ -31771,10 +31865,10 @@
         <v>BA</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -31786,7 +31880,7 @@
         <v>BB</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>357</v>
@@ -31801,10 +31895,10 @@
         <v>BC</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -31816,10 +31910,10 @@
         <v>BD</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -31831,7 +31925,7 @@
         <v>BE</v>
       </c>
       <c r="D192" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>363</v>
@@ -31846,10 +31940,10 @@
         <v>BF</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -31876,10 +31970,10 @@
         <v>C1</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="E195" s="11" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -31891,7 +31985,7 @@
         <v>C2</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>604</v>
@@ -31906,7 +32000,7 @@
         <v>C3</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>600</v>
@@ -31921,10 +32015,10 @@
         <v>C4</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -31936,10 +32030,10 @@
         <v>C5</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -31951,7 +32045,7 @@
         <v>C6</v>
       </c>
       <c r="D200" s="12" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>515</v>
@@ -31981,7 +32075,7 @@
         <v>C8</v>
       </c>
       <c r="D202" s="12" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -31993,7 +32087,7 @@
         <v>C9</v>
       </c>
       <c r="D203" s="12" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>390</v>
@@ -32008,10 +32102,10 @@
         <v>CA</v>
       </c>
       <c r="D204" s="12" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>393</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -32023,7 +32117,7 @@
         <v>CB</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>2303</v>
+        <v>2305</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>448</v>
@@ -32065,7 +32159,7 @@
         <v>CE</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>2304</v>
+        <v>2306</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>228</v>
@@ -32080,7 +32174,7 @@
         <v>CF</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>2305</v>
+        <v>2307</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>484</v>
@@ -32095,7 +32189,7 @@
         <v>D0</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>297</v>
@@ -32110,7 +32204,7 @@
         <v>D1</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>369</v>
@@ -32125,7 +32219,7 @@
         <v>D2</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>2308</v>
+        <v>2310</v>
       </c>
       <c r="E212" s="12" t="s">
         <v>360</v>
@@ -32155,7 +32249,7 @@
         <v>D4</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>2309</v>
+        <v>2311</v>
       </c>
       <c r="E214" s="12" t="s">
         <v>400</v>
@@ -32170,7 +32264,7 @@
         <v>D5</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>2310</v>
+        <v>2312</v>
       </c>
       <c r="E215" s="12" t="s">
         <v>463</v>
@@ -32185,7 +32279,7 @@
         <v>D6</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="E216" s="12" t="s">
         <v>469</v>
@@ -32200,7 +32294,7 @@
         <v>D7</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>2312</v>
+        <v>2314</v>
       </c>
       <c r="E217" s="12" t="s">
         <v>244</v>
@@ -32215,10 +32309,10 @@
         <v>D8</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>2313</v>
-      </c>
-      <c r="E218" s="12" t="s">
-        <v>441</v>
+        <v>2315</v>
+      </c>
+      <c r="E218" t="s">
+        <v>2316</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -32230,10 +32324,10 @@
         <v>D9</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>2314</v>
-      </c>
-      <c r="E219" s="12" t="s">
-        <v>2315</v>
+        <v>2317</v>
+      </c>
+      <c r="E219" t="s">
+        <v>2318</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -32290,7 +32384,7 @@
         <v>DD</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>2316</v>
+        <v>2319</v>
       </c>
       <c r="E223" s="12" t="s">
         <v>426</v>
@@ -32305,7 +32399,7 @@
         <v>DE</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>2317</v>
+        <v>2320</v>
       </c>
       <c r="E224" s="12" t="s">
         <v>521</v>
@@ -32320,7 +32414,7 @@
         <v>DF</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>2318</v>
+        <v>2321</v>
       </c>
       <c r="E225" s="12" t="s">
         <v>403</v>
@@ -32335,10 +32429,10 @@
         <v>E0</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>2319</v>
+        <v>2322</v>
       </c>
       <c r="E226" s="12" t="s">
-        <v>2320</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -32350,10 +32444,10 @@
         <v>E1</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>2321</v>
+        <v>2324</v>
       </c>
       <c r="E227" s="12" t="s">
-        <v>2322</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -32365,7 +32459,7 @@
         <v>E2</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>2323</v>
+        <v>2326</v>
       </c>
       <c r="E228" t="s">
         <v>406</v>
@@ -32380,7 +32474,7 @@
         <v>E3</v>
       </c>
       <c r="D229" s="13" t="s">
-        <v>2324</v>
+        <v>2327</v>
       </c>
       <c r="E229" s="12" t="s">
         <v>416</v>
@@ -32399,7 +32493,7 @@
         <v>2239</v>
       </c>
       <c r="E230" s="12" t="s">
-        <v>2325</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -32411,10 +32505,10 @@
         <v>E5</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>2326</v>
+        <v>2329</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>2327</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -32428,8 +32522,8 @@
       <c r="D232" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="E232" s="15" t="s">
-        <v>437</v>
+      <c r="E232" t="s">
+        <v>2331</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -32441,10 +32535,10 @@
         <v>E7</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>2328</v>
+        <v>2332</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>2329</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -32456,10 +32550,10 @@
         <v>E8</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>2330</v>
+        <v>2334</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>2331</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -32471,10 +32565,10 @@
         <v>E9</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>2332</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>475</v>
+        <v>2336</v>
+      </c>
+      <c r="E235" t="s">
+        <v>2337</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -32486,10 +32580,10 @@
         <v>EA</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>2333</v>
+        <v>2338</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>2334</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -32501,10 +32595,10 @@
         <v>EB</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>2335</v>
+        <v>2340</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>2336</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -32516,10 +32610,10 @@
         <v>EC</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>2337</v>
+        <v>2342</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>2338</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -32531,7 +32625,7 @@
         <v>ED</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>2339</v>
+        <v>2344</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>543</v>
@@ -32546,7 +32640,7 @@
         <v>EE</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>2340</v>
+        <v>2345</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>512</v>
@@ -32561,12 +32655,12 @@
         <v>EF</v>
       </c>
       <c r="D241" s="13" t="s">
-        <v>2341</v>
+        <v>2346</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>2342</v>
-      </c>
-      <c r="F241" s="16"/>
+        <v>2347</v>
+      </c>
+      <c r="F241" s="15"/>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="2">
@@ -32576,13 +32670,13 @@
         <f t="shared" si="3"/>
         <v>F0</v>
       </c>
-      <c r="D242" s="17" t="s">
-        <v>2343</v>
+      <c r="D242" s="16" t="s">
+        <v>2348</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>2344</v>
-      </c>
-      <c r="F242" s="18"/>
+        <v>2349</v>
+      </c>
+      <c r="F242" s="17"/>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="2">
@@ -32593,7 +32687,7 @@
         <v>F1</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>2345</v>
+        <v>2350</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>534</v>
@@ -32602,17 +32696,17 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="2" t="s">
-        <v>2346</v>
+        <v>2351</v>
       </c>
       <c r="B244" s="2" t="str">
         <f t="shared" si="3"/>
         <v>F2</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>2347</v>
+        <v>2352</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>2348</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -32627,7 +32721,7 @@
         <v>1346</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>2349</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -32639,10 +32733,10 @@
         <v>F4</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>2350</v>
+        <v>2355</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>2351</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -32654,10 +32748,10 @@
         <v>F5</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>2352</v>
+        <v>2357</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>2353</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -32669,7 +32763,7 @@
         <v>F6</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>2354</v>
+        <v>2359</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>387</v>
@@ -32686,8 +32780,8 @@
       <c r="D249" s="3" t="s">
         <v>1339</v>
       </c>
-      <c r="E249" s="15" t="s">
-        <v>2355</v>
+      <c r="E249" s="18" t="s">
+        <v>2360</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -32699,10 +32793,10 @@
         <v>F8</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>2356</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>2357</v>
+        <v>2361</v>
+      </c>
+      <c r="E250" t="s">
+        <v>2362</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -32714,10 +32808,10 @@
         <v>F9</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>2358</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>2359</v>
+        <v>2363</v>
+      </c>
+      <c r="E251" t="s">
+        <v>2364</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -32732,7 +32826,7 @@
         <v>452</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>2360</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -32744,10 +32838,10 @@
         <v>FB</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>2361</v>
+        <v>2366</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>2362</v>
+        <v>532</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -32755,10 +32849,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>2363</v>
+        <v>2367</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>2364</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -32766,10 +32860,10 @@
         <v>253</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>2365</v>
+        <v>2369</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>2366</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -32777,10 +32871,10 @@
         <v>254</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>2367</v>
+        <v>2371</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>2368</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -32788,21 +32882,21 @@
         <v>255</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>2369</v>
+        <v>2373</v>
       </c>
       <c r="C257" s="3"/>
       <c r="D257" s="3" t="s">
-        <v>2370</v>
+        <v>2374</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E141" r:id="rId24" display="火箭炮" tooltip="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw60ZXXreRZ24crv2maV2Cbqg9Bf/w51mkM8iY65SX2hsh16xSq+FxHP6FdK7DP1v3oStqBaZnWN6vVdC7Gg5eFCxTqR7wNSKxAXwtZ2Osrfrc8wdB9i6IJmC/1VT2nHJFGFJSFv/NWJcoLE5c+inlMfFB6YMi4j8yEI7yxuZoiNl"/>
-    <hyperlink ref="E149" r:id="rId25" display="导弹发射车" tooltip="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw61i16Uc5tAgb6thxUoJyeRCtbGCOxToQgUiY65SX2hsh16xSq+FxHP6FdK7DP1v3oStqBaZnWN6vVdC7Gg5eFCxTqR7wNSKxAXwtZ2Osrfrc8wdB9i6IJmC/1VT2nHJFGFJSFv/NWJcoLE5c+inlMfFB6YMi4j8yEI7yxuZoiNl"/>
-    <hyperlink ref="E153" r:id="rId26" display="火焰兵" tooltip="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw60ZXXreRZ24cgbKDy1pWkKK9Bf/w51mkM8iY65SX2hsh16xSq+FxHP6FdK7DP1v3oStqBaZnWN6vVdC7Gg5eFCxTqR7wNSKxAXwtZ2Osrfrc8wdB9i6IJmC/1VT2nHJFGFJSFv/NWJcoLE5c+inlMfFB6YMi4j8yEI7yxuZoiNl"/>
-    <hyperlink ref="E154" r:id="rId27" display="生化兵" tooltip="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw61rofGdU90WFoaU8Oq5pkxzImOuUl9obIdesUqvhcRz+hXSuwz9b96EragWmZ1jer1XQuxoOXhQsU6ke8DUisQF8LWdjrK363PMHQfYuiCZgv9VU9pxyRRhSUhb/zViXKCxOXPop5THxQemDIuI/MhCO8sbmaIjZT52Pah4egTN"/>
-    <hyperlink ref="E156" r:id="rId28" display="气垫船" tooltip="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw63g/4amvNcorwLFQ596c5GzImOuUl9obIdesUqvhcRz+hXSuwz9b96EragWmZ1jer1XQuxoOXhQsU6ke8DUisQF8LWdjrK363PMHQfYuiCZgv9VU9pxyRRhSUhb/zViXKCxOXPop5THxQemDIuI/MhCO8sbmaIjZT52Pah4egTN"/>
-    <hyperlink ref="E159" r:id="rId29" display="装甲运兵车(APC)" tooltip="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw60LIbkeqzb3nB19KwlOyvpxt6XyibVFgk4fbLMgytUg5Z4Q4OO30Ri8SAtVjSx1NjJY8K44RtEayOpUMod9q7ryZRQfTzElvQNrHN8aoIvfO4hYfKVOs0tRenbDjX6TCQjM5Jz2LlYa3RVW4f4K3s3KyqvBGCnETvQwPGbuJnYG"/>
+    <hyperlink ref="E141" r:id="rId28" display="火箭炮" tooltip="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw60ZXXreRZ24crv2maV2Cbqg9Bf/w51mkM8iY65SX2hsh16xSq+FxHP6FdK7DP1v3oStqBaZnWN6vVdC7Gg5eFCxTqR7wNSKxAXwtZ2Osrfrc8wdB9i6IJmC/1VT2nHJFGFJSFv/NWJcoLE5c+inlMfFB6YMi4j8yEI7yxuZoiNl"/>
+    <hyperlink ref="E149" r:id="rId29" display="导弹发射车" tooltip="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw61i16Uc5tAgb6thxUoJyeRCtbGCOxToQgUiY65SX2hsh16xSq+FxHP6FdK7DP1v3oStqBaZnWN6vVdC7Gg5eFCxTqR7wNSKxAXwtZ2Osrfrc8wdB9i6IJmC/1VT2nHJFGFJSFv/NWJcoLE5c+inlMfFB6YMi4j8yEI7yxuZoiNl"/>
+    <hyperlink ref="E153" r:id="rId30" display="火焰兵" tooltip="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw60ZXXreRZ24cgbKDy1pWkKK9Bf/w51mkM8iY65SX2hsh16xSq+FxHP6FdK7DP1v3oStqBaZnWN6vVdC7Gg5eFCxTqR7wNSKxAXwtZ2Osrfrc8wdB9i6IJmC/1VT2nHJFGFJSFv/NWJcoLE5c+inlMfFB6YMi4j8yEI7yxuZoiNl"/>
+    <hyperlink ref="E154" r:id="rId31" display="生化兵" tooltip="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw61rofGdU90WFoaU8Oq5pkxzImOuUl9obIdesUqvhcRz+hXSuwz9b96EragWmZ1jer1XQuxoOXhQsU6ke8DUisQF8LWdjrK363PMHQfYuiCZgv9VU9pxyRRhSUhb/zViXKCxOXPop5THxQemDIuI/MhCO8sbmaIjZT52Pah4egTN"/>
+    <hyperlink ref="E156" r:id="rId32" display="气垫船" tooltip="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw63g/4amvNcorwLFQ596c5GzImOuUl9obIdesUqvhcRz+hXSuwz9b96EragWmZ1jer1XQuxoOXhQsU6ke8DUisQF8LWdjrK363PMHQfYuiCZgv9VU9pxyRRhSUhb/zViXKCxOXPop5THxQemDIuI/MhCO8sbmaIjZT52Pah4egTN"/>
+    <hyperlink ref="E159" r:id="rId33" display="装甲运兵车(APC)" tooltip="http://jump2.bdimg.com/safecheck/index?url=rN3wPs8te/pL4AOY0zAwhz3wi8AXlR5gsMEbyYdIw60LIbkeqzb3nB19KwlOyvpxt6XyibVFgk4fbLMgytUg5Z4Q4OO30Ri8SAtVjSx1NjJY8K44RtEayOpUMod9q7ryZRQfTzElvQNrHN8aoIvfO4hYfKVOs0tRenbDjX6TCQjM5Jz2LlYa3RVW4f4K3s3KyqvBGCnETvQwPGbuJnYG"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -33084,6 +33178,56 @@
         <oleObject shapeId="1064" progId="Photoshop.Image.19" r:id="rId22"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject shapeId="1065" progId="Photoshop.Image.19" r:id="rId24">
+          <objectPr defaultSize="0" r:id="rId25">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>230</xdr:row>
+                <xdr:rowOff>165100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>17780</xdr:colOff>
+                <xdr:row>230</xdr:row>
+                <xdr:rowOff>169545</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject shapeId="1065" progId="Photoshop.Image.19" r:id="rId24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject shapeId="1066" progId="Photoshop.Image.19" r:id="rId26">
+          <objectPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>226</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>26670</xdr:colOff>
+                <xdr:row>226</xdr:row>
+                <xdr:rowOff>4445</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject shapeId="1066" progId="Photoshop.Image.19" r:id="rId26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
--- a/ra1/ra1字符串表.xlsx
+++ b/ra1/ra1字符串表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13065" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="界面字符串conquer.eng" sheetId="1" r:id="rId1"/>
@@ -7587,8 +7587,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -7628,58 +7628,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7709,11 +7658,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7733,6 +7735,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -7741,24 +7757,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7792,36 +7792,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7840,13 +7810,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7870,19 +7888,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7918,42 +7954,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7966,13 +7966,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8001,17 +8001,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8027,15 +8036,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8057,6 +8057,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -8064,17 +8075,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8087,17 +8098,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -8106,10 +8106,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8118,16 +8118,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8136,16 +8136,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8154,101 +8154,101 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8327,9 +8327,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -9648,51 +9645,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="42" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="41" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9718,7 +9715,7 @@
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="42" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="24"/>
@@ -9726,7 +9723,7 @@
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
-      <c r="O2" s="43"/>
+      <c r="O2" s="42"/>
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
     </row>
@@ -9764,1072 +9761,1072 @@
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
     </row>
-    <row r="4" s="27" customFormat="1" spans="1:15">
-      <c r="A4" s="27">
+    <row r="4" s="26" customFormat="1" spans="1:15">
+      <c r="A4" s="26">
         <v>13</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="27" t="str">
+      <c r="E4" s="26" t="str">
         <f>VLOOKUP(MID(D4,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D4,4,2),字库代码!B:D,3,TRUE)</f>
         <v>是</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="44"/>
-    </row>
-    <row r="5" s="27" customFormat="1" spans="1:9">
-      <c r="A5" s="27">
+      <c r="I4" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="43"/>
+    </row>
+    <row r="5" s="26" customFormat="1" spans="1:9">
+      <c r="A5" s="26">
         <v>14</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="27" t="str">
+      <c r="E5" s="26" t="str">
         <f>VLOOKUP(MID(D5,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D5,4,2),字库代码!B:D,3,TRUE)</f>
         <v>否</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" s="27" customFormat="1" spans="1:15">
-      <c r="A6" s="27">
+      <c r="I5" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" s="26" customFormat="1" spans="1:15">
+      <c r="A6" s="26">
         <v>17</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="27" t="str">
+      <c r="E6" s="26" t="str">
         <f>VLOOKUP(MID(D6,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D6,4,2),字库代码!B:D,3,TRUE)</f>
         <v>新游戏</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="27" t="s">
+      <c r="I6" s="43"/>
+      <c r="J6" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="44"/>
-    </row>
-    <row r="7" s="27" customFormat="1" spans="1:10">
-      <c r="A7" s="27">
+      <c r="O6" s="43"/>
+    </row>
+    <row r="7" s="26" customFormat="1" spans="1:10">
+      <c r="A7" s="26">
         <v>18</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="27" t="str">
+      <c r="E7" s="26" t="str">
         <f>VLOOKUP(MID(D7,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D7,4,2),字库代码!B:D,3,TRUE)</f>
         <v>片头及预告</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" s="27" customFormat="1" spans="1:15">
-      <c r="A8" s="27">
+    <row r="8" s="26" customFormat="1" spans="1:15">
+      <c r="A8" s="26">
         <v>19</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="27" t="str">
+      <c r="E8" s="26" t="str">
         <f>VLOOKUP(MID(D8,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D8,4,2),字库代码!B:D,3,TRUE)</f>
         <v>取消</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" s="44"/>
-    </row>
-    <row r="9" s="27" customFormat="1" spans="1:15">
-      <c r="A9" s="27">
+      <c r="I8" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="43"/>
+    </row>
+    <row r="9" s="26" customFormat="1" spans="1:15">
+      <c r="A9" s="26">
         <v>23</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="27" t="str">
+      <c r="E9" s="26" t="str">
         <f>VLOOKUP(MID(D9,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D9,4,2),字库代码!B:D,3,TRUE)</f>
         <v>确定</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="O9" s="44"/>
-    </row>
-    <row r="10" s="27" customFormat="1" spans="1:15">
-      <c r="A10" s="27">
+      <c r="I9" s="43"/>
+      <c r="O9" s="43"/>
+    </row>
+    <row r="10" s="26" customFormat="1" spans="1:15">
+      <c r="A10" s="26">
         <v>35</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="27" t="str">
+      <c r="E10" s="26" t="str">
         <f>VLOOKUP(MID(D10,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D10,4,2),字库代码!B:D,3,TRUE)</f>
         <v>载入进度</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="44"/>
-      <c r="J10" s="27" t="s">
+      <c r="I10" s="43"/>
+      <c r="J10" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="44"/>
-    </row>
-    <row r="11" s="27" customFormat="1" spans="1:6">
-      <c r="A11" s="27">
+      <c r="O10" s="43"/>
+    </row>
+    <row r="11" s="26" customFormat="1" spans="1:6">
+      <c r="A11" s="26">
         <v>36</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="27" t="str">
+      <c r="E11" s="26" t="str">
         <f>VLOOKUP(MID(D11,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D11,4,2),字库代码!B:D,3,TRUE)</f>
         <v>保存进度</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" s="27" customFormat="1" spans="1:15">
-      <c r="A12" s="27">
+    <row r="12" s="26" customFormat="1" spans="1:15">
+      <c r="A12" s="26">
         <v>37</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="27" t="str">
+      <c r="E12" s="26" t="str">
         <f>VLOOKUP(MID(D12,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D12,4,2),字库代码!B:D,3,TRUE)</f>
         <v>删除进度</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="44"/>
-      <c r="O12" s="44"/>
-    </row>
-    <row r="13" s="27" customFormat="1" spans="1:6">
-      <c r="A13" s="27">
+      <c r="I12" s="43"/>
+      <c r="O12" s="43"/>
+    </row>
+    <row r="13" s="26" customFormat="1" spans="1:6">
+      <c r="A13" s="26">
         <v>38</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="27" t="str">
+      <c r="E13" s="26" t="str">
         <f>VLOOKUP(MID(D13,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D13,4,2),字库代码!B:D,3,TRUE)</f>
         <v>载入</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" s="27" customFormat="1" spans="1:15">
-      <c r="A14" s="27">
+    <row r="14" s="26" customFormat="1" spans="1:15">
+      <c r="A14" s="26">
         <v>39</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="27" t="str">
+      <c r="E14" s="26" t="str">
         <f>VLOOKUP(MID(D14,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D14,4,2),字库代码!B:D,3,TRUE)</f>
         <v>保存</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="44"/>
-      <c r="O14" s="44"/>
-    </row>
-    <row r="15" s="27" customFormat="1" spans="1:6">
-      <c r="A15" s="27">
+      <c r="I14" s="43"/>
+      <c r="O14" s="43"/>
+    </row>
+    <row r="15" s="26" customFormat="1" spans="1:6">
+      <c r="A15" s="26">
         <v>40</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="27" t="str">
+      <c r="E15" s="26" t="str">
         <f>VLOOKUP(MID(D15,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D15,4,2),字库代码!B:D,3,TRUE)</f>
         <v>删除</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" s="27" customFormat="1" spans="1:15">
-      <c r="A16" s="27">
+    <row r="16" s="26" customFormat="1" spans="1:15">
+      <c r="A16" s="26">
         <v>41</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="27" t="str">
+      <c r="E16" s="26" t="str">
         <f>VLOOKUP(MID(D16,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D16,4,2),字库代码!B:D,3,TRUE)</f>
         <v>游戏选项</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="O16" s="44"/>
-    </row>
-    <row r="17" s="27" customFormat="1" spans="1:6">
-      <c r="A17" s="27">
+      <c r="I16" s="43"/>
+      <c r="O16" s="43"/>
+    </row>
+    <row r="17" s="26" customFormat="1" spans="1:6">
+      <c r="A17" s="26">
         <v>42</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="27" t="str">
+      <c r="E17" s="26" t="str">
         <f>VLOOKUP(MID(D17,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D17,4,2),字库代码!B:D,3,TRUE)</f>
         <v>声音选项</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" s="27" customFormat="1" spans="1:15">
-      <c r="A18" s="27">
+    <row r="18" s="26" customFormat="1" spans="1:15">
+      <c r="A18" s="26">
         <v>43</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="27" t="str">
+      <c r="E18" s="26" t="str">
         <f>VLOOKUP(MID(D18,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D18,4,2),字库代码!B:D,3,TRUE)</f>
         <v>返回游戏</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="O18" s="44"/>
-    </row>
-    <row r="19" s="27" customFormat="1" spans="1:6">
-      <c r="A19" s="27">
+      <c r="I18" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="43"/>
+    </row>
+    <row r="19" s="26" customFormat="1" spans="1:6">
+      <c r="A19" s="26">
         <v>44</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="27" t="str">
+      <c r="E19" s="26" t="str">
         <f>VLOOKUP(MID(D19,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D19,4,2),字库代码!B:D,3,TRUE)</f>
         <v>画面选项</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" s="27" customFormat="1" spans="1:15">
-      <c r="A20" s="27">
+    <row r="20" s="26" customFormat="1" spans="1:15">
+      <c r="A20" s="26">
         <v>45</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="27" t="str">
+      <c r="E20" s="26" t="str">
         <f>VLOOKUP(MID(D20,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D20,4,2),字库代码!B:D,3,TRUE)</f>
         <v>退出游戏</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="O20" s="44"/>
-    </row>
-    <row r="21" s="27" customFormat="1" spans="1:10">
-      <c r="A21" s="27">
+      <c r="I20" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" s="43"/>
+    </row>
+    <row r="21" s="26" customFormat="1" spans="1:10">
+      <c r="A21" s="26">
         <v>46</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="27" t="str">
+      <c r="E21" s="26" t="str">
         <f>VLOOKUP(MID(D21,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D21,4,2),字库代码!B:D,3,TRUE)</f>
         <v>退出游戏</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="J21" s="26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" s="27" customFormat="1" spans="1:15">
-      <c r="A22" s="27">
+    <row r="22" s="26" customFormat="1" spans="1:15">
+      <c r="A22" s="26">
         <v>47</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="27" t="str">
+      <c r="E22" s="26" t="str">
         <f>VLOOKUP(MID(D22,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D22,4,2),字库代码!B:D,3,TRUE)</f>
         <v>选项</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I22" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="O22" s="44"/>
-    </row>
-    <row r="23" s="27" customFormat="1" spans="1:15">
-      <c r="A23" s="27">
+      <c r="I22" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="O22" s="43"/>
+    </row>
+    <row r="23" s="26" customFormat="1" spans="1:15">
+      <c r="A23" s="26">
         <v>51</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="27" t="str">
+      <c r="E23" s="26" t="str">
         <f>VLOOKUP(MID(D23,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D23,4,2),字库代码!B:D,3,TRUE)</f>
         <v>亮度</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="O23" s="44"/>
-    </row>
-    <row r="24" s="27" customFormat="1" spans="1:9">
-      <c r="A24" s="27">
+      <c r="I23" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" s="43"/>
+    </row>
+    <row r="24" s="26" customFormat="1" spans="1:9">
+      <c r="A24" s="26">
         <v>54</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="27" t="str">
+      <c r="E24" s="26" t="str">
         <f>VLOOKUP(MID(D24,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D24,4,2),字库代码!B:D,3,TRUE)</f>
         <v>色调</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" s="27" customFormat="1" spans="1:15">
-      <c r="A25" s="27">
+      <c r="I24" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" s="26" customFormat="1" spans="1:15">
+      <c r="A25" s="26">
         <v>55</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="27" t="str">
+      <c r="E25" s="26" t="str">
         <f>VLOOKUP(MID(D25,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D25,4,2),字库代码!B:D,3,TRUE)</f>
         <v>对比度</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="O25" s="44"/>
-    </row>
-    <row r="26" s="27" customFormat="1" spans="1:9">
-      <c r="A26" s="27">
+      <c r="I25" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="O25" s="43"/>
+    </row>
+    <row r="26" s="26" customFormat="1" spans="1:9">
+      <c r="A26" s="26">
         <v>56</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="27" t="str">
+      <c r="E26" s="26" t="str">
         <f>VLOOKUP(MID(D26,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D26,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D26,7,2),字库代码!B:D,3,TRUE)</f>
         <v>游戏速度:</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I26" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" s="27" customFormat="1" spans="1:15">
-      <c r="A27" s="27">
+      <c r="I26" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" s="26" customFormat="1" spans="1:15">
+      <c r="A27" s="26">
         <v>57</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="27" t="str">
+      <c r="E27" s="26" t="str">
         <f>VLOOKUP(MID(D27,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D27,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D27,7,2),字库代码!B:D,3,TRUE)</f>
         <v>滚屏速度:</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="O27" s="44"/>
-    </row>
-    <row r="28" s="27" customFormat="1" spans="1:9">
-      <c r="A28" s="27">
+      <c r="I27" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" s="43"/>
+    </row>
+    <row r="28" s="26" customFormat="1" spans="1:9">
+      <c r="A28" s="26">
         <v>58</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="27" t="str">
+      <c r="E28" s="26" t="str">
         <f>VLOOKUP(MID(D28,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D28,4,2),字库代码!B:D,3,TRUE)</f>
         <v>饱和度:</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I28" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" s="27" customFormat="1" spans="1:15">
-      <c r="A29" s="27">
+      <c r="I28" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" s="26" customFormat="1" spans="1:15">
+      <c r="A29" s="26">
         <v>59</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="27" t="str">
+      <c r="E29" s="26" t="str">
         <f>VLOOKUP(MID(D29,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D29,4,2),字库代码!B:D,3,TRUE)</f>
         <v>返回游戏</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="O29" s="44"/>
-    </row>
-    <row r="30" s="28" customFormat="1" spans="1:6">
-      <c r="A30" s="28">
+      <c r="I29" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="O29" s="43"/>
+    </row>
+    <row r="30" s="27" customFormat="1" spans="1:6">
+      <c r="A30" s="27">
         <v>116</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="35" t="s">
         <v>98</v>
       </c>
       <c r="D30" s="12"/>
-      <c r="E30" s="28" t="e">
+      <c r="E30" s="27" t="e">
         <f>VLOOKUP(MID(D30,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D30,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D30,7,2),字库代码!B:D,3,TRUE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" s="27" customFormat="1" spans="1:17">
-      <c r="A31" s="37">
+    <row r="31" s="26" customFormat="1" spans="1:17">
+      <c r="A31" s="36">
         <v>119</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="27" t="str">
+      <c r="E31" s="26" t="str">
         <f>VLOOKUP(MID(D31,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D31,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D31,7,2),字库代码!B:D,3,TRUE)</f>
         <v>资料片任务</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="27" t="s">
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="K31" s="27" t="s">
+      <c r="K31" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="O31" s="44"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-    </row>
-    <row r="32" s="27" customFormat="1" spans="1:11">
-      <c r="A32" s="27">
+      <c r="O31" s="43"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+    </row>
+    <row r="32" s="26" customFormat="1" spans="1:11">
+      <c r="A32" s="26">
         <v>120</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="27" t="str">
+      <c r="E32" s="26" t="str">
         <f>VLOOKUP(MID(D32,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D32,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D32,7,2),字库代码!B:D,3,TRUE)</f>
         <v>定制任务</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="J32" s="27" t="s">
+      <c r="J32" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="K32" s="27" t="s">
+      <c r="K32" s="26" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" s="27" customFormat="1" spans="1:15">
-      <c r="A33" s="27">
+    <row r="33" s="26" customFormat="1" spans="1:15">
+      <c r="A33" s="26">
         <v>145</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="27" t="str">
+      <c r="E33" s="26" t="str">
         <f>VLOOKUP(MID(D33,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D33,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D33,7,2),字库代码!B:D,3,TRUE)</f>
         <v>返回选项</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F33" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I33" s="44"/>
-      <c r="O33" s="44"/>
-    </row>
-    <row r="34" s="27" customFormat="1" spans="1:9">
-      <c r="A34" s="27">
+      <c r="I33" s="43"/>
+      <c r="O33" s="43"/>
+    </row>
+    <row r="34" s="26" customFormat="1" spans="1:9">
+      <c r="A34" s="26">
         <v>148</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="27" t="str">
+      <c r="E34" s="26" t="str">
         <f>VLOOKUP(MID(D34,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D34,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D34,7,2),字库代码!B:D,3,TRUE)</f>
         <v>随机播放</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F34" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I34" s="27" t="s">
+      <c r="I34" s="26" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="35" s="27" customFormat="1" spans="1:15">
-      <c r="A35" s="27">
+    <row r="35" s="26" customFormat="1" spans="1:15">
+      <c r="A35" s="26">
         <v>149</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="27" t="str">
+      <c r="E35" s="26" t="str">
         <f>VLOOKUP(MID(D35,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D35,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D35,7,2),字库代码!B:D,3,TRUE)</f>
         <v>单曲循环</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I35" s="27" t="s">
+      <c r="I35" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="O35" s="44"/>
-    </row>
-    <row r="36" s="27" customFormat="1" spans="1:9">
-      <c r="A36" s="27">
+      <c r="O35" s="43"/>
+    </row>
+    <row r="36" s="26" customFormat="1" spans="1:9">
+      <c r="A36" s="26">
         <v>150</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="E36" s="27" t="str">
+      <c r="E36" s="26" t="str">
         <f>VLOOKUP(MID(D36,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D36,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D36,7,2),字库代码!B:D,3,TRUE)</f>
         <v>音乐:</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F36" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" s="27" customFormat="1" spans="1:15">
-      <c r="A37" s="27">
+      <c r="I36" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" s="26" customFormat="1" spans="1:15">
+      <c r="A37" s="26">
         <v>151</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="27" t="str">
+      <c r="E37" s="26" t="str">
         <f>VLOOKUP(MID(D37,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D37,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D37,7,2),字库代码!B:D,3,TRUE)</f>
         <v>音效:</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F37" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I37" s="44"/>
-      <c r="J37" s="27" t="s">
+      <c r="I37" s="43"/>
+      <c r="J37" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="K37" s="27" t="s">
+      <c r="K37" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="O37" s="44"/>
-    </row>
-    <row r="38" s="27" customFormat="1" spans="1:9">
-      <c r="A38" s="27">
+      <c r="O37" s="43"/>
+    </row>
+    <row r="38" s="26" customFormat="1" spans="1:9">
+      <c r="A38" s="26">
         <v>152</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="E38" s="27" t="str">
+      <c r="E38" s="26" t="str">
         <f>VLOOKUP(MID(D38,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D38,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D38,7,2),字库代码!B:D,3,TRUE)</f>
         <v>是</v>
       </c>
-      <c r="F38" s="27" t="s">
+      <c r="F38" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I38" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" s="27" customFormat="1" spans="1:15">
-      <c r="A39" s="27">
+      <c r="I38" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" s="26" customFormat="1" spans="1:15">
+      <c r="A39" s="26">
         <v>153</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="33" t="s">
+      <c r="D39" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="E39" s="27" t="str">
+      <c r="E39" s="26" t="str">
         <f>VLOOKUP(MID(D39,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D39,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D39,7,2),字库代码!B:D,3,TRUE)</f>
         <v>否</v>
       </c>
-      <c r="F39" s="27" t="s">
+      <c r="F39" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="O39" s="44"/>
-    </row>
-    <row r="40" s="27" customFormat="1" spans="1:6">
-      <c r="A40" s="27">
+      <c r="I39" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="O39" s="43"/>
+    </row>
+    <row r="40" s="26" customFormat="1" spans="1:6">
+      <c r="A40" s="26">
         <v>154</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="27" t="str">
+      <c r="E40" s="26" t="str">
         <f>VLOOKUP(MID(D40,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D40,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D40,7,2),字库代码!B:D,3,TRUE)</f>
         <v>多人游戏</v>
       </c>
-      <c r="F40" s="27" t="s">
+      <c r="F40" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" s="27" customFormat="1" spans="1:9">
-      <c r="A41" s="27">
+    <row r="41" s="26" customFormat="1" spans="1:9">
+      <c r="A41" s="26">
         <v>158</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="33" t="s">
+      <c r="D41" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="E41" s="27" t="str">
+      <c r="E41" s="26" t="str">
         <f>VLOOKUP(MID(D41,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D41,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D41,7,2),字库代码!B:D,3,TRUE)</f>
         <v>重置</v>
       </c>
-      <c r="F41" s="27" t="s">
+      <c r="F41" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I41" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" s="27" customFormat="1" spans="1:15">
-      <c r="A42" s="27">
+      <c r="I41" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" s="26" customFormat="1" spans="1:15">
+      <c r="A42" s="26">
         <v>159</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="E42" s="27" t="str">
+      <c r="E42" s="26" t="str">
         <f>VLOOKUP(MID(D42,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D42,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D42,7,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D42,10,2),字库代码!B:D,3,TRUE)</f>
         <v>确定退出游戏?</v>
       </c>
-      <c r="F42" s="27" t="s">
+      <c r="F42" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I42" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="O42" s="44"/>
-    </row>
-    <row r="43" s="27" customFormat="1" spans="1:6">
-      <c r="A43" s="27">
+      <c r="I42" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="O42" s="43"/>
+    </row>
+    <row r="43" s="26" customFormat="1" spans="1:6">
+      <c r="A43" s="26">
         <v>172</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="D43" s="33" t="s">
+      <c r="D43" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="E43" s="27" t="str">
+      <c r="E43" s="26" t="str">
         <f>VLOOKUP(MID(D43,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D43,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D43,7,2),字库代码!B:D,3,TRUE)</f>
         <v>快</v>
       </c>
-      <c r="F43" s="27" t="s">
+      <c r="F43" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" s="27" customFormat="1" spans="1:15">
-      <c r="A44" s="27">
+    <row r="44" s="26" customFormat="1" spans="1:15">
+      <c r="A44" s="26">
         <v>173</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="D44" s="33" t="s">
+      <c r="D44" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="E44" s="27" t="str">
+      <c r="E44" s="26" t="str">
         <f>VLOOKUP(MID(D44,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D44,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D44,7,2),字库代码!B:D,3,TRUE)</f>
         <v>慢</v>
       </c>
-      <c r="F44" s="27" t="s">
+      <c r="F44" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I44" s="44"/>
-      <c r="J44" s="27" t="s">
+      <c r="I44" s="43"/>
+      <c r="J44" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="K44" s="27" t="s">
+      <c r="K44" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="O44" s="44"/>
-    </row>
-    <row r="45" s="27" customFormat="1" spans="1:9">
-      <c r="A45" s="27">
+      <c r="O44" s="43"/>
+    </row>
+    <row r="45" s="26" customFormat="1" spans="1:9">
+      <c r="A45" s="26">
         <v>182</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="D45" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="E45" s="27" t="str">
+      <c r="E45" s="26" t="str">
         <f>VLOOKUP(MID(D45,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D45,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D45,7,2),字库代码!B:D,3,TRUE)</f>
         <v>请输入文件名!</v>
       </c>
-      <c r="F45" s="27" t="s">
+      <c r="F45" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I45" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" s="27" customFormat="1" spans="1:9">
-      <c r="A46" s="27">
+      <c r="I45" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" s="26" customFormat="1" spans="1:9">
+      <c r="A46" s="26">
         <v>184</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="D46" s="33" t="s">
+      <c r="D46" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="E46" s="27" t="str">
+      <c r="E46" s="26" t="str">
         <f>VLOOKUP(MID(D46,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D46,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D46,7,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D46,10,2),字库代码!B:D,3,TRUE)</f>
         <v>确定删除这个文件?</v>
       </c>
-      <c r="F46" s="27" t="s">
+      <c r="F46" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I46" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" s="27" customFormat="1" spans="1:15">
-      <c r="A47" s="27">
+      <c r="I46" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" s="26" customFormat="1" spans="1:15">
+      <c r="A47" s="26">
         <v>185</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="D47" s="33" t="s">
+      <c r="D47" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E47" s="27" t="str">
+      <c r="E47" s="26" t="str">
         <f>VLOOKUP(MID(D47,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D47,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D47,7,2),字库代码!B:D,3,TRUE)</f>
         <v>[新文件]</v>
       </c>
-      <c r="F47" s="27" t="s">
+      <c r="F47" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I47" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="O47" s="44"/>
+      <c r="I47" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="O47" s="43"/>
     </row>
     <row r="48" s="24" customFormat="1" spans="1:11">
       <c r="A48" s="24">
@@ -10838,10 +10835,10 @@
       <c r="B48" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="40"/>
+      <c r="D48" s="39"/>
       <c r="E48" t="e">
         <f>VLOOKUP(MID(D48,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D48,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D48,7,2),字库代码!B:D,3,TRUE)</f>
         <v>#N/A</v>
@@ -10859,10 +10856,10 @@
       <c r="B49" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="D49" s="40"/>
+      <c r="D49" s="39"/>
       <c r="E49" t="e">
         <f>VLOOKUP(MID(D49,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D49,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D49,7,2),字库代码!B:D,3,TRUE)</f>
         <v>#N/A</v>
@@ -10872,11 +10869,11 @@
       </c>
       <c r="G49" s="24"/>
       <c r="H49" s="24"/>
-      <c r="I49" s="43"/>
+      <c r="I49" s="42"/>
       <c r="L49" s="24"/>
       <c r="M49" s="24"/>
       <c r="N49" s="24"/>
-      <c r="O49" s="43"/>
+      <c r="O49" s="42"/>
       <c r="P49" s="24"/>
       <c r="Q49" s="24"/>
     </row>
@@ -10887,10 +10884,10 @@
       <c r="B50" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="D50" s="40"/>
+      <c r="D50" s="39"/>
       <c r="E50" t="e">
         <f>VLOOKUP(MID(D50,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D50,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D50,7,2),字库代码!B:D,3,TRUE)</f>
         <v>#N/A</v>
@@ -10928,11 +10925,11 @@
       </c>
       <c r="G51" s="24"/>
       <c r="H51" s="24"/>
-      <c r="I51" s="43"/>
+      <c r="I51" s="42"/>
       <c r="L51" s="24"/>
       <c r="M51" s="24"/>
       <c r="N51" s="24"/>
-      <c r="O51" s="43"/>
+      <c r="O51" s="42"/>
       <c r="P51" s="24"/>
       <c r="Q51" s="24"/>
     </row>
@@ -10954,12 +10951,12 @@
       <c r="F52" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I52" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O52" s="43"/>
-    </row>
-    <row r="53" s="28" customFormat="1" spans="1:17">
+      <c r="I52" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O52" s="42"/>
+    </row>
+    <row r="53" s="27" customFormat="1" spans="1:17">
       <c r="A53" s="24">
         <v>219</v>
       </c>
@@ -10979,7 +10976,7 @@
       </c>
       <c r="G53" s="24"/>
       <c r="H53" s="24"/>
-      <c r="I53" s="43" t="s">
+      <c r="I53" s="42" t="s">
         <v>15</v>
       </c>
       <c r="J53"/>
@@ -10987,11 +10984,11 @@
       <c r="L53" s="24"/>
       <c r="M53" s="24"/>
       <c r="N53" s="24"/>
-      <c r="O53" s="43"/>
+      <c r="O53" s="42"/>
       <c r="P53" s="24"/>
       <c r="Q53" s="24"/>
     </row>
-    <row r="54" s="28" customFormat="1" spans="1:17">
+    <row r="54" s="27" customFormat="1" spans="1:17">
       <c r="A54" s="24">
         <v>220</v>
       </c>
@@ -11030,10 +11027,10 @@
       <c r="B55" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="C55" s="41" t="s">
+      <c r="C55" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="D55" s="40"/>
+      <c r="D55" s="39"/>
       <c r="E55" t="e">
         <f>VLOOKUP(MID(D55,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D55,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D55,7,2),字库代码!B:D,3,TRUE)</f>
         <v>#N/A</v>
@@ -11041,10 +11038,10 @@
       <c r="F55" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I55" s="43"/>
+      <c r="I55" s="42"/>
       <c r="J55"/>
       <c r="K55"/>
-      <c r="O55" s="43"/>
+      <c r="O55" s="42"/>
     </row>
     <row r="56" s="24" customFormat="1" spans="1:15">
       <c r="A56" s="24">
@@ -11064,12 +11061,12 @@
       <c r="F56" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I56" s="43" t="s">
+      <c r="I56" s="42" t="s">
         <v>15</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
-      <c r="O56" s="43"/>
+      <c r="O56" s="42"/>
     </row>
     <row r="57" s="24" customFormat="1" spans="1:15">
       <c r="A57" s="24">
@@ -11078,10 +11075,10 @@
       <c r="B57" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="C57" s="39" t="s">
+      <c r="C57" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="D57" s="40"/>
+      <c r="D57" s="39"/>
       <c r="E57" t="e">
         <f>VLOOKUP(MID(D57,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D57,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D57,7,2),字库代码!B:D,3,TRUE)</f>
         <v>#N/A</v>
@@ -11089,10 +11086,10 @@
       <c r="F57" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I57" s="43"/>
+      <c r="I57" s="42"/>
       <c r="J57"/>
       <c r="K57"/>
-      <c r="O57" s="43"/>
+      <c r="O57" s="42"/>
     </row>
     <row r="58" s="24" customFormat="1" spans="1:11">
       <c r="A58" s="24">
@@ -11101,10 +11098,10 @@
       <c r="B58" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="C58" s="39" t="s">
+      <c r="C58" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="D58" s="40"/>
+      <c r="D58" s="39"/>
       <c r="E58" t="e">
         <f>VLOOKUP(MID(D58,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D58,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D58,7,2),字库代码!B:D,3,TRUE)</f>
         <v>#N/A</v>
@@ -11115,30 +11112,30 @@
       <c r="J58"/>
       <c r="K58"/>
     </row>
-    <row r="59" s="27" customFormat="1" spans="1:15">
-      <c r="A59" s="27">
+    <row r="59" s="26" customFormat="1" spans="1:15">
+      <c r="A59" s="26">
         <v>299</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="D59" s="34" t="s">
+      <c r="D59" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="E59" s="27" t="str">
+      <c r="E59" s="26" t="str">
         <f>VLOOKUP(MID(D59,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D59,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D59,7,2),字库代码!B:D,3,TRUE)</f>
         <v>影像资料</v>
       </c>
-      <c r="F59" s="27" t="s">
+      <c r="F59" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I59" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="O59" s="44"/>
+      <c r="I59" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="O59" s="43"/>
     </row>
     <row r="60" s="24" customFormat="1" spans="1:15">
       <c r="A60" s="24">
@@ -11158,295 +11155,295 @@
       <c r="F60" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I60" s="43" t="s">
+      <c r="I60" s="42" t="s">
         <v>15</v>
       </c>
       <c r="J60"/>
       <c r="K60"/>
-      <c r="O60" s="43"/>
-    </row>
-    <row r="61" s="27" customFormat="1" spans="1:15">
-      <c r="A61" s="27">
+      <c r="O60" s="42"/>
+    </row>
+    <row r="61" s="26" customFormat="1" spans="1:15">
+      <c r="A61" s="26">
         <v>309</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="D61" s="34" t="s">
+      <c r="D61" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="E61" s="27" t="str">
+      <c r="E61" s="26" t="str">
         <f>VLOOKUP(MID(D61,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D61,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D61,7,2),字库代码!B:D,3,TRUE)</f>
         <v>重新开始任务?</v>
       </c>
-      <c r="F61" s="27" t="s">
+      <c r="F61" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I61" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="O61" s="44"/>
-    </row>
-    <row r="62" s="27" customFormat="1" spans="1:15">
-      <c r="A62" s="27">
+      <c r="I61" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="O61" s="43"/>
+    </row>
+    <row r="62" s="26" customFormat="1" spans="1:15">
+      <c r="A62" s="26">
         <v>349</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="D62" s="33" t="s">
+      <c r="D62" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="E62" s="27" t="str">
+      <c r="E62" s="26" t="str">
         <f>VLOOKUP(MID(D62,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D62,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D62,7,2),字库代码!B:D,3,TRUE)</f>
         <v>保存完成</v>
       </c>
-      <c r="F62" s="27" t="s">
+      <c r="F62" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I62" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="O62" s="44"/>
-    </row>
-    <row r="63" s="27" customFormat="1" spans="1:9">
-      <c r="A63" s="27">
+      <c r="I62" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="O62" s="43"/>
+    </row>
+    <row r="63" s="26" customFormat="1" spans="1:9">
+      <c r="A63" s="26">
         <v>354</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="D63" s="34" t="s">
+      <c r="D63" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="E63" s="27" t="str">
+      <c r="E63" s="26" t="str">
         <f>VLOOKUP(MID(D63,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D63,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D63,7,2),字库代码!B:D,3,TRUE)</f>
         <v>退出</v>
       </c>
-      <c r="F63" s="27" t="s">
+      <c r="F63" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I63" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" s="27" customFormat="1" spans="1:15">
-      <c r="A64" s="27">
+      <c r="I63" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" s="26" customFormat="1" spans="1:15">
+      <c r="A64" s="26">
         <v>355</v>
       </c>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="D64" s="34" t="s">
+      <c r="D64" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="E64" s="27" t="str">
+      <c r="E64" s="26" t="str">
         <f>VLOOKUP(MID(D64,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D64,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D64,7,2),字库代码!B:D,3,TRUE)</f>
         <v>重新开始</v>
       </c>
-      <c r="F64" s="27" t="s">
+      <c r="F64" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I64" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="O64" s="44"/>
-    </row>
-    <row r="65" s="27" customFormat="1" spans="1:6">
-      <c r="A65" s="27">
+      <c r="I64" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="O64" s="43"/>
+    </row>
+    <row r="65" s="26" customFormat="1" spans="1:6">
+      <c r="A65" s="26">
         <v>356</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="C65" s="33" t="s">
+      <c r="C65" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="D65" s="33" t="s">
+      <c r="D65" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="E65" s="27" t="str">
+      <c r="E65" s="26" t="str">
         <f>VLOOKUP(MID(D65,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D65,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D65,7,2),字库代码!B:D,3,TRUE)</f>
         <v>重新开始中,请稍后.</v>
       </c>
-      <c r="F65" s="27" t="s">
+      <c r="F65" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" s="27" customFormat="1" spans="1:15">
-      <c r="A66" s="27">
+    <row r="66" s="26" customFormat="1" spans="1:15">
+      <c r="A66" s="26">
         <v>357</v>
       </c>
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="33" t="s">
+      <c r="C66" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="D66" s="33" t="s">
+      <c r="D66" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="E66" s="27" t="str">
+      <c r="E66" s="26" t="str">
         <f>VLOOKUP(MID(D66,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D66,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D66,7,2),字库代码!B:D,3,TRUE)</f>
         <v>载入中,请稍后</v>
       </c>
-      <c r="F66" s="27" t="s">
+      <c r="F66" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I66" s="44"/>
-      <c r="O66" s="44"/>
-    </row>
-    <row r="67" s="27" customFormat="1" spans="1:15">
-      <c r="A67" s="27">
+      <c r="I66" s="43"/>
+      <c r="O66" s="43"/>
+    </row>
+    <row r="67" s="26" customFormat="1" spans="1:15">
+      <c r="A67" s="26">
         <v>469</v>
       </c>
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="C67" s="27" t="s">
+      <c r="C67" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="D67" s="34" t="s">
+      <c r="D67" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="E67" s="27" t="str">
+      <c r="E67" s="26" t="str">
         <f>VLOOKUP(MID(D67,1,2),字库代码!B:G,3,TRUE)&amp;VLOOKUP(MID(D67,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D67,7,2),字库代码!B:D,3,TRUE)</f>
         <v>简单</v>
       </c>
-      <c r="F67" s="27" t="s">
+      <c r="F67" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I67" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="O67" s="44"/>
-    </row>
-    <row r="68" s="27" customFormat="1" spans="1:11">
-      <c r="A68" s="27">
+      <c r="I67" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="O67" s="43"/>
+    </row>
+    <row r="68" s="26" customFormat="1" spans="1:11">
+      <c r="A68" s="26">
         <v>470</v>
       </c>
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="C68" s="44" t="s">
+      <c r="C68" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="D68" s="34" t="s">
+      <c r="D68" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="E68" s="27" t="str">
+      <c r="E68" s="26" t="str">
         <f>VLOOKUP(MID(D68,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D68,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D68,7,2),字库代码!B:D,3,TRUE)</f>
         <v>困难</v>
       </c>
-      <c r="F68" s="27" t="s">
+      <c r="F68" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="J68" s="27" t="s">
+      <c r="J68" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="K68" s="27" t="s">
+      <c r="K68" s="26" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="69" s="27" customFormat="1" spans="1:15">
-      <c r="A69" s="27">
+    <row r="69" s="26" customFormat="1" spans="1:15">
+      <c r="A69" s="26">
         <v>471</v>
       </c>
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="C69" s="27" t="s">
+      <c r="C69" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="D69" s="34" t="s">
+      <c r="D69" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="E69" s="27" t="str">
+      <c r="E69" s="26" t="str">
         <f>VLOOKUP(MID(D69,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D69,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D69,7,2),字库代码!B:D,3,TRUE)</f>
         <v>中等</v>
       </c>
-      <c r="F69" s="27" t="s">
+      <c r="F69" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I69" s="44"/>
-      <c r="O69" s="44"/>
-    </row>
-    <row r="70" s="27" customFormat="1" spans="1:6">
-      <c r="A70" s="27">
+      <c r="I69" s="43"/>
+      <c r="O69" s="43"/>
+    </row>
+    <row r="70" s="26" customFormat="1" spans="1:6">
+      <c r="A70" s="26">
         <v>472</v>
       </c>
-      <c r="B70" s="27" t="s">
+      <c r="B70" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="C70" s="44" t="s">
+      <c r="C70" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="D70" s="34" t="s">
+      <c r="D70" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="E70" s="27" t="str">
+      <c r="E70" s="26" t="str">
         <f>VLOOKUP(MID(D70,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D70,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D70,7,2),字库代码!B:D,3,TRUE)</f>
         <v>选择难度</v>
       </c>
-      <c r="F70" s="27" t="s">
+      <c r="F70" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="71" s="27" customFormat="1" spans="1:15">
-      <c r="A71" s="27">
+    <row r="71" s="26" customFormat="1" spans="1:15">
+      <c r="A71" s="26">
         <v>473</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C71" s="44" t="s">
+      <c r="C71" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="D71" s="34" t="s">
+      <c r="D71" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="E71" s="27" t="str">
+      <c r="E71" s="26" t="str">
         <f>VLOOKUP(MID(D71,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D71,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D71,7,2),字库代码!B:D,3,TRUE)</f>
         <v>盟军</v>
       </c>
-      <c r="F71" s="27" t="s">
+      <c r="F71" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I71" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="O71" s="44"/>
-    </row>
-    <row r="72" s="27" customFormat="1" spans="1:6">
-      <c r="A72" s="27">
+      <c r="I71" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="O71" s="43"/>
+    </row>
+    <row r="72" s="26" customFormat="1" spans="1:6">
+      <c r="A72" s="26">
         <v>474</v>
       </c>
-      <c r="B72" s="27" t="s">
+      <c r="B72" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="C72" s="27" t="s">
+      <c r="C72" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="D72" s="34" t="s">
+      <c r="D72" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="E72" s="27" t="str">
+      <c r="E72" s="26" t="str">
         <f>VLOOKUP(MID(D72,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D72,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D72,7,2),字库代码!B:D,3,TRUE)</f>
         <v>苏军</v>
       </c>
-      <c r="F72" s="27" t="s">
+      <c r="F72" s="26" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11478,55 +11475,55 @@
       <c r="M73"/>
       <c r="N73"/>
     </row>
-    <row r="74" s="27" customFormat="1" spans="1:15">
-      <c r="A74" s="27">
+    <row r="74" s="26" customFormat="1" spans="1:15">
+      <c r="A74" s="26">
         <v>483</v>
       </c>
-      <c r="B74" s="27" t="s">
+      <c r="B74" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="44" t="s">
+      <c r="C74" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="D74" s="34" t="s">
+      <c r="D74" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="E74" s="27" t="str">
+      <c r="E74" s="26" t="str">
         <f>VLOOKUP(MID(D74,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D74,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D74,7,2),字库代码!B:D,3,TRUE)</f>
         <v>选择阵营</v>
       </c>
-      <c r="F74" s="27" t="s">
+      <c r="F74" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I74" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="O74" s="44"/>
-    </row>
-    <row r="75" s="27" customFormat="1" spans="1:15">
-      <c r="A75" s="27">
+      <c r="I74" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="O74" s="43"/>
+    </row>
+    <row r="75" s="26" customFormat="1" spans="1:15">
+      <c r="A75" s="26">
         <v>511</v>
       </c>
-      <c r="B75" s="27" t="s">
+      <c r="B75" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="C75" s="34" t="s">
+      <c r="C75" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="D75" s="34" t="s">
+      <c r="D75" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="E75" s="27" t="str">
+      <c r="E75" s="26" t="str">
         <f>VLOOKUP(MID(D75,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D75,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D75,7,2),字库代码!B:D,3,TRUE)</f>
         <v>载入中,请稍后</v>
       </c>
-      <c r="F75" s="27" t="s">
+      <c r="F75" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I75" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="O75" s="44"/>
+      <c r="I75" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="O75" s="43"/>
     </row>
     <row r="76" s="24" customFormat="1" spans="1:15">
       <c r="A76" s="24">
@@ -11535,7 +11532,7 @@
       <c r="B76" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="C76" s="43" t="s">
+      <c r="C76" s="42" t="s">
         <v>225</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -11548,30 +11545,30 @@
       <c r="F76" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I76" s="43"/>
-      <c r="O76" s="43"/>
-    </row>
-    <row r="77" s="29" customFormat="1" spans="1:9">
-      <c r="A77" s="29">
+      <c r="I76" s="42"/>
+      <c r="O76" s="42"/>
+    </row>
+    <row r="77" s="28" customFormat="1" spans="1:9">
+      <c r="A77" s="28">
         <v>514</v>
       </c>
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="C77" s="29" t="s">
+      <c r="C77" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="D77" s="45" t="s">
+      <c r="D77" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="E77" s="29" t="str">
+      <c r="E77" s="28" t="str">
         <f>VLOOKUP(MID(D77,1,2),字库代码!B:E,4,TRUE)&amp;VLOOKUP(MID(D77,4,2),字库代码!B:E,4,TRUE)&amp;VLOOKUP(MID(D77,7,2),字库代码!B:E,4,TRUE)&amp;VLOOKUP(MID(D77,10,2),字库代码!B:E,4,TRUE)</f>
         <v>电力不足:特斯拉线圈离线</v>
       </c>
-      <c r="F77" s="29" t="s">
+      <c r="F77" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I77" s="29" t="s">
+      <c r="I77" s="28" t="s">
         <v>15</v>
       </c>
     </row>
@@ -11595,10 +11592,10 @@
       <c r="F78" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I78" s="43"/>
-      <c r="O78" s="43"/>
-    </row>
-    <row r="79" s="30" customFormat="1" spans="1:17">
+      <c r="I78" s="42"/>
+      <c r="O78" s="42"/>
+    </row>
+    <row r="79" s="29" customFormat="1" spans="1:17">
       <c r="A79" s="24">
         <v>21</v>
       </c>
@@ -11620,7 +11617,7 @@
       </c>
       <c r="G79" s="24"/>
       <c r="H79" s="24"/>
-      <c r="I79" s="43" t="s">
+      <c r="I79" s="42" t="s">
         <v>15</v>
       </c>
       <c r="J79" s="24"/>
@@ -11628,7 +11625,7 @@
       <c r="L79" s="24"/>
       <c r="M79" s="24"/>
       <c r="N79" s="24"/>
-      <c r="O79" s="43"/>
+      <c r="O79" s="42"/>
       <c r="P79" s="24"/>
       <c r="Q79" s="24"/>
     </row>
@@ -11676,10 +11673,10 @@
       <c r="F81" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I81" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O81" s="43"/>
+      <c r="I81" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O81" s="42"/>
     </row>
     <row r="82" s="24" customFormat="1" spans="1:9">
       <c r="A82" s="24">
@@ -11688,7 +11685,7 @@
       <c r="B82" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="C82" s="43" t="s">
+      <c r="C82" s="42" t="s">
         <v>244</v>
       </c>
       <c r="D82" s="5" t="s">
@@ -11725,10 +11722,10 @@
       <c r="F83" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I83" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O83" s="43"/>
+      <c r="I83" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O83" s="42"/>
     </row>
     <row r="84" s="24" customFormat="1" spans="1:9">
       <c r="A84" s="24">
@@ -11774,10 +11771,10 @@
       <c r="F85" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I85" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O85" s="43"/>
+      <c r="I85" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O85" s="42"/>
     </row>
     <row r="86" s="24" customFormat="1" spans="1:9">
       <c r="A86" s="24">
@@ -11796,7 +11793,7 @@
         <f>VLOOKUP(MID(D86,1,2),字库代码!B:F,5,TRUE)</f>
         <v>猛犸坦克</v>
       </c>
-      <c r="F86" s="30" t="s">
+      <c r="F86" s="29" t="s">
         <v>236</v>
       </c>
       <c r="I86" s="24" t="s">
@@ -11820,10 +11817,10 @@
         <f>VLOOKUP(MID(D87,1,2),字库代码!B:F,5,TRUE)</f>
         <v>防空导弹</v>
       </c>
-      <c r="F87" s="30" t="s">
+      <c r="F87" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="I87" s="43" t="s">
+      <c r="I87" s="42" t="s">
         <v>15</v>
       </c>
       <c r="J87" s="24" t="s">
@@ -11832,7 +11829,7 @@
       <c r="K87" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="O87" s="43"/>
+      <c r="O87" s="42"/>
     </row>
     <row r="88" s="24" customFormat="1" spans="1:6">
       <c r="A88" s="24">
@@ -11872,13 +11869,13 @@
         <f>VLOOKUP(MID(D89,1,2),字库代码!B:F,5,TRUE)</f>
         <v>支奴干运输机</v>
       </c>
-      <c r="F89" s="30" t="s">
+      <c r="F89" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="I89" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O89" s="43"/>
+      <c r="I89" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O89" s="42"/>
     </row>
     <row r="90" s="24" customFormat="1" spans="1:9">
       <c r="A90" s="24">
@@ -11924,14 +11921,14 @@
       <c r="F91" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I91" s="43"/>
+      <c r="I91" s="42"/>
       <c r="J91" s="24" t="s">
         <v>274</v>
       </c>
       <c r="K91" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="O91" s="43"/>
+      <c r="O91" s="42"/>
     </row>
     <row r="92" s="24" customFormat="1" spans="1:11">
       <c r="A92" s="24">
@@ -11977,13 +11974,13 @@
         <f>VLOOKUP(MID(D93,1,2),字库代码!B:F,5,TRUE)</f>
         <v>手雷兵</v>
       </c>
-      <c r="F93" s="30" t="s">
+      <c r="F93" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="I93" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O93" s="43"/>
+      <c r="I93" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O93" s="42"/>
     </row>
     <row r="94" s="24" customFormat="1" spans="1:9">
       <c r="A94" s="24">
@@ -12026,10 +12023,10 @@
         <f>VLOOKUP(MID(D95,1,2),字库代码!B:F,5,TRUE)</f>
         <v>火焰兵</v>
       </c>
-      <c r="F95" s="30" t="s">
+      <c r="F95" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="I95" s="43" t="s">
+      <c r="I95" s="42" t="s">
         <v>15</v>
       </c>
       <c r="J95" s="24" t="s">
@@ -12038,7 +12035,7 @@
       <c r="K95" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="O95" s="43"/>
+      <c r="O95" s="42"/>
     </row>
     <row r="96" s="24" customFormat="1" spans="1:9">
       <c r="A96" s="24">
@@ -12057,7 +12054,7 @@
         <f>VLOOKUP(MID(D96,1,2),字库代码!B:F,5,TRUE)</f>
         <v>长弓直升机</v>
       </c>
-      <c r="F96" s="30" t="s">
+      <c r="F96" s="29" t="s">
         <v>236</v>
       </c>
       <c r="I96" s="24" t="s">
@@ -12071,7 +12068,7 @@
       <c r="B97" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="C97" s="43" t="s">
+      <c r="C97" s="42" t="s">
         <v>293</v>
       </c>
       <c r="D97" s="5" t="s">
@@ -12081,47 +12078,47 @@
         <f>VLOOKUP(MID(D97,1,2),字库代码!B:F,5,TRUE)</f>
         <v>雌鹿直升机</v>
       </c>
-      <c r="F97" s="30" t="s">
+      <c r="F97" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="I97" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O97" s="43"/>
+      <c r="I97" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O97" s="42"/>
     </row>
     <row r="98" s="24" customFormat="1" spans="1:17">
-      <c r="A98" s="30">
+      <c r="A98" s="29">
         <v>78</v>
       </c>
-      <c r="B98" s="30" t="s">
+      <c r="B98" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="C98" s="30" t="s">
+      <c r="C98" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="D98" s="46" t="s">
+      <c r="D98" s="45" t="s">
         <v>297</v>
       </c>
       <c r="E98" s="24" t="str">
         <f>VLOOKUP(MID(D98,1,2),字库代码!B:F,5,TRUE)</f>
         <v>装甲运兵车(APC)</v>
       </c>
-      <c r="F98" s="30" t="s">
+      <c r="F98" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="G98" s="30"/>
-      <c r="H98" s="30"/>
-      <c r="I98" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="J98" s="30"/>
-      <c r="K98" s="30"/>
-      <c r="L98" s="30"/>
-      <c r="M98" s="30"/>
-      <c r="N98" s="30"/>
-      <c r="O98" s="30"/>
-      <c r="P98" s="30"/>
-      <c r="Q98" s="30"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J98" s="29"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="29"/>
+      <c r="M98" s="29"/>
+      <c r="N98" s="29"/>
+      <c r="O98" s="29"/>
+      <c r="P98" s="29"/>
+      <c r="Q98" s="29"/>
     </row>
     <row r="99" s="24" customFormat="1" spans="1:15">
       <c r="A99" s="24">
@@ -12140,10 +12137,10 @@
         <f>VLOOKUP(MID(D99,1,2),字库代码!B:F,5,TRUE)</f>
         <v>警戒塔</v>
       </c>
-      <c r="F99" s="30" t="s">
+      <c r="F99" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="I99" s="43" t="s">
+      <c r="I99" s="42" t="s">
         <v>15</v>
       </c>
       <c r="J99" s="24" t="s">
@@ -12152,7 +12149,7 @@
       <c r="K99" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="O99" s="43"/>
+      <c r="O99" s="42"/>
     </row>
     <row r="100" s="24" customFormat="1" spans="1:11">
       <c r="A100" s="24">
@@ -12198,13 +12195,13 @@
         <f>VLOOKUP(MID(D101,1,2),字库代码!B:F,5,TRUE)</f>
         <v>直升机坪</v>
       </c>
-      <c r="F101" s="30" t="s">
+      <c r="F101" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="I101" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O101" s="43"/>
+      <c r="I101" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O101" s="42"/>
     </row>
     <row r="102" s="24" customFormat="1" spans="1:9">
       <c r="A102" s="24">
@@ -12250,8 +12247,8 @@
       <c r="F103" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I103" s="43"/>
-      <c r="O103" s="43"/>
+      <c r="I103" s="42"/>
+      <c r="O103" s="42"/>
     </row>
     <row r="104" s="24" customFormat="1" spans="1:9">
       <c r="A104" s="24">
@@ -12260,7 +12257,7 @@
       <c r="B104" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="C104" s="30" t="s">
+      <c r="C104" s="29" t="s">
         <v>316</v>
       </c>
       <c r="D104" s="5" t="s">
@@ -12297,12 +12294,12 @@
       <c r="F105" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I105" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O105" s="43"/>
-    </row>
-    <row r="106" s="28" customFormat="1" spans="1:17">
+      <c r="I105" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O105" s="42"/>
+    </row>
+    <row r="106" s="27" customFormat="1" spans="1:17">
       <c r="A106" s="24">
         <v>122</v>
       </c>
@@ -12319,7 +12316,7 @@
         <f>VLOOKUP(MID(D106,1,2),字库代码!B:F,5,TRUE)</f>
         <v>苏军科技中心</v>
       </c>
-      <c r="F106" s="30" t="s">
+      <c r="F106" s="29" t="s">
         <v>236</v>
       </c>
       <c r="G106" s="24"/>
@@ -12337,36 +12334,36 @@
       <c r="Q106" s="24"/>
     </row>
     <row r="107" s="24" customFormat="1" spans="1:17">
-      <c r="A107" s="30">
+      <c r="A107" s="29">
         <v>123</v>
       </c>
-      <c r="B107" s="30" t="s">
+      <c r="B107" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="C107" s="30" t="s">
+      <c r="C107" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="D107" s="46" t="s">
+      <c r="D107" s="45" t="s">
         <v>326</v>
       </c>
       <c r="E107" s="24" t="str">
         <f>VLOOKUP(MID(D107,1,2),字库代码!B:F,5,TRUE)</f>
         <v>炮台</v>
       </c>
-      <c r="F107" s="30" t="s">
+      <c r="F107" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="G107" s="30"/>
-      <c r="H107" s="30"/>
-      <c r="I107" s="30"/>
-      <c r="J107" s="30"/>
-      <c r="K107" s="30"/>
-      <c r="L107" s="30"/>
-      <c r="M107" s="30"/>
-      <c r="N107" s="30"/>
-      <c r="O107" s="30"/>
-      <c r="P107" s="30"/>
-      <c r="Q107" s="30"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="29"/>
+      <c r="M107" s="29"/>
+      <c r="N107" s="29"/>
+      <c r="O107" s="29"/>
+      <c r="P107" s="29"/>
+      <c r="Q107" s="29"/>
     </row>
     <row r="108" s="24" customFormat="1" spans="1:15">
       <c r="A108" s="24">
@@ -12388,8 +12385,8 @@
       <c r="F108" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I108" s="43"/>
-      <c r="O108" s="43"/>
+      <c r="I108" s="42"/>
+      <c r="O108" s="42"/>
     </row>
     <row r="109" s="24" customFormat="1" spans="1:9">
       <c r="A109" s="24">
@@ -12422,7 +12419,7 @@
       <c r="B110" s="24" t="s">
         <v>333</v>
       </c>
-      <c r="C110" s="43" t="s">
+      <c r="C110" s="42" t="s">
         <v>334</v>
       </c>
       <c r="D110" s="5" t="s">
@@ -12435,10 +12432,10 @@
       <c r="F110" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I110" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O110" s="43"/>
+      <c r="I110" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O110" s="42"/>
     </row>
     <row r="111" s="24" customFormat="1" spans="1:15">
       <c r="A111" s="24">
@@ -12460,10 +12457,10 @@
       <c r="F111" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I111" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O111" s="43"/>
+      <c r="I111" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O111" s="42"/>
     </row>
     <row r="112" s="24" customFormat="1" spans="1:9">
       <c r="A112" s="24">
@@ -12533,8 +12530,8 @@
       <c r="F114" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I114" s="43"/>
-      <c r="O114" s="43"/>
+      <c r="I114" s="42"/>
+      <c r="O114" s="42"/>
     </row>
     <row r="115" s="24" customFormat="1" spans="1:9">
       <c r="A115" s="24">
@@ -12553,7 +12550,7 @@
         <f>VLOOKUP(MID(D115,1,2),字库代码!B:F,5,TRUE)</f>
         <v>高级警戒塔</v>
       </c>
-      <c r="F115" s="30" t="s">
+      <c r="F115" s="29" t="s">
         <v>236</v>
       </c>
       <c r="I115" s="24" t="s">
@@ -12577,13 +12574,13 @@
         <f>VLOOKUP(MID(D116,1,2),字库代码!B:F,5,TRUE)</f>
         <v>生物研究所</v>
       </c>
-      <c r="F116" s="30" t="s">
+      <c r="F116" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="I116" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O116" s="43"/>
+      <c r="I116" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O116" s="42"/>
     </row>
     <row r="117" s="24" customFormat="1" spans="1:6">
       <c r="A117" s="24">
@@ -12654,7 +12651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" s="31" customFormat="1" spans="1:17">
+    <row r="120" s="30" customFormat="1" spans="1:17">
       <c r="A120" s="24">
         <v>289</v>
       </c>
@@ -12676,7 +12673,7 @@
       </c>
       <c r="G120" s="24"/>
       <c r="H120" s="24"/>
-      <c r="I120" s="43" t="s">
+      <c r="I120" s="42" t="s">
         <v>15</v>
       </c>
       <c r="J120" s="24"/>
@@ -12684,7 +12681,7 @@
       <c r="L120" s="24"/>
       <c r="M120" s="24"/>
       <c r="N120" s="24"/>
-      <c r="O120" s="43"/>
+      <c r="O120" s="42"/>
       <c r="P120" s="24"/>
       <c r="Q120" s="24"/>
     </row>
@@ -12708,8 +12705,8 @@
       <c r="F121" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I121" s="43"/>
-      <c r="O121" s="43"/>
+      <c r="I121" s="42"/>
+      <c r="O121" s="42"/>
     </row>
     <row r="122" s="24" customFormat="1" spans="1:9">
       <c r="A122" s="24">
@@ -12756,7 +12753,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="124" s="30" customFormat="1" spans="1:17">
+    <row r="124" s="29" customFormat="1" spans="1:17">
       <c r="A124" s="24">
         <v>333</v>
       </c>
@@ -12778,13 +12775,13 @@
       </c>
       <c r="G124" s="24"/>
       <c r="H124" s="24"/>
-      <c r="I124" s="43"/>
+      <c r="I124" s="42"/>
       <c r="J124" s="24"/>
       <c r="K124" s="24"/>
       <c r="L124" s="24"/>
       <c r="M124" s="24"/>
       <c r="N124" s="24"/>
-      <c r="O124" s="43"/>
+      <c r="O124" s="42"/>
       <c r="P124" s="24"/>
       <c r="Q124" s="24"/>
     </row>
@@ -12832,7 +12829,7 @@
       <c r="F126" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I126" s="43" t="s">
+      <c r="I126" s="42" t="s">
         <v>15</v>
       </c>
       <c r="J126" s="24" t="s">
@@ -12841,7 +12838,7 @@
       <c r="K126" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="O126" s="43"/>
+      <c r="O126" s="42"/>
     </row>
     <row r="127" s="24" customFormat="1" spans="1:15">
       <c r="A127" s="24">
@@ -12863,10 +12860,10 @@
       <c r="F127" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I127" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O127" s="43"/>
+      <c r="I127" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O127" s="42"/>
     </row>
     <row r="128" s="24" customFormat="1" spans="1:9">
       <c r="A128" s="24">
@@ -12912,10 +12909,10 @@
       <c r="F129" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I129" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O129" s="43"/>
+      <c r="I129" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O129" s="42"/>
     </row>
     <row r="130" s="24" customFormat="1" spans="1:9">
       <c r="A130" s="24">
@@ -12948,7 +12945,7 @@
       <c r="B131" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="C131" s="43" t="s">
+      <c r="C131" s="42" t="s">
         <v>397</v>
       </c>
       <c r="D131" s="5" t="s">
@@ -12961,10 +12958,10 @@
       <c r="F131" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I131" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O131" s="43"/>
+      <c r="I131" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O131" s="42"/>
     </row>
     <row r="132" s="24" customFormat="1" spans="1:11">
       <c r="A132" s="24">
@@ -13016,10 +13013,10 @@
       <c r="F133" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I133" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O133" s="43"/>
+      <c r="I133" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O133" s="42"/>
     </row>
     <row r="134" s="24" customFormat="1" spans="1:9">
       <c r="A134" s="24">
@@ -13065,10 +13062,10 @@
       <c r="F135" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I135" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O135" s="43"/>
+      <c r="I135" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O135" s="42"/>
     </row>
     <row r="136" s="24" customFormat="1" spans="1:9">
       <c r="A136" s="24">
@@ -13101,7 +13098,7 @@
       <c r="B137" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="C137" s="43" t="s">
+      <c r="C137" s="42" t="s">
         <v>416</v>
       </c>
       <c r="D137" s="5" t="s">
@@ -13114,7 +13111,7 @@
       <c r="F137" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I137" s="43" t="s">
+      <c r="I137" s="42" t="s">
         <v>15</v>
       </c>
       <c r="J137" s="24" t="s">
@@ -13123,7 +13120,7 @@
       <c r="K137" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="O137" s="43"/>
+      <c r="O137" s="42"/>
     </row>
     <row r="138" s="24" customFormat="1" spans="1:9">
       <c r="A138" s="24">
@@ -13169,7 +13166,7 @@
       <c r="F139" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I139" s="43" t="s">
+      <c r="I139" s="42" t="s">
         <v>15</v>
       </c>
       <c r="J139" s="24" t="s">
@@ -13178,7 +13175,7 @@
       <c r="K139" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="O139" s="43"/>
+      <c r="O139" s="42"/>
     </row>
     <row r="140" s="24" customFormat="1" spans="1:9">
       <c r="A140" s="24">
@@ -13211,7 +13208,7 @@
       <c r="B141" s="24" t="s">
         <v>429</v>
       </c>
-      <c r="C141" s="43" t="s">
+      <c r="C141" s="42" t="s">
         <v>430</v>
       </c>
       <c r="D141" s="5" t="s">
@@ -13224,10 +13221,10 @@
       <c r="F141" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I141" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O141" s="43"/>
+      <c r="I141" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O141" s="42"/>
     </row>
     <row r="142" s="24" customFormat="1" spans="1:9">
       <c r="A142" s="24">
@@ -13236,7 +13233,7 @@
       <c r="B142" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="C142" s="43" t="s">
+      <c r="C142" s="42" t="s">
         <v>433</v>
       </c>
       <c r="D142" s="5" t="s">
@@ -13270,13 +13267,13 @@
         <f>VLOOKUP(MID(D143,1,2),字库代码!B:F,5,TRUE)</f>
         <v>苏军科技中心</v>
       </c>
-      <c r="F143" s="30" t="s">
+      <c r="F143" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="I143" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O143" s="43"/>
+      <c r="I143" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O143" s="42"/>
     </row>
     <row r="144" s="24" customFormat="1" spans="1:9">
       <c r="A144" s="24">
@@ -13295,7 +13292,7 @@
         <f>VLOOKUP(MID(D144,1,2),字库代码!B:F,5,TRUE)</f>
         <v>獾式轰炸机</v>
       </c>
-      <c r="F144" s="30" t="s">
+      <c r="F144" s="29" t="s">
         <v>236</v>
       </c>
       <c r="I144" s="24" t="s">
@@ -13309,7 +13306,7 @@
       <c r="B145" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="C145" s="43" t="s">
+      <c r="C145" s="42" t="s">
         <v>441</v>
       </c>
       <c r="D145" s="5" t="s">
@@ -13319,10 +13316,10 @@
         <f>VLOOKUP(MID(D145,1,2),字库代码!B:F,5,TRUE)</f>
         <v>米格战机</v>
       </c>
-      <c r="F145" s="30" t="s">
+      <c r="F145" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="I145" s="43" t="s">
+      <c r="I145" s="42" t="s">
         <v>15</v>
       </c>
       <c r="J145" s="24" t="s">
@@ -13331,7 +13328,7 @@
       <c r="K145" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="O145" s="43"/>
+      <c r="O145" s="42"/>
     </row>
     <row r="146" s="24" customFormat="1" spans="1:11">
       <c r="A146" s="24">
@@ -13377,13 +13374,13 @@
         <f>VLOOKUP(MID(D147,1,2),字库代码!B:F,5,TRUE)</f>
         <v>带刺铁丝网</v>
       </c>
-      <c r="F147" s="30" t="s">
+      <c r="F147" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="I147" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O147" s="43"/>
+      <c r="I147" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O147" s="42"/>
     </row>
     <row r="148" s="24" customFormat="1" spans="1:11">
       <c r="A148" s="24">
@@ -13392,7 +13389,7 @@
       <c r="B148" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="C148" s="43" t="s">
+      <c r="C148" s="42" t="s">
         <v>452</v>
       </c>
       <c r="D148" s="5" t="s">
@@ -13419,7 +13416,7 @@
       <c r="B149" s="24" t="s">
         <v>455</v>
       </c>
-      <c r="C149" s="43" t="s">
+      <c r="C149" s="42" t="s">
         <v>456</v>
       </c>
       <c r="D149" s="5" t="s">
@@ -13432,10 +13429,10 @@
       <c r="F149" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I149" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O149" s="43"/>
+      <c r="I149" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O149" s="42"/>
     </row>
     <row r="150" s="24" customFormat="1" spans="1:9">
       <c r="A150" s="24">
@@ -13444,7 +13441,7 @@
       <c r="B150" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="C150" s="43" t="s">
+      <c r="C150" s="42" t="s">
         <v>459</v>
       </c>
       <c r="D150" s="5" t="s">
@@ -13454,7 +13451,7 @@
         <f>VLOOKUP(MID(D150,1,2),字库代码!B:F,5,TRUE)</f>
         <v>空头炸弹</v>
       </c>
-      <c r="F150" s="30" t="s">
+      <c r="F150" s="29" t="s">
         <v>236</v>
       </c>
       <c r="I150" s="24" t="s">
@@ -13478,13 +13475,13 @@
         <f>VLOOKUP(MID(D151,1,2),字库代码!B:F,5,TRUE)</f>
         <v>空降兵</v>
       </c>
-      <c r="F151" s="30" t="s">
+      <c r="F151" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="I151" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O151" s="43"/>
+      <c r="I151" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O151" s="42"/>
     </row>
     <row r="152" s="24" customFormat="1" spans="1:15">
       <c r="A152" s="24">
@@ -13506,10 +13503,10 @@
       <c r="F152" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I152" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O152" s="43"/>
+      <c r="I152" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O152" s="42"/>
     </row>
     <row r="153" s="24" customFormat="1" spans="1:9">
       <c r="A153" s="24">
@@ -13518,7 +13515,7 @@
       <c r="B153" s="24" t="s">
         <v>467</v>
       </c>
-      <c r="C153" s="43" t="s">
+      <c r="C153" s="42" t="s">
         <v>468</v>
       </c>
       <c r="D153" s="5" t="s">
@@ -13603,10 +13600,10 @@
       <c r="F156" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I156" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O156" s="43"/>
+      <c r="I156" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O156" s="42"/>
     </row>
     <row r="157" s="24" customFormat="1" spans="1:9">
       <c r="A157" s="24">
@@ -13639,7 +13636,7 @@
       <c r="B158" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="C158" s="43" t="s">
+      <c r="C158" s="42" t="s">
         <v>483</v>
       </c>
       <c r="D158" s="5" t="s">
@@ -13652,10 +13649,10 @@
       <c r="F158" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I158" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O158" s="43"/>
+      <c r="I158" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O158" s="42"/>
     </row>
     <row r="159" s="24" customFormat="1" spans="1:6">
       <c r="A159" s="24">
@@ -13685,7 +13682,7 @@
       <c r="B160" s="24" t="s">
         <v>488</v>
       </c>
-      <c r="C160" s="43" t="s">
+      <c r="C160" s="42" t="s">
         <v>489</v>
       </c>
       <c r="D160" s="24" t="s">
@@ -13698,10 +13695,10 @@
       <c r="F160" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I160" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O160" s="43"/>
+      <c r="I160" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O160" s="42"/>
     </row>
     <row r="161" s="24" customFormat="1" spans="1:15">
       <c r="A161" s="24">
@@ -13710,7 +13707,7 @@
       <c r="B161" s="24" t="s">
         <v>491</v>
       </c>
-      <c r="C161" s="43" t="s">
+      <c r="C161" s="42" t="s">
         <v>492</v>
       </c>
       <c r="D161" s="5" t="s">
@@ -13723,10 +13720,10 @@
       <c r="F161" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I161" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O161" s="43"/>
+      <c r="I161" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O161" s="42"/>
     </row>
     <row r="162" s="24" customFormat="1" spans="1:6">
       <c r="A162" s="24">
@@ -13769,10 +13766,10 @@
       <c r="F163" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I163" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O163" s="43"/>
+      <c r="I163" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O163" s="42"/>
     </row>
     <row r="164" s="24" customFormat="1" spans="1:6">
       <c r="A164" s="24">
@@ -13802,7 +13799,7 @@
       <c r="B165" s="24" t="s">
         <v>503</v>
       </c>
-      <c r="C165" s="43" t="s">
+      <c r="C165" s="42" t="s">
         <v>504</v>
       </c>
       <c r="D165" s="5" t="s">
@@ -13815,10 +13812,10 @@
       <c r="F165" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I165" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O165" s="43"/>
+      <c r="I165" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O165" s="42"/>
     </row>
     <row r="166" s="24" customFormat="1" spans="1:10">
       <c r="A166" s="24">
@@ -13827,7 +13824,7 @@
       <c r="B166" s="24" t="s">
         <v>506</v>
       </c>
-      <c r="C166" s="43" t="s">
+      <c r="C166" s="42" t="s">
         <v>507</v>
       </c>
       <c r="D166" s="5" t="s">
@@ -13867,8 +13864,8 @@
       <c r="F167" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I167" s="43"/>
-      <c r="O167" s="43"/>
+      <c r="I167" s="42"/>
+      <c r="O167" s="42"/>
     </row>
     <row r="168" s="24" customFormat="1" spans="1:9">
       <c r="A168" s="24">
@@ -13914,10 +13911,10 @@
       <c r="F169" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I169" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O169" s="43"/>
+      <c r="I169" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O169" s="42"/>
     </row>
     <row r="170" s="24" customFormat="1" spans="1:9">
       <c r="A170" s="24">
@@ -13950,7 +13947,7 @@
       <c r="B171" s="24" t="s">
         <v>522</v>
       </c>
-      <c r="C171" s="43" t="s">
+      <c r="C171" s="42" t="s">
         <v>523</v>
       </c>
       <c r="D171" s="5" t="s">
@@ -13987,10 +13984,10 @@
       <c r="F172" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I172" s="43" t="s">
+      <c r="I172" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="O172" s="43"/>
+      <c r="O172" s="42"/>
     </row>
     <row r="173" s="24" customFormat="1" spans="1:9">
       <c r="A173" s="24">
@@ -13999,7 +13996,7 @@
       <c r="B173" s="24" t="s">
         <v>528</v>
       </c>
-      <c r="C173" s="43" t="s">
+      <c r="C173" s="42" t="s">
         <v>529</v>
       </c>
       <c r="D173" s="24" t="s">
@@ -14036,10 +14033,10 @@
       <c r="F174" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I174" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O174" s="43"/>
+      <c r="I174" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="O174" s="42"/>
     </row>
     <row r="175" s="24" customFormat="1" spans="1:9">
       <c r="A175" s="24">
@@ -14085,7 +14082,7 @@
       <c r="F176" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I176" s="43" t="s">
+      <c r="I176" s="42" t="s">
         <v>15</v>
       </c>
       <c r="J176" s="24" t="s">
@@ -14094,7 +14091,7 @@
       <c r="K176" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="O176" s="43"/>
+      <c r="O176" s="42"/>
     </row>
     <row r="177" s="24" customFormat="1" spans="1:9">
       <c r="A177" s="24">
@@ -14140,7 +14137,7 @@
       <c r="F178" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="I178" s="43" t="s">
+      <c r="I178" s="42" t="s">
         <v>15</v>
       </c>
       <c r="J178" s="24" t="s">
@@ -14149,7 +14146,7 @@
       <c r="K178" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="O178" s="43"/>
+      <c r="O178" s="42"/>
     </row>
     <row r="179" spans="1:17">
       <c r="A179" s="24">
@@ -14211,13 +14208,13 @@
       </c>
       <c r="G180" s="24"/>
       <c r="H180" s="24"/>
-      <c r="I180" s="43" t="s">
+      <c r="I180" s="42" t="s">
         <v>15</v>
       </c>
       <c r="L180" s="24"/>
       <c r="M180" s="24"/>
       <c r="N180" s="24"/>
-      <c r="O180" s="43"/>
+      <c r="O180" s="42"/>
       <c r="P180" s="24"/>
       <c r="Q180" s="24"/>
     </row>
@@ -14228,7 +14225,7 @@
       <c r="B181" s="24" t="s">
         <v>556</v>
       </c>
-      <c r="C181" s="43" t="s">
+      <c r="C181" s="42" t="s">
         <v>557</v>
       </c>
       <c r="D181" s="5" t="s">
@@ -14275,13 +14272,13 @@
       </c>
       <c r="G182" s="24"/>
       <c r="H182" s="24"/>
-      <c r="I182" s="43" t="s">
+      <c r="I182" s="42" t="s">
         <v>15</v>
       </c>
       <c r="L182" s="24"/>
       <c r="M182" s="24"/>
       <c r="N182" s="24"/>
-      <c r="O182" s="43"/>
+      <c r="O182" s="42"/>
       <c r="P182" s="24"/>
       <c r="Q182" s="24"/>
     </row>
@@ -14330,11 +14327,11 @@
       </c>
       <c r="G184" s="24"/>
       <c r="H184" s="24"/>
-      <c r="I184" s="43"/>
+      <c r="I184" s="42"/>
       <c r="L184" s="24"/>
       <c r="M184" s="24"/>
       <c r="N184" s="24"/>
-      <c r="O184" s="43"/>
+      <c r="O184" s="42"/>
       <c r="P184" s="24"/>
       <c r="Q184" s="24"/>
     </row>
@@ -14345,7 +14342,7 @@
       <c r="B185" s="24" t="s">
         <v>568</v>
       </c>
-      <c r="C185" s="43" t="s">
+      <c r="C185" s="42" t="s">
         <v>569</v>
       </c>
       <c r="D185" s="5" t="s">
@@ -14358,10 +14355,10 @@
       <c r="F185" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="I185" s="43"/>
+      <c r="I185" s="42"/>
       <c r="J185"/>
       <c r="K185"/>
-      <c r="O185" s="43"/>
+      <c r="O185" s="42"/>
     </row>
     <row r="186" s="24" customFormat="1" spans="1:11">
       <c r="A186" s="24">
@@ -14408,7 +14405,7 @@
       </c>
       <c r="G187" s="24"/>
       <c r="H187" s="24"/>
-      <c r="I187" s="43"/>
+      <c r="I187" s="42"/>
       <c r="J187" t="s">
         <v>577</v>
       </c>
@@ -14441,7 +14438,7 @@
       </c>
       <c r="G188" s="24"/>
       <c r="H188" s="24"/>
-      <c r="I188" s="43" t="s">
+      <c r="I188" s="42" t="s">
         <v>15</v>
       </c>
       <c r="J188" s="24"/>
@@ -14449,7 +14446,7 @@
       <c r="L188" s="24"/>
       <c r="M188" s="24"/>
       <c r="N188" s="24"/>
-      <c r="O188" s="43"/>
+      <c r="O188" s="42"/>
       <c r="P188" s="24"/>
       <c r="Q188" s="24"/>
     </row>
@@ -14942,54 +14939,54 @@
       </c>
     </row>
     <row r="216" spans="1:17">
-      <c r="A216" s="28">
+      <c r="A216" s="27">
         <v>52</v>
       </c>
-      <c r="B216" s="28" t="s">
+      <c r="B216" s="27" t="s">
         <v>631</v>
       </c>
-      <c r="C216" s="28" t="s">
+      <c r="C216" s="27" t="s">
         <v>118</v>
       </c>
       <c r="D216" s="12"/>
-      <c r="E216" s="28"/>
-      <c r="F216" s="28"/>
-      <c r="G216" s="28"/>
-      <c r="H216" s="28"/>
-      <c r="I216" s="28"/>
-      <c r="J216" s="28"/>
-      <c r="K216" s="28"/>
-      <c r="L216" s="28"/>
-      <c r="M216" s="28"/>
-      <c r="N216" s="28"/>
-      <c r="O216" s="28"/>
-      <c r="P216" s="28"/>
-      <c r="Q216" s="28"/>
+      <c r="E216" s="27"/>
+      <c r="F216" s="27"/>
+      <c r="G216" s="27"/>
+      <c r="H216" s="27"/>
+      <c r="I216" s="27"/>
+      <c r="J216" s="27"/>
+      <c r="K216" s="27"/>
+      <c r="L216" s="27"/>
+      <c r="M216" s="27"/>
+      <c r="N216" s="27"/>
+      <c r="O216" s="27"/>
+      <c r="P216" s="27"/>
+      <c r="Q216" s="27"/>
     </row>
     <row r="217" spans="1:17">
-      <c r="A217" s="28">
+      <c r="A217" s="27">
         <v>53</v>
       </c>
-      <c r="B217" s="28" t="s">
+      <c r="B217" s="27" t="s">
         <v>632</v>
       </c>
-      <c r="C217" s="28" t="s">
+      <c r="C217" s="27" t="s">
         <v>121</v>
       </c>
       <c r="D217" s="12"/>
-      <c r="E217" s="28"/>
-      <c r="F217" s="28"/>
-      <c r="G217" s="28"/>
-      <c r="H217" s="28"/>
-      <c r="I217" s="36"/>
-      <c r="J217" s="28"/>
-      <c r="K217" s="28"/>
-      <c r="L217" s="28"/>
-      <c r="M217" s="28"/>
-      <c r="N217" s="28"/>
-      <c r="O217" s="36"/>
-      <c r="P217" s="28"/>
-      <c r="Q217" s="28"/>
+      <c r="E217" s="27"/>
+      <c r="F217" s="27"/>
+      <c r="G217" s="27"/>
+      <c r="H217" s="27"/>
+      <c r="I217" s="35"/>
+      <c r="J217" s="27"/>
+      <c r="K217" s="27"/>
+      <c r="L217" s="27"/>
+      <c r="M217" s="27"/>
+      <c r="N217" s="27"/>
+      <c r="O217" s="35"/>
+      <c r="P217" s="27"/>
+      <c r="Q217" s="27"/>
     </row>
     <row r="218" spans="1:9">
       <c r="A218">
@@ -15498,7 +15495,7 @@
         <v>681</v>
       </c>
       <c r="D240"/>
-      <c r="E240" s="28"/>
+      <c r="E240" s="27"/>
       <c r="I240" t="s">
         <v>15</v>
       </c>
@@ -15514,7 +15511,7 @@
         <v>683</v>
       </c>
       <c r="D241"/>
-      <c r="E241" s="28"/>
+      <c r="E241" s="27"/>
       <c r="I241" s="18" t="s">
         <v>15</v>
       </c>
@@ -15670,31 +15667,31 @@
       <c r="O250" s="18"/>
     </row>
     <row r="251" spans="1:17">
-      <c r="A251" s="28">
+      <c r="A251" s="27">
         <v>124</v>
       </c>
-      <c r="B251" s="28" t="s">
+      <c r="B251" s="27" t="s">
         <v>702</v>
       </c>
-      <c r="C251" s="28" t="s">
+      <c r="C251" s="27" t="s">
         <v>703</v>
       </c>
-      <c r="D251" s="28"/>
-      <c r="E251" s="28"/>
-      <c r="F251" s="47"/>
-      <c r="G251" s="28"/>
-      <c r="H251" s="28"/>
-      <c r="I251" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="J251" s="28"/>
-      <c r="K251" s="28"/>
-      <c r="L251" s="28"/>
-      <c r="M251" s="28"/>
-      <c r="N251" s="28"/>
-      <c r="O251" s="28"/>
-      <c r="P251" s="28"/>
-      <c r="Q251" s="28"/>
+      <c r="D251" s="27"/>
+      <c r="E251" s="27"/>
+      <c r="F251" s="46"/>
+      <c r="G251" s="27"/>
+      <c r="H251" s="27"/>
+      <c r="I251" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J251" s="27"/>
+      <c r="K251" s="27"/>
+      <c r="L251" s="27"/>
+      <c r="M251" s="27"/>
+      <c r="N251" s="27"/>
+      <c r="O251" s="27"/>
+      <c r="P251" s="27"/>
+      <c r="Q251" s="27"/>
     </row>
     <row r="252" spans="1:9">
       <c r="A252">
@@ -20282,11 +20279,11 @@
       <c r="F491" s="24"/>
       <c r="G491" s="24"/>
       <c r="H491" s="24"/>
-      <c r="I491" s="43"/>
+      <c r="I491" s="42"/>
       <c r="L491" s="24"/>
       <c r="M491" s="24"/>
       <c r="N491" s="24"/>
-      <c r="O491" s="43"/>
+      <c r="O491" s="42"/>
       <c r="P491" s="24"/>
       <c r="Q491" s="24"/>
     </row>
@@ -21328,7 +21325,7 @@
   <sheetPr/>
   <dimension ref="A1:H236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
@@ -22244,8 +22241,8 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="42" s="26" customFormat="1" spans="1:8">
-      <c r="A42" s="26">
+    <row r="42" s="21" customFormat="1" spans="1:8">
+      <c r="A42" s="21">
         <v>36</v>
       </c>
       <c r="B42" s="21" t="s">
@@ -22492,8 +22489,8 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="53" s="26" customFormat="1" spans="1:8">
-      <c r="A53" s="26">
+    <row r="53" s="21" customFormat="1" spans="1:8">
+      <c r="A53" s="21">
         <v>47</v>
       </c>
       <c r="B53" s="21" t="s">
@@ -22509,7 +22506,7 @@
         <f>VLOOKUP(MID(D53,1,2),字库代码!B:E,4,TRUE)&amp;VLOOKUP(MID(D53,4,2),字库代码!B:E,4,TRUE)&amp;VLOOKUP(MID(D53,7,2),字库代码!B:E,4,TRUE)&amp;VLOOKUP(MID(D53,10,2),字库代码!B:E,4,TRUE)&amp;VLOOKUP(MID(D53,13,2),字库代码!B:E,4,TRUE)</f>
         <v>摧毁盟军海军基地</v>
       </c>
-      <c r="F53" s="26" t="s">
+      <c r="F53" s="21" t="s">
         <v>1475</v>
       </c>
       <c r="G53" s="21" t="s">
@@ -25643,8 +25640,8 @@
   <sheetPr/>
   <dimension ref="A1:F317"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="C281" sqref="C281"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -29750,16 +29747,16 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="47" t="s">
         <v>2257</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="48" t="s">
         <v>2257</v>
       </c>
-      <c r="E41" s="49" t="s">
+      <c r="E41" s="48" t="s">
         <v>2257</v>
       </c>
-      <c r="G41" s="49" t="s">
+      <c r="G41" s="48" t="s">
         <v>2257</v>
       </c>
     </row>

--- a/ra1/ra1字符串表.xlsx
+++ b/ra1/ra1字符串表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="界面字符串conquer.eng" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534">
   <si>
     <t>编号</t>
   </si>
@@ -7264,9 +7264,6 @@
   </si>
   <si>
     <t>会启动</t>
-  </si>
-  <si>
-    <t>空头炸弹</t>
   </si>
   <si>
     <t>将其关闭.跟着敌军的技术人员就可以找到</t>
@@ -7675,23 +7672,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7700,58 +7682,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7772,9 +7702,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7797,14 +7802,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -7813,7 +7810,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7840,7 +7837,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7852,55 +7963,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7918,25 +7981,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7948,13 +7999,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7972,55 +8017,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8074,21 +8071,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -8103,17 +8085,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8138,11 +8129,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8154,10 +8151,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8166,133 +8163,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9674,7 +9671,7 @@
   <sheetPr/>
   <dimension ref="A1:Q555"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D450" sqref="D450"/>
@@ -13497,7 +13494,7 @@
       </c>
       <c r="E150" s="24" t="str">
         <f>VLOOKUP(MID(D150,1,2),字库代码!B:F,5,TRUE)</f>
-        <v>空头炸弹</v>
+        <v>空投炸弹</v>
       </c>
       <c r="F150" s="29" t="s">
         <v>236</v>
@@ -29096,10 +29093,10 @@
   <sheetPr/>
   <dimension ref="A1:I257"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F255" sqref="F255"/>
+      <selection pane="bottomLeft" activeCell="F203" sqref="F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -32811,7 +32808,7 @@
         <v>2413</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>2414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -32823,10 +32820,10 @@
         <v>C9</v>
       </c>
       <c r="D203" s="12" t="s">
+        <v>2414</v>
+      </c>
+      <c r="E203" s="12" t="s">
         <v>2415</v>
-      </c>
-      <c r="E203" s="12" t="s">
-        <v>2416</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>394</v>
@@ -32841,13 +32838,13 @@
         <v>CA</v>
       </c>
       <c r="D204" s="12" t="s">
+        <v>2416</v>
+      </c>
+      <c r="E204" s="12" t="s">
         <v>2417</v>
       </c>
-      <c r="E204" s="12" t="s">
+      <c r="F204" s="2" t="s">
         <v>2418</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>2419</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -32859,10 +32856,10 @@
         <v>CB</v>
       </c>
       <c r="D205" s="7" t="s">
+        <v>2419</v>
+      </c>
+      <c r="E205" s="7" t="s">
         <v>2420</v>
-      </c>
-      <c r="E205" s="7" t="s">
-        <v>2421</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>452</v>
@@ -32880,7 +32877,7 @@
         <v>361</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>511</v>
@@ -32895,10 +32892,10 @@
         <v>CD</v>
       </c>
       <c r="D207" t="s">
+        <v>2422</v>
+      </c>
+      <c r="E207" s="3" t="s">
         <v>2423</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>2424</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>263</v>
@@ -32913,10 +32910,10 @@
         <v>CE</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>231</v>
@@ -32931,10 +32928,10 @@
         <v>CF</v>
       </c>
       <c r="D209" s="3" t="s">
+        <v>2425</v>
+      </c>
+      <c r="E209" s="3" t="s">
         <v>2426</v>
-      </c>
-      <c r="E209" s="3" t="s">
-        <v>2427</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>492</v>
@@ -32949,10 +32946,10 @@
         <v>D0</v>
       </c>
       <c r="D210" s="3" t="s">
+        <v>2427</v>
+      </c>
+      <c r="E210" s="3" t="s">
         <v>2428</v>
-      </c>
-      <c r="E210" s="3" t="s">
-        <v>2429</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>303</v>
@@ -32967,10 +32964,10 @@
         <v>D1</v>
       </c>
       <c r="D211" s="3" t="s">
+        <v>2429</v>
+      </c>
+      <c r="E211" s="3" t="s">
         <v>2430</v>
-      </c>
-      <c r="E211" s="3" t="s">
-        <v>2431</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>373</v>
@@ -32985,10 +32982,10 @@
         <v>D2</v>
       </c>
       <c r="D212" s="7" t="s">
+        <v>2431</v>
+      </c>
+      <c r="E212" s="7" t="s">
         <v>2432</v>
-      </c>
-      <c r="E212" s="7" t="s">
-        <v>2433</v>
       </c>
       <c r="F212" s="12" t="s">
         <v>364</v>
@@ -33006,7 +33003,7 @@
         <v>1935</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="F213" s="12" t="s">
         <v>413</v>
@@ -33021,10 +33018,10 @@
         <v>D4</v>
       </c>
       <c r="D214" s="7" t="s">
+        <v>2434</v>
+      </c>
+      <c r="E214" s="7" t="s">
         <v>2435</v>
-      </c>
-      <c r="E214" s="7" t="s">
-        <v>2436</v>
       </c>
       <c r="F214" s="12" t="s">
         <v>404</v>
@@ -33039,10 +33036,10 @@
         <v>D5</v>
       </c>
       <c r="D215" s="7" t="s">
+        <v>2436</v>
+      </c>
+      <c r="E215" s="7" t="s">
         <v>2437</v>
-      </c>
-      <c r="E215" s="7" t="s">
-        <v>2438</v>
       </c>
       <c r="F215" s="12" t="s">
         <v>468</v>
@@ -33057,10 +33054,10 @@
         <v>D6</v>
       </c>
       <c r="D216" s="7" t="s">
+        <v>2438</v>
+      </c>
+      <c r="E216" s="7" t="s">
         <v>2439</v>
-      </c>
-      <c r="E216" s="7" t="s">
-        <v>2440</v>
       </c>
       <c r="F216" s="12" t="s">
         <v>474</v>
@@ -33075,10 +33072,10 @@
         <v>D7</v>
       </c>
       <c r="D217" s="7" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E217" s="7" t="s">
         <v>2441</v>
-      </c>
-      <c r="E217" s="7" t="s">
-        <v>2442</v>
       </c>
       <c r="F217" s="12" t="s">
         <v>250</v>
@@ -33093,13 +33090,13 @@
         <v>D8</v>
       </c>
       <c r="D218" s="7" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E218" s="7" t="s">
         <v>2443</v>
       </c>
-      <c r="E218" s="7" t="s">
+      <c r="F218" t="s">
         <v>2444</v>
-      </c>
-      <c r="F218" t="s">
-        <v>2445</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -33111,13 +33108,13 @@
         <v>D9</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="E219" s="7" t="s">
         <v>1445</v>
       </c>
       <c r="F219" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -33132,7 +33129,7 @@
         <v>1384</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="F220" s="12" t="s">
         <v>427</v>
@@ -33150,7 +33147,7 @@
         <v>468</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="F221" s="12" t="s">
         <v>433</v>
@@ -33183,10 +33180,10 @@
         <v>DD</v>
       </c>
       <c r="D223" s="7" t="s">
+        <v>2449</v>
+      </c>
+      <c r="E223" s="7" t="s">
         <v>2450</v>
-      </c>
-      <c r="E223" s="7" t="s">
-        <v>2451</v>
       </c>
       <c r="F223" s="12" t="s">
         <v>430</v>
@@ -33201,10 +33198,10 @@
         <v>DE</v>
       </c>
       <c r="D224" s="7" t="s">
+        <v>2451</v>
+      </c>
+      <c r="E224" s="7" t="s">
         <v>2452</v>
-      </c>
-      <c r="E224" s="7" t="s">
-        <v>2453</v>
       </c>
       <c r="F224" s="12" t="s">
         <v>529</v>
@@ -33219,10 +33216,10 @@
         <v>DF</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="F225" s="12" t="s">
         <v>407</v>
@@ -33237,13 +33234,13 @@
         <v>E0</v>
       </c>
       <c r="D226" s="7" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E226" s="7" t="s">
         <v>2455</v>
       </c>
-      <c r="E226" s="7" t="s">
+      <c r="F226" s="12" t="s">
         <v>2456</v>
-      </c>
-      <c r="F226" s="12" t="s">
-        <v>2457</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -33255,13 +33252,13 @@
         <v>E1</v>
       </c>
       <c r="D227" s="7" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E227" s="7" t="s">
         <v>2458</v>
       </c>
-      <c r="E227" s="7" t="s">
+      <c r="F227" s="12" t="s">
         <v>2459</v>
-      </c>
-      <c r="F227" s="12" t="s">
-        <v>2460</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -33273,10 +33270,10 @@
         <v>E2</v>
       </c>
       <c r="D228" s="7" t="s">
+        <v>2460</v>
+      </c>
+      <c r="E228" s="7" t="s">
         <v>2461</v>
-      </c>
-      <c r="E228" s="7" t="s">
-        <v>2462</v>
       </c>
       <c r="F228" t="s">
         <v>410</v>
@@ -33291,10 +33288,10 @@
         <v>E3</v>
       </c>
       <c r="D229" s="13" t="s">
+        <v>2462</v>
+      </c>
+      <c r="E229" s="13" t="s">
         <v>2463</v>
-      </c>
-      <c r="E229" s="13" t="s">
-        <v>2464</v>
       </c>
       <c r="F229" s="12" t="s">
         <v>420</v>
@@ -33313,10 +33310,10 @@
         <v>2362</v>
       </c>
       <c r="E230" s="7" t="s">
+        <v>2464</v>
+      </c>
+      <c r="F230" s="12" t="s">
         <v>2465</v>
-      </c>
-      <c r="F230" s="12" t="s">
-        <v>2466</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -33328,13 +33325,13 @@
         <v>E5</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="E231" s="7" t="s">
         <v>361</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -33352,7 +33349,7 @@
         <v>364</v>
       </c>
       <c r="F232" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -33364,13 +33361,13 @@
         <v>E7</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>1433</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -33382,13 +33379,13 @@
         <v>E8</v>
       </c>
       <c r="D234" s="3" t="s">
+        <v>2471</v>
+      </c>
+      <c r="E234" s="3" t="s">
         <v>2472</v>
       </c>
-      <c r="E234" s="3" t="s">
+      <c r="F234" s="2" t="s">
         <v>2473</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>2474</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -33400,13 +33397,13 @@
         <v>E9</v>
       </c>
       <c r="D235" s="3" t="s">
+        <v>2474</v>
+      </c>
+      <c r="E235" s="3" t="s">
         <v>2475</v>
       </c>
-      <c r="E235" s="3" t="s">
+      <c r="F235" t="s">
         <v>2476</v>
-      </c>
-      <c r="F235" t="s">
-        <v>2477</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -33418,13 +33415,13 @@
         <v>EA</v>
       </c>
       <c r="D236" s="3" t="s">
+        <v>2477</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F236" s="2" t="s">
         <v>2478</v>
-      </c>
-      <c r="E236" s="3" t="s">
-        <v>2478</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>2479</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -33436,13 +33433,13 @@
         <v>EB</v>
       </c>
       <c r="D237" s="3" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E237" s="3" t="s">
         <v>2480</v>
       </c>
-      <c r="E237" s="3" t="s">
+      <c r="F237" s="2" t="s">
         <v>2481</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>2482</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -33454,13 +33451,13 @@
         <v>EC</v>
       </c>
       <c r="D238" s="3" t="s">
+        <v>2482</v>
+      </c>
+      <c r="E238" s="3" t="s">
         <v>2483</v>
       </c>
-      <c r="E238" s="3" t="s">
+      <c r="F238" s="2" t="s">
         <v>2484</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>2485</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -33472,10 +33469,10 @@
         <v>ED</v>
       </c>
       <c r="D239" s="3" t="s">
+        <v>2485</v>
+      </c>
+      <c r="E239" s="3" t="s">
         <v>2486</v>
-      </c>
-      <c r="E239" s="3" t="s">
-        <v>2487</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>551</v>
@@ -33490,10 +33487,10 @@
         <v>EE</v>
       </c>
       <c r="D240" s="3" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E240" s="3" t="s">
         <v>2488</v>
-      </c>
-      <c r="E240" s="3" t="s">
-        <v>2489</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>520</v>
@@ -33508,13 +33505,13 @@
         <v>EF</v>
       </c>
       <c r="D241" s="13" t="s">
+        <v>2489</v>
+      </c>
+      <c r="E241" s="13" t="s">
         <v>2490</v>
       </c>
-      <c r="E241" s="13" t="s">
+      <c r="F241" s="2" t="s">
         <v>2491</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>2492</v>
       </c>
       <c r="G241" s="15"/>
     </row>
@@ -33527,13 +33524,13 @@
         <v>F0</v>
       </c>
       <c r="D242" s="16" t="s">
+        <v>2492</v>
+      </c>
+      <c r="E242" s="16" t="s">
         <v>2493</v>
       </c>
-      <c r="E242" s="16" t="s">
+      <c r="F242" s="2" t="s">
         <v>2494</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>2495</v>
       </c>
       <c r="G242" s="17"/>
     </row>
@@ -33546,10 +33543,10 @@
         <v>F1</v>
       </c>
       <c r="D243" s="7" t="s">
+        <v>2495</v>
+      </c>
+      <c r="E243" s="7" t="s">
         <v>2496</v>
-      </c>
-      <c r="E243" s="7" t="s">
-        <v>2497</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>542</v>
@@ -33558,20 +33555,20 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="2" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="B244" s="2" t="str">
         <f t="shared" si="3"/>
         <v>F2</v>
       </c>
       <c r="D244" s="3" t="s">
+        <v>2498</v>
+      </c>
+      <c r="E244" s="3" t="s">
         <v>2499</v>
       </c>
-      <c r="E244" s="3" t="s">
+      <c r="F244" s="2" t="s">
         <v>2500</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>2501</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -33586,10 +33583,10 @@
         <v>1358</v>
       </c>
       <c r="E245" s="3" t="s">
+        <v>2501</v>
+      </c>
+      <c r="F245" s="2" t="s">
         <v>2502</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>2503</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -33601,13 +33598,13 @@
         <v>F4</v>
       </c>
       <c r="D246" s="3" t="s">
+        <v>2503</v>
+      </c>
+      <c r="E246" s="3" t="s">
         <v>2504</v>
       </c>
-      <c r="E246" s="3" t="s">
+      <c r="F246" s="2" t="s">
         <v>2505</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>2506</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -33619,13 +33616,13 @@
         <v>F5</v>
       </c>
       <c r="D247" s="3" t="s">
+        <v>2506</v>
+      </c>
+      <c r="E247" s="3" t="s">
         <v>2507</v>
       </c>
-      <c r="E247" s="3" t="s">
+      <c r="F247" s="2" t="s">
         <v>2508</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>2509</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -33637,10 +33634,10 @@
         <v>F6</v>
       </c>
       <c r="D248" s="3" t="s">
+        <v>2509</v>
+      </c>
+      <c r="E248" s="3" t="s">
         <v>2510</v>
-      </c>
-      <c r="E248" s="3" t="s">
-        <v>2511</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>391</v>
@@ -33658,10 +33655,10 @@
         <v>1351</v>
       </c>
       <c r="E249" s="3" t="s">
+        <v>2511</v>
+      </c>
+      <c r="F249" s="18" t="s">
         <v>2512</v>
-      </c>
-      <c r="F249" s="18" t="s">
-        <v>2513</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -33673,13 +33670,13 @@
         <v>F8</v>
       </c>
       <c r="D250" s="3" t="s">
+        <v>2513</v>
+      </c>
+      <c r="E250" s="3" t="s">
         <v>2514</v>
       </c>
-      <c r="E250" s="3" t="s">
+      <c r="F250" t="s">
         <v>2515</v>
-      </c>
-      <c r="F250" t="s">
-        <v>2516</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -33691,13 +33688,13 @@
         <v>F9</v>
       </c>
       <c r="D251" s="3" t="s">
+        <v>2516</v>
+      </c>
+      <c r="E251" s="3" t="s">
         <v>2517</v>
       </c>
-      <c r="E251" s="3" t="s">
+      <c r="F251" t="s">
         <v>2518</v>
-      </c>
-      <c r="F251" t="s">
-        <v>2519</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -33712,10 +33709,10 @@
         <v>456</v>
       </c>
       <c r="E252" s="3" t="s">
+        <v>2519</v>
+      </c>
+      <c r="F252" s="2" t="s">
         <v>2520</v>
-      </c>
-      <c r="F252" s="2" t="s">
-        <v>2521</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -33727,10 +33724,10 @@
         <v>FB</v>
       </c>
       <c r="D253" s="3" t="s">
+        <v>2521</v>
+      </c>
+      <c r="E253" s="3" t="s">
         <v>2522</v>
-      </c>
-      <c r="E253" s="3" t="s">
-        <v>2523</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>540</v>
@@ -33741,13 +33738,13 @@
         <v>252</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>2523</v>
+      </c>
+      <c r="D254" s="3" t="s">
         <v>2524</v>
       </c>
-      <c r="D254" s="3" t="s">
+      <c r="E254" s="3" t="s">
         <v>2525</v>
-      </c>
-      <c r="E254" s="3" t="s">
-        <v>2526</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>489</v>
@@ -33761,13 +33758,13 @@
         <v>1098</v>
       </c>
       <c r="D255" s="3" t="s">
+        <v>2526</v>
+      </c>
+      <c r="E255" s="2" t="s">
         <v>2527</v>
       </c>
-      <c r="E255" s="2" t="s">
+      <c r="F255" s="2" t="s">
         <v>2528</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>2529</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -33775,13 +33772,13 @@
         <v>254</v>
       </c>
       <c r="B256" s="2" t="s">
+        <v>2529</v>
+      </c>
+      <c r="D256" s="3" t="s">
         <v>2530</v>
       </c>
-      <c r="D256" s="3" t="s">
-        <v>2531</v>
-      </c>
       <c r="E256" s="3" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -33789,14 +33786,14 @@
         <v>255</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="C257" s="3"/>
       <c r="D257" s="3" t="s">
+        <v>2532</v>
+      </c>
+      <c r="E257" t="s">
         <v>2533</v>
-      </c>
-      <c r="E257" t="s">
-        <v>2534</v>
       </c>
     </row>
   </sheetData>

--- a/ra1/ra1字符串表.xlsx
+++ b/ra1/ra1字符串表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14295" windowHeight="12645"/>
+    <workbookView windowWidth="14295" windowHeight="12645" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="界面字符串conquer.eng" sheetId="1" r:id="rId1"/>
@@ -7778,10 +7778,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -7819,6 +7819,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -7835,84 +7879,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7940,6 +7909,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -7950,20 +7949,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7990,13 +7990,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8014,19 +8098,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8038,25 +8110,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8068,61 +8128,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8140,43 +8152,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8207,9 +8201,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8232,8 +8228,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8247,17 +8243,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8277,28 +8282,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8310,10 +8304,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8322,137 +8316,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8542,9 +8536,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -8552,9 +8543,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -10264,12 +10252,12 @@
   <sheetPr/>
   <dimension ref="A1:Q555"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D343" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A352" sqref="$A352:$XFD352"/>
+      <selection pane="bottomRight" activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10285,51 +10273,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="48" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="N1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="O1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="Q1" s="46" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10355,7 +10343,7 @@
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="47" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="24"/>
@@ -10363,7 +10351,7 @@
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
-      <c r="O2" s="49"/>
+      <c r="O2" s="47"/>
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
     </row>
@@ -10408,10 +10396,10 @@
       <c r="B4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="33" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="27" t="str">
@@ -10421,10 +10409,10 @@
       <c r="F4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="50"/>
+      <c r="I4" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="48"/>
     </row>
     <row r="5" s="27" customFormat="1" spans="1:9">
       <c r="A5" s="27">
@@ -10433,10 +10421,10 @@
       <c r="B5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="33" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="27" t="str">
@@ -10460,7 +10448,7 @@
       <c r="C6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="34" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="27" t="str">
@@ -10470,11 +10458,11 @@
       <c r="F6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="50"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="50"/>
+      <c r="O6" s="48"/>
     </row>
     <row r="7" s="27" customFormat="1" spans="1:10">
       <c r="A7" s="27">
@@ -10483,10 +10471,10 @@
       <c r="B7" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="34" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="27" t="str">
@@ -10496,7 +10484,7 @@
       <c r="F7" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="48" t="s">
         <v>34</v>
       </c>
     </row>
@@ -10510,7 +10498,7 @@
       <c r="C8" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="34" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="27" t="str">
@@ -10520,10 +10508,10 @@
       <c r="F8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" s="50"/>
+      <c r="I8" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="48"/>
     </row>
     <row r="9" s="27" customFormat="1" spans="1:15">
       <c r="A9" s="27">
@@ -10535,7 +10523,7 @@
       <c r="C9" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="27" t="str">
@@ -10545,8 +10533,8 @@
       <c r="F9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="O9" s="50"/>
+      <c r="I9" s="48"/>
+      <c r="O9" s="48"/>
     </row>
     <row r="10" s="27" customFormat="1" spans="1:15">
       <c r="A10" s="27">
@@ -10558,7 +10546,7 @@
       <c r="C10" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="34" t="s">
         <v>43</v>
       </c>
       <c r="E10" s="27" t="str">
@@ -10568,11 +10556,11 @@
       <c r="F10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="50"/>
+      <c r="I10" s="48"/>
       <c r="J10" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="50"/>
+      <c r="O10" s="48"/>
     </row>
     <row r="11" s="27" customFormat="1" spans="1:6">
       <c r="A11" s="27">
@@ -10584,7 +10572,7 @@
       <c r="C11" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="34" t="s">
         <v>47</v>
       </c>
       <c r="E11" s="27" t="str">
@@ -10605,7 +10593,7 @@
       <c r="C12" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="34" t="s">
         <v>50</v>
       </c>
       <c r="E12" s="27" t="str">
@@ -10615,8 +10603,8 @@
       <c r="F12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="50"/>
-      <c r="O12" s="50"/>
+      <c r="I12" s="48"/>
+      <c r="O12" s="48"/>
     </row>
     <row r="13" s="27" customFormat="1" spans="1:6">
       <c r="A13" s="27">
@@ -10628,7 +10616,7 @@
       <c r="C13" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="34" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="27" t="str">
@@ -10649,7 +10637,7 @@
       <c r="C14" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="34" t="s">
         <v>56</v>
       </c>
       <c r="E14" s="27" t="str">
@@ -10659,8 +10647,8 @@
       <c r="F14" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="50"/>
-      <c r="O14" s="50"/>
+      <c r="I14" s="48"/>
+      <c r="O14" s="48"/>
     </row>
     <row r="15" s="27" customFormat="1" spans="1:6">
       <c r="A15" s="27">
@@ -10672,7 +10660,7 @@
       <c r="C15" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="34" t="s">
         <v>59</v>
       </c>
       <c r="E15" s="27" t="str">
@@ -10693,7 +10681,7 @@
       <c r="C16" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="34" t="s">
         <v>62</v>
       </c>
       <c r="E16" s="27" t="str">
@@ -10703,8 +10691,8 @@
       <c r="F16" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="50"/>
-      <c r="O16" s="50"/>
+      <c r="I16" s="48"/>
+      <c r="O16" s="48"/>
     </row>
     <row r="17" s="27" customFormat="1" spans="1:6">
       <c r="A17" s="27">
@@ -10713,10 +10701,10 @@
       <c r="B17" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="33" t="s">
         <v>65</v>
       </c>
       <c r="E17" s="27" t="str">
@@ -10737,7 +10725,7 @@
       <c r="C18" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="34" t="s">
         <v>68</v>
       </c>
       <c r="E18" s="27" t="str">
@@ -10747,10 +10735,10 @@
       <c r="F18" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O18" s="50"/>
+      <c r="I18" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="48"/>
     </row>
     <row r="19" s="27" customFormat="1" spans="1:6">
       <c r="A19" s="27">
@@ -10759,10 +10747,10 @@
       <c r="B19" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="33" t="s">
         <v>71</v>
       </c>
       <c r="E19" s="27" t="str">
@@ -10783,7 +10771,7 @@
       <c r="C20" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="34" t="s">
         <v>74</v>
       </c>
       <c r="E20" s="27" t="str">
@@ -10793,10 +10781,10 @@
       <c r="F20" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O20" s="50"/>
+      <c r="I20" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" s="48"/>
     </row>
     <row r="21" s="27" customFormat="1" spans="1:10">
       <c r="A21" s="27">
@@ -10808,7 +10796,7 @@
       <c r="C21" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="34" t="s">
         <v>74</v>
       </c>
       <c r="E21" s="27" t="str">
@@ -10832,7 +10820,7 @@
       <c r="C22" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="34" t="s">
         <v>76</v>
       </c>
       <c r="E22" s="27" t="str">
@@ -10845,10 +10833,10 @@
       <c r="G22" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="I22" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O22" s="50"/>
+      <c r="I22" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="O22" s="48"/>
     </row>
     <row r="23" s="27" customFormat="1" spans="1:15">
       <c r="A23" s="27">
@@ -10857,10 +10845,10 @@
       <c r="B23" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="33" t="s">
         <v>80</v>
       </c>
       <c r="E23" s="27" t="str">
@@ -10870,10 +10858,10 @@
       <c r="F23" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O23" s="50"/>
+      <c r="I23" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" s="48"/>
     </row>
     <row r="24" s="27" customFormat="1" spans="1:9">
       <c r="A24" s="27">
@@ -10882,10 +10870,10 @@
       <c r="B24" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="33" t="s">
         <v>83</v>
       </c>
       <c r="E24" s="27" t="str">
@@ -10906,10 +10894,10 @@
       <c r="B25" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E25" s="27" t="str">
@@ -10919,10 +10907,10 @@
       <c r="F25" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O25" s="50"/>
+      <c r="I25" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="O25" s="48"/>
     </row>
     <row r="26" s="27" customFormat="1" spans="1:9">
       <c r="A26" s="27">
@@ -10934,7 +10922,7 @@
       <c r="C26" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="34" t="s">
         <v>89</v>
       </c>
       <c r="E26" s="27" t="str">
@@ -10955,10 +10943,10 @@
       <c r="B27" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="33" t="s">
         <v>92</v>
       </c>
       <c r="E27" s="27" t="str">
@@ -10968,10 +10956,10 @@
       <c r="F27" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O27" s="50"/>
+      <c r="I27" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" s="48"/>
     </row>
     <row r="28" s="27" customFormat="1" spans="1:9">
       <c r="A28" s="27">
@@ -10980,10 +10968,10 @@
       <c r="B28" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E28" s="27" t="str">
@@ -11007,7 +10995,7 @@
       <c r="C29" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="34" t="s">
         <v>68</v>
       </c>
       <c r="E29" s="27" t="str">
@@ -11017,10 +11005,10 @@
       <c r="F29" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O29" s="50"/>
+      <c r="I29" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="O29" s="48"/>
     </row>
     <row r="30" s="28" customFormat="1" spans="1:6">
       <c r="A30" s="28">
@@ -11029,13 +11017,13 @@
       <c r="B30" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="33" t="str">
+      <c r="E30" s="28" t="str">
         <f>VLOOKUP(MID(D30,1,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D30,4,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D30,7,2),字库代码!B:I,8,TRUE)</f>
         <v>劫后余生资料片</v>
       </c>
@@ -11044,37 +11032,37 @@
       </c>
     </row>
     <row r="31" s="27" customFormat="1" spans="1:17">
-      <c r="A31" s="40">
+      <c r="A31" s="38">
         <v>119</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="39" t="s">
         <v>102</v>
       </c>
       <c r="E31" s="27" t="str">
         <f>VLOOKUP(MID(D31,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D31,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D31,7,2),字库代码!B:D,3,TRUE)</f>
         <v>资料片任务</v>
       </c>
-      <c r="F31" s="40" t="s">
+      <c r="F31" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="50"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="48"/>
       <c r="J31" s="27" t="s">
         <v>103</v>
       </c>
       <c r="K31" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="O31" s="50"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
     </row>
     <row r="32" s="27" customFormat="1" spans="1:11">
       <c r="A32" s="27">
@@ -11086,7 +11074,7 @@
       <c r="C32" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="34" t="s">
         <v>107</v>
       </c>
       <c r="E32" s="27" t="str">
@@ -11110,10 +11098,10 @@
       <c r="B33" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="33" t="s">
         <v>111</v>
       </c>
       <c r="E33" s="27" t="str">
@@ -11123,8 +11111,8 @@
       <c r="F33" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I33" s="50"/>
-      <c r="O33" s="50"/>
+      <c r="I33" s="48"/>
+      <c r="O33" s="48"/>
     </row>
     <row r="34" s="27" customFormat="1" spans="1:9">
       <c r="A34" s="27">
@@ -11133,10 +11121,10 @@
       <c r="B34" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="33" t="s">
         <v>114</v>
       </c>
       <c r="E34" s="27" t="str">
@@ -11157,10 +11145,10 @@
       <c r="B35" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="33" t="s">
         <v>117</v>
       </c>
       <c r="E35" s="27" t="str">
@@ -11173,7 +11161,7 @@
       <c r="I35" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="O35" s="50"/>
+      <c r="O35" s="48"/>
     </row>
     <row r="36" s="27" customFormat="1" spans="1:9">
       <c r="A36" s="27">
@@ -11182,10 +11170,10 @@
       <c r="B36" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="33" t="s">
         <v>120</v>
       </c>
       <c r="E36" s="27" t="str">
@@ -11206,10 +11194,10 @@
       <c r="B37" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="33" t="s">
         <v>123</v>
       </c>
       <c r="E37" s="27" t="str">
@@ -11219,14 +11207,14 @@
       <c r="F37" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I37" s="50"/>
+      <c r="I37" s="48"/>
       <c r="J37" s="27" t="s">
         <v>124</v>
       </c>
       <c r="K37" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="O37" s="50"/>
+      <c r="O37" s="48"/>
     </row>
     <row r="38" s="27" customFormat="1" spans="1:9">
       <c r="A38" s="27">
@@ -11235,10 +11223,10 @@
       <c r="B38" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="33" t="s">
         <v>126</v>
       </c>
       <c r="E38" s="27" t="str">
@@ -11259,10 +11247,10 @@
       <c r="B39" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="33" t="s">
         <v>128</v>
       </c>
       <c r="E39" s="27" t="str">
@@ -11272,10 +11260,10 @@
       <c r="F39" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O39" s="50"/>
+      <c r="I39" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="O39" s="48"/>
     </row>
     <row r="40" s="27" customFormat="1" spans="1:6">
       <c r="A40" s="27">
@@ -11287,7 +11275,7 @@
       <c r="C40" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="34" t="s">
         <v>131</v>
       </c>
       <c r="E40" s="27" t="str">
@@ -11305,10 +11293,10 @@
       <c r="B41" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="33" t="s">
         <v>134</v>
       </c>
       <c r="E41" s="27" t="str">
@@ -11329,10 +11317,10 @@
       <c r="B42" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="33" t="s">
         <v>137</v>
       </c>
       <c r="E42" s="27" t="str">
@@ -11342,10 +11330,10 @@
       <c r="F42" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I42" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O42" s="50"/>
+      <c r="I42" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="O42" s="48"/>
     </row>
     <row r="43" s="27" customFormat="1" spans="1:6">
       <c r="A43" s="27">
@@ -11354,10 +11342,10 @@
       <c r="B43" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="33" t="s">
         <v>140</v>
       </c>
       <c r="E43" s="27" t="str">
@@ -11375,10 +11363,10 @@
       <c r="B44" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="33" t="s">
         <v>143</v>
       </c>
       <c r="E44" s="27" t="str">
@@ -11388,14 +11376,14 @@
       <c r="F44" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I44" s="50"/>
+      <c r="I44" s="48"/>
       <c r="J44" s="27" t="s">
         <v>144</v>
       </c>
       <c r="K44" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="O44" s="50"/>
+      <c r="O44" s="48"/>
     </row>
     <row r="45" s="27" customFormat="1" spans="1:9">
       <c r="A45" s="27">
@@ -11407,7 +11395,7 @@
       <c r="C45" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="D45" s="36" t="s">
+      <c r="D45" s="34" t="s">
         <v>147</v>
       </c>
       <c r="E45" s="27" t="str">
@@ -11428,10 +11416,10 @@
       <c r="B46" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="33" t="s">
         <v>150</v>
       </c>
       <c r="E46" s="27" t="str">
@@ -11452,10 +11440,10 @@
       <c r="B47" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="D47" s="35" t="s">
+      <c r="D47" s="33" t="s">
         <v>153</v>
       </c>
       <c r="E47" s="27" t="str">
@@ -11465,10 +11453,10 @@
       <c r="F47" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I47" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O47" s="50"/>
+      <c r="I47" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="O47" s="48"/>
     </row>
     <row r="48" s="24" customFormat="1" spans="1:11">
       <c r="A48" s="24">
@@ -11477,10 +11465,10 @@
       <c r="B48" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="42" t="s">
+      <c r="C48" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="41" t="s">
         <v>156</v>
       </c>
       <c r="E48" t="str">
@@ -11500,10 +11488,10 @@
       <c r="B49" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="D49" s="43" t="s">
+      <c r="D49" s="41" t="s">
         <v>159</v>
       </c>
       <c r="E49" t="str">
@@ -11515,11 +11503,11 @@
       </c>
       <c r="G49" s="24"/>
       <c r="H49" s="24"/>
-      <c r="I49" s="49"/>
+      <c r="I49" s="47"/>
       <c r="L49" s="24"/>
       <c r="M49" s="24"/>
       <c r="N49" s="24"/>
-      <c r="O49" s="49"/>
+      <c r="O49" s="47"/>
       <c r="P49" s="24"/>
       <c r="Q49" s="24"/>
     </row>
@@ -11530,10 +11518,10 @@
       <c r="B50" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C50" s="44" t="s">
+      <c r="C50" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="D50" s="43" t="s">
+      <c r="D50" s="41" t="s">
         <v>162</v>
       </c>
       <c r="E50" t="str">
@@ -11573,11 +11561,11 @@
       </c>
       <c r="G51" s="24"/>
       <c r="H51" s="24"/>
-      <c r="I51" s="49"/>
+      <c r="I51" s="47"/>
       <c r="L51" s="24"/>
       <c r="M51" s="24"/>
       <c r="N51" s="24"/>
-      <c r="O51" s="49"/>
+      <c r="O51" s="47"/>
       <c r="P51" s="24"/>
       <c r="Q51" s="24"/>
     </row>
@@ -11591,22 +11579,22 @@
       <c r="C52" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="D52" s="39" t="s">
+      <c r="D52" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="E52" s="33" t="str">
+      <c r="E52" s="28" t="str">
         <f>VLOOKUP(MID(D52,1,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D52,4,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D52,7,2),字库代码!B:I,8,TRUE)</f>
         <v>电脑数量:</v>
       </c>
       <c r="F52" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I52" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="O52" s="38"/>
-    </row>
-    <row r="53" s="29" customFormat="1" spans="1:17">
+      <c r="I52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="O52" s="36"/>
+    </row>
+    <row r="53" s="28" customFormat="1" spans="1:15">
       <c r="A53" s="28">
         <v>219</v>
       </c>
@@ -11616,31 +11604,22 @@
       <c r="C53" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="D53" s="39" t="s">
+      <c r="D53" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="E53" s="33" t="str">
+      <c r="E53" s="28" t="str">
         <f>VLOOKUP(MID(D53,1,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D53,4,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D53,7,2),字库代码!B:I,8,TRUE)</f>
         <v>基地</v>
       </c>
       <c r="F53" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="38"/>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="28"/>
-    </row>
-    <row r="54" s="29" customFormat="1" spans="1:17">
+      <c r="I53" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="O53" s="36"/>
+    </row>
+    <row r="54" s="28" customFormat="1" spans="1:9">
       <c r="A54" s="28">
         <v>220</v>
       </c>
@@ -11650,29 +11629,19 @@
       <c r="C54" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="D54" s="39" t="s">
+      <c r="D54" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="E54" s="33" t="str">
+      <c r="E54" s="28" t="str">
         <f>VLOOKUP(MID(D54,1,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D54,4,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D54,7,2),字库代码!B:I,8,TRUE)</f>
         <v>箱子</v>
       </c>
       <c r="F54" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
       <c r="I54" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="28"/>
     </row>
     <row r="55" s="28" customFormat="1" spans="1:15">
       <c r="A55" s="28">
@@ -11681,23 +11650,21 @@
       <c r="B55" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="C55" s="45" t="s">
+      <c r="C55" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="D55" s="46" t="s">
+      <c r="D55" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="E55" s="33" t="str">
+      <c r="E55" s="28" t="str">
         <f>VLOOKUP(MID(D55,1,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D55,4,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D55,7,2),字库代码!B:I,8,TRUE)</f>
         <v>初始资金:</v>
       </c>
       <c r="F55" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I55" s="38"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="O55" s="38"/>
+      <c r="I55" s="36"/>
+      <c r="O55" s="36"/>
     </row>
     <row r="56" s="24" customFormat="1" spans="1:15">
       <c r="A56" s="24">
@@ -11717,12 +11684,12 @@
       <c r="F56" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I56" s="49" t="s">
+      <c r="I56" s="47" t="s">
         <v>15</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
-      <c r="O56" s="49"/>
+      <c r="O56" s="47"/>
     </row>
     <row r="57" s="28" customFormat="1" spans="1:15">
       <c r="A57" s="28">
@@ -11731,46 +11698,42 @@
       <c r="B57" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="C57" s="47" t="s">
+      <c r="C57" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="D57" s="33" t="s">
+      <c r="D57" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E57" s="33" t="str">
+      <c r="E57" s="28" t="str">
         <f>VLOOKUP(MID(D57,1,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D57,4,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D57,7,2),字库代码!B:I,8,TRUE)</f>
         <v>部队数量:</v>
       </c>
       <c r="F57" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I57" s="38"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="O57" s="38"/>
-    </row>
-    <row r="58" s="28" customFormat="1" spans="1:11">
+      <c r="I57" s="36"/>
+      <c r="O57" s="36"/>
+    </row>
+    <row r="58" s="28" customFormat="1" spans="1:6">
       <c r="A58" s="28">
         <v>296</v>
       </c>
       <c r="B58" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="C58" s="47" t="s">
+      <c r="C58" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="D58" s="46" t="s">
+      <c r="D58" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="E58" s="33" t="str">
+      <c r="E58" s="28" t="str">
         <f>VLOOKUP(MID(D58,1,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D58,4,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D58,7,2),字库代码!B:I,8,TRUE)</f>
         <v>科技等级:</v>
       </c>
       <c r="F58" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
     </row>
     <row r="59" s="27" customFormat="1" spans="1:15">
       <c r="A59" s="27">
@@ -11782,7 +11745,7 @@
       <c r="C59" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="D59" s="36" t="s">
+      <c r="D59" s="34" t="s">
         <v>187</v>
       </c>
       <c r="E59" s="27" t="str">
@@ -11792,10 +11755,10 @@
       <c r="F59" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I59" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O59" s="50"/>
+      <c r="I59" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="O59" s="48"/>
     </row>
     <row r="60" s="28" customFormat="1" spans="1:15">
       <c r="A60" s="28">
@@ -11807,22 +11770,20 @@
       <c r="C60" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="D60" s="39" t="s">
+      <c r="D60" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="E60" s="33" t="str">
+      <c r="E60" s="28" t="str">
         <f>VLOOKUP(MID(D60,1,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D60,4,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D60,7,2),字库代码!B:I,8,TRUE)</f>
         <v>夺旗模式</v>
       </c>
       <c r="F60" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I60" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="O60" s="38"/>
+      <c r="I60" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="O60" s="36"/>
     </row>
     <row r="61" s="27" customFormat="1" spans="1:15">
       <c r="A61" s="27">
@@ -11834,7 +11795,7 @@
       <c r="C61" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="D61" s="36" t="s">
+      <c r="D61" s="34" t="s">
         <v>193</v>
       </c>
       <c r="E61" s="27" t="str">
@@ -11844,10 +11805,10 @@
       <c r="F61" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I61" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O61" s="50"/>
+      <c r="I61" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="O61" s="48"/>
     </row>
     <row r="62" s="27" customFormat="1" spans="1:15">
       <c r="A62" s="27">
@@ -11856,10 +11817,10 @@
       <c r="B62" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="D62" s="33" t="s">
         <v>196</v>
       </c>
       <c r="E62" s="27" t="str">
@@ -11869,10 +11830,10 @@
       <c r="F62" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I62" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O62" s="50"/>
+      <c r="I62" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="O62" s="48"/>
     </row>
     <row r="63" s="27" customFormat="1" spans="1:9">
       <c r="A63" s="27">
@@ -11884,7 +11845,7 @@
       <c r="C63" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="D63" s="36" t="s">
+      <c r="D63" s="34" t="s">
         <v>199</v>
       </c>
       <c r="E63" s="27" t="str">
@@ -11908,7 +11869,7 @@
       <c r="C64" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="D64" s="36" t="s">
+      <c r="D64" s="34" t="s">
         <v>202</v>
       </c>
       <c r="E64" s="27" t="str">
@@ -11918,10 +11879,10 @@
       <c r="F64" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I64" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O64" s="50"/>
+      <c r="I64" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="O64" s="48"/>
     </row>
     <row r="65" s="27" customFormat="1" spans="1:6">
       <c r="A65" s="27">
@@ -11930,10 +11891,10 @@
       <c r="B65" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="D65" s="35" t="s">
+      <c r="D65" s="33" t="s">
         <v>205</v>
       </c>
       <c r="E65" s="27" t="str">
@@ -11951,10 +11912,10 @@
       <c r="B66" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="C66" s="35" t="s">
+      <c r="C66" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="33" t="s">
         <v>208</v>
       </c>
       <c r="E66" s="27" t="str">
@@ -11964,8 +11925,8 @@
       <c r="F66" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I66" s="50"/>
-      <c r="O66" s="50"/>
+      <c r="I66" s="48"/>
+      <c r="O66" s="48"/>
     </row>
     <row r="67" s="27" customFormat="1" spans="1:15">
       <c r="A67" s="27">
@@ -11977,7 +11938,7 @@
       <c r="C67" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="D67" s="36" t="s">
+      <c r="D67" s="34" t="s">
         <v>211</v>
       </c>
       <c r="E67" s="27" t="str">
@@ -11987,10 +11948,10 @@
       <c r="F67" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I67" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O67" s="50"/>
+      <c r="I67" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="O67" s="48"/>
     </row>
     <row r="68" s="27" customFormat="1" spans="1:11">
       <c r="A68" s="27">
@@ -11999,10 +11960,10 @@
       <c r="B68" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="C68" s="50" t="s">
+      <c r="C68" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="D68" s="36" t="s">
+      <c r="D68" s="34" t="s">
         <v>214</v>
       </c>
       <c r="E68" s="27" t="str">
@@ -12029,7 +11990,7 @@
       <c r="C69" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="D69" s="36" t="s">
+      <c r="D69" s="34" t="s">
         <v>217</v>
       </c>
       <c r="E69" s="27" t="str">
@@ -12039,8 +12000,8 @@
       <c r="F69" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I69" s="50"/>
-      <c r="O69" s="50"/>
+      <c r="I69" s="48"/>
+      <c r="O69" s="48"/>
     </row>
     <row r="70" s="27" customFormat="1" spans="1:6">
       <c r="A70" s="27">
@@ -12049,10 +12010,10 @@
       <c r="B70" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="C70" s="50" t="s">
+      <c r="C70" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="D70" s="36" t="s">
+      <c r="D70" s="34" t="s">
         <v>220</v>
       </c>
       <c r="E70" s="27" t="str">
@@ -12070,10 +12031,10 @@
       <c r="B71" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="C71" s="50" t="s">
+      <c r="C71" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="D71" s="36" t="s">
+      <c r="D71" s="34" t="s">
         <v>223</v>
       </c>
       <c r="E71" s="27" t="str">
@@ -12083,10 +12044,10 @@
       <c r="F71" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I71" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O71" s="50"/>
+      <c r="I71" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="O71" s="48"/>
     </row>
     <row r="72" s="27" customFormat="1" spans="1:6">
       <c r="A72" s="27">
@@ -12098,7 +12059,7 @@
       <c r="C72" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="D72" s="36" t="s">
+      <c r="D72" s="34" t="s">
         <v>226</v>
       </c>
       <c r="E72" s="27" t="str">
@@ -12109,7 +12070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" s="28" customFormat="1" spans="1:14">
+    <row r="73" s="28" customFormat="1" spans="1:11">
       <c r="A73" s="28">
         <v>476</v>
       </c>
@@ -12119,25 +12080,22 @@
       <c r="C73" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="D73" s="39" t="s">
+      <c r="D73" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="E73" s="33" t="str">
+      <c r="E73" s="28" t="str">
         <f>VLOOKUP(MID(D73,1,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D73,4,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D73,7,2),字库代码!B:I,8,TRUE)</f>
         <v>迷雾再生</v>
       </c>
       <c r="F73" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="J73" s="33" t="s">
+      <c r="J73" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="K73" s="33" t="s">
+      <c r="K73" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="L73" s="33"/>
-      <c r="M73" s="33"/>
-      <c r="N73" s="33"/>
     </row>
     <row r="74" s="27" customFormat="1" spans="1:15">
       <c r="A74" s="27">
@@ -12146,10 +12104,10 @@
       <c r="B74" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="C74" s="50" t="s">
+      <c r="C74" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="D74" s="36" t="s">
+      <c r="D74" s="34" t="s">
         <v>232</v>
       </c>
       <c r="E74" s="27" t="str">
@@ -12159,10 +12117,10 @@
       <c r="F74" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I74" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O74" s="50"/>
+      <c r="I74" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="O74" s="48"/>
     </row>
     <row r="75" s="27" customFormat="1" spans="1:15">
       <c r="A75" s="27">
@@ -12171,10 +12129,10 @@
       <c r="B75" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="D75" s="36" t="s">
+      <c r="D75" s="34" t="s">
         <v>208</v>
       </c>
       <c r="E75" s="27" t="str">
@@ -12184,10 +12142,10 @@
       <c r="F75" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I75" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O75" s="50"/>
+      <c r="I75" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="O75" s="48"/>
     </row>
     <row r="76" s="24" customFormat="1" spans="1:15">
       <c r="A76" s="24">
@@ -12196,7 +12154,7 @@
       <c r="B76" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="C76" s="49" t="s">
+      <c r="C76" s="47" t="s">
         <v>236</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -12209,8 +12167,8 @@
       <c r="F76" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I76" s="49"/>
-      <c r="O76" s="49"/>
+      <c r="I76" s="47"/>
+      <c r="O76" s="47"/>
     </row>
     <row r="77" s="26" customFormat="1" spans="1:9">
       <c r="A77" s="26">
@@ -12222,7 +12180,7 @@
       <c r="C77" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="D77" s="51" t="s">
+      <c r="D77" s="49" t="s">
         <v>240</v>
       </c>
       <c r="E77" s="26" t="str">
@@ -12256,10 +12214,10 @@
       <c r="F78" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I78" s="49"/>
-      <c r="O78" s="49"/>
-    </row>
-    <row r="79" s="30" customFormat="1" spans="1:17">
+      <c r="I78" s="47"/>
+      <c r="O78" s="47"/>
+    </row>
+    <row r="79" s="29" customFormat="1" spans="1:17">
       <c r="A79" s="24">
         <v>21</v>
       </c>
@@ -12281,7 +12239,7 @@
       </c>
       <c r="G79" s="24"/>
       <c r="H79" s="24"/>
-      <c r="I79" s="49" t="s">
+      <c r="I79" s="47" t="s">
         <v>15</v>
       </c>
       <c r="J79" s="24"/>
@@ -12289,7 +12247,7 @@
       <c r="L79" s="24"/>
       <c r="M79" s="24"/>
       <c r="N79" s="24"/>
-      <c r="O79" s="49"/>
+      <c r="O79" s="47"/>
       <c r="P79" s="24"/>
       <c r="Q79" s="24"/>
     </row>
@@ -12337,10 +12295,10 @@
       <c r="F81" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I81" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O81" s="49"/>
+      <c r="I81" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O81" s="47"/>
     </row>
     <row r="82" s="24" customFormat="1" spans="1:9">
       <c r="A82" s="24">
@@ -12349,7 +12307,7 @@
       <c r="B82" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="C82" s="49" t="s">
+      <c r="C82" s="47" t="s">
         <v>255</v>
       </c>
       <c r="D82" s="5" t="s">
@@ -12386,10 +12344,10 @@
       <c r="F83" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I83" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O83" s="49"/>
+      <c r="I83" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O83" s="47"/>
     </row>
     <row r="84" s="24" customFormat="1" spans="1:9">
       <c r="A84" s="24">
@@ -12435,10 +12393,10 @@
       <c r="F85" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I85" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O85" s="49"/>
+      <c r="I85" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O85" s="47"/>
     </row>
     <row r="86" s="24" customFormat="1" spans="1:9">
       <c r="A86" s="24">
@@ -12457,7 +12415,7 @@
         <f>VLOOKUP(MID(D86,1,2),字库代码!B:F,5,TRUE)</f>
         <v>猛犸坦克</v>
       </c>
-      <c r="F86" s="30" t="s">
+      <c r="F86" s="29" t="s">
         <v>247</v>
       </c>
       <c r="I86" s="24" t="s">
@@ -12481,10 +12439,10 @@
         <f>VLOOKUP(MID(D87,1,2),字库代码!B:F,5,TRUE)</f>
         <v>防空导弹</v>
       </c>
-      <c r="F87" s="30" t="s">
+      <c r="F87" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="I87" s="49" t="s">
+      <c r="I87" s="47" t="s">
         <v>15</v>
       </c>
       <c r="J87" s="24" t="s">
@@ -12493,7 +12451,7 @@
       <c r="K87" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="O87" s="49"/>
+      <c r="O87" s="47"/>
     </row>
     <row r="88" s="24" customFormat="1" spans="1:6">
       <c r="A88" s="24">
@@ -12533,13 +12491,13 @@
         <f>VLOOKUP(MID(D89,1,2),字库代码!B:F,5,TRUE)</f>
         <v>支奴干运输机</v>
       </c>
-      <c r="F89" s="30" t="s">
+      <c r="F89" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="I89" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O89" s="49"/>
+      <c r="I89" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O89" s="47"/>
     </row>
     <row r="90" s="24" customFormat="1" spans="1:9">
       <c r="A90" s="24">
@@ -12585,14 +12543,14 @@
       <c r="F91" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I91" s="49"/>
+      <c r="I91" s="47"/>
       <c r="J91" s="24" t="s">
         <v>285</v>
       </c>
       <c r="K91" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="O91" s="49"/>
+      <c r="O91" s="47"/>
     </row>
     <row r="92" s="24" customFormat="1" spans="1:11">
       <c r="A92" s="24">
@@ -12638,13 +12596,13 @@
         <f>VLOOKUP(MID(D93,1,2),字库代码!B:F,5,TRUE)</f>
         <v>手雷兵</v>
       </c>
-      <c r="F93" s="30" t="s">
+      <c r="F93" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="I93" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O93" s="49"/>
+      <c r="I93" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O93" s="47"/>
     </row>
     <row r="94" s="24" customFormat="1" spans="1:9">
       <c r="A94" s="24">
@@ -12687,10 +12645,10 @@
         <f>VLOOKUP(MID(D95,1,2),字库代码!B:F,5,TRUE)</f>
         <v>火焰兵</v>
       </c>
-      <c r="F95" s="30" t="s">
+      <c r="F95" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="I95" s="49" t="s">
+      <c r="I95" s="47" t="s">
         <v>15</v>
       </c>
       <c r="J95" s="24" t="s">
@@ -12699,7 +12657,7 @@
       <c r="K95" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="O95" s="49"/>
+      <c r="O95" s="47"/>
     </row>
     <row r="96" s="24" customFormat="1" spans="1:9">
       <c r="A96" s="24">
@@ -12718,7 +12676,7 @@
         <f>VLOOKUP(MID(D96,1,2),字库代码!B:F,5,TRUE)</f>
         <v>长弓直升机</v>
       </c>
-      <c r="F96" s="30" t="s">
+      <c r="F96" s="29" t="s">
         <v>247</v>
       </c>
       <c r="I96" s="24" t="s">
@@ -12732,7 +12690,7 @@
       <c r="B97" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="C97" s="49" t="s">
+      <c r="C97" s="47" t="s">
         <v>304</v>
       </c>
       <c r="D97" s="5" t="s">
@@ -12742,47 +12700,47 @@
         <f>VLOOKUP(MID(D97,1,2),字库代码!B:F,5,TRUE)</f>
         <v>雌鹿直升机</v>
       </c>
-      <c r="F97" s="30" t="s">
+      <c r="F97" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="I97" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O97" s="49"/>
+      <c r="I97" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O97" s="47"/>
     </row>
     <row r="98" s="24" customFormat="1" spans="1:17">
-      <c r="A98" s="30">
+      <c r="A98" s="29">
         <v>78</v>
       </c>
-      <c r="B98" s="30" t="s">
+      <c r="B98" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="C98" s="30" t="s">
+      <c r="C98" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="D98" s="52" t="s">
+      <c r="D98" s="50" t="s">
         <v>308</v>
       </c>
       <c r="E98" s="24" t="str">
         <f>VLOOKUP(MID(D98,1,2),字库代码!B:F,5,TRUE)</f>
         <v>装甲运兵车(APC)</v>
       </c>
-      <c r="F98" s="30" t="s">
+      <c r="F98" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="G98" s="30"/>
-      <c r="H98" s="30"/>
-      <c r="I98" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="J98" s="30"/>
-      <c r="K98" s="30"/>
-      <c r="L98" s="30"/>
-      <c r="M98" s="30"/>
-      <c r="N98" s="30"/>
-      <c r="O98" s="30"/>
-      <c r="P98" s="30"/>
-      <c r="Q98" s="30"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J98" s="29"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="29"/>
+      <c r="M98" s="29"/>
+      <c r="N98" s="29"/>
+      <c r="O98" s="29"/>
+      <c r="P98" s="29"/>
+      <c r="Q98" s="29"/>
     </row>
     <row r="99" s="24" customFormat="1" spans="1:15">
       <c r="A99" s="24">
@@ -12801,10 +12759,10 @@
         <f>VLOOKUP(MID(D99,1,2),字库代码!B:F,5,TRUE)</f>
         <v>警戒塔</v>
       </c>
-      <c r="F99" s="30" t="s">
+      <c r="F99" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="I99" s="49" t="s">
+      <c r="I99" s="47" t="s">
         <v>15</v>
       </c>
       <c r="J99" s="24" t="s">
@@ -12813,7 +12771,7 @@
       <c r="K99" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="O99" s="49"/>
+      <c r="O99" s="47"/>
     </row>
     <row r="100" s="24" customFormat="1" spans="1:11">
       <c r="A100" s="24">
@@ -12859,13 +12817,13 @@
         <f>VLOOKUP(MID(D101,1,2),字库代码!B:F,5,TRUE)</f>
         <v>直升机坪</v>
       </c>
-      <c r="F101" s="30" t="s">
+      <c r="F101" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="I101" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O101" s="49"/>
+      <c r="I101" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O101" s="47"/>
     </row>
     <row r="102" s="24" customFormat="1" spans="1:9">
       <c r="A102" s="24">
@@ -12911,8 +12869,8 @@
       <c r="F103" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I103" s="49"/>
-      <c r="O103" s="49"/>
+      <c r="I103" s="47"/>
+      <c r="O103" s="47"/>
     </row>
     <row r="104" s="24" customFormat="1" spans="1:9">
       <c r="A104" s="24">
@@ -12921,7 +12879,7 @@
       <c r="B104" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="C104" s="30" t="s">
+      <c r="C104" s="29" t="s">
         <v>327</v>
       </c>
       <c r="D104" s="5" t="s">
@@ -12958,12 +12916,12 @@
       <c r="F105" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I105" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O105" s="49"/>
-    </row>
-    <row r="106" s="31" customFormat="1" spans="1:17">
+      <c r="I105" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O105" s="47"/>
+    </row>
+    <row r="106" s="30" customFormat="1" spans="1:17">
       <c r="A106" s="24">
         <v>122</v>
       </c>
@@ -12980,7 +12938,7 @@
         <f>VLOOKUP(MID(D106,1,2),字库代码!B:F,5,TRUE)</f>
         <v>苏军科技中心</v>
       </c>
-      <c r="F106" s="30" t="s">
+      <c r="F106" s="29" t="s">
         <v>247</v>
       </c>
       <c r="G106" s="24"/>
@@ -12998,36 +12956,36 @@
       <c r="Q106" s="24"/>
     </row>
     <row r="107" s="24" customFormat="1" spans="1:17">
-      <c r="A107" s="30">
+      <c r="A107" s="29">
         <v>123</v>
       </c>
-      <c r="B107" s="30" t="s">
+      <c r="B107" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="C107" s="30" t="s">
+      <c r="C107" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="D107" s="52" t="s">
+      <c r="D107" s="50" t="s">
         <v>337</v>
       </c>
       <c r="E107" s="24" t="str">
         <f>VLOOKUP(MID(D107,1,2),字库代码!B:F,5,TRUE)</f>
         <v>炮台</v>
       </c>
-      <c r="F107" s="30" t="s">
+      <c r="F107" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="G107" s="30"/>
-      <c r="H107" s="30"/>
-      <c r="I107" s="30"/>
-      <c r="J107" s="30"/>
-      <c r="K107" s="30"/>
-      <c r="L107" s="30"/>
-      <c r="M107" s="30"/>
-      <c r="N107" s="30"/>
-      <c r="O107" s="30"/>
-      <c r="P107" s="30"/>
-      <c r="Q107" s="30"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="29"/>
+      <c r="M107" s="29"/>
+      <c r="N107" s="29"/>
+      <c r="O107" s="29"/>
+      <c r="P107" s="29"/>
+      <c r="Q107" s="29"/>
     </row>
     <row r="108" s="24" customFormat="1" spans="1:15">
       <c r="A108" s="24">
@@ -13049,8 +13007,8 @@
       <c r="F108" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I108" s="49"/>
-      <c r="O108" s="49"/>
+      <c r="I108" s="47"/>
+      <c r="O108" s="47"/>
     </row>
     <row r="109" s="24" customFormat="1" spans="1:9">
       <c r="A109" s="24">
@@ -13083,7 +13041,7 @@
       <c r="B110" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="C110" s="49" t="s">
+      <c r="C110" s="47" t="s">
         <v>345</v>
       </c>
       <c r="D110" s="5" t="s">
@@ -13096,10 +13054,10 @@
       <c r="F110" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I110" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O110" s="49"/>
+      <c r="I110" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O110" s="47"/>
     </row>
     <row r="111" s="24" customFormat="1" spans="1:15">
       <c r="A111" s="24">
@@ -13121,10 +13079,10 @@
       <c r="F111" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I111" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O111" s="49"/>
+      <c r="I111" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O111" s="47"/>
     </row>
     <row r="112" s="24" customFormat="1" spans="1:9">
       <c r="A112" s="24">
@@ -13194,8 +13152,8 @@
       <c r="F114" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I114" s="49"/>
-      <c r="O114" s="49"/>
+      <c r="I114" s="47"/>
+      <c r="O114" s="47"/>
     </row>
     <row r="115" s="24" customFormat="1" spans="1:9">
       <c r="A115" s="24">
@@ -13214,7 +13172,7 @@
         <f>VLOOKUP(MID(D115,1,2),字库代码!B:F,5,TRUE)</f>
         <v>高级警戒塔</v>
       </c>
-      <c r="F115" s="30" t="s">
+      <c r="F115" s="29" t="s">
         <v>247</v>
       </c>
       <c r="I115" s="24" t="s">
@@ -13238,13 +13196,13 @@
         <f>VLOOKUP(MID(D116,1,2),字库代码!B:F,5,TRUE)</f>
         <v>生物研究所</v>
       </c>
-      <c r="F116" s="30" t="s">
+      <c r="F116" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="I116" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O116" s="49"/>
+      <c r="I116" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O116" s="47"/>
     </row>
     <row r="117" s="24" customFormat="1" spans="1:6">
       <c r="A117" s="24">
@@ -13315,7 +13273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" s="32" customFormat="1" spans="1:17">
+    <row r="120" s="31" customFormat="1" spans="1:17">
       <c r="A120" s="24">
         <v>289</v>
       </c>
@@ -13337,7 +13295,7 @@
       </c>
       <c r="G120" s="24"/>
       <c r="H120" s="24"/>
-      <c r="I120" s="49" t="s">
+      <c r="I120" s="47" t="s">
         <v>15</v>
       </c>
       <c r="J120" s="24"/>
@@ -13345,7 +13303,7 @@
       <c r="L120" s="24"/>
       <c r="M120" s="24"/>
       <c r="N120" s="24"/>
-      <c r="O120" s="49"/>
+      <c r="O120" s="47"/>
       <c r="P120" s="24"/>
       <c r="Q120" s="24"/>
     </row>
@@ -13369,8 +13327,8 @@
       <c r="F121" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I121" s="49"/>
-      <c r="O121" s="49"/>
+      <c r="I121" s="47"/>
+      <c r="O121" s="47"/>
     </row>
     <row r="122" s="24" customFormat="1" spans="1:9">
       <c r="A122" s="24">
@@ -13417,7 +13375,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="124" s="30" customFormat="1" spans="1:17">
+    <row r="124" s="29" customFormat="1" spans="1:17">
       <c r="A124" s="24">
         <v>333</v>
       </c>
@@ -13439,13 +13397,13 @@
       </c>
       <c r="G124" s="24"/>
       <c r="H124" s="24"/>
-      <c r="I124" s="49"/>
+      <c r="I124" s="47"/>
       <c r="J124" s="24"/>
       <c r="K124" s="24"/>
       <c r="L124" s="24"/>
       <c r="M124" s="24"/>
       <c r="N124" s="24"/>
-      <c r="O124" s="49"/>
+      <c r="O124" s="47"/>
       <c r="P124" s="24"/>
       <c r="Q124" s="24"/>
     </row>
@@ -13493,7 +13451,7 @@
       <c r="F126" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I126" s="49" t="s">
+      <c r="I126" s="47" t="s">
         <v>15</v>
       </c>
       <c r="J126" s="24" t="s">
@@ -13502,7 +13460,7 @@
       <c r="K126" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="O126" s="49"/>
+      <c r="O126" s="47"/>
     </row>
     <row r="127" s="24" customFormat="1" spans="1:15">
       <c r="A127" s="24">
@@ -13524,10 +13482,10 @@
       <c r="F127" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I127" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O127" s="49"/>
+      <c r="I127" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O127" s="47"/>
     </row>
     <row r="128" s="24" customFormat="1" spans="1:9">
       <c r="A128" s="24">
@@ -13573,10 +13531,10 @@
       <c r="F129" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I129" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O129" s="49"/>
+      <c r="I129" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O129" s="47"/>
     </row>
     <row r="130" s="24" customFormat="1" spans="1:9">
       <c r="A130" s="24">
@@ -13609,7 +13567,7 @@
       <c r="B131" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="C131" s="49" t="s">
+      <c r="C131" s="47" t="s">
         <v>408</v>
       </c>
       <c r="D131" s="5" t="s">
@@ -13622,10 +13580,10 @@
       <c r="F131" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I131" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O131" s="49"/>
+      <c r="I131" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O131" s="47"/>
     </row>
     <row r="132" s="24" customFormat="1" spans="1:11">
       <c r="A132" s="24">
@@ -13677,10 +13635,10 @@
       <c r="F133" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I133" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O133" s="49"/>
+      <c r="I133" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O133" s="47"/>
     </row>
     <row r="134" s="24" customFormat="1" spans="1:9">
       <c r="A134" s="24">
@@ -13726,10 +13684,10 @@
       <c r="F135" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I135" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O135" s="49"/>
+      <c r="I135" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O135" s="47"/>
     </row>
     <row r="136" s="24" customFormat="1" spans="1:9">
       <c r="A136" s="24">
@@ -13762,7 +13720,7 @@
       <c r="B137" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="C137" s="49" t="s">
+      <c r="C137" s="47" t="s">
         <v>427</v>
       </c>
       <c r="D137" s="5" t="s">
@@ -13775,7 +13733,7 @@
       <c r="F137" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I137" s="49" t="s">
+      <c r="I137" s="47" t="s">
         <v>15</v>
       </c>
       <c r="J137" s="24" t="s">
@@ -13784,7 +13742,7 @@
       <c r="K137" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="O137" s="49"/>
+      <c r="O137" s="47"/>
     </row>
     <row r="138" s="24" customFormat="1" spans="1:9">
       <c r="A138" s="24">
@@ -13830,7 +13788,7 @@
       <c r="F139" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I139" s="49" t="s">
+      <c r="I139" s="47" t="s">
         <v>15</v>
       </c>
       <c r="J139" s="24" t="s">
@@ -13839,7 +13797,7 @@
       <c r="K139" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="O139" s="49"/>
+      <c r="O139" s="47"/>
     </row>
     <row r="140" s="24" customFormat="1" spans="1:9">
       <c r="A140" s="24">
@@ -13872,7 +13830,7 @@
       <c r="B141" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="C141" s="49" t="s">
+      <c r="C141" s="47" t="s">
         <v>441</v>
       </c>
       <c r="D141" s="5" t="s">
@@ -13885,10 +13843,10 @@
       <c r="F141" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I141" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O141" s="49"/>
+      <c r="I141" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O141" s="47"/>
     </row>
     <row r="142" s="24" customFormat="1" spans="1:9">
       <c r="A142" s="24">
@@ -13897,7 +13855,7 @@
       <c r="B142" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="C142" s="49" t="s">
+      <c r="C142" s="47" t="s">
         <v>444</v>
       </c>
       <c r="D142" s="5" t="s">
@@ -13931,13 +13889,13 @@
         <f>VLOOKUP(MID(D143,1,2),字库代码!B:F,5,TRUE)</f>
         <v>苏军科技中心</v>
       </c>
-      <c r="F143" s="30" t="s">
+      <c r="F143" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="I143" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O143" s="49"/>
+      <c r="I143" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O143" s="47"/>
     </row>
     <row r="144" s="24" customFormat="1" spans="1:9">
       <c r="A144" s="24">
@@ -13956,7 +13914,7 @@
         <f>VLOOKUP(MID(D144,1,2),字库代码!B:F,5,TRUE)</f>
         <v>獾式轰炸机</v>
       </c>
-      <c r="F144" s="30" t="s">
+      <c r="F144" s="29" t="s">
         <v>247</v>
       </c>
       <c r="I144" s="24" t="s">
@@ -13970,7 +13928,7 @@
       <c r="B145" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="C145" s="49" t="s">
+      <c r="C145" s="47" t="s">
         <v>452</v>
       </c>
       <c r="D145" s="5" t="s">
@@ -13980,10 +13938,10 @@
         <f>VLOOKUP(MID(D145,1,2),字库代码!B:F,5,TRUE)</f>
         <v>米格战机</v>
       </c>
-      <c r="F145" s="30" t="s">
+      <c r="F145" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="I145" s="49" t="s">
+      <c r="I145" s="47" t="s">
         <v>15</v>
       </c>
       <c r="J145" s="24" t="s">
@@ -13992,7 +13950,7 @@
       <c r="K145" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="O145" s="49"/>
+      <c r="O145" s="47"/>
     </row>
     <row r="146" s="24" customFormat="1" spans="1:11">
       <c r="A146" s="24">
@@ -14038,13 +13996,13 @@
         <f>VLOOKUP(MID(D147,1,2),字库代码!B:F,5,TRUE)</f>
         <v>带刺铁丝网</v>
       </c>
-      <c r="F147" s="30" t="s">
+      <c r="F147" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="I147" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O147" s="49"/>
+      <c r="I147" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O147" s="47"/>
     </row>
     <row r="148" s="24" customFormat="1" spans="1:11">
       <c r="A148" s="24">
@@ -14053,7 +14011,7 @@
       <c r="B148" s="24" t="s">
         <v>462</v>
       </c>
-      <c r="C148" s="49" t="s">
+      <c r="C148" s="47" t="s">
         <v>463</v>
       </c>
       <c r="D148" s="5" t="s">
@@ -14080,7 +14038,7 @@
       <c r="B149" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="C149" s="49" t="s">
+      <c r="C149" s="47" t="s">
         <v>467</v>
       </c>
       <c r="D149" s="5" t="s">
@@ -14093,10 +14051,10 @@
       <c r="F149" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I149" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O149" s="49"/>
+      <c r="I149" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O149" s="47"/>
     </row>
     <row r="150" s="24" customFormat="1" spans="1:9">
       <c r="A150" s="24">
@@ -14105,7 +14063,7 @@
       <c r="B150" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="C150" s="49" t="s">
+      <c r="C150" s="47" t="s">
         <v>470</v>
       </c>
       <c r="D150" s="5" t="s">
@@ -14115,7 +14073,7 @@
         <f>VLOOKUP(MID(D150,1,2),字库代码!B:F,5,TRUE)</f>
         <v>空投炸弹</v>
       </c>
-      <c r="F150" s="30" t="s">
+      <c r="F150" s="29" t="s">
         <v>247</v>
       </c>
       <c r="I150" s="24" t="s">
@@ -14139,13 +14097,13 @@
         <f>VLOOKUP(MID(D151,1,2),字库代码!B:F,5,TRUE)</f>
         <v>空降兵</v>
       </c>
-      <c r="F151" s="30" t="s">
+      <c r="F151" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="I151" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O151" s="49"/>
+      <c r="I151" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O151" s="47"/>
     </row>
     <row r="152" s="24" customFormat="1" spans="1:15">
       <c r="A152" s="24">
@@ -14167,10 +14125,10 @@
       <c r="F152" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I152" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O152" s="49"/>
+      <c r="I152" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O152" s="47"/>
     </row>
     <row r="153" s="24" customFormat="1" spans="1:9">
       <c r="A153" s="24">
@@ -14179,7 +14137,7 @@
       <c r="B153" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="C153" s="49" t="s">
+      <c r="C153" s="47" t="s">
         <v>479</v>
       </c>
       <c r="D153" s="5" t="s">
@@ -14264,10 +14222,10 @@
       <c r="F156" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I156" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O156" s="49"/>
+      <c r="I156" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O156" s="47"/>
     </row>
     <row r="157" s="24" customFormat="1" spans="1:9">
       <c r="A157" s="24">
@@ -14300,7 +14258,7 @@
       <c r="B158" s="24" t="s">
         <v>493</v>
       </c>
-      <c r="C158" s="49" t="s">
+      <c r="C158" s="47" t="s">
         <v>494</v>
       </c>
       <c r="D158" s="5" t="s">
@@ -14313,10 +14271,10 @@
       <c r="F158" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I158" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O158" s="49"/>
+      <c r="I158" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O158" s="47"/>
     </row>
     <row r="159" s="24" customFormat="1" spans="1:6">
       <c r="A159" s="24">
@@ -14346,7 +14304,7 @@
       <c r="B160" s="24" t="s">
         <v>499</v>
       </c>
-      <c r="C160" s="49" t="s">
+      <c r="C160" s="47" t="s">
         <v>500</v>
       </c>
       <c r="D160" s="24" t="s">
@@ -14359,10 +14317,10 @@
       <c r="F160" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I160" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O160" s="49"/>
+      <c r="I160" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O160" s="47"/>
     </row>
     <row r="161" s="24" customFormat="1" spans="1:15">
       <c r="A161" s="24">
@@ -14371,7 +14329,7 @@
       <c r="B161" s="24" t="s">
         <v>502</v>
       </c>
-      <c r="C161" s="49" t="s">
+      <c r="C161" s="47" t="s">
         <v>503</v>
       </c>
       <c r="D161" s="5" t="s">
@@ -14384,10 +14342,10 @@
       <c r="F161" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I161" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O161" s="49"/>
+      <c r="I161" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O161" s="47"/>
     </row>
     <row r="162" s="24" customFormat="1" spans="1:6">
       <c r="A162" s="24">
@@ -14430,10 +14388,10 @@
       <c r="F163" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I163" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O163" s="49"/>
+      <c r="I163" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O163" s="47"/>
     </row>
     <row r="164" s="24" customFormat="1" spans="1:6">
       <c r="A164" s="24">
@@ -14463,7 +14421,7 @@
       <c r="B165" s="24" t="s">
         <v>514</v>
       </c>
-      <c r="C165" s="49" t="s">
+      <c r="C165" s="47" t="s">
         <v>515</v>
       </c>
       <c r="D165" s="5" t="s">
@@ -14476,10 +14434,10 @@
       <c r="F165" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I165" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O165" s="49"/>
+      <c r="I165" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O165" s="47"/>
     </row>
     <row r="166" s="24" customFormat="1" spans="1:10">
       <c r="A166" s="24">
@@ -14488,7 +14446,7 @@
       <c r="B166" s="24" t="s">
         <v>517</v>
       </c>
-      <c r="C166" s="49" t="s">
+      <c r="C166" s="47" t="s">
         <v>518</v>
       </c>
       <c r="D166" s="5" t="s">
@@ -14528,8 +14486,8 @@
       <c r="F167" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I167" s="49"/>
-      <c r="O167" s="49"/>
+      <c r="I167" s="47"/>
+      <c r="O167" s="47"/>
     </row>
     <row r="168" s="24" customFormat="1" spans="1:9">
       <c r="A168" s="24">
@@ -14575,10 +14533,10 @@
       <c r="F169" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I169" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O169" s="49"/>
+      <c r="I169" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O169" s="47"/>
     </row>
     <row r="170" s="24" customFormat="1" spans="1:9">
       <c r="A170" s="24">
@@ -14611,7 +14569,7 @@
       <c r="B171" s="24" t="s">
         <v>533</v>
       </c>
-      <c r="C171" s="49" t="s">
+      <c r="C171" s="47" t="s">
         <v>534</v>
       </c>
       <c r="D171" s="5" t="s">
@@ -14648,10 +14606,10 @@
       <c r="F172" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I172" s="49" t="s">
+      <c r="I172" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="O172" s="49"/>
+      <c r="O172" s="47"/>
     </row>
     <row r="173" s="24" customFormat="1" spans="1:9">
       <c r="A173" s="24">
@@ -14660,7 +14618,7 @@
       <c r="B173" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="C173" s="49" t="s">
+      <c r="C173" s="47" t="s">
         <v>540</v>
       </c>
       <c r="D173" s="24" t="s">
@@ -14697,10 +14655,10 @@
       <c r="F174" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I174" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="O174" s="49"/>
+      <c r="I174" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O174" s="47"/>
     </row>
     <row r="175" s="24" customFormat="1" spans="1:9">
       <c r="A175" s="24">
@@ -14746,7 +14704,7 @@
       <c r="F176" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I176" s="49" t="s">
+      <c r="I176" s="47" t="s">
         <v>15</v>
       </c>
       <c r="J176" s="24" t="s">
@@ -14755,7 +14713,7 @@
       <c r="K176" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="O176" s="49"/>
+      <c r="O176" s="47"/>
     </row>
     <row r="177" s="24" customFormat="1" spans="1:9">
       <c r="A177" s="24">
@@ -14801,7 +14759,7 @@
       <c r="F178" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="I178" s="49" t="s">
+      <c r="I178" s="47" t="s">
         <v>15</v>
       </c>
       <c r="J178" s="24" t="s">
@@ -14810,7 +14768,7 @@
       <c r="K178" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="O178" s="49"/>
+      <c r="O178" s="47"/>
     </row>
     <row r="179" spans="1:17">
       <c r="A179" s="24">
@@ -14872,13 +14830,13 @@
       </c>
       <c r="G180" s="24"/>
       <c r="H180" s="24"/>
-      <c r="I180" s="49" t="s">
+      <c r="I180" s="47" t="s">
         <v>15</v>
       </c>
       <c r="L180" s="24"/>
       <c r="M180" s="24"/>
       <c r="N180" s="24"/>
-      <c r="O180" s="49"/>
+      <c r="O180" s="47"/>
       <c r="P180" s="24"/>
       <c r="Q180" s="24"/>
     </row>
@@ -14889,7 +14847,7 @@
       <c r="B181" s="24" t="s">
         <v>567</v>
       </c>
-      <c r="C181" s="49" t="s">
+      <c r="C181" s="47" t="s">
         <v>568</v>
       </c>
       <c r="D181" s="5" t="s">
@@ -14936,13 +14894,13 @@
       </c>
       <c r="G182" s="24"/>
       <c r="H182" s="24"/>
-      <c r="I182" s="49" t="s">
+      <c r="I182" s="47" t="s">
         <v>15</v>
       </c>
       <c r="L182" s="24"/>
       <c r="M182" s="24"/>
       <c r="N182" s="24"/>
-      <c r="O182" s="49"/>
+      <c r="O182" s="47"/>
       <c r="P182" s="24"/>
       <c r="Q182" s="24"/>
     </row>
@@ -14991,11 +14949,11 @@
       </c>
       <c r="G184" s="24"/>
       <c r="H184" s="24"/>
-      <c r="I184" s="49"/>
+      <c r="I184" s="47"/>
       <c r="L184" s="24"/>
       <c r="M184" s="24"/>
       <c r="N184" s="24"/>
-      <c r="O184" s="49"/>
+      <c r="O184" s="47"/>
       <c r="P184" s="24"/>
       <c r="Q184" s="24"/>
     </row>
@@ -15006,7 +14964,7 @@
       <c r="B185" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="C185" s="49" t="s">
+      <c r="C185" s="47" t="s">
         <v>580</v>
       </c>
       <c r="D185" s="5" t="s">
@@ -15019,10 +14977,10 @@
       <c r="F185" s="24" t="s">
         <v>566</v>
       </c>
-      <c r="I185" s="49"/>
+      <c r="I185" s="47"/>
       <c r="J185"/>
       <c r="K185"/>
-      <c r="O185" s="49"/>
+      <c r="O185" s="47"/>
     </row>
     <row r="186" s="24" customFormat="1" spans="1:11">
       <c r="A186" s="24">
@@ -15069,7 +15027,7 @@
       </c>
       <c r="G187" s="24"/>
       <c r="H187" s="24"/>
-      <c r="I187" s="49"/>
+      <c r="I187" s="47"/>
       <c r="J187" t="s">
         <v>588</v>
       </c>
@@ -15102,7 +15060,7 @@
       </c>
       <c r="G188" s="24"/>
       <c r="H188" s="24"/>
-      <c r="I188" s="49" t="s">
+      <c r="I188" s="47" t="s">
         <v>15</v>
       </c>
       <c r="J188" s="24"/>
@@ -15110,7 +15068,7 @@
       <c r="L188" s="24"/>
       <c r="M188" s="24"/>
       <c r="N188" s="24"/>
-      <c r="O188" s="49"/>
+      <c r="O188" s="47"/>
       <c r="P188" s="24"/>
       <c r="Q188" s="24"/>
     </row>
@@ -15603,54 +15561,54 @@
       </c>
     </row>
     <row r="216" spans="1:17">
-      <c r="A216" s="31">
+      <c r="A216" s="30">
         <v>52</v>
       </c>
-      <c r="B216" s="31" t="s">
+      <c r="B216" s="30" t="s">
         <v>642</v>
       </c>
-      <c r="C216" s="31" t="s">
+      <c r="C216" s="30" t="s">
         <v>119</v>
       </c>
       <c r="D216" s="12"/>
-      <c r="E216" s="31"/>
-      <c r="F216" s="31"/>
-      <c r="G216" s="31"/>
-      <c r="H216" s="31"/>
-      <c r="I216" s="31"/>
-      <c r="J216" s="31"/>
-      <c r="K216" s="31"/>
-      <c r="L216" s="31"/>
-      <c r="M216" s="31"/>
-      <c r="N216" s="31"/>
-      <c r="O216" s="31"/>
-      <c r="P216" s="31"/>
-      <c r="Q216" s="31"/>
+      <c r="E216" s="30"/>
+      <c r="F216" s="30"/>
+      <c r="G216" s="30"/>
+      <c r="H216" s="30"/>
+      <c r="I216" s="30"/>
+      <c r="J216" s="30"/>
+      <c r="K216" s="30"/>
+      <c r="L216" s="30"/>
+      <c r="M216" s="30"/>
+      <c r="N216" s="30"/>
+      <c r="O216" s="30"/>
+      <c r="P216" s="30"/>
+      <c r="Q216" s="30"/>
     </row>
     <row r="217" spans="1:17">
-      <c r="A217" s="31">
+      <c r="A217" s="30">
         <v>53</v>
       </c>
-      <c r="B217" s="31" t="s">
+      <c r="B217" s="30" t="s">
         <v>643</v>
       </c>
-      <c r="C217" s="31" t="s">
+      <c r="C217" s="30" t="s">
         <v>122</v>
       </c>
       <c r="D217" s="12"/>
-      <c r="E217" s="31"/>
-      <c r="F217" s="31"/>
-      <c r="G217" s="31"/>
-      <c r="H217" s="31"/>
-      <c r="I217" s="54"/>
-      <c r="J217" s="31"/>
-      <c r="K217" s="31"/>
-      <c r="L217" s="31"/>
-      <c r="M217" s="31"/>
-      <c r="N217" s="31"/>
-      <c r="O217" s="54"/>
-      <c r="P217" s="31"/>
-      <c r="Q217" s="31"/>
+      <c r="E217" s="30"/>
+      <c r="F217" s="30"/>
+      <c r="G217" s="30"/>
+      <c r="H217" s="30"/>
+      <c r="I217" s="52"/>
+      <c r="J217" s="30"/>
+      <c r="K217" s="30"/>
+      <c r="L217" s="30"/>
+      <c r="M217" s="30"/>
+      <c r="N217" s="30"/>
+      <c r="O217" s="52"/>
+      <c r="P217" s="30"/>
+      <c r="Q217" s="30"/>
     </row>
     <row r="218" spans="1:9">
       <c r="A218">
@@ -16159,7 +16117,7 @@
         <v>692</v>
       </c>
       <c r="D240"/>
-      <c r="E240" s="31"/>
+      <c r="E240" s="30"/>
       <c r="I240" t="s">
         <v>15</v>
       </c>
@@ -16175,7 +16133,7 @@
         <v>694</v>
       </c>
       <c r="D241"/>
-      <c r="E241" s="31"/>
+      <c r="E241" s="30"/>
       <c r="I241" s="18" t="s">
         <v>15</v>
       </c>
@@ -16331,31 +16289,31 @@
       <c r="O250" s="18"/>
     </row>
     <row r="251" spans="1:17">
-      <c r="A251" s="31">
+      <c r="A251" s="30">
         <v>124</v>
       </c>
-      <c r="B251" s="31" t="s">
+      <c r="B251" s="30" t="s">
         <v>713</v>
       </c>
-      <c r="C251" s="31" t="s">
+      <c r="C251" s="30" t="s">
         <v>714</v>
       </c>
-      <c r="D251" s="31"/>
-      <c r="E251" s="31"/>
-      <c r="F251" s="53"/>
-      <c r="G251" s="31"/>
-      <c r="H251" s="31"/>
-      <c r="I251" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="J251" s="31"/>
-      <c r="K251" s="31"/>
-      <c r="L251" s="31"/>
-      <c r="M251" s="31"/>
-      <c r="N251" s="31"/>
-      <c r="O251" s="31"/>
-      <c r="P251" s="31"/>
-      <c r="Q251" s="31"/>
+      <c r="D251" s="30"/>
+      <c r="E251" s="30"/>
+      <c r="F251" s="51"/>
+      <c r="G251" s="30"/>
+      <c r="H251" s="30"/>
+      <c r="I251" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J251" s="30"/>
+      <c r="K251" s="30"/>
+      <c r="L251" s="30"/>
+      <c r="M251" s="30"/>
+      <c r="N251" s="30"/>
+      <c r="O251" s="30"/>
+      <c r="P251" s="30"/>
+      <c r="Q251" s="30"/>
     </row>
     <row r="252" spans="1:9">
       <c r="A252">
@@ -18712,7 +18670,7 @@
       <c r="D377" s="28" t="s">
         <v>967</v>
       </c>
-      <c r="E377" s="33" t="str">
+      <c r="E377" s="28" t="str">
         <f>VLOOKUP(MID(D377,1,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D377,4,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D377,7,2),字库代码!B:I,8,TRUE)</f>
         <v>杀敌:</v>
       </c>
@@ -20985,7 +20943,7 @@
       </c>
       <c r="O490" s="18"/>
     </row>
-    <row r="491" s="33" customFormat="1" spans="1:17">
+    <row r="491" s="28" customFormat="1" spans="1:15">
       <c r="A491" s="28">
         <v>477</v>
       </c>
@@ -20995,23 +20953,15 @@
       <c r="C491" s="28" t="s">
         <v>1205</v>
       </c>
-      <c r="D491" s="39" t="s">
+      <c r="D491" s="37" t="s">
         <v>1206</v>
       </c>
-      <c r="E491" s="33" t="str">
+      <c r="E491" s="28" t="str">
         <f>VLOOKUP(MID(D491,1,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D491,4,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D491,7,2),字库代码!B:I,8,TRUE)</f>
         <v>矿石再生</v>
       </c>
-      <c r="F491" s="28"/>
-      <c r="G491" s="28"/>
-      <c r="H491" s="28"/>
-      <c r="I491" s="38"/>
-      <c r="L491" s="28"/>
-      <c r="M491" s="28"/>
-      <c r="N491" s="28"/>
-      <c r="O491" s="38"/>
-      <c r="P491" s="28"/>
-      <c r="Q491" s="28"/>
+      <c r="I491" s="36"/>
+      <c r="O491" s="36"/>
     </row>
     <row r="492" spans="1:9">
       <c r="A492">
@@ -21262,7 +21212,7 @@
       <c r="C508" s="28" t="s">
         <v>1239</v>
       </c>
-      <c r="D508" s="39"/>
+      <c r="D508" s="37"/>
       <c r="E508" t="e">
         <f>VLOOKUP(MID(D508,1,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D508,4,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D508,7,2),字库代码!B:I,8,TRUE)</f>
         <v>#N/A</v>
@@ -21541,7 +21491,6 @@
       <c r="D523" s="28" t="s">
         <v>1270</v>
       </c>
-      <c r="E523" s="28"/>
       <c r="I523" s="28" t="s">
         <v>15</v>
       </c>
@@ -21556,12 +21505,12 @@
       <c r="C524" s="28" t="s">
         <v>1272</v>
       </c>
-      <c r="D524" s="39" t="s">
+      <c r="D524" s="37" t="s">
         <v>1273</v>
       </c>
-      <c r="E524" s="39"/>
-      <c r="I524" s="38"/>
-      <c r="O524" s="38"/>
+      <c r="E524" s="37"/>
+      <c r="I524" s="36"/>
+      <c r="O524" s="36"/>
     </row>
     <row r="525" spans="1:9">
       <c r="A525">
@@ -29775,12 +29724,12 @@
   <sheetPr/>
   <dimension ref="A1:J257"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H215" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E159" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I256" sqref="I256"/>
+      <selection pane="bottomRight" activeCell="F174" sqref="F174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -30633,19 +30582,19 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="53" t="s">
         <v>2295</v>
       </c>
-      <c r="D41" s="56" t="s">
+      <c r="D41" s="54" t="s">
         <v>2295</v>
       </c>
-      <c r="E41" s="56" t="s">
+      <c r="E41" s="54" t="s">
         <v>2295</v>
       </c>
-      <c r="G41" s="56" t="s">
+      <c r="G41" s="54" t="s">
         <v>2295</v>
       </c>
-      <c r="I41" s="56" t="s">
+      <c r="I41" s="54" t="s">
         <v>2295</v>
       </c>
     </row>

--- a/ra1/ra1字符串表.xlsx
+++ b/ra1/ra1字符串表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="界面字符串conquer.eng" sheetId="1" r:id="rId1"/>
@@ -10623,10 +10623,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -10664,9 +10664,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10681,29 +10680,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10717,22 +10694,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -10741,7 +10704,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10754,9 +10717,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10777,8 +10746,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10792,17 +10785,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10841,7 +10841,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10853,7 +10877,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10865,7 +10895,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10877,25 +10937,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10907,25 +11003,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10937,91 +11015,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11051,16 +11051,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11076,11 +11094,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11096,15 +11120,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11127,23 +11142,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11155,10 +11155,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11167,133 +11167,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13801,11 +13801,11 @@
   <dimension ref="A1:Q555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D553" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q555" sqref="Q555"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -33434,7 +33434,7 @@
   <sheetPr/>
   <dimension ref="A1:J293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D244" workbookViewId="0">
+    <sheetView topLeftCell="D244" workbookViewId="0">
       <selection activeCell="F251" sqref="F251"/>
     </sheetView>
   </sheetViews>
@@ -37639,12 +37639,12 @@
   <sheetPr/>
   <dimension ref="A1:N257"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C135" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F135" sqref="F$1:F$1048576"/>
+      <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -38436,6 +38436,9 @@
       <c r="G30" s="2" t="s">
         <v>3099</v>
       </c>
+      <c r="I30" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="J30" s="3" t="s">
         <v>56</v>
       </c>
@@ -38486,6 +38489,9 @@
       </c>
       <c r="G32" s="2" t="s">
         <v>3102</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>59</v>

--- a/ra1/ra1字符串表.xlsx
+++ b/ra1/ra1字符串表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\cc\ra1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E9242D-8E77-49E7-BC86-72D3E20CD8B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DBEC1E-97C0-4563-87A7-A9FFD424B97D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="界面字符串conquer.eng" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6015" uniqueCount="3551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6037" uniqueCount="3573">
   <si>
     <t>编号</t>
   </si>
@@ -10691,6 +10691,94 @@
   </si>
   <si>
     <t>取消</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>全军覆灭.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>激进派打算使用生物武器,但它极不稳定,一旦泄露,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>摧毁海岛防御,让科学家去研究所中和生物武器,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中和完毕后摧毁基地.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>盟军正在研发超时空武器,防御完备,进攻受挫.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>俘获超时空传送仪,传送自走基地到对面岛屿.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>占领研究设施,摧毁基地.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用补给车给水源下毒,可以让任务更加容易.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫洛托夫兄弟是我们的重要军火商,但情报显示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>他们涉嫌与盟军交易.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>让特工潜入基地,监视他们的活动,如他们真的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>通敌,去撤离点,发送增援信号,和对所有叛徒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一样,干掉他们.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>盟军逮捕了沃尔科夫,肯定会严加拷打,不能这样.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>摧毁该地区四个雷达站,重新定位追踪沃尔科夫.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后派科学家进入设施重新激活他,并让他搭乘</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>支奴干撤离,并全歼敌军</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果盟军得到沃尔科夫的控制码,摧毁它.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>格伦耶夫省的居民反对苏军进入西欧,让他们闭嘴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>派遣武装,消灭反对者.据说当地平民拥有武装,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>螳臂挡车而已.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀鸡儆猴,全部肃清--男人,女人,孩子.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -10817,7 +10905,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10991,6 +11079,9 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11048,9 +11139,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -11058,16 +11146,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -11115,9 +11193,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -11125,16 +11200,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -11182,9 +11247,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -11192,16 +11254,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -11249,9 +11301,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -11259,16 +11308,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -11316,9 +11355,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -11326,16 +11362,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -11383,9 +11409,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -11393,16 +11416,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -11450,9 +11463,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -11460,16 +11470,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -11517,9 +11517,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -11527,16 +11524,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -11584,9 +11571,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -11594,16 +11578,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -11651,9 +11625,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -11661,16 +11632,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -11718,9 +11679,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -11728,16 +11686,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -11785,9 +11733,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -11795,16 +11740,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -11852,9 +11787,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -11862,16 +11794,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -11919,9 +11841,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -11929,16 +11848,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -11986,9 +11895,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -11996,16 +11902,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -12053,9 +11949,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -12063,16 +11956,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -12120,9 +12003,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -12130,16 +12010,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -12187,9 +12057,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -12197,16 +12064,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -12254,9 +12111,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -12264,16 +12118,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -12321,9 +12165,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -12331,16 +12172,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -12388,9 +12219,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -12398,16 +12226,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -12455,9 +12273,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -12465,16 +12280,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -12522,9 +12327,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -12532,16 +12334,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -12589,9 +12381,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -12599,16 +12388,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -12656,9 +12435,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -12666,16 +12442,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -12723,9 +12489,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -12733,16 +12496,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -12790,9 +12543,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -12800,16 +12550,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -12857,9 +12597,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -12867,16 +12604,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -12924,9 +12651,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -12934,16 +12658,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -12991,9 +12705,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -13001,16 +12712,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -13058,9 +12759,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -13068,16 +12766,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -13125,9 +12813,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -13135,16 +12820,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -13192,9 +12867,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -13202,16 +12874,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -13259,9 +12921,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -13269,16 +12928,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -13326,9 +12975,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -13336,16 +12982,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -13393,9 +13029,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -13403,16 +13036,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -13460,9 +13083,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -13470,16 +13090,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -13527,9 +13137,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -13537,16 +13144,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -13594,9 +13191,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -13604,16 +13198,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -13661,9 +13245,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -13671,16 +13252,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -13728,9 +13299,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -13738,16 +13306,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -13795,9 +13353,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -13805,16 +13360,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -13862,9 +13407,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -13872,16 +13414,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -13929,9 +13461,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -13939,16 +13468,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -13996,9 +13515,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -14006,16 +13522,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -14063,9 +13569,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -14073,16 +13576,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -14130,9 +13623,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -14140,16 +13630,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -14197,9 +13677,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -14207,16 +13684,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -14264,9 +13731,6 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -14274,16 +13738,6 @@
                     <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -34328,16 +33782,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J293"/>
   <sheetViews>
-    <sheetView topLeftCell="D244" workbookViewId="0">
-      <selection activeCell="F251" sqref="F251"/>
+    <sheetView tabSelected="1" topLeftCell="D202" workbookViewId="0">
+      <selection activeCell="F292" sqref="F292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="75.25" customWidth="1"/>
-    <col min="4" max="4" width="83.75" customWidth="1"/>
-    <col min="5" max="5" width="66.125" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="77.75" customWidth="1"/>
+    <col min="5" max="5" width="56.625" customWidth="1"/>
     <col min="6" max="6" width="40.375" customWidth="1"/>
     <col min="7" max="7" width="42.625" customWidth="1"/>
     <col min="8" max="8" width="59.875" customWidth="1"/>
@@ -37915,7 +37370,9 @@
       <c r="E252" s="21" t="s">
         <v>2954</v>
       </c>
-      <c r="F252" s="21"/>
+      <c r="F252" s="57" t="s">
+        <v>3552</v>
+      </c>
       <c r="G252" s="21"/>
       <c r="H252" s="21"/>
     </row>
@@ -37931,7 +37388,9 @@
       <c r="E253" s="21" t="s">
         <v>2957</v>
       </c>
-      <c r="F253" s="21"/>
+      <c r="F253" s="57" t="s">
+        <v>3551</v>
+      </c>
       <c r="G253" s="21"/>
       <c r="H253" s="21"/>
     </row>
@@ -37947,7 +37406,9 @@
       <c r="E254" s="21" t="s">
         <v>2960</v>
       </c>
-      <c r="F254" s="21"/>
+      <c r="F254" s="57" t="s">
+        <v>3553</v>
+      </c>
       <c r="G254" s="21"/>
       <c r="H254" s="21"/>
     </row>
@@ -37964,7 +37425,9 @@
       <c r="E255" s="21" t="s">
         <v>2962</v>
       </c>
-      <c r="F255" s="21"/>
+      <c r="F255" s="57" t="s">
+        <v>3554</v>
+      </c>
       <c r="G255" s="21"/>
       <c r="H255" s="21"/>
     </row>
@@ -38046,7 +37509,9 @@
       <c r="E261" s="21" t="s">
         <v>2973</v>
       </c>
-      <c r="F261" s="21"/>
+      <c r="F261" s="57" t="s">
+        <v>3555</v>
+      </c>
       <c r="G261" s="21"/>
       <c r="H261" s="21"/>
     </row>
@@ -38062,7 +37527,9 @@
       <c r="E262" s="21" t="s">
         <v>2976</v>
       </c>
-      <c r="F262" s="21"/>
+      <c r="F262" s="57" t="s">
+        <v>3556</v>
+      </c>
       <c r="G262" s="21"/>
       <c r="H262" s="21"/>
     </row>
@@ -38078,7 +37545,9 @@
       <c r="E263" s="21" t="s">
         <v>2979</v>
       </c>
-      <c r="F263" s="21"/>
+      <c r="F263" s="57" t="s">
+        <v>3557</v>
+      </c>
       <c r="G263" s="21"/>
       <c r="H263" s="21"/>
     </row>
@@ -38095,7 +37564,9 @@
       <c r="E264" s="21" t="s">
         <v>2981</v>
       </c>
-      <c r="F264" s="21"/>
+      <c r="F264" s="57" t="s">
+        <v>3558</v>
+      </c>
       <c r="G264" s="21"/>
       <c r="H264" s="21"/>
     </row>
@@ -38177,7 +37648,9 @@
       <c r="E270" s="21" t="s">
         <v>2992</v>
       </c>
-      <c r="F270" s="21"/>
+      <c r="F270" s="57" t="s">
+        <v>3559</v>
+      </c>
       <c r="G270" s="21"/>
       <c r="H270" s="21"/>
     </row>
@@ -38193,7 +37666,9 @@
       <c r="E271" s="21" t="s">
         <v>2995</v>
       </c>
-      <c r="F271" s="21"/>
+      <c r="F271" s="57" t="s">
+        <v>3560</v>
+      </c>
       <c r="G271" s="21"/>
       <c r="H271" s="21"/>
     </row>
@@ -38209,7 +37684,9 @@
       <c r="E272" s="21" t="s">
         <v>2998</v>
       </c>
-      <c r="F272" s="21"/>
+      <c r="F272" s="57" t="s">
+        <v>3561</v>
+      </c>
       <c r="G272" s="21"/>
       <c r="H272" s="21"/>
     </row>
@@ -38226,7 +37703,9 @@
       <c r="E273" s="21" t="s">
         <v>3000</v>
       </c>
-      <c r="F273" s="21"/>
+      <c r="F273" s="57" t="s">
+        <v>3562</v>
+      </c>
       <c r="G273" s="21"/>
       <c r="H273" s="21"/>
     </row>
@@ -38240,7 +37719,9 @@
       <c r="E274" s="21" t="s">
         <v>3002</v>
       </c>
-      <c r="F274" s="21"/>
+      <c r="F274" s="57" t="s">
+        <v>3563</v>
+      </c>
       <c r="G274" s="21"/>
       <c r="H274" s="21"/>
     </row>
@@ -38296,7 +37777,9 @@
       <c r="E278" s="21" t="s">
         <v>3010</v>
       </c>
-      <c r="F278" s="21"/>
+      <c r="F278" s="57" t="s">
+        <v>3564</v>
+      </c>
       <c r="G278" s="21"/>
       <c r="H278" s="21"/>
     </row>
@@ -38312,7 +37795,9 @@
       <c r="E279" s="21" t="s">
         <v>3013</v>
       </c>
-      <c r="F279" s="21"/>
+      <c r="F279" s="57" t="s">
+        <v>3565</v>
+      </c>
       <c r="G279" s="21"/>
       <c r="H279" s="21"/>
     </row>
@@ -38328,7 +37813,9 @@
       <c r="E280" s="21" t="s">
         <v>3016</v>
       </c>
-      <c r="F280" s="21"/>
+      <c r="F280" s="57" t="s">
+        <v>3566</v>
+      </c>
       <c r="G280" s="21"/>
       <c r="H280" s="21"/>
     </row>
@@ -38345,7 +37832,9 @@
       <c r="E281" s="21" t="s">
         <v>3018</v>
       </c>
-      <c r="F281" s="21"/>
+      <c r="F281" s="57" t="s">
+        <v>3567</v>
+      </c>
       <c r="G281" s="21"/>
       <c r="H281" s="21"/>
     </row>
@@ -38359,7 +37848,9 @@
       <c r="E282" s="21" t="s">
         <v>3020</v>
       </c>
-      <c r="F282" s="21"/>
+      <c r="F282" s="57" t="s">
+        <v>3568</v>
+      </c>
       <c r="G282" s="21"/>
       <c r="H282" s="21"/>
     </row>
@@ -38429,7 +37920,9 @@
       <c r="E287" s="21" t="s">
         <v>3030</v>
       </c>
-      <c r="F287" s="21"/>
+      <c r="F287" s="57" t="s">
+        <v>3569</v>
+      </c>
       <c r="G287" s="21"/>
       <c r="H287" s="21"/>
     </row>
@@ -38445,7 +37938,9 @@
       <c r="E288" s="21" t="s">
         <v>3033</v>
       </c>
-      <c r="F288" s="21"/>
+      <c r="F288" s="57" t="s">
+        <v>3570</v>
+      </c>
       <c r="G288" s="21"/>
       <c r="H288" s="21"/>
     </row>
@@ -38461,7 +37956,9 @@
       <c r="E289" s="21" t="s">
         <v>3036</v>
       </c>
-      <c r="F289" s="21"/>
+      <c r="F289" s="57" t="s">
+        <v>3571</v>
+      </c>
       <c r="G289" s="21"/>
       <c r="H289" s="21"/>
     </row>
@@ -38478,7 +37975,9 @@
       <c r="E290" s="21" t="s">
         <v>3038</v>
       </c>
-      <c r="F290" s="21"/>
+      <c r="F290" s="57" t="s">
+        <v>3572</v>
+      </c>
       <c r="G290" s="21"/>
       <c r="H290" s="21"/>
     </row>
@@ -38525,6 +38024,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -38532,11 +38032,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/ra1/ra1字符串表.xlsx
+++ b/ra1/ra1字符串表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\cc\ra1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD790E8-69B1-4B6D-B628-8C192FF709D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC30F58-CACE-4287-988C-A1D23968DBAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10770" yWindow="1575" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="界面字符串conquer.eng" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6286" uniqueCount="3668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6288" uniqueCount="3671">
   <si>
     <t>编号</t>
   </si>
@@ -8696,9 +8696,6 @@
     <t>碾碎他们，不被任何事物所阻挡。</t>
   </si>
   <si>
-    <t>碾碎他们,不被任何事物所阻挡.</t>
-  </si>
-  <si>
     <t>scu41ea</t>
   </si>
   <si>
@@ -8853,9 +8850,6 @@
   </si>
   <si>
     <t>建立基地并部署你的部队。盟军的优势是山地屏障，不要被它阻挡。</t>
-  </si>
-  <si>
-    <t>有无新武器,岛都是我们的.</t>
   </si>
   <si>
     <t>6=accordingly. The allies have the advantage of a natural ridge barrier,</t>
@@ -10661,14 +10655,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>全军覆灭.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>激进派打算使用生物武器,但它极不稳定,一旦泄露,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>摧毁海岛防御,让科学家去研究所中和生物武器,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -10785,10 +10771,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>e1 00 00 00 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>d7 00 00 00 00 00 00 00 00</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -10817,10 +10799,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>碾碎他们,不被任何事物所阻挡</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>带回原型车,否则就不用回来了</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -10829,22 +10807,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>有无新武器,岛都是我们的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>岛上所有盟军痕迹</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>激进派打算使用生物武器,但它极不稳定,一旦泄露</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>全军覆灭</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>俘获超时空传送仪,传送自走基地到对面岛屿</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -10865,10 +10831,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>派遣武装,消灭反对者.据说当地平民拥有武装</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>螳臂挡车而已</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -10877,10 +10839,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>f4 2e 00 00 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>f2 2c 00 00 00 00 00 00 00</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -10953,10 +10911,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>cc 2c 00 00 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>cb 2e 00 00 00 00 00 00 00</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -10981,22 +10935,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>用原型车,渗透盟军基地.测试项目为摧毁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ed 15 84 00 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪研制除了一种叫"超时空坦克"的新武器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 84 e5 2e 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>正在研发超时空武器,防御完备,进攻受挫</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -11017,10 +10955,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>海岛防御,让科学家去研究所中和生物武器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>bb dd 2c 00 00 00 00 00 00</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -11085,30 +11019,14 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>正在一个属于苏联帝国的岛上测试新武器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>盟军正在一个属于苏联帝国的岛上测试新武器.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">15 84 e3 2e 00 00 00 00 00 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>c8 e4 2e 00 00 00 00 00 00</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>如果盟军得到沃尔科夫的控制码,摧毁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ce c8 2e 00 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>余生</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -11161,15 +11079,111 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>人,是我们伟大帝国的敌人.作为敌人,必须消灭</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>带着斯大林的精英闪电兵,向他们展示苏军的铁</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>腕.毫无疑问,叛徒将向该地贫弱的盟军寻求援助</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要辜负我们</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>激进派打算用生物武器,对付盟军,但它极不稳定,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一旦泄露,全军覆灭.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一旦泄露,全军覆灭</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>激进派打算用生物武器,对付盟军,但它极不稳定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果盟军得到沃尔科夫的控制码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人,是我们伟大帝国的敌人.作为敌人,必须</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f4 bb 2e 00 00 00 00 00 00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>碾碎他们,势不可挡.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>碾碎他们,势不可挡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用原型车,渗透盟军基地.测试项目为</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ed bb 15 84 00 00 00 00 00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 84 e5 c7 2e 00 00 00 00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 84 e3 c7 2e 00 00 00 00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在一个属于苏联帝国的岛上测试新</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无论如何,岛都是我们的.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无论如何,岛都是我们的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>有山脉屏障,别让它阻碍你,清除</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>c6 b7 2c 15 84 e1 00 00 00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>派遣武装,消灭反对者.据说当地平民拥有</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc c7 2c 00 00 00 00 00 00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ce 2c bb c8 2e 00 00 00 00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪研制除了一种叫"超时空坦克"的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>海岛防御,让科学家去研究所中和生物</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -14186,7 +14200,7 @@
                   <a14:compatExt spid="_x0000_s1108"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7E05830-A8F1-4E9B-B79B-8EDCA5A72879}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000054040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14240,7 +14254,7 @@
                   <a14:compatExt spid="_x0000_s1109"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA061C58-6A1E-4A70-A0BE-4BE03B159664}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000055040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14294,7 +14308,7 @@
                   <a14:compatExt spid="_x0000_s1110"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81D65A16-4ED2-4775-A99E-4581FB99F707}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000056040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14348,7 +14362,7 @@
                   <a14:compatExt spid="_x0000_s1111"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8220F0F2-BED5-4F05-8AF9-0DECE054C62A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000057040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14402,7 +14416,7 @@
                   <a14:compatExt spid="_x0000_s1112"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0626DB64-E884-4CB8-A85F-59211CF978EB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000058040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14456,7 +14470,7 @@
                   <a14:compatExt spid="_x0000_s1113"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F55D5D2A-8AB0-4640-86CA-DAEEA976AB41}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000059040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14510,7 +14524,7 @@
                   <a14:compatExt spid="_x0000_s1114"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50BACE28-49B7-461E-BAED-B0D0D76FE5F8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22280,14 +22294,14 @@
         <v>865</v>
       </c>
       <c r="D322" s="55" t="s">
-        <v>3537</v>
+        <v>3535</v>
       </c>
       <c r="E322" s="29" t="str">
         <f>VLOOKUP(MID(D322,1,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D322,4,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D322,7,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D322,10,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D322,13,2),字库代码!B:I,8,TRUE)</f>
         <v>%s已退出游戏</v>
       </c>
       <c r="F322" s="55" t="s">
-        <v>3538</v>
+        <v>3536</v>
       </c>
       <c r="I322" t="s">
         <v>16</v>
@@ -34577,8 +34591,8 @@
   <dimension ref="A1:J293"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G283" sqref="G283"/>
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G274" sqref="G274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -37648,7 +37662,7 @@
         <v>2868</v>
       </c>
       <c r="G219" s="58" t="s">
-        <v>3569</v>
+        <v>3565</v>
       </c>
       <c r="H219" s="58" t="str">
         <f>VLOOKUP(MID(G219,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G219,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G219,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G219,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G219,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G219,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G219,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G219,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G219,25,2),字库代码!B:L,11,TRUE)</f>
@@ -37669,16 +37683,16 @@
         <v>2872</v>
       </c>
       <c r="G220" s="58" t="s">
-        <v>3594</v>
+        <v>3654</v>
       </c>
       <c r="H220" s="58" t="str">
         <f>VLOOKUP(MID(G220,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G220,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G220,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G220,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G220,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G220,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G220,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G220,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G220,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>人,是我们伟大帝国的敌人.作为敌人,必须消灭.</v>
+        <v>人,是我们伟大帝国的敌人.作为敌人,必须摧毁.</v>
       </c>
     </row>
     <row r="221" spans="1:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C221" s="58" t="s">
-        <v>3561</v>
+        <v>3557</v>
       </c>
       <c r="D221" s="58" t="s">
         <v>2873</v>
@@ -37702,7 +37716,7 @@
         <v>2877</v>
       </c>
       <c r="G222" s="58" t="s">
-        <v>3570</v>
+        <v>3566</v>
       </c>
       <c r="H222" s="58" t="str">
         <f>VLOOKUP(MID(G222,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G222,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G222,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G222,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G222,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G222,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G222,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G222,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G222,25,2),字库代码!B:L,11,TRUE)</f>
@@ -37720,7 +37734,7 @@
         <v>2880</v>
       </c>
       <c r="G223" s="58" t="s">
-        <v>3595</v>
+        <v>3584</v>
       </c>
       <c r="H223" s="58" t="str">
         <f>VLOOKUP(MID(G223,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G223,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G223,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G223,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G223,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G223,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G223,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G223,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G223,25,2),字库代码!B:L,11,TRUE)</f>
@@ -37738,7 +37752,7 @@
         <v>2883</v>
       </c>
       <c r="G224" s="58" t="s">
-        <v>3596</v>
+        <v>3585</v>
       </c>
       <c r="H224" s="58" t="str">
         <f>VLOOKUP(MID(G224,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G224,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G224,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G224,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G224,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G224,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G224,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G224,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G224,25,2),字库代码!B:L,11,TRUE)</f>
@@ -37753,35 +37767,35 @@
         <v>2885</v>
       </c>
       <c r="F225" s="58" t="s">
-        <v>2886</v>
+        <v>3655</v>
       </c>
       <c r="G225" s="58" t="s">
-        <v>3597</v>
+        <v>3586</v>
       </c>
       <c r="H225" s="58" t="str">
         <f>VLOOKUP(MID(G225,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G225,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G225,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G225,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G225,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G225,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G225,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G225,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G225,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>碾碎他们,不被任何事物所阻挡.</v>
+        <v>碾碎他们,势不可挡.</v>
       </c>
     </row>
     <row r="226" spans="2:8" s="59" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="227" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B227" s="58" t="s">
+        <v>2886</v>
+      </c>
+      <c r="C227" s="58" t="s">
         <v>2887</v>
       </c>
-      <c r="C227" s="58" t="s">
+      <c r="D227" s="58" t="s">
         <v>2888</v>
       </c>
-      <c r="D227" s="58" t="s">
+      <c r="E227" s="58" t="s">
         <v>2889</v>
       </c>
-      <c r="E227" s="58" t="s">
+      <c r="F227" s="58" t="s">
         <v>2890</v>
       </c>
-      <c r="F227" s="58" t="s">
-        <v>2891</v>
-      </c>
       <c r="G227" s="58" t="s">
-        <v>3617</v>
+        <v>3605</v>
       </c>
       <c r="H227" s="58" t="str">
         <f>VLOOKUP(MID(G227,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G227,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G227,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G227,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G227,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G227,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G227,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G227,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G227,25,2),字库代码!B:L,11,TRUE)</f>
@@ -37790,19 +37804,19 @@
     </row>
     <row r="228" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C228" s="58" t="s">
+        <v>2891</v>
+      </c>
+      <c r="D228" s="58" t="s">
         <v>2892</v>
       </c>
-      <c r="D228" s="58" t="s">
+      <c r="E228" s="58" t="s">
         <v>2893</v>
       </c>
-      <c r="E228" s="58" t="s">
+      <c r="F228" s="58" t="s">
         <v>2894</v>
       </c>
-      <c r="F228" s="58" t="s">
-        <v>2895</v>
-      </c>
       <c r="G228" s="58" t="s">
-        <v>3618</v>
+        <v>3606</v>
       </c>
       <c r="H228" s="58" t="str">
         <f>VLOOKUP(MID(G228,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G228,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G228,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G228,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G228,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G228,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G228,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G228,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G228,25,2),字库代码!B:L,11,TRUE)</f>
@@ -37811,13 +37825,13 @@
     </row>
     <row r="229" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C229" s="58" t="s">
-        <v>3562</v>
+        <v>3558</v>
       </c>
       <c r="D229" s="58" t="s">
+        <v>2895</v>
+      </c>
+      <c r="E229" s="58" t="s">
         <v>2896</v>
-      </c>
-      <c r="E229" s="58" t="s">
-        <v>2897</v>
       </c>
     </row>
     <row r="230" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
@@ -37826,16 +37840,16 @@
         <v>(余生)苏军: 试驾</v>
       </c>
       <c r="D230" s="58" t="s">
+        <v>2897</v>
+      </c>
+      <c r="E230" s="58" t="s">
         <v>2898</v>
       </c>
-      <c r="E230" s="58" t="s">
+      <c r="F230" s="58" t="s">
         <v>2899</v>
       </c>
-      <c r="F230" s="58" t="s">
-        <v>2900</v>
-      </c>
       <c r="G230" s="58" t="s">
-        <v>3621</v>
+        <v>3658</v>
       </c>
       <c r="H230" s="58" t="str">
         <f>VLOOKUP(MID(G230,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G230,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G230,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G230,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G230,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G230,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G230,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G230,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G230,25,2),字库代码!B:L,11,TRUE)</f>
@@ -37844,16 +37858,16 @@
     </row>
     <row r="231" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D231" s="58" t="s">
+        <v>2900</v>
+      </c>
+      <c r="E231" s="58" t="s">
         <v>2901</v>
       </c>
-      <c r="E231" s="58" t="s">
+      <c r="F231" s="58" t="s">
         <v>2902</v>
       </c>
-      <c r="F231" s="58" t="s">
-        <v>2903</v>
-      </c>
       <c r="G231" s="58" t="s">
-        <v>3577</v>
+        <v>3572</v>
       </c>
       <c r="H231" s="58" t="str">
         <f>VLOOKUP(MID(G231,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G231,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G231,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G231,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G231,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G231,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G231,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G231,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G231,25,2),字库代码!B:L,11,TRUE)</f>
@@ -37862,16 +37876,16 @@
     </row>
     <row r="232" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D232" s="58" t="s">
+        <v>2903</v>
+      </c>
+      <c r="E232" s="58" t="s">
         <v>2904</v>
-      </c>
-      <c r="E232" s="58" t="s">
-        <v>2905</v>
       </c>
       <c r="F232" s="58" t="s">
         <v>1363</v>
       </c>
       <c r="G232" s="58" t="s">
-        <v>3576</v>
+        <v>3571</v>
       </c>
       <c r="H232" s="58" t="str">
         <f>VLOOKUP(MID(G232,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G232,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G232,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G232,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G232,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G232,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G232,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G232,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G232,25,2),字库代码!B:L,11,TRUE)</f>
@@ -37880,15 +37894,15 @@
     </row>
     <row r="233" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D233" s="58" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="234" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F234" s="58" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="G234" s="58" t="s">
-        <v>3598</v>
+        <v>3587</v>
       </c>
       <c r="H234" s="58" t="str">
         <f>VLOOKUP(MID(G234,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G234,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G234,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G234,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G234,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G234,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G234,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G234,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G234,25,2),字库代码!B:L,11,TRUE)</f>
@@ -37898,22 +37912,22 @@
     <row r="235" spans="2:8" s="59" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="236" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B236" s="58" t="s">
+        <v>2907</v>
+      </c>
+      <c r="C236" s="58" t="s">
         <v>2908</v>
       </c>
-      <c r="C236" s="58" t="s">
+      <c r="D236" s="58" t="s">
         <v>2909</v>
       </c>
-      <c r="D236" s="58" t="s">
+      <c r="E236" s="58" t="s">
         <v>2910</v>
       </c>
-      <c r="E236" s="58" t="s">
+      <c r="F236" s="58" t="s">
         <v>2911</v>
       </c>
-      <c r="F236" s="58" t="s">
-        <v>2912</v>
-      </c>
       <c r="G236" s="58" t="s">
-        <v>3644</v>
+        <v>3627</v>
       </c>
       <c r="H236" s="58" t="str">
         <f>VLOOKUP(MID(G236,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G236,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G236,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G236,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G236,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G236,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G236,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G236,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G236,25,2),字库代码!B:L,11,TRUE)</f>
@@ -37922,30 +37936,30 @@
     </row>
     <row r="237" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C237" s="58" t="s">
+        <v>2912</v>
+      </c>
+      <c r="D237" s="58" t="s">
         <v>2913</v>
       </c>
-      <c r="D237" s="58" t="s">
+      <c r="E237" s="58" t="s">
         <v>2914</v>
-      </c>
-      <c r="E237" s="58" t="s">
-        <v>2915</v>
       </c>
     </row>
     <row r="238" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C238" s="58" t="s">
-        <v>3563</v>
+        <v>3559</v>
       </c>
       <c r="D238" s="58" t="s">
+        <v>2915</v>
+      </c>
+      <c r="E238" s="58" t="s">
         <v>2916</v>
       </c>
-      <c r="E238" s="58" t="s">
+      <c r="F238" s="58" t="s">
         <v>2917</v>
       </c>
-      <c r="F238" s="58" t="s">
-        <v>2918</v>
-      </c>
       <c r="G238" s="58" t="s">
-        <v>3628</v>
+        <v>3612</v>
       </c>
       <c r="H238" s="58" t="str">
         <f>VLOOKUP(MID(G238,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G238,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G238,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G238,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G238,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G238,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G238,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G238,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G238,25,2),字库代码!B:L,11,TRUE)</f>
@@ -37958,16 +37972,16 @@
         <v>(余生)苏军: 渗透行动</v>
       </c>
       <c r="D239" s="58" t="s">
+        <v>2918</v>
+      </c>
+      <c r="E239" s="58" t="s">
         <v>2919</v>
       </c>
-      <c r="E239" s="58" t="s">
+      <c r="F239" s="58" t="s">
         <v>2920</v>
       </c>
-      <c r="F239" s="58" t="s">
-        <v>2921</v>
-      </c>
       <c r="G239" s="58" t="s">
-        <v>3599</v>
+        <v>3588</v>
       </c>
       <c r="H239" s="58" t="str">
         <f>VLOOKUP(MID(G239,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G239,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G239,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G239,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G239,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G239,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G239,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G239,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G239,25,2),字库代码!B:L,11,TRUE)</f>
@@ -37976,7 +37990,7 @@
     </row>
     <row r="240" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D240" s="58" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="E240" s="58" t="s">
         <v>2628</v>
@@ -37984,10 +37998,10 @@
     </row>
     <row r="241" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F241" s="58" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="G241" s="58" t="s">
-        <v>3600</v>
+        <v>3589</v>
       </c>
       <c r="H241" s="58" t="str">
         <f>VLOOKUP(MID(G241,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G241,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G241,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G241,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G241,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G241,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G241,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G241,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G241,25,2),字库代码!B:L,11,TRUE)</f>
@@ -37997,43 +38011,43 @@
     <row r="242" spans="2:8" s="59" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="243" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B243" s="58" t="s">
+        <v>2923</v>
+      </c>
+      <c r="C243" s="58" t="s">
         <v>2924</v>
       </c>
-      <c r="C243" s="58" t="s">
+      <c r="D243" s="58" t="s">
         <v>2925</v>
       </c>
-      <c r="D243" s="58" t="s">
+      <c r="E243" s="58" t="s">
         <v>2926</v>
       </c>
-      <c r="E243" s="58" t="s">
+      <c r="F243" s="58" t="s">
         <v>2927</v>
       </c>
-      <c r="F243" s="58" t="s">
-        <v>2928</v>
-      </c>
       <c r="G243" s="58" t="s">
-        <v>3623</v>
+        <v>3659</v>
       </c>
       <c r="H243" s="58" t="str">
         <f>VLOOKUP(MID(G243,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G243,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G243,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G243,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G243,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G243,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G243,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G243,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G243,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>盟军猪研制除了一种叫"超时空坦克"的新武器.</v>
+        <v>盟军猪研制除了一种叫"超时空坦克"的武器.</v>
       </c>
     </row>
     <row r="244" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C244" s="58" t="s">
+        <v>2928</v>
+      </c>
+      <c r="D244" s="58" t="s">
         <v>2929</v>
       </c>
-      <c r="D244" s="58" t="s">
+      <c r="E244" s="58" t="s">
         <v>2930</v>
       </c>
-      <c r="E244" s="58" t="s">
+      <c r="F244" s="58" t="s">
         <v>2931</v>
       </c>
-      <c r="F244" s="58" t="s">
-        <v>2932</v>
-      </c>
       <c r="G244" s="58" t="s">
-        <v>3649</v>
+        <v>3630</v>
       </c>
       <c r="H244" s="58" t="str">
         <f>VLOOKUP(MID(G244,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G244,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G244,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G244,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G244,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G244,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G244,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G244,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G244,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38042,13 +38056,13 @@
     </row>
     <row r="245" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C245" s="58" t="s">
-        <v>3564</v>
+        <v>3560</v>
       </c>
       <c r="D245" s="58" t="s">
+        <v>2932</v>
+      </c>
+      <c r="E245" s="58" t="s">
         <v>2933</v>
-      </c>
-      <c r="E245" s="58" t="s">
-        <v>2934</v>
       </c>
     </row>
     <row r="246" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
@@ -38057,16 +38071,16 @@
         <v>(余生)苏军: 测试场</v>
       </c>
       <c r="D246" s="58" t="s">
+        <v>2934</v>
+      </c>
+      <c r="E246" s="58" t="s">
         <v>2935</v>
       </c>
-      <c r="E246" s="58" t="s">
-        <v>2936</v>
-      </c>
       <c r="F246" s="58" t="s">
-        <v>3647</v>
+        <v>3629</v>
       </c>
       <c r="G246" s="58" t="s">
-        <v>3648</v>
+        <v>3660</v>
       </c>
       <c r="H246" s="58" t="str">
         <f>VLOOKUP(MID(G246,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G246,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G246,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G246,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G246,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G246,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G246,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G246,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G246,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38075,54 +38089,54 @@
     </row>
     <row r="247" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D247" s="58" t="s">
+        <v>2936</v>
+      </c>
+      <c r="E247" s="58" t="s">
         <v>2937</v>
       </c>
-      <c r="E247" s="58" t="s">
-        <v>2938</v>
-      </c>
       <c r="F247" s="58" t="s">
-        <v>2939</v>
+        <v>3662</v>
       </c>
       <c r="G247" s="58" t="s">
-        <v>3601</v>
+        <v>3590</v>
       </c>
       <c r="H247" s="58" t="str">
         <f>VLOOKUP(MID(G247,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G247,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G247,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G247,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G247,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G247,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G247,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G247,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G247,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>有无新武器,岛都是我们的.</v>
+        <v>无论如何,岛都是我们的.</v>
       </c>
     </row>
     <row r="248" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D248" s="58" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="E248" s="58" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="249" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D249" s="58" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
       <c r="F249" s="58" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="G249" s="58" t="s">
-        <v>3571</v>
+        <v>3665</v>
       </c>
       <c r="H249" s="58" t="str">
         <f>VLOOKUP(MID(G249,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G249,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G249,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G249,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G249,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G249,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G249,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G249,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G249,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>建立基地。盟军有山脉屏障,别让它阻碍你,清除</v>
+        <v>建立基地,盟军有山脉屏障,别让它阻碍你,清除</v>
       </c>
     </row>
     <row r="250" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D250" s="58" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="F250" s="58" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
       <c r="G250" s="58" t="s">
-        <v>3602</v>
+        <v>3591</v>
       </c>
       <c r="H250" s="58" t="str">
         <f>VLOOKUP(MID(G250,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G250,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G250,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G250,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G250,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G250,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G250,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G250,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G250,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38132,68 +38146,68 @@
     <row r="251" spans="2:8" s="59" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="252" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B252" s="58" t="s">
+        <v>2944</v>
+      </c>
+      <c r="C252" s="58" t="s">
+        <v>2945</v>
+      </c>
+      <c r="D252" s="58" t="s">
         <v>2946</v>
       </c>
-      <c r="C252" s="58" t="s">
+      <c r="E252" s="58" t="s">
         <v>2947</v>
       </c>
-      <c r="D252" s="58" t="s">
-        <v>2948</v>
-      </c>
-      <c r="E252" s="58" t="s">
-        <v>2949</v>
-      </c>
       <c r="F252" s="58" t="s">
-        <v>3541</v>
+        <v>3647</v>
       </c>
       <c r="G252" s="58" t="s">
-        <v>3603</v>
+        <v>3592</v>
       </c>
       <c r="H252" s="58" t="str">
         <f>VLOOKUP(MID(G252,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G252,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G252,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G252,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G252,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G252,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G252,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G252,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G252,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>激进派打算使用生物武器,但它极不稳定,一旦泄露,</v>
+        <v>激进派打算用生物武器,对付盟军,但它极不稳定,</v>
       </c>
     </row>
     <row r="253" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C253" s="58" t="s">
+        <v>2948</v>
+      </c>
+      <c r="D253" s="58" t="s">
+        <v>2949</v>
+      </c>
+      <c r="E253" s="58" t="s">
         <v>2950</v>
       </c>
-      <c r="D253" s="58" t="s">
-        <v>2951</v>
-      </c>
-      <c r="E253" s="58" t="s">
-        <v>2952</v>
-      </c>
       <c r="F253" s="58" t="s">
-        <v>3540</v>
+        <v>3648</v>
       </c>
       <c r="G253" s="58" t="s">
-        <v>3604</v>
+        <v>3593</v>
       </c>
       <c r="H253" s="58" t="str">
         <f>VLOOKUP(MID(G253,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G253,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G253,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G253,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G253,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G253,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G253,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G253,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G253,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>全军覆灭.</v>
+        <v>一旦泄露,全军覆灭.</v>
       </c>
     </row>
     <row r="254" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C254" s="58" t="s">
-        <v>3565</v>
+        <v>3561</v>
       </c>
       <c r="D254" s="58" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
       <c r="E254" s="58" t="s">
-        <v>2954</v>
+        <v>2952</v>
       </c>
       <c r="F254" s="58" t="s">
-        <v>3542</v>
+        <v>3538</v>
       </c>
       <c r="G254" s="58" t="s">
-        <v>3630</v>
+        <v>3613</v>
       </c>
       <c r="H254" s="58" t="str">
         <f>VLOOKUP(MID(G254,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G254,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G254,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G254,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G254,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G254,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G254,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G254,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G254,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>摧毁海岛防御,让科学家去研究所中和生物武器,</v>
+        <v>摧毁海岛防御,让科学家去研究所中和生物,</v>
       </c>
     </row>
     <row r="255" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
@@ -38202,16 +38216,16 @@
         <v>(余生)苏军: 十万火急</v>
       </c>
       <c r="D255" s="58" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="E255" s="58" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="F255" s="58" t="s">
-        <v>3626</v>
+        <v>3610</v>
       </c>
       <c r="G255" s="58" t="s">
-        <v>3632</v>
+        <v>3615</v>
       </c>
       <c r="H255" s="58" t="str">
         <f>VLOOKUP(MID(G255,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G255,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G255,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G255,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G255,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G255,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G255,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G255,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G255,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38220,52 +38234,52 @@
     </row>
     <row r="256" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D256" s="58" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
       <c r="E256" s="58" t="s">
-        <v>2958</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="257" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D257" s="58" t="s">
-        <v>2959</v>
+        <v>2957</v>
       </c>
       <c r="E257" s="58" t="s">
-        <v>2960</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="258" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D258" s="58" t="s">
-        <v>2961</v>
+        <v>2959</v>
       </c>
       <c r="E258" s="58" t="s">
-        <v>2962</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="259" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D259" s="58" t="s">
-        <v>2963</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="260" spans="2:8" s="59" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="261" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B261" s="58" t="s">
+        <v>2962</v>
+      </c>
+      <c r="C261" s="58" t="s">
+        <v>2963</v>
+      </c>
+      <c r="D261" s="58" t="s">
         <v>2964</v>
       </c>
-      <c r="C261" s="58" t="s">
+      <c r="E261" s="58" t="s">
         <v>2965</v>
       </c>
-      <c r="D261" s="58" t="s">
-        <v>2966</v>
-      </c>
-      <c r="E261" s="58" t="s">
-        <v>2967</v>
-      </c>
       <c r="F261" s="58" t="s">
-        <v>3543</v>
+        <v>3539</v>
       </c>
       <c r="G261" s="58" t="s">
-        <v>3625</v>
+        <v>3609</v>
       </c>
       <c r="H261" s="58" t="str">
         <f>VLOOKUP(MID(G261,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G261,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G261,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G261,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G261,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G261,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G261,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G261,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G261,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38274,19 +38288,19 @@
     </row>
     <row r="262" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C262" s="58" t="s">
+        <v>2966</v>
+      </c>
+      <c r="D262" s="58" t="s">
+        <v>2967</v>
+      </c>
+      <c r="E262" s="58" t="s">
         <v>2968</v>
       </c>
-      <c r="D262" s="58" t="s">
-        <v>2969</v>
-      </c>
-      <c r="E262" s="58" t="s">
-        <v>2970</v>
-      </c>
       <c r="F262" s="58" t="s">
-        <v>3544</v>
+        <v>3540</v>
       </c>
       <c r="G262" s="58" t="s">
-        <v>3605</v>
+        <v>3594</v>
       </c>
       <c r="H262" s="58" t="str">
         <f>VLOOKUP(MID(G262,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G262,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G262,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G262,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G262,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G262,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G262,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G262,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G262,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38295,19 +38309,19 @@
     </row>
     <row r="263" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C263" s="58" t="s">
-        <v>3566</v>
+        <v>3562</v>
       </c>
       <c r="D263" s="58" t="s">
-        <v>2971</v>
+        <v>2969</v>
       </c>
       <c r="E263" s="58" t="s">
-        <v>2972</v>
+        <v>2970</v>
       </c>
       <c r="F263" s="58" t="s">
-        <v>3634</v>
+        <v>3617</v>
       </c>
       <c r="G263" s="58" t="s">
-        <v>3635</v>
+        <v>3618</v>
       </c>
       <c r="H263" s="58" t="str">
         <f>VLOOKUP(MID(G263,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G263,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G263,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G263,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G263,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G263,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G263,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G263,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G263,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38320,16 +38334,16 @@
         <v>(余生)苏军: 别喝水</v>
       </c>
       <c r="D264" s="58" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
       <c r="E264" s="58" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="F264" s="58" t="s">
-        <v>3545</v>
+        <v>3541</v>
       </c>
       <c r="G264" s="58" t="s">
-        <v>3606</v>
+        <v>3595</v>
       </c>
       <c r="H264" s="58" t="str">
         <f>VLOOKUP(MID(G264,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G264,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G264,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G264,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G264,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G264,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G264,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G264,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G264,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38338,52 +38352,52 @@
     </row>
     <row r="265" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D265" s="58" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="E265" s="58" t="s">
-        <v>2976</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="266" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D266" s="58" t="s">
-        <v>2977</v>
+        <v>2975</v>
       </c>
       <c r="E266" s="58" t="s">
-        <v>2978</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="267" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D267" s="58" t="s">
-        <v>2979</v>
+        <v>2977</v>
       </c>
       <c r="E267" s="58" t="s">
-        <v>2980</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="268" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D268" s="58" t="s">
-        <v>2981</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="269" spans="2:8" s="59" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="270" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B270" s="58" t="s">
+        <v>2980</v>
+      </c>
+      <c r="C270" s="58" t="s">
+        <v>2981</v>
+      </c>
+      <c r="D270" s="58" t="s">
         <v>2982</v>
       </c>
-      <c r="C270" s="58" t="s">
+      <c r="E270" s="58" t="s">
         <v>2983</v>
       </c>
-      <c r="D270" s="58" t="s">
-        <v>2984</v>
-      </c>
-      <c r="E270" s="58" t="s">
-        <v>2985</v>
-      </c>
       <c r="F270" s="58" t="s">
-        <v>3546</v>
+        <v>3542</v>
       </c>
       <c r="G270" s="58" t="s">
-        <v>3572</v>
+        <v>3567</v>
       </c>
       <c r="H270" s="58" t="str">
         <f>VLOOKUP(MID(G270,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G270,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G270,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G270,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G270,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G270,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G270,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G270,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G270,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38392,19 +38406,19 @@
     </row>
     <row r="271" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C271" s="58" t="s">
+        <v>2984</v>
+      </c>
+      <c r="D271" s="58" t="s">
+        <v>2985</v>
+      </c>
+      <c r="E271" s="58" t="s">
         <v>2986</v>
       </c>
-      <c r="D271" s="58" t="s">
-        <v>2987</v>
-      </c>
-      <c r="E271" s="58" t="s">
-        <v>2988</v>
-      </c>
       <c r="F271" s="58" t="s">
-        <v>3547</v>
+        <v>3543</v>
       </c>
       <c r="G271" s="58" t="s">
-        <v>3607</v>
+        <v>3596</v>
       </c>
       <c r="H271" s="58" t="str">
         <f>VLOOKUP(MID(G271,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G271,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G271,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G271,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G271,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G271,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G271,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G271,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G271,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38413,19 +38427,19 @@
     </row>
     <row r="272" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C272" s="58" t="s">
-        <v>3567</v>
+        <v>3563</v>
       </c>
       <c r="D272" s="58" t="s">
-        <v>2989</v>
+        <v>2987</v>
       </c>
       <c r="E272" s="58" t="s">
-        <v>2990</v>
+        <v>2988</v>
       </c>
       <c r="F272" s="58" t="s">
-        <v>3548</v>
+        <v>3544</v>
       </c>
       <c r="G272" s="58" t="s">
-        <v>3573</v>
+        <v>3568</v>
       </c>
       <c r="H272" s="58" t="str">
         <f>VLOOKUP(MID(G272,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G272,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G272,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G272,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G272,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G272,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G272,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G272,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G272,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38438,16 +38452,16 @@
         <v xml:space="preserve">(余生)苏军: 兄弟连 </v>
       </c>
       <c r="D273" s="58" t="s">
-        <v>2991</v>
+        <v>2989</v>
       </c>
       <c r="E273" s="58" t="s">
-        <v>2992</v>
+        <v>2990</v>
       </c>
       <c r="F273" s="58" t="s">
-        <v>3549</v>
+        <v>3545</v>
       </c>
       <c r="G273" s="58" t="s">
-        <v>3574</v>
+        <v>3569</v>
       </c>
       <c r="H273" s="58" t="str">
         <f>VLOOKUP(MID(G273,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G273,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G273,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G273,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G273,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G273,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G273,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G273,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G273,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38456,16 +38470,16 @@
     </row>
     <row r="274" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D274" s="58" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
       <c r="E274" s="58" t="s">
-        <v>2994</v>
+        <v>2992</v>
       </c>
       <c r="F274" s="58" t="s">
-        <v>3550</v>
+        <v>3546</v>
       </c>
       <c r="G274" s="58" t="s">
-        <v>3608</v>
+        <v>3597</v>
       </c>
       <c r="H274" s="58" t="str">
         <f>VLOOKUP(MID(G274,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G274,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G274,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G274,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G274,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G274,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G274,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G274,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G274,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38474,39 +38488,39 @@
     </row>
     <row r="275" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D275" s="58" t="s">
-        <v>2995</v>
+        <v>2993</v>
       </c>
       <c r="E275" s="58" t="s">
-        <v>2996</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="276" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D276" s="58" t="s">
-        <v>2997</v>
+        <v>2995</v>
       </c>
       <c r="E276" s="58" t="s">
-        <v>2998</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="277" spans="2:8" s="59" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="278" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B278" s="58" t="s">
+        <v>2997</v>
+      </c>
+      <c r="C278" s="58" t="s">
+        <v>2998</v>
+      </c>
+      <c r="D278" s="58" t="s">
         <v>2999</v>
       </c>
-      <c r="C278" s="58" t="s">
+      <c r="E278" s="58" t="s">
         <v>3000</v>
       </c>
-      <c r="D278" s="58" t="s">
-        <v>3001</v>
-      </c>
-      <c r="E278" s="58" t="s">
-        <v>3002</v>
-      </c>
       <c r="F278" s="58" t="s">
-        <v>3551</v>
+        <v>3547</v>
       </c>
       <c r="G278" s="58" t="s">
-        <v>3610</v>
+        <v>3599</v>
       </c>
       <c r="H278" s="58" t="str">
         <f>VLOOKUP(MID(G278,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G278,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G278,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G278,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G278,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G278,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G278,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G278,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G278,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38515,19 +38529,19 @@
     </row>
     <row r="279" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C279" s="58" t="s">
+        <v>3001</v>
+      </c>
+      <c r="D279" s="58" t="s">
+        <v>3002</v>
+      </c>
+      <c r="E279" s="58" t="s">
         <v>3003</v>
       </c>
-      <c r="D279" s="58" t="s">
-        <v>3004</v>
-      </c>
-      <c r="E279" s="58" t="s">
-        <v>3005</v>
-      </c>
       <c r="F279" s="58" t="s">
-        <v>3552</v>
+        <v>3548</v>
       </c>
       <c r="G279" s="58" t="s">
-        <v>3641</v>
+        <v>3624</v>
       </c>
       <c r="H279" s="58" t="str">
         <f>VLOOKUP(MID(G279,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G279,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G279,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G279,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G279,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G279,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G279,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G279,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G279,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38536,19 +38550,19 @@
     </row>
     <row r="280" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C280" s="58" t="s">
-        <v>3568</v>
+        <v>3564</v>
       </c>
       <c r="D280" s="58" t="s">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="E280" s="58" t="s">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="F280" s="58" t="s">
-        <v>3553</v>
+        <v>3549</v>
       </c>
       <c r="G280" s="58" t="s">
-        <v>3575</v>
+        <v>3570</v>
       </c>
       <c r="H280" s="58" t="str">
         <f>VLOOKUP(MID(G280,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G280,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G280,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G280,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G280,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G280,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G280,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G280,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G280,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38561,16 +38575,16 @@
         <v>(余生)苏军: 解救人质</v>
       </c>
       <c r="D281" s="58" t="s">
-        <v>3008</v>
+        <v>3006</v>
       </c>
       <c r="E281" s="58" t="s">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="F281" s="58" t="s">
-        <v>3612</v>
+        <v>3601</v>
       </c>
       <c r="G281" s="58" t="s">
-        <v>3611</v>
+        <v>3600</v>
       </c>
       <c r="H281" s="58" t="str">
         <f>VLOOKUP(MID(G281,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G281,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G281,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G281,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G281,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G281,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G281,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G281,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G281,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38579,16 +38593,16 @@
     </row>
     <row r="282" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D282" s="58" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="E282" s="58" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="F282" s="58" t="s">
-        <v>3554</v>
+        <v>3550</v>
       </c>
       <c r="G282" s="58" t="s">
-        <v>3651</v>
+        <v>3668</v>
       </c>
       <c r="H282" s="58" t="str">
         <f>VLOOKUP(MID(G282,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38597,47 +38611,47 @@
     </row>
     <row r="283" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D283" s="58" t="s">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="E283" s="58" t="s">
-        <v>3013</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="284" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D284" s="58" t="s">
-        <v>3014</v>
+        <v>3012</v>
       </c>
       <c r="E284" s="58" t="s">
-        <v>3015</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="285" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D285" s="58" t="s">
-        <v>3016</v>
+        <v>3014</v>
       </c>
       <c r="E285" s="58" t="s">
-        <v>3017</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="286" spans="2:8" s="59" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="287" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B287" s="58" t="s">
+        <v>3016</v>
+      </c>
+      <c r="C287" s="58" t="s">
+        <v>3017</v>
+      </c>
+      <c r="D287" s="58" t="s">
         <v>3018</v>
       </c>
-      <c r="C287" s="58" t="s">
+      <c r="E287" s="58" t="s">
         <v>3019</v>
       </c>
-      <c r="D287" s="58" t="s">
-        <v>3020</v>
-      </c>
-      <c r="E287" s="58" t="s">
-        <v>3021</v>
-      </c>
       <c r="F287" s="58" t="s">
-        <v>3555</v>
+        <v>3551</v>
       </c>
       <c r="G287" s="58" t="s">
-        <v>3640</v>
+        <v>3623</v>
       </c>
       <c r="H287" s="58" t="str">
         <f>VLOOKUP(MID(G287,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G287,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G287,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G287,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G287,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G287,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G287,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G287,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G287,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38646,40 +38660,40 @@
     </row>
     <row r="288" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C288" s="58" t="s">
+        <v>3020</v>
+      </c>
+      <c r="D288" s="58" t="s">
+        <v>3021</v>
+      </c>
+      <c r="E288" s="58" t="s">
         <v>3022</v>
       </c>
-      <c r="D288" s="58" t="s">
-        <v>3023</v>
-      </c>
-      <c r="E288" s="58" t="s">
-        <v>3024</v>
-      </c>
       <c r="F288" s="58" t="s">
-        <v>3556</v>
+        <v>3552</v>
       </c>
       <c r="G288" s="58" t="s">
-        <v>3613</v>
+        <v>3667</v>
       </c>
       <c r="H288" s="58" t="str">
         <f>VLOOKUP(MID(G288,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G288,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G288,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G288,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G288,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G288,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G288,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G288,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G288,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>派遣武装,消灭反对者.据说当地平民拥有武装,</v>
+        <v>派遣武装,消灭反对者.据说当地平民拥有武器,</v>
       </c>
     </row>
     <row r="289" spans="3:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C289" s="58" t="s">
-        <v>3638</v>
+        <v>3621</v>
       </c>
       <c r="D289" s="58" t="s">
-        <v>3025</v>
+        <v>3023</v>
       </c>
       <c r="E289" s="58" t="s">
-        <v>3026</v>
+        <v>3024</v>
       </c>
       <c r="F289" s="58" t="s">
-        <v>3557</v>
+        <v>3553</v>
       </c>
       <c r="G289" s="58" t="s">
-        <v>3614</v>
+        <v>3602</v>
       </c>
       <c r="H289" s="58" t="str">
         <f>VLOOKUP(MID(G289,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G289,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G289,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G289,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G289,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G289,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G289,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G289,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G289,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38692,16 +38706,16 @@
         <v>(余生)苏军: 格伦耶夫省革命</v>
       </c>
       <c r="D290" s="58" t="s">
-        <v>3027</v>
+        <v>3025</v>
       </c>
       <c r="E290" s="58" t="s">
-        <v>3028</v>
+        <v>3026</v>
       </c>
       <c r="F290" s="58" t="s">
-        <v>3558</v>
+        <v>3554</v>
       </c>
       <c r="G290" s="58" t="s">
-        <v>3615</v>
+        <v>3603</v>
       </c>
       <c r="H290" s="58" t="str">
         <f>VLOOKUP(MID(G290,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G290,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G290,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G290,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G290,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G290,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G290,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G290,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G290,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38710,23 +38724,23 @@
     </row>
     <row r="291" spans="3:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D291" s="58" t="s">
-        <v>3029</v>
+        <v>3027</v>
       </c>
       <c r="E291" s="58" t="s">
-        <v>3030</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="292" spans="3:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D292" s="58" t="s">
-        <v>3031</v>
+        <v>3029</v>
       </c>
       <c r="E292" s="58" t="s">
-        <v>3032</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="293" spans="3:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E293" s="58" t="s">
-        <v>3033</v>
+        <v>3031</v>
       </c>
     </row>
   </sheetData>
@@ -38741,10 +38755,10 @@
   <dimension ref="A1:O257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L203" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L242" sqref="L242"/>
+      <selection pane="bottomRight" activeCell="L204" sqref="L204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -38772,37 +38786,37 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3032</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3033</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3034</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>3035</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>3036</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3037</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>3038</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>3039</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>3040</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="56" t="s">
+        <v>3555</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>3041</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>3042</v>
-      </c>
-      <c r="L1" s="56" t="s">
-        <v>3559</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>3043</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -38821,7 +38835,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3044</v>
+        <v>3042</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>808</v>
@@ -38830,7 +38844,7 @@
         <v>808</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>3045</v>
+        <v>3043</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>808</v>
@@ -38850,7 +38864,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3046</v>
+        <v>3044</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>981</v>
@@ -38859,7 +38873,7 @@
         <v>981</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>981</v>
@@ -38879,28 +38893,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>3046</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3047</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3047</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>3048</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>3049</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>3049</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>3050</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
@@ -38908,28 +38922,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>3049</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>3051</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>3052</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>3052</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>3053</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>3052</v>
+        <v>3050</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>3052</v>
+        <v>3050</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>3052</v>
+        <v>3050</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>3052</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
@@ -38937,7 +38951,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>179</v>
@@ -38946,7 +38960,7 @@
         <v>179</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>3055</v>
+        <v>3053</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>179</v>
@@ -38963,28 +38977,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3055</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>3056</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3057</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>3057</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>3058</v>
-      </c>
       <c r="I8" s="3" t="s">
-        <v>3057</v>
+        <v>3055</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>3057</v>
+        <v>3055</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>3057</v>
+        <v>3055</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>3057</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
@@ -38992,7 +39006,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3059</v>
+        <v>3057</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>199</v>
@@ -39001,7 +39015,7 @@
         <v>199</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>3060</v>
+        <v>3058</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>199</v>
@@ -39021,7 +39035,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3061</v>
+        <v>3059</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>802</v>
@@ -39030,7 +39044,7 @@
         <v>802</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>3062</v>
+        <v>3060</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>802</v>
@@ -39050,28 +39064,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>720</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
@@ -39079,28 +39093,28 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3065</v>
+        <v>3063</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>3064</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>3064</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>3066</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
@@ -39108,28 +39122,28 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>3065</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3066</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>3067</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>3068</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>3068</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>3069</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
@@ -39137,19 +39151,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>3068</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>3069</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>3070</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>3071</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3072</v>
-      </c>
       <c r="K14" s="3" t="s">
-        <v>3072</v>
+        <v>3070</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>3072</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
@@ -39157,28 +39171,28 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>3066</v>
+        <v>3064</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
@@ -39186,28 +39200,28 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>3073</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>3074</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>3074</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>3075</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>3076</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>3076</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>3077</v>
-      </c>
       <c r="I16" s="3" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
@@ -39215,28 +39229,28 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>3076</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3077</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>3077</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>3078</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3079</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>3079</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>3080</v>
-      </c>
       <c r="I17" s="3" t="s">
-        <v>3079</v>
+        <v>3077</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>3079</v>
+        <v>3077</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>3079</v>
+        <v>3077</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>3079</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
@@ -39248,25 +39262,25 @@
         <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>3081</v>
+        <v>3079</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>3081</v>
+        <v>3079</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>3082</v>
+        <v>3080</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>3081</v>
+        <v>3079</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>3081</v>
+        <v>3079</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>3081</v>
+        <v>3079</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>3081</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
@@ -39278,25 +39292,25 @@
         <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>3083</v>
+        <v>3081</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>3083</v>
+        <v>3081</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>3083</v>
+        <v>3081</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>3083</v>
+        <v>3081</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>3083</v>
+        <v>3081</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>3083</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
@@ -39314,7 +39328,7 @@
         <v>211</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>3085</v>
+        <v>3083</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>211</v>
@@ -39344,7 +39358,7 @@
         <v>217</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>3086</v>
+        <v>3084</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>217</v>
@@ -39374,7 +39388,7 @@
         <v>214</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>3087</v>
+        <v>3085</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>214</v>
@@ -39398,25 +39412,25 @@
         <v>15</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>3088</v>
+        <v>3086</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>3088</v>
+        <v>3086</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>3088</v>
+        <v>3086</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>3088</v>
+        <v>3086</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>3088</v>
+        <v>3086</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>3088</v>
+        <v>3086</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>3088</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
@@ -39424,28 +39438,28 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3089</v>
+        <v>3087</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
@@ -39457,25 +39471,25 @@
         <v>17</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>3091</v>
+        <v>3089</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>3091</v>
+        <v>3089</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>3092</v>
+        <v>3090</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>3091</v>
+        <v>3089</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>3091</v>
+        <v>3089</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>3091</v>
+        <v>3089</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>3091</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
@@ -39487,25 +39501,25 @@
         <v>18</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>3094</v>
+        <v>3092</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
@@ -39523,10 +39537,10 @@
         <v>37</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>3095</v>
+        <v>3093</v>
       </c>
       <c r="I27" s="56" t="s">
-        <v>3539</v>
+        <v>3537</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>37</v>
@@ -39553,7 +39567,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>3096</v>
+        <v>3094</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>18</v>
@@ -39586,7 +39600,7 @@
         <v>40</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>3097</v>
+        <v>3095</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>40</v>
@@ -39601,7 +39615,7 @@
         <v>40</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>3098</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
@@ -39619,7 +39633,7 @@
         <v>56</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>3099</v>
+        <v>3097</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>56</v>
@@ -39643,25 +39657,25 @@
         <v>1D</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>3100</v>
+        <v>3098</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>3100</v>
+        <v>3098</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>3101</v>
+        <v>3099</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>3100</v>
+        <v>3098</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>3100</v>
+        <v>3098</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>3100</v>
+        <v>3098</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>3100</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
@@ -39679,7 +39693,7 @@
         <v>59</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>3102</v>
+        <v>3100</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>59</v>
@@ -39703,25 +39717,25 @@
         <v>1F</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>3103</v>
+        <v>3101</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>3103</v>
+        <v>3101</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>3104</v>
+        <v>3102</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>3103</v>
+        <v>3101</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>3103</v>
+        <v>3101</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>3103</v>
+        <v>3101</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>3103</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
@@ -39733,22 +39747,22 @@
         <v>20</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>3105</v>
+        <v>3103</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>3105</v>
+        <v>3103</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>3105</v>
+        <v>3103</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>3105</v>
+        <v>3103</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>3106</v>
+        <v>3104</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>3106</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
@@ -39760,28 +39774,28 @@
         <v>21</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>3107</v>
+        <v>3105</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>3107</v>
+        <v>3105</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>3107</v>
+        <v>3105</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>3107</v>
+        <v>3105</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>3107</v>
+        <v>3105</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>3107</v>
+        <v>3105</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>3107</v>
+        <v>3105</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>3107</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
@@ -39793,28 +39807,28 @@
         <v>22</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>3108</v>
+        <v>3106</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>3108</v>
+        <v>3106</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>3108</v>
+        <v>3106</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>3108</v>
+        <v>3106</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>3108</v>
+        <v>3106</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>3108</v>
+        <v>3106</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>3108</v>
+        <v>3106</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>3108</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
@@ -39826,28 +39840,28 @@
         <v>23</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
@@ -39859,28 +39873,28 @@
         <v>24</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>3110</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
@@ -39892,28 +39906,28 @@
         <v>25</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>3111</v>
+        <v>3109</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>3111</v>
+        <v>3109</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>3111</v>
+        <v>3109</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>3111</v>
+        <v>3109</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>3111</v>
+        <v>3109</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>3111</v>
+        <v>3109</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>3111</v>
+        <v>3109</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>3111</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
@@ -39925,28 +39939,28 @@
         <v>26</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>3112</v>
+        <v>3110</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>3112</v>
+        <v>3110</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>3112</v>
+        <v>3110</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>3112</v>
+        <v>3110</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>3112</v>
+        <v>3110</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>3112</v>
+        <v>3110</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>3112</v>
+        <v>3110</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>3112</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
@@ -39958,28 +39972,28 @@
         <v>27</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="D41" s="54" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="E41" s="54" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="G41" s="54" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="I41" s="54" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="J41" s="54" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="K41" s="54" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="L41" s="54" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
@@ -39991,28 +40005,28 @@
         <v>28</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>3114</v>
+        <v>3112</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>3114</v>
+        <v>3112</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>3114</v>
+        <v>3112</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>3114</v>
+        <v>3112</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>3114</v>
+        <v>3112</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>3114</v>
+        <v>3112</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>3114</v>
+        <v>3112</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>3114</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
@@ -40024,28 +40038,28 @@
         <v>29</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>3115</v>
+        <v>3113</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>3115</v>
+        <v>3113</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>3115</v>
+        <v>3113</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>3115</v>
+        <v>3113</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>3115</v>
+        <v>3113</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>3115</v>
+        <v>3113</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>3115</v>
+        <v>3113</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>3115</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
@@ -40057,28 +40071,28 @@
         <v>2A</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>3116</v>
+        <v>3114</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>3116</v>
+        <v>3114</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>3116</v>
+        <v>3114</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>3116</v>
+        <v>3114</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>3116</v>
+        <v>3114</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>3116</v>
+        <v>3114</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>3116</v>
+        <v>3114</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>3116</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
@@ -40090,28 +40104,28 @@
         <v>2B</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>3117</v>
+        <v>3115</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>3117</v>
+        <v>3115</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>3117</v>
+        <v>3115</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>3117</v>
+        <v>3115</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>3117</v>
+        <v>3115</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>3117</v>
+        <v>3115</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>3117</v>
+        <v>3115</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>3117</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
@@ -40123,28 +40137,28 @@
         <v>2C</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
@@ -40156,28 +40170,28 @@
         <v>2D</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>3119</v>
+        <v>3117</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>3119</v>
+        <v>3117</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>3119</v>
+        <v>3117</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>3119</v>
+        <v>3117</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>3119</v>
+        <v>3117</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>3119</v>
+        <v>3117</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>3119</v>
+        <v>3117</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>3119</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
@@ -40189,28 +40203,28 @@
         <v>2E</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>3120</v>
+        <v>3118</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>3120</v>
+        <v>3118</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>3120</v>
+        <v>3118</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>3120</v>
+        <v>3118</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>3120</v>
+        <v>3118</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>3120</v>
+        <v>3118</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>3120</v>
+        <v>3118</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>3120</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
@@ -40222,28 +40236,28 @@
         <v>2F</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>3121</v>
+        <v>3119</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>3121</v>
+        <v>3119</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>3121</v>
+        <v>3119</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>3121</v>
+        <v>3119</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>3121</v>
+        <v>3119</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>3121</v>
+        <v>3119</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>3121</v>
+        <v>3119</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>3121</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
@@ -40255,28 +40269,28 @@
         <v>30</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>3122</v>
+        <v>3120</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>3122</v>
+        <v>3120</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>3122</v>
+        <v>3120</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>3122</v>
+        <v>3120</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>3122</v>
+        <v>3120</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>3122</v>
+        <v>3120</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>3122</v>
+        <v>3120</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>3122</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.15">
@@ -40288,28 +40302,28 @@
         <v>31</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>3123</v>
+        <v>3121</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>3123</v>
+        <v>3121</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>3123</v>
+        <v>3121</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>3123</v>
+        <v>3121</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>3123</v>
+        <v>3121</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>3123</v>
+        <v>3121</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>3123</v>
+        <v>3121</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>3123</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
@@ -40321,28 +40335,28 @@
         <v>32</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>3124</v>
+        <v>3122</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>3124</v>
+        <v>3122</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>3124</v>
+        <v>3122</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>3124</v>
+        <v>3122</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>3124</v>
+        <v>3122</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>3124</v>
+        <v>3122</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>3124</v>
+        <v>3122</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>3124</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
@@ -40354,28 +40368,28 @@
         <v>33</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>3125</v>
+        <v>3123</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>3125</v>
+        <v>3123</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>3125</v>
+        <v>3123</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>3125</v>
+        <v>3123</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>3125</v>
+        <v>3123</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>3125</v>
+        <v>3123</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>3125</v>
+        <v>3123</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>3125</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
@@ -40387,28 +40401,28 @@
         <v>34</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>3126</v>
+        <v>3124</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>3126</v>
+        <v>3124</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>3126</v>
+        <v>3124</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>3126</v>
+        <v>3124</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>3126</v>
+        <v>3124</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>3126</v>
+        <v>3124</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>3126</v>
+        <v>3124</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>3126</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
@@ -40420,28 +40434,28 @@
         <v>35</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>3127</v>
+        <v>3125</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>3127</v>
+        <v>3125</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>3127</v>
+        <v>3125</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>3127</v>
+        <v>3125</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>3127</v>
+        <v>3125</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>3127</v>
+        <v>3125</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>3127</v>
+        <v>3125</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>3127</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
@@ -40453,28 +40467,28 @@
         <v>36</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>3128</v>
+        <v>3126</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>3128</v>
+        <v>3126</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>3128</v>
+        <v>3126</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>3128</v>
+        <v>3126</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>3128</v>
+        <v>3126</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>3128</v>
+        <v>3126</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>3128</v>
+        <v>3126</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>3128</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
@@ -40486,28 +40500,28 @@
         <v>37</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>3129</v>
+        <v>3127</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>3129</v>
+        <v>3127</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>3129</v>
+        <v>3127</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>3129</v>
+        <v>3127</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>3129</v>
+        <v>3127</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>3129</v>
+        <v>3127</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>3129</v>
+        <v>3127</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>3129</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
@@ -40519,28 +40533,28 @@
         <v>38</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>3130</v>
+        <v>3128</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>3130</v>
+        <v>3128</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>3130</v>
+        <v>3128</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>3130</v>
+        <v>3128</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>3130</v>
+        <v>3128</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>3130</v>
+        <v>3128</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>3130</v>
+        <v>3128</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>3130</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
@@ -40552,28 +40566,28 @@
         <v>39</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>3131</v>
+        <v>3129</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>3131</v>
+        <v>3129</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>3131</v>
+        <v>3129</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>3131</v>
+        <v>3129</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>3131</v>
+        <v>3129</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>3131</v>
+        <v>3129</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>3131</v>
+        <v>3129</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>3131</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
@@ -40585,28 +40599,28 @@
         <v>3A</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>3132</v>
+        <v>3130</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>3132</v>
+        <v>3130</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>3132</v>
+        <v>3130</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>3132</v>
+        <v>3130</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>3132</v>
+        <v>3130</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>3132</v>
+        <v>3130</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>3132</v>
+        <v>3130</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>3132</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
@@ -40618,28 +40632,28 @@
         <v>3B</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>3133</v>
+        <v>3131</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>3133</v>
+        <v>3131</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>3133</v>
+        <v>3131</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>3133</v>
+        <v>3131</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>3133</v>
+        <v>3131</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>3133</v>
+        <v>3131</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>3133</v>
+        <v>3131</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>3133</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
@@ -40651,28 +40665,28 @@
         <v>3C</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>3134</v>
+        <v>3132</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>3134</v>
+        <v>3132</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>3134</v>
+        <v>3132</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>3134</v>
+        <v>3132</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>3134</v>
+        <v>3132</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>3134</v>
+        <v>3132</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>3134</v>
+        <v>3132</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>3134</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.15">
@@ -40684,28 +40698,28 @@
         <v>3D</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>3135</v>
+        <v>3133</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>3135</v>
+        <v>3133</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>3135</v>
+        <v>3133</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>3135</v>
+        <v>3133</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>3135</v>
+        <v>3133</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>3135</v>
+        <v>3133</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>3135</v>
+        <v>3133</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>3135</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.15">
@@ -40717,28 +40731,28 @@
         <v>3E</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>3136</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.15">
@@ -40750,28 +40764,28 @@
         <v>3F</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>3137</v>
+        <v>3135</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>3137</v>
+        <v>3135</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>3137</v>
+        <v>3135</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>3137</v>
+        <v>3135</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>3137</v>
+        <v>3135</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>3137</v>
+        <v>3135</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>3137</v>
+        <v>3135</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>3137</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
@@ -40783,28 +40797,28 @@
         <v>40</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>3138</v>
+        <v>3136</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>3138</v>
+        <v>3136</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>3138</v>
+        <v>3136</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>3138</v>
+        <v>3136</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>3138</v>
+        <v>3136</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>3138</v>
+        <v>3136</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>3138</v>
+        <v>3136</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>3138</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.15">
@@ -40816,28 +40830,28 @@
         <v>41</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>3139</v>
+        <v>3137</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>3139</v>
+        <v>3137</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>3139</v>
+        <v>3137</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>3139</v>
+        <v>3137</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>3139</v>
+        <v>3137</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>3139</v>
+        <v>3137</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>3139</v>
+        <v>3137</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>3139</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.15">
@@ -40849,28 +40863,28 @@
         <v>42</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>3140</v>
+        <v>3138</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>3140</v>
+        <v>3138</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>3140</v>
+        <v>3138</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>3140</v>
+        <v>3138</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>3140</v>
+        <v>3138</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>3140</v>
+        <v>3138</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>3140</v>
+        <v>3138</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>3140</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
@@ -40882,28 +40896,28 @@
         <v>43</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>3141</v>
+        <v>3139</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>3141</v>
+        <v>3139</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>3141</v>
+        <v>3139</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>3141</v>
+        <v>3139</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>3141</v>
+        <v>3139</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>3141</v>
+        <v>3139</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>3141</v>
+        <v>3139</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>3141</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
@@ -40915,28 +40929,28 @@
         <v>44</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>3142</v>
+        <v>3140</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>3142</v>
+        <v>3140</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>3142</v>
+        <v>3140</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>3142</v>
+        <v>3140</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>3142</v>
+        <v>3140</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>3142</v>
+        <v>3140</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>3142</v>
+        <v>3140</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>3142</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
@@ -40948,28 +40962,28 @@
         <v>45</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>3143</v>
+        <v>3141</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>3143</v>
+        <v>3141</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>3143</v>
+        <v>3141</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>3143</v>
+        <v>3141</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>3143</v>
+        <v>3141</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>3143</v>
+        <v>3141</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>3143</v>
+        <v>3141</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>3143</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
@@ -40981,28 +40995,28 @@
         <v>46</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>3144</v>
+        <v>3142</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>3144</v>
+        <v>3142</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>3144</v>
+        <v>3142</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>3144</v>
+        <v>3142</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>3144</v>
+        <v>3142</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>3144</v>
+        <v>3142</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>3144</v>
+        <v>3142</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>3144</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
@@ -41014,28 +41028,28 @@
         <v>47</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>3145</v>
+        <v>3143</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>3145</v>
+        <v>3143</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>3145</v>
+        <v>3143</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>3145</v>
+        <v>3143</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>3145</v>
+        <v>3143</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>3145</v>
+        <v>3143</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>3145</v>
+        <v>3143</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>3145</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.15">
@@ -41047,28 +41061,28 @@
         <v>48</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>3146</v>
+        <v>3144</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>3146</v>
+        <v>3144</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>3146</v>
+        <v>3144</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>3146</v>
+        <v>3144</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>3146</v>
+        <v>3144</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>3146</v>
+        <v>3144</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>3146</v>
+        <v>3144</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>3146</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
@@ -41080,28 +41094,28 @@
         <v>49</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>3147</v>
+        <v>3145</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>3147</v>
+        <v>3145</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>3147</v>
+        <v>3145</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>3147</v>
+        <v>3145</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>3147</v>
+        <v>3145</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>3147</v>
+        <v>3145</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>3147</v>
+        <v>3145</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>3147</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.15">
@@ -41113,28 +41127,28 @@
         <v>4A</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>3148</v>
+        <v>3146</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>3148</v>
+        <v>3146</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>3148</v>
+        <v>3146</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>3148</v>
+        <v>3146</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>3148</v>
+        <v>3146</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>3148</v>
+        <v>3146</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>3148</v>
+        <v>3146</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>3148</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.15">
@@ -41146,28 +41160,28 @@
         <v>4B</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>3149</v>
+        <v>3147</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>3149</v>
+        <v>3147</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>3149</v>
+        <v>3147</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>3149</v>
+        <v>3147</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>3149</v>
+        <v>3147</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>3149</v>
+        <v>3147</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>3149</v>
+        <v>3147</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>3149</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.15">
@@ -41179,28 +41193,28 @@
         <v>4C</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>3150</v>
+        <v>3148</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>3150</v>
+        <v>3148</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>3150</v>
+        <v>3148</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>3150</v>
+        <v>3148</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>3150</v>
+        <v>3148</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>3150</v>
+        <v>3148</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>3150</v>
+        <v>3148</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>3150</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.15">
@@ -41212,28 +41226,28 @@
         <v>4D</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>3151</v>
+        <v>3149</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>3151</v>
+        <v>3149</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>3151</v>
+        <v>3149</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>3151</v>
+        <v>3149</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>3151</v>
+        <v>3149</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>3151</v>
+        <v>3149</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>3151</v>
+        <v>3149</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>3151</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.15">
@@ -41245,28 +41259,28 @@
         <v>4E</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>3152</v>
+        <v>3150</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>3152</v>
+        <v>3150</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>3152</v>
+        <v>3150</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>3152</v>
+        <v>3150</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>3152</v>
+        <v>3150</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>3152</v>
+        <v>3150</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>3152</v>
+        <v>3150</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>3152</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.15">
@@ -41278,28 +41292,28 @@
         <v>4F</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>3153</v>
+        <v>3151</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>3153</v>
+        <v>3151</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>3153</v>
+        <v>3151</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>3153</v>
+        <v>3151</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>3153</v>
+        <v>3151</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>3153</v>
+        <v>3151</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>3153</v>
+        <v>3151</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>3153</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.15">
@@ -41311,28 +41325,28 @@
         <v>50</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>3154</v>
+        <v>3152</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>3154</v>
+        <v>3152</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>3154</v>
+        <v>3152</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>3154</v>
+        <v>3152</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>3154</v>
+        <v>3152</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>3154</v>
+        <v>3152</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>3154</v>
+        <v>3152</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>3154</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.15">
@@ -41344,28 +41358,28 @@
         <v>51</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>3155</v>
+        <v>3153</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>3155</v>
+        <v>3153</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>3155</v>
+        <v>3153</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>3155</v>
+        <v>3153</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>3155</v>
+        <v>3153</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>3155</v>
+        <v>3153</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>3155</v>
+        <v>3153</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>3155</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.15">
@@ -41377,28 +41391,28 @@
         <v>52</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>3156</v>
+        <v>3154</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>3156</v>
+        <v>3154</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>3156</v>
+        <v>3154</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>3156</v>
+        <v>3154</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>3156</v>
+        <v>3154</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>3156</v>
+        <v>3154</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>3156</v>
+        <v>3154</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>3156</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.15">
@@ -41410,28 +41424,28 @@
         <v>53</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>3157</v>
+        <v>3155</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>3157</v>
+        <v>3155</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>3157</v>
+        <v>3155</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>3157</v>
+        <v>3155</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>3157</v>
+        <v>3155</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>3157</v>
+        <v>3155</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>3157</v>
+        <v>3155</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>3157</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.15">
@@ -41443,28 +41457,28 @@
         <v>54</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>3158</v>
+        <v>3156</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>3158</v>
+        <v>3156</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>3158</v>
+        <v>3156</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>3158</v>
+        <v>3156</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>3158</v>
+        <v>3156</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>3158</v>
+        <v>3156</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>3158</v>
+        <v>3156</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>3158</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.15">
@@ -41476,28 +41490,28 @@
         <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>3159</v>
+        <v>3157</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>3159</v>
+        <v>3157</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>3159</v>
+        <v>3157</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>3159</v>
+        <v>3157</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>3159</v>
+        <v>3157</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>3159</v>
+        <v>3157</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>3159</v>
+        <v>3157</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>3159</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.15">
@@ -41509,28 +41523,28 @@
         <v>56</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>3160</v>
+        <v>3158</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>3160</v>
+        <v>3158</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>3160</v>
+        <v>3158</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>3160</v>
+        <v>3158</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>3160</v>
+        <v>3158</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>3160</v>
+        <v>3158</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>3160</v>
+        <v>3158</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>3160</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.15">
@@ -41542,28 +41556,28 @@
         <v>57</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>3161</v>
+        <v>3159</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>3161</v>
+        <v>3159</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>3161</v>
+        <v>3159</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>3161</v>
+        <v>3159</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>3161</v>
+        <v>3159</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>3161</v>
+        <v>3159</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>3161</v>
+        <v>3159</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>3161</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.15">
@@ -41575,28 +41589,28 @@
         <v>58</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>3162</v>
+        <v>3160</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>3162</v>
+        <v>3160</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>3162</v>
+        <v>3160</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>3162</v>
+        <v>3160</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>3162</v>
+        <v>3160</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>3162</v>
+        <v>3160</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>3162</v>
+        <v>3160</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>3162</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.15">
@@ -41608,28 +41622,28 @@
         <v>59</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>3163</v>
+        <v>3161</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>3163</v>
+        <v>3161</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>3163</v>
+        <v>3161</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>3163</v>
+        <v>3161</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>3163</v>
+        <v>3161</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>3163</v>
+        <v>3161</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>3163</v>
+        <v>3161</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>3163</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.15">
@@ -41641,28 +41655,28 @@
         <v>5A</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>3164</v>
+        <v>3162</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>3164</v>
+        <v>3162</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>3164</v>
+        <v>3162</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>3164</v>
+        <v>3162</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>3164</v>
+        <v>3162</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>3164</v>
+        <v>3162</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>3164</v>
+        <v>3162</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>3164</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.15">
@@ -41674,28 +41688,28 @@
         <v>5B</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>3165</v>
+        <v>3163</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>3165</v>
+        <v>3163</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>3165</v>
+        <v>3163</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>3165</v>
+        <v>3163</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>3165</v>
+        <v>3163</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>3165</v>
+        <v>3163</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>3165</v>
+        <v>3163</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>3165</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.15">
@@ -41707,28 +41721,28 @@
         <v>5C</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>3166</v>
+        <v>3164</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>3166</v>
+        <v>3164</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>3166</v>
+        <v>3164</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>3166</v>
+        <v>3164</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>3166</v>
+        <v>3164</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>3166</v>
+        <v>3164</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>3166</v>
+        <v>3164</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>3166</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.15">
@@ -41740,28 +41754,28 @@
         <v>5D</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>3167</v>
+        <v>3165</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>3167</v>
+        <v>3165</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>3167</v>
+        <v>3165</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>3167</v>
+        <v>3165</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>3167</v>
+        <v>3165</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>3167</v>
+        <v>3165</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>3167</v>
+        <v>3165</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>3167</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.15">
@@ -41773,28 +41787,28 @@
         <v>5E</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>3168</v>
+        <v>3166</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>3168</v>
+        <v>3166</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>3168</v>
+        <v>3166</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>3168</v>
+        <v>3166</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>3168</v>
+        <v>3166</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>3168</v>
+        <v>3166</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>3168</v>
+        <v>3166</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>3168</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.15">
@@ -41806,28 +41820,28 @@
         <v>5F</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>3169</v>
+        <v>3167</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>3169</v>
+        <v>3167</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>3169</v>
+        <v>3167</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>3169</v>
+        <v>3167</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>3169</v>
+        <v>3167</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>3169</v>
+        <v>3167</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>3169</v>
+        <v>3167</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>3169</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.15">
@@ -41839,28 +41853,28 @@
         <v>60</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>3170</v>
+        <v>3168</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>3170</v>
+        <v>3168</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>3170</v>
+        <v>3168</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>3170</v>
+        <v>3168</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>3170</v>
+        <v>3168</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>3170</v>
+        <v>3168</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>3170</v>
+        <v>3168</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>3170</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.15">
@@ -41872,28 +41886,28 @@
         <v>61</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>3171</v>
+        <v>3169</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>3171</v>
+        <v>3169</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>3171</v>
+        <v>3169</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>3171</v>
+        <v>3169</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>3171</v>
+        <v>3169</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>3171</v>
+        <v>3169</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>3171</v>
+        <v>3169</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>3171</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.15">
@@ -41905,28 +41919,28 @@
         <v>62</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>3172</v>
+        <v>3170</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>3172</v>
+        <v>3170</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>3172</v>
+        <v>3170</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>3172</v>
+        <v>3170</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>3172</v>
+        <v>3170</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>3172</v>
+        <v>3170</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>3172</v>
+        <v>3170</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>3172</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.15">
@@ -41938,28 +41952,28 @@
         <v>63</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>3173</v>
+        <v>3171</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>3173</v>
+        <v>3171</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>3173</v>
+        <v>3171</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>3173</v>
+        <v>3171</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>3173</v>
+        <v>3171</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>3173</v>
+        <v>3171</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>3173</v>
+        <v>3171</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>3173</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.15">
@@ -41971,28 +41985,28 @@
         <v>64</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>3174</v>
+        <v>3172</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>3174</v>
+        <v>3172</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>3174</v>
+        <v>3172</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>3174</v>
+        <v>3172</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>3174</v>
+        <v>3172</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>3174</v>
+        <v>3172</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>3174</v>
+        <v>3172</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>3174</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.15">
@@ -42004,28 +42018,28 @@
         <v>65</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>3175</v>
+        <v>3173</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>3175</v>
+        <v>3173</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>3175</v>
+        <v>3173</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>3175</v>
+        <v>3173</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>3175</v>
+        <v>3173</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>3175</v>
+        <v>3173</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>3175</v>
+        <v>3173</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>3175</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.15">
@@ -42037,28 +42051,28 @@
         <v>66</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>3176</v>
+        <v>3174</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>3176</v>
+        <v>3174</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>3176</v>
+        <v>3174</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>3176</v>
+        <v>3174</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>3176</v>
+        <v>3174</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>3176</v>
+        <v>3174</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>3176</v>
+        <v>3174</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>3176</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.15">
@@ -42070,28 +42084,28 @@
         <v>67</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>3177</v>
+        <v>3175</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>3177</v>
+        <v>3175</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>3177</v>
+        <v>3175</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>3177</v>
+        <v>3175</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>3177</v>
+        <v>3175</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>3177</v>
+        <v>3175</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>3177</v>
+        <v>3175</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>3177</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.15">
@@ -42103,28 +42117,28 @@
         <v>68</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>3178</v>
+        <v>3176</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>3178</v>
+        <v>3176</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>3178</v>
+        <v>3176</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>3178</v>
+        <v>3176</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>3178</v>
+        <v>3176</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>3178</v>
+        <v>3176</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>3178</v>
+        <v>3176</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>3178</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.15">
@@ -42136,28 +42150,28 @@
         <v>69</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>3179</v>
+        <v>3177</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>3179</v>
+        <v>3177</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>3179</v>
+        <v>3177</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>3179</v>
+        <v>3177</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>3179</v>
+        <v>3177</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>3179</v>
+        <v>3177</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>3179</v>
+        <v>3177</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>3179</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.15">
@@ -42169,28 +42183,28 @@
         <v>6A</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>3180</v>
+        <v>3178</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>3180</v>
+        <v>3178</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>3180</v>
+        <v>3178</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>3180</v>
+        <v>3178</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>3180</v>
+        <v>3178</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>3180</v>
+        <v>3178</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>3180</v>
+        <v>3178</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>3180</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.15">
@@ -42202,28 +42216,28 @@
         <v>6B</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>3181</v>
+        <v>3179</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>3181</v>
+        <v>3179</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>3181</v>
+        <v>3179</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>3181</v>
+        <v>3179</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>3181</v>
+        <v>3179</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>3181</v>
+        <v>3179</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>3181</v>
+        <v>3179</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>3181</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.15">
@@ -42235,28 +42249,28 @@
         <v>6C</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>3182</v>
+        <v>3180</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>3182</v>
+        <v>3180</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>3182</v>
+        <v>3180</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>3182</v>
+        <v>3180</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>3182</v>
+        <v>3180</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>3182</v>
+        <v>3180</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>3182</v>
+        <v>3180</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>3182</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.15">
@@ -42268,28 +42282,28 @@
         <v>6D</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.15">
@@ -42301,28 +42315,28 @@
         <v>6E</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>3184</v>
+        <v>3182</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>3184</v>
+        <v>3182</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>3184</v>
+        <v>3182</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>3184</v>
+        <v>3182</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>3184</v>
+        <v>3182</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>3184</v>
+        <v>3182</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>3184</v>
+        <v>3182</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>3184</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.15">
@@ -42334,28 +42348,28 @@
         <v>6F</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>3185</v>
+        <v>3183</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>3185</v>
+        <v>3183</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>3185</v>
+        <v>3183</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>3185</v>
+        <v>3183</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>3185</v>
+        <v>3183</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>3185</v>
+        <v>3183</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>3185</v>
+        <v>3183</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>3185</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.15">
@@ -42367,28 +42381,28 @@
         <v>70</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>3186</v>
+        <v>3184</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>3186</v>
+        <v>3184</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>3186</v>
+        <v>3184</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>3186</v>
+        <v>3184</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>3186</v>
+        <v>3184</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>3186</v>
+        <v>3184</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>3186</v>
+        <v>3184</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>3186</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.15">
@@ -42400,28 +42414,28 @@
         <v>71</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>3187</v>
+        <v>3185</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>3187</v>
+        <v>3185</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>3187</v>
+        <v>3185</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>3187</v>
+        <v>3185</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>3187</v>
+        <v>3185</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>3187</v>
+        <v>3185</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>3187</v>
+        <v>3185</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>3187</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.15">
@@ -42433,28 +42447,28 @@
         <v>72</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>3188</v>
+        <v>3186</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>3188</v>
+        <v>3186</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>3188</v>
+        <v>3186</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>3188</v>
+        <v>3186</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>3188</v>
+        <v>3186</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>3188</v>
+        <v>3186</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>3188</v>
+        <v>3186</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>3188</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.15">
@@ -42466,28 +42480,28 @@
         <v>73</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>3189</v>
+        <v>3187</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>3189</v>
+        <v>3187</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>3189</v>
+        <v>3187</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>3189</v>
+        <v>3187</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>3189</v>
+        <v>3187</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>3189</v>
+        <v>3187</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>3189</v>
+        <v>3187</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>3189</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.15">
@@ -42499,28 +42513,28 @@
         <v>74</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>3190</v>
+        <v>3188</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>3190</v>
+        <v>3188</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>3190</v>
+        <v>3188</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>3190</v>
+        <v>3188</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>3190</v>
+        <v>3188</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>3190</v>
+        <v>3188</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>3190</v>
+        <v>3188</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>3190</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.15">
@@ -42532,28 +42546,28 @@
         <v>75</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>3191</v>
+        <v>3189</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>3191</v>
+        <v>3189</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>3191</v>
+        <v>3189</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>3191</v>
+        <v>3189</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>3191</v>
+        <v>3189</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>3191</v>
+        <v>3189</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>3191</v>
+        <v>3189</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>3191</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.15">
@@ -42565,28 +42579,28 @@
         <v>76</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>3192</v>
+        <v>3190</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>3192</v>
+        <v>3190</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>3192</v>
+        <v>3190</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>3192</v>
+        <v>3190</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>3192</v>
+        <v>3190</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>3192</v>
+        <v>3190</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>3192</v>
+        <v>3190</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>3192</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.15">
@@ -42598,28 +42612,28 @@
         <v>77</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>3193</v>
+        <v>3191</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>3193</v>
+        <v>3191</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>3193</v>
+        <v>3191</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>3193</v>
+        <v>3191</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>3193</v>
+        <v>3191</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>3193</v>
+        <v>3191</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>3193</v>
+        <v>3191</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>3193</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.15">
@@ -42631,28 +42645,28 @@
         <v>78</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>3194</v>
+        <v>3192</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>3194</v>
+        <v>3192</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>3194</v>
+        <v>3192</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>3194</v>
+        <v>3192</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>3194</v>
+        <v>3192</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>3194</v>
+        <v>3192</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>3194</v>
+        <v>3192</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>3194</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.15">
@@ -42664,28 +42678,28 @@
         <v>79</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>3195</v>
+        <v>3193</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>3195</v>
+        <v>3193</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>3195</v>
+        <v>3193</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>3195</v>
+        <v>3193</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>3195</v>
+        <v>3193</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>3195</v>
+        <v>3193</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>3195</v>
+        <v>3193</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>3195</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.15">
@@ -42697,28 +42711,28 @@
         <v>7A</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>3196</v>
+        <v>3194</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>3196</v>
+        <v>3194</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>3196</v>
+        <v>3194</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>3196</v>
+        <v>3194</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>3196</v>
+        <v>3194</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>3196</v>
+        <v>3194</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>3196</v>
+        <v>3194</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>3196</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.15">
@@ -42730,28 +42744,28 @@
         <v>7B</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>3197</v>
+        <v>3195</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>3197</v>
+        <v>3195</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>3197</v>
+        <v>3195</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>3197</v>
+        <v>3195</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>3197</v>
+        <v>3195</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>3197</v>
+        <v>3195</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>3197</v>
+        <v>3195</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>3197</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.15">
@@ -42763,28 +42777,28 @@
         <v>7C</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>3198</v>
+        <v>3196</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>3198</v>
+        <v>3196</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>3198</v>
+        <v>3196</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>3198</v>
+        <v>3196</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>3198</v>
+        <v>3196</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>3198</v>
+        <v>3196</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>3198</v>
+        <v>3196</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>3198</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.15">
@@ -42796,28 +42810,28 @@
         <v>7D</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>3199</v>
+        <v>3197</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>3199</v>
+        <v>3197</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>3199</v>
+        <v>3197</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>3199</v>
+        <v>3197</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>3199</v>
+        <v>3197</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>3199</v>
+        <v>3197</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>3199</v>
+        <v>3197</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>3199</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.15">
@@ -42829,28 +42843,28 @@
         <v>7E</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>3200</v>
+        <v>3198</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>3200</v>
+        <v>3198</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>3200</v>
+        <v>3198</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>3200</v>
+        <v>3198</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>3200</v>
+        <v>3198</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>3200</v>
+        <v>3198</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>3200</v>
+        <v>3198</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>3200</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.15">
@@ -42889,22 +42903,22 @@
         <v>80</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>250</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>3202</v>
+        <v>3200</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>3203</v>
+        <v>3201</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>3203</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.15">
@@ -42925,10 +42939,10 @@
         <v>253</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>3204</v>
+        <v>3202</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>3205</v>
+        <v>3203</v>
       </c>
       <c r="I131" s="3" t="s">
         <v>26</v>
@@ -42961,7 +42975,7 @@
         <v>256</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>3206</v>
+        <v>3204</v>
       </c>
       <c r="I132" s="3" t="s">
         <v>53</v>
@@ -42992,7 +43006,7 @@
       </c>
       <c r="F133" s="1"/>
       <c r="H133" s="2" t="s">
-        <v>3207</v>
+        <v>3205</v>
       </c>
       <c r="I133" s="3" t="s">
         <v>970</v>
@@ -43016,29 +43030,29 @@
         <v>84</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="2" t="s">
-        <v>3205</v>
+        <v>3203</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>3208</v>
+        <v>3206</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
       <c r="L134" s="3" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.15">
@@ -43050,31 +43064,31 @@
         <v>85</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>3209</v>
+        <v>3207</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>3209</v>
+        <v>3207</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>259</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>3210</v>
+        <v>3208</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>3211</v>
+        <v>3209</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>3209</v>
+        <v>3207</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>3209</v>
+        <v>3207</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>3209</v>
+        <v>3207</v>
       </c>
       <c r="L135" s="3" t="s">
-        <v>3209</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.15">
@@ -43089,16 +43103,16 @@
         <v>265</v>
       </c>
       <c r="G136" s="2" t="s">
+        <v>3210</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>3211</v>
+      </c>
+      <c r="I136" s="3" t="s">
         <v>3212</v>
       </c>
-      <c r="H136" s="2" t="s">
+      <c r="J136" s="3" t="s">
         <v>3213</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>3214</v>
-      </c>
-      <c r="J136" s="3" t="s">
-        <v>3215</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.15">
@@ -43113,10 +43127,10 @@
         <v>268</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>3216</v>
+        <v>3214</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>3217</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.15">
@@ -43129,10 +43143,10 @@
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="2" t="s">
-        <v>3218</v>
+        <v>3216</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>3219</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.15">
@@ -43144,10 +43158,10 @@
         <v>89</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>3204</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.15">
@@ -43159,23 +43173,23 @@
         <v>8A</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>3221</v>
+        <v>3219</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>3221</v>
+        <v>3219</v>
       </c>
       <c r="F140" s="1"/>
       <c r="I140" s="3" t="s">
-        <v>3221</v>
+        <v>3219</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>3221</v>
+        <v>3219</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>3221</v>
+        <v>3219</v>
       </c>
       <c r="L140" s="3" t="s">
-        <v>3221</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.15">
@@ -43187,23 +43201,23 @@
         <v>8B</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>3222</v>
+        <v>3220</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>3222</v>
+        <v>3220</v>
       </c>
       <c r="F141" s="1"/>
       <c r="I141" s="3" t="s">
-        <v>3222</v>
+        <v>3220</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>3222</v>
+        <v>3220</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>3222</v>
+        <v>3220</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>3222</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.15">
@@ -43271,25 +43285,25 @@
         <v>8E</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>3223</v>
+        <v>3221</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>3223</v>
+        <v>3221</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>3224</v>
+        <v>3222</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>3223</v>
+        <v>3221</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>3223</v>
+        <v>3221</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>3223</v>
+        <v>3221</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>3223</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.15">
@@ -43301,23 +43315,23 @@
         <v>8F</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>3225</v>
+        <v>3223</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>3225</v>
+        <v>3223</v>
       </c>
       <c r="F145" s="1"/>
       <c r="I145" s="3" t="s">
-        <v>3225</v>
+        <v>3223</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>3225</v>
+        <v>3223</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>3225</v>
+        <v>3223</v>
       </c>
       <c r="L145" s="3" t="s">
-        <v>3225</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.15">
@@ -43357,25 +43371,25 @@
         <v>91</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>3226</v>
+        <v>3224</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>3226</v>
+        <v>3224</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>281</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>3226</v>
+        <v>3224</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>3226</v>
+        <v>3224</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>3226</v>
+        <v>3224</v>
       </c>
       <c r="L147" s="3" t="s">
-        <v>3226</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.15">
@@ -43387,25 +43401,25 @@
         <v>92</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>3227</v>
+        <v>3225</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>3227</v>
+        <v>3225</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>284</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>3227</v>
+        <v>3225</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>3227</v>
+        <v>3225</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>3227</v>
+        <v>3225</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>3227</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.15">
@@ -43417,23 +43431,23 @@
         <v>93</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>3228</v>
+        <v>3226</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>3228</v>
+        <v>3226</v>
       </c>
       <c r="F149" s="1"/>
       <c r="I149" s="3" t="s">
-        <v>3228</v>
+        <v>3226</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>3228</v>
+        <v>3226</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>3228</v>
+        <v>3226</v>
       </c>
       <c r="L149" s="3" t="s">
-        <v>3228</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.15">
@@ -43481,7 +43495,7 @@
         <v>120</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>3229</v>
+        <v>3227</v>
       </c>
       <c r="I151" s="3" t="s">
         <v>120</v>
@@ -43541,7 +43555,7 @@
         <v>114</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>3230</v>
+        <v>3228</v>
       </c>
       <c r="I153" s="3" t="s">
         <v>114</v>
@@ -43594,13 +43608,13 @@
       </c>
       <c r="F155" s="1"/>
       <c r="J155" s="3" t="s">
-        <v>3231</v>
+        <v>3229</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>3231</v>
+        <v>3229</v>
       </c>
       <c r="L155" s="3" t="s">
-        <v>3231</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.15">
@@ -43612,23 +43626,23 @@
         <v>9A</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>3232</v>
+        <v>3230</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>3232</v>
+        <v>3230</v>
       </c>
       <c r="F156" s="1"/>
       <c r="I156" s="3" t="s">
-        <v>3232</v>
+        <v>3230</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>3232</v>
+        <v>3230</v>
       </c>
       <c r="K156" s="3" t="s">
-        <v>3232</v>
+        <v>3230</v>
       </c>
       <c r="L156" s="3" t="s">
-        <v>3232</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.15">
@@ -43670,22 +43684,22 @@
         <v>9C</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>3233</v>
+        <v>3231</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>3233</v>
+        <v>3231</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>305</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>3233</v>
+        <v>3231</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>3233</v>
+        <v>3231</v>
       </c>
       <c r="L158" s="3" t="s">
-        <v>3233</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.15">
@@ -43697,22 +43711,22 @@
         <v>9D</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>3234</v>
+        <v>3232</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>3234</v>
+        <v>3232</v>
       </c>
       <c r="F159" s="3" t="s">
         <v>308</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>3234</v>
+        <v>3232</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>3234</v>
+        <v>3232</v>
       </c>
       <c r="L159" s="3" t="s">
-        <v>3234</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.15">
@@ -43724,22 +43738,22 @@
         <v>9E</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>3235</v>
+        <v>3233</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>3235</v>
+        <v>3233</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>3236</v>
+        <v>3234</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>3235</v>
+        <v>3233</v>
       </c>
       <c r="K160" s="3" t="s">
-        <v>3235</v>
+        <v>3233</v>
       </c>
       <c r="L160" s="3" t="s">
-        <v>3235</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.15">
@@ -43779,16 +43793,16 @@
         <v>A0</v>
       </c>
       <c r="F162" s="3" t="s">
+        <v>3235</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>3236</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>3236</v>
+      </c>
+      <c r="J162" s="3" t="s">
         <v>3237</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>3238</v>
-      </c>
-      <c r="I162" s="3" t="s">
-        <v>3238</v>
-      </c>
-      <c r="J162" s="3" t="s">
-        <v>3239</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.15">
@@ -43801,13 +43815,13 @@
       </c>
       <c r="F163" s="1"/>
       <c r="G163" s="2" t="s">
-        <v>3240</v>
+        <v>3238</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>3240</v>
+        <v>3238</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.15">
@@ -43819,10 +43833,10 @@
         <v>A2</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>3242</v>
+        <v>3240</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.15">
@@ -43852,7 +43866,7 @@
         <v>331</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>3244</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.15">
@@ -43864,16 +43878,16 @@
         <v>A5</v>
       </c>
       <c r="F167" t="s">
-        <v>3245</v>
+        <v>3243</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>3246</v>
+        <v>3244</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>3246</v>
+        <v>3244</v>
       </c>
       <c r="L167" s="3" t="s">
-        <v>3246</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.15">
@@ -43888,7 +43902,7 @@
         <v>337</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>3247</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.15">
@@ -43903,7 +43917,7 @@
         <v>428</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>3248</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.15">
@@ -43918,7 +43932,7 @@
         <v>340</v>
       </c>
       <c r="J170" t="s">
-        <v>3249</v>
+        <v>3247</v>
       </c>
       <c r="K170"/>
       <c r="L170"/>
@@ -43933,7 +43947,7 @@
       </c>
       <c r="F171" s="1"/>
       <c r="J171" s="3" t="s">
-        <v>3250</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.15">
@@ -43978,10 +43992,10 @@
         <v>349</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>3251</v>
+        <v>3249</v>
       </c>
       <c r="K174" s="3" t="s">
-        <v>3252</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.15">
@@ -43996,10 +44010,10 @@
         <v>352</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>3253</v>
+        <v>3251</v>
       </c>
       <c r="K175" t="s">
-        <v>3254</v>
+        <v>3252</v>
       </c>
       <c r="L175"/>
     </row>
@@ -44015,10 +44029,10 @@
         <v>461</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>3255</v>
+        <v>3253</v>
       </c>
       <c r="K176" t="s">
-        <v>3256</v>
+        <v>3254</v>
       </c>
       <c r="L176"/>
     </row>
@@ -44034,10 +44048,10 @@
         <v>355</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>3257</v>
+        <v>3255</v>
       </c>
       <c r="K177" t="s">
-        <v>3258</v>
+        <v>3256</v>
       </c>
       <c r="L177"/>
     </row>
@@ -44050,13 +44064,13 @@
         <v>B0</v>
       </c>
       <c r="F178" s="3" t="s">
+        <v>3257</v>
+      </c>
+      <c r="J178" t="s">
+        <v>3258</v>
+      </c>
+      <c r="K178" t="s">
         <v>3259</v>
-      </c>
-      <c r="J178" t="s">
-        <v>3260</v>
-      </c>
-      <c r="K178" t="s">
-        <v>3261</v>
       </c>
       <c r="L178"/>
     </row>
@@ -44070,10 +44084,10 @@
       </c>
       <c r="F179" s="1"/>
       <c r="J179" s="3" t="s">
-        <v>3262</v>
+        <v>3260</v>
       </c>
       <c r="K179" t="s">
-        <v>3263</v>
+        <v>3261</v>
       </c>
       <c r="L179"/>
     </row>
@@ -44089,13 +44103,13 @@
         <v>358</v>
       </c>
       <c r="I180" s="3" t="s">
+        <v>3262</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>3263</v>
+      </c>
+      <c r="K180" s="11" t="s">
         <v>3264</v>
-      </c>
-      <c r="J180" s="3" t="s">
-        <v>3265</v>
-      </c>
-      <c r="K180" s="11" t="s">
-        <v>3266</v>
       </c>
       <c r="L180" s="11"/>
     </row>
@@ -44108,20 +44122,20 @@
         <v>B3</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>3267</v>
+        <v>3265</v>
       </c>
       <c r="E181" s="8"/>
       <c r="F181" s="3" t="s">
+        <v>3266</v>
+      </c>
+      <c r="I181" s="8" t="s">
+        <v>3267</v>
+      </c>
+      <c r="J181" s="8" t="s">
         <v>3268</v>
       </c>
-      <c r="I181" s="8" t="s">
-        <v>3269</v>
-      </c>
-      <c r="J181" s="8" t="s">
-        <v>3270</v>
-      </c>
       <c r="K181" t="s">
-        <v>3270</v>
+        <v>3268</v>
       </c>
       <c r="L181"/>
     </row>
@@ -44134,18 +44148,18 @@
         <v>B4</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>3203</v>
+        <v>3201</v>
       </c>
       <c r="E182" s="8"/>
       <c r="F182" s="1"/>
       <c r="I182" s="8" t="s">
+        <v>3269</v>
+      </c>
+      <c r="J182" s="8" t="s">
+        <v>3270</v>
+      </c>
+      <c r="K182" s="3" t="s">
         <v>3271</v>
-      </c>
-      <c r="J182" s="8" t="s">
-        <v>3272</v>
-      </c>
-      <c r="K182" s="3" t="s">
-        <v>3273</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.15">
@@ -44157,20 +44171,20 @@
         <v>B5</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>3274</v>
+        <v>3272</v>
       </c>
       <c r="E183" s="9"/>
       <c r="F183" s="3" t="s">
+        <v>3273</v>
+      </c>
+      <c r="I183" s="9" t="s">
+        <v>3272</v>
+      </c>
+      <c r="J183" s="9" t="s">
+        <v>3274</v>
+      </c>
+      <c r="K183" s="9" t="s">
         <v>3275</v>
-      </c>
-      <c r="I183" s="9" t="s">
-        <v>3274</v>
-      </c>
-      <c r="J183" s="9" t="s">
-        <v>3276</v>
-      </c>
-      <c r="K183" s="9" t="s">
-        <v>3277</v>
       </c>
       <c r="L183" s="9"/>
     </row>
@@ -44183,17 +44197,17 @@
         <v>B6</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>3278</v>
+        <v>3276</v>
       </c>
       <c r="F184" s="1"/>
       <c r="I184" s="3" t="s">
+        <v>3277</v>
+      </c>
+      <c r="J184" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="K184" s="3" t="s">
         <v>3279</v>
-      </c>
-      <c r="J184" s="3" t="s">
-        <v>3280</v>
-      </c>
-      <c r="K184" s="3" t="s">
-        <v>3281</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.15">
@@ -44212,16 +44226,16 @@
       </c>
       <c r="F185" s="1"/>
       <c r="I185" s="3" t="s">
-        <v>3282</v>
+        <v>3280</v>
       </c>
       <c r="J185" s="3" t="s">
         <v>170</v>
       </c>
       <c r="K185" s="56" t="s">
-        <v>3560</v>
+        <v>3556</v>
       </c>
       <c r="L185" s="56" t="s">
-        <v>3560</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.15">
@@ -44233,19 +44247,19 @@
         <v>B8</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>3283</v>
+        <v>3281</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>367</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>3284</v>
+        <v>3282</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>3285</v>
+        <v>3283</v>
       </c>
       <c r="K186" s="3" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.15">
@@ -44257,22 +44271,22 @@
         <v>B9</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>3286</v>
+        <v>3284</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>3287</v>
+        <v>3285</v>
       </c>
       <c r="F187" s="3" t="s">
         <v>468</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>3288</v>
+        <v>3286</v>
       </c>
       <c r="J187" s="3" t="s">
+        <v>3285</v>
+      </c>
+      <c r="K187" s="3" t="s">
         <v>3287</v>
-      </c>
-      <c r="K187" s="3" t="s">
-        <v>3289</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.15">
@@ -44284,20 +44298,20 @@
         <v>BA</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>3290</v>
+        <v>3288</v>
       </c>
       <c r="E188" s="10" t="s">
         <v>501</v>
       </c>
       <c r="F188" s="1"/>
       <c r="I188" s="10" t="s">
+        <v>3289</v>
+      </c>
+      <c r="J188" s="10" t="s">
+        <v>3290</v>
+      </c>
+      <c r="K188" s="10" t="s">
         <v>3291</v>
-      </c>
-      <c r="J188" s="10" t="s">
-        <v>3292</v>
-      </c>
-      <c r="K188" s="10" t="s">
-        <v>3293</v>
       </c>
       <c r="L188" s="10"/>
     </row>
@@ -44310,25 +44324,25 @@
         <v>BB</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>3294</v>
+        <v>3292</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>3294</v>
+        <v>3292</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>373</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>3231</v>
+        <v>3229</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>3294</v>
+        <v>3292</v>
       </c>
       <c r="K189" s="3" t="s">
-        <v>3294</v>
+        <v>3292</v>
       </c>
       <c r="L189" s="56" t="s">
-        <v>3662</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.15">
@@ -44340,20 +44354,20 @@
         <v>BC</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>3295</v>
+        <v>3293</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>3295</v>
+        <v>3293</v>
       </c>
       <c r="F190" s="1"/>
       <c r="I190" s="3" t="s">
+        <v>3293</v>
+      </c>
+      <c r="J190" s="3" t="s">
+        <v>3294</v>
+      </c>
+      <c r="K190" s="3" t="s">
         <v>3295</v>
-      </c>
-      <c r="J190" s="3" t="s">
-        <v>3296</v>
-      </c>
-      <c r="K190" s="3" t="s">
-        <v>3297</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.15">
@@ -44365,17 +44379,17 @@
         <v>BD</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>3298</v>
+        <v>3296</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>3298</v>
+        <v>3296</v>
       </c>
       <c r="F191" s="1"/>
       <c r="J191" s="3" t="s">
-        <v>3298</v>
+        <v>3296</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>3298</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.15">
@@ -44387,7 +44401,7 @@
         <v>BE</v>
       </c>
       <c r="D192" t="s">
-        <v>3299</v>
+        <v>3297</v>
       </c>
       <c r="E192" t="s">
         <v>2248</v>
@@ -44397,10 +44411,10 @@
       </c>
       <c r="I192"/>
       <c r="J192" t="s">
-        <v>3300</v>
+        <v>3298</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>3301</v>
+        <v>3299</v>
       </c>
       <c r="O192"/>
     </row>
@@ -44413,7 +44427,7 @@
         <v>BF</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>3302</v>
+        <v>3300</v>
       </c>
       <c r="E193" t="s">
         <v>2245</v>
@@ -44421,10 +44435,10 @@
       <c r="F193" s="1"/>
       <c r="I193"/>
       <c r="J193" s="3" t="s">
-        <v>3303</v>
+        <v>3301</v>
       </c>
       <c r="K193" s="3" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="O193" s="3"/>
     </row>
@@ -44445,10 +44459,10 @@
       <c r="F194" s="1"/>
       <c r="I194"/>
       <c r="J194" s="3" t="s">
-        <v>3305</v>
+        <v>3303</v>
       </c>
       <c r="K194" s="3" t="s">
-        <v>3306</v>
+        <v>3304</v>
       </c>
       <c r="O194"/>
     </row>
@@ -44461,19 +44475,19 @@
         <v>C1</v>
       </c>
       <c r="D195" s="3" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>3306</v>
+      </c>
+      <c r="F195" s="9" t="s">
         <v>3307</v>
       </c>
-      <c r="E195" s="3" t="s">
+      <c r="J195" s="3" t="s">
+        <v>3305</v>
+      </c>
+      <c r="K195" t="s">
         <v>3308</v>
-      </c>
-      <c r="F195" s="9" t="s">
-        <v>3309</v>
-      </c>
-      <c r="J195" s="3" t="s">
-        <v>3307</v>
-      </c>
-      <c r="K195" t="s">
-        <v>3310</v>
       </c>
       <c r="L195"/>
       <c r="O195"/>
@@ -44487,19 +44501,19 @@
         <v>C2</v>
       </c>
       <c r="D196" s="3" t="s">
+        <v>3309</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>3310</v>
+      </c>
+      <c r="F196" s="3" t="s">
         <v>3311</v>
       </c>
-      <c r="E196" s="3" t="s">
+      <c r="J196" s="3" t="s">
         <v>3312</v>
       </c>
-      <c r="F196" s="3" t="s">
+      <c r="K196" t="s">
         <v>3313</v>
-      </c>
-      <c r="J196" s="3" t="s">
-        <v>3314</v>
-      </c>
-      <c r="K196" t="s">
-        <v>3315</v>
       </c>
       <c r="L196"/>
       <c r="O196"/>
@@ -44513,19 +44527,19 @@
         <v>C3</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>3316</v>
+        <v>3314</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>3317</v>
+        <v>3315</v>
       </c>
       <c r="F197" s="3" t="s">
         <v>246</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>3318</v>
+        <v>3316</v>
       </c>
       <c r="K197" t="s">
-        <v>3319</v>
+        <v>3317</v>
       </c>
       <c r="L197"/>
       <c r="O197"/>
@@ -44539,16 +44553,16 @@
         <v>C4</v>
       </c>
       <c r="D198" s="3" t="s">
+        <v>3318</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>3263</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>3319</v>
+      </c>
+      <c r="J198" s="3" t="s">
         <v>3320</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>3265</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>3321</v>
-      </c>
-      <c r="J198" s="3" t="s">
-        <v>3322</v>
       </c>
       <c r="K198" t="s">
         <v>2825</v>
@@ -44565,19 +44579,19 @@
         <v>C5</v>
       </c>
       <c r="D199" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>3274</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>3322</v>
+      </c>
+      <c r="J199" s="3" t="s">
         <v>3323</v>
       </c>
-      <c r="E199" s="3" t="s">
-        <v>3276</v>
-      </c>
-      <c r="F199" s="2" t="s">
+      <c r="K199" t="s">
         <v>3324</v>
-      </c>
-      <c r="J199" s="3" t="s">
-        <v>3325</v>
-      </c>
-      <c r="K199" t="s">
-        <v>3326</v>
       </c>
       <c r="L199"/>
       <c r="O199"/>
@@ -44591,22 +44605,24 @@
         <v>C6</v>
       </c>
       <c r="D200" s="12" t="s">
-        <v>3327</v>
+        <v>3325</v>
       </c>
       <c r="E200" s="12" t="s">
-        <v>3328</v>
+        <v>3326</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>535</v>
       </c>
       <c r="I200" s="12"/>
       <c r="J200" s="12" t="s">
-        <v>3329</v>
+        <v>3327</v>
       </c>
       <c r="K200" t="s">
         <v>2788</v>
       </c>
-      <c r="L200"/>
+      <c r="L200" t="s">
+        <v>3405</v>
+      </c>
       <c r="O200"/>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.15">
@@ -44621,19 +44637,21 @@
         <v>1446</v>
       </c>
       <c r="E201" s="12" t="s">
-        <v>3330</v>
+        <v>3328</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>477</v>
       </c>
       <c r="I201" s="12"/>
       <c r="J201" s="12" t="s">
-        <v>3331</v>
+        <v>3329</v>
       </c>
       <c r="K201" t="s">
         <v>2793</v>
       </c>
-      <c r="L201"/>
+      <c r="L201" s="55" t="s">
+        <v>3652</v>
+      </c>
       <c r="O201"/>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.15">
@@ -44645,23 +44663,23 @@
         <v>C8</v>
       </c>
       <c r="D202" s="12" t="s">
-        <v>3332</v>
+        <v>3330</v>
       </c>
       <c r="E202" s="12" t="s">
-        <v>3333</v>
+        <v>3331</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>471</v>
       </c>
       <c r="I202" s="12"/>
       <c r="J202" s="12" t="s">
-        <v>3332</v>
+        <v>3330</v>
       </c>
       <c r="K202" t="s">
         <v>2800</v>
       </c>
       <c r="L202" s="55" t="s">
-        <v>3643</v>
+        <v>3626</v>
       </c>
       <c r="O202"/>
     </row>
@@ -44674,10 +44692,10 @@
         <v>C9</v>
       </c>
       <c r="D203" s="12" t="s">
-        <v>3334</v>
+        <v>3332</v>
       </c>
       <c r="E203" s="12" t="s">
-        <v>3335</v>
+        <v>3333</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>406</v>
@@ -44687,10 +44705,10 @@
         <v>376</v>
       </c>
       <c r="K203" t="s">
-        <v>3336</v>
+        <v>3334</v>
       </c>
       <c r="L203" s="55" t="s">
-        <v>3661</v>
+        <v>3640</v>
       </c>
       <c r="O203" s="3"/>
     </row>
@@ -44703,23 +44721,23 @@
         <v>CA</v>
       </c>
       <c r="D204" s="12" t="s">
+        <v>3335</v>
+      </c>
+      <c r="E204" s="12" t="s">
+        <v>3336</v>
+      </c>
+      <c r="F204" s="2" t="s">
         <v>3337</v>
-      </c>
-      <c r="E204" s="12" t="s">
-        <v>3338</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>3339</v>
       </c>
       <c r="I204" s="12"/>
       <c r="J204" s="12" t="s">
-        <v>3340</v>
+        <v>3338</v>
       </c>
       <c r="K204" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="L204" s="57" t="s">
-        <v>3593</v>
+        <v>3583</v>
       </c>
       <c r="O204"/>
     </row>
@@ -44732,23 +44750,23 @@
         <v>CB</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>3342</v>
+        <v>3340</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>3343</v>
+        <v>3341</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>464</v>
       </c>
       <c r="I205" s="7"/>
       <c r="J205" s="7" t="s">
-        <v>3344</v>
+        <v>3342</v>
       </c>
       <c r="K205" t="s">
-        <v>3345</v>
+        <v>3343</v>
       </c>
       <c r="L205" s="57" t="s">
-        <v>3592</v>
+        <v>3582</v>
       </c>
       <c r="O205"/>
     </row>
@@ -44764,20 +44782,20 @@
         <v>373</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>3346</v>
+        <v>3344</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>523</v>
       </c>
       <c r="I206" s="7"/>
       <c r="J206" s="7" t="s">
-        <v>3347</v>
+        <v>3345</v>
       </c>
       <c r="K206" t="s">
-        <v>3348</v>
+        <v>3346</v>
       </c>
       <c r="L206" s="57" t="s">
-        <v>3591</v>
+        <v>3666</v>
       </c>
       <c r="O206"/>
     </row>
@@ -44790,22 +44808,22 @@
         <v>CD</v>
       </c>
       <c r="D207" t="s">
-        <v>3349</v>
+        <v>3347</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>3350</v>
+        <v>3348</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>275</v>
       </c>
       <c r="J207" t="s">
-        <v>3351</v>
+        <v>3349</v>
       </c>
       <c r="K207" t="s">
-        <v>3352</v>
+        <v>3350</v>
       </c>
       <c r="L207" s="57" t="s">
-        <v>3639</v>
+        <v>3622</v>
       </c>
       <c r="O207"/>
     </row>
@@ -44818,22 +44836,22 @@
         <v>CE</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>3353</v>
+        <v>3351</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>3353</v>
+        <v>3351</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>243</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>3354</v>
+        <v>3352</v>
       </c>
       <c r="K208" t="s">
         <v>2780</v>
       </c>
       <c r="L208" s="57" t="s">
-        <v>3650</v>
+        <v>3651</v>
       </c>
       <c r="O208"/>
     </row>
@@ -44846,10 +44864,10 @@
         <v>CF</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>3355</v>
+        <v>3353</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>504</v>
@@ -44858,10 +44876,10 @@
         <v>2431</v>
       </c>
       <c r="K209" t="s">
-        <v>3357</v>
+        <v>3355</v>
       </c>
       <c r="L209" s="57" t="s">
-        <v>3590</v>
+        <v>3581</v>
       </c>
       <c r="O209"/>
     </row>
@@ -44874,22 +44892,22 @@
         <v>D0</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>3358</v>
+        <v>3356</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>3359</v>
+        <v>3357</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>315</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>3360</v>
+        <v>3358</v>
       </c>
       <c r="K210" t="s">
-        <v>3361</v>
+        <v>3359</v>
       </c>
       <c r="L210" s="57" t="s">
-        <v>3553</v>
+        <v>3549</v>
       </c>
       <c r="O210"/>
     </row>
@@ -44902,22 +44920,22 @@
         <v>D1</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>3362</v>
+        <v>3360</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>3363</v>
+        <v>3361</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>385</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>3364</v>
+        <v>3362</v>
       </c>
       <c r="K211" t="s">
-        <v>3365</v>
+        <v>3363</v>
       </c>
       <c r="L211" s="57" t="s">
-        <v>3636</v>
+        <v>3619</v>
       </c>
       <c r="O211"/>
     </row>
@@ -44930,23 +44948,23 @@
         <v>D2</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>3366</v>
+        <v>3364</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>3367</v>
+        <v>3365</v>
       </c>
       <c r="F212" s="12" t="s">
         <v>376</v>
       </c>
       <c r="I212" s="7"/>
       <c r="J212" s="7" t="s">
-        <v>3368</v>
+        <v>3366</v>
       </c>
       <c r="K212" t="s">
-        <v>3369</v>
+        <v>3367</v>
       </c>
       <c r="L212" s="57" t="s">
-        <v>3609</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.15">
@@ -44961,20 +44979,20 @@
         <v>2014</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>3370</v>
+        <v>3368</v>
       </c>
       <c r="F213" s="12" t="s">
         <v>425</v>
       </c>
       <c r="I213" s="7"/>
       <c r="J213" s="7" t="s">
-        <v>3371</v>
+        <v>3369</v>
       </c>
       <c r="K213" t="s">
         <v>2742</v>
       </c>
       <c r="L213" s="57" t="s">
-        <v>3589</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.15">
@@ -44986,23 +45004,23 @@
         <v>D4</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>3372</v>
+        <v>3370</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>3373</v>
+        <v>3371</v>
       </c>
       <c r="F214" s="12" t="s">
         <v>416</v>
       </c>
       <c r="I214" s="7"/>
       <c r="J214" s="7" t="s">
-        <v>3374</v>
+        <v>3372</v>
       </c>
       <c r="K214" t="s">
         <v>2746</v>
       </c>
       <c r="L214" s="57" t="s">
-        <v>3549</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.15">
@@ -45014,10 +45032,10 @@
         <v>D5</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>3375</v>
+        <v>3373</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>3376</v>
+        <v>3374</v>
       </c>
       <c r="F215" s="12" t="s">
         <v>480</v>
@@ -45027,10 +45045,10 @@
         <v>246</v>
       </c>
       <c r="K215" t="s">
-        <v>3377</v>
+        <v>3375</v>
       </c>
       <c r="L215" s="57" t="s">
-        <v>3548</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.15">
@@ -45042,23 +45060,23 @@
         <v>D6</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>3378</v>
+        <v>3376</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>3379</v>
+        <v>3377</v>
       </c>
       <c r="F216" s="12" t="s">
         <v>486</v>
       </c>
       <c r="I216" s="7"/>
       <c r="J216" t="s">
-        <v>3380</v>
+        <v>3378</v>
       </c>
       <c r="K216" t="s">
-        <v>3381</v>
+        <v>3379</v>
       </c>
       <c r="L216" s="57" t="s">
-        <v>3588</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.15">
@@ -45070,23 +45088,23 @@
         <v>D7</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>3382</v>
+        <v>3380</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>3383</v>
+        <v>3381</v>
       </c>
       <c r="F217" s="12" t="s">
         <v>262</v>
       </c>
       <c r="I217" s="7"/>
       <c r="J217" s="7" t="s">
-        <v>3384</v>
+        <v>3382</v>
       </c>
       <c r="K217" s="7" t="s">
-        <v>3385</v>
+        <v>3383</v>
       </c>
       <c r="L217" s="57" t="s">
-        <v>3546</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.15">
@@ -45098,23 +45116,23 @@
         <v>D8</v>
       </c>
       <c r="D218" s="7" t="s">
+        <v>3384</v>
+      </c>
+      <c r="E218" s="7" t="s">
+        <v>3385</v>
+      </c>
+      <c r="F218" t="s">
         <v>3386</v>
-      </c>
-      <c r="E218" s="7" t="s">
-        <v>3387</v>
-      </c>
-      <c r="F218" t="s">
-        <v>3388</v>
       </c>
       <c r="I218" s="7"/>
       <c r="J218" s="7" t="s">
-        <v>3389</v>
+        <v>3387</v>
       </c>
       <c r="K218" s="7" t="s">
-        <v>3390</v>
+        <v>3388</v>
       </c>
       <c r="L218" s="57" t="s">
-        <v>3587</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.15">
@@ -45126,23 +45144,23 @@
         <v>D9</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>3391</v>
+        <v>3389</v>
       </c>
       <c r="E219" s="7" t="s">
         <v>1485</v>
       </c>
       <c r="F219" t="s">
-        <v>3392</v>
+        <v>3390</v>
       </c>
       <c r="I219" s="7"/>
       <c r="J219" s="7" t="s">
         <v>343</v>
       </c>
       <c r="K219" t="s">
-        <v>3393</v>
+        <v>3391</v>
       </c>
       <c r="L219" s="57" t="s">
-        <v>3633</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.15">
@@ -45157,20 +45175,20 @@
         <v>1422</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>3394</v>
+        <v>3392</v>
       </c>
       <c r="F220" s="12" t="s">
         <v>439</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7" t="s">
-        <v>3395</v>
+        <v>3393</v>
       </c>
       <c r="K220" s="7" t="s">
         <v>468</v>
       </c>
       <c r="L220" s="57" t="s">
-        <v>3586</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.15">
@@ -45185,20 +45203,20 @@
         <v>480</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>3396</v>
+        <v>3394</v>
       </c>
       <c r="F221" s="12" t="s">
         <v>445</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="7" t="s">
-        <v>3397</v>
+        <v>3395</v>
       </c>
       <c r="K221" t="s">
-        <v>3398</v>
+        <v>3396</v>
       </c>
       <c r="L221" s="57" t="s">
-        <v>3624</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.15">
@@ -45223,10 +45241,10 @@
         <v>315</v>
       </c>
       <c r="K222" s="7" t="s">
-        <v>3276</v>
+        <v>3274</v>
       </c>
       <c r="L222" s="57" t="s">
-        <v>3631</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.15">
@@ -45238,23 +45256,23 @@
         <v>DD</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>3399</v>
+        <v>3397</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>3400</v>
+        <v>3398</v>
       </c>
       <c r="F223" s="12" t="s">
         <v>442</v>
       </c>
       <c r="I223" s="7"/>
       <c r="J223" s="7" t="s">
-        <v>3401</v>
+        <v>3399</v>
       </c>
       <c r="K223" t="s">
-        <v>3402</v>
+        <v>3400</v>
       </c>
       <c r="L223" s="57" t="s">
-        <v>3629</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.15">
@@ -45266,23 +45284,23 @@
         <v>DE</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>3403</v>
+        <v>3401</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>3404</v>
+        <v>3402</v>
       </c>
       <c r="F224" s="12" t="s">
         <v>541</v>
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7" t="s">
-        <v>3405</v>
+        <v>3403</v>
       </c>
       <c r="K224" t="s">
-        <v>3406</v>
+        <v>3404</v>
       </c>
       <c r="L224" s="57" t="s">
-        <v>3585</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.15">
@@ -45294,23 +45312,23 @@
         <v>DF</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>3407</v>
+        <v>3405</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>3407</v>
+        <v>3405</v>
       </c>
       <c r="F225" s="12" t="s">
         <v>419</v>
       </c>
       <c r="I225" s="7"/>
       <c r="J225" s="7" t="s">
-        <v>3408</v>
+        <v>3406</v>
       </c>
       <c r="K225" t="s">
         <v>2638</v>
       </c>
       <c r="L225" s="57" t="s">
-        <v>3584</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.15">
@@ -45322,25 +45340,25 @@
         <v>E0</v>
       </c>
       <c r="D226" s="7" t="s">
+        <v>3407</v>
+      </c>
+      <c r="E226" s="7" t="s">
+        <v>3408</v>
+      </c>
+      <c r="F226" s="12" t="s">
         <v>3409</v>
       </c>
-      <c r="E226" s="7" t="s">
+      <c r="I226" s="7" t="s">
         <v>3410</v>
       </c>
-      <c r="F226" s="12" t="s">
+      <c r="J226" s="7" t="s">
         <v>3411</v>
-      </c>
-      <c r="I226" s="7" t="s">
-        <v>3412</v>
-      </c>
-      <c r="J226" s="7" t="s">
-        <v>3413</v>
       </c>
       <c r="K226" t="s">
         <v>2633</v>
       </c>
       <c r="L226" s="57" t="s">
-        <v>3583</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.15">
@@ -45352,23 +45370,23 @@
         <v>E1</v>
       </c>
       <c r="D227" s="7" t="s">
+        <v>3412</v>
+      </c>
+      <c r="E227" s="7" t="s">
+        <v>3413</v>
+      </c>
+      <c r="F227" s="12" t="s">
         <v>3414</v>
-      </c>
-      <c r="E227" s="7" t="s">
-        <v>3415</v>
-      </c>
-      <c r="F227" s="12" t="s">
-        <v>3416</v>
       </c>
       <c r="I227" s="7"/>
       <c r="J227" s="7" t="s">
-        <v>3417</v>
+        <v>3415</v>
       </c>
       <c r="K227" s="7" t="s">
-        <v>3418</v>
-      </c>
-      <c r="L227" s="21" t="s">
-        <v>2943</v>
+        <v>3416</v>
+      </c>
+      <c r="L227" s="57" t="s">
+        <v>3664</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.15">
@@ -45380,23 +45398,23 @@
         <v>E2</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>3419</v>
+        <v>3417</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="F228" t="s">
         <v>422</v>
       </c>
       <c r="I228" s="7"/>
       <c r="J228" t="s">
-        <v>3421</v>
+        <v>3419</v>
       </c>
       <c r="K228" t="s">
-        <v>3422</v>
+        <v>3420</v>
       </c>
       <c r="L228" s="57" t="s">
-        <v>3582</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="229" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -45408,10 +45426,10 @@
         <v>E3</v>
       </c>
       <c r="D229" s="13" t="s">
-        <v>3423</v>
+        <v>3421</v>
       </c>
       <c r="E229" s="13" t="s">
-        <v>3424</v>
+        <v>3422</v>
       </c>
       <c r="F229" s="12" t="s">
         <v>432</v>
@@ -45422,10 +45440,10 @@
         <v>1618</v>
       </c>
       <c r="K229" s="13" t="s">
-        <v>3425</v>
+        <v>3423</v>
       </c>
       <c r="L229" s="57" t="s">
-        <v>3646</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.15">
@@ -45437,23 +45455,23 @@
         <v>E4</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
       <c r="E230" s="7" t="s">
-        <v>3426</v>
+        <v>3424</v>
       </c>
       <c r="F230" s="12" t="s">
-        <v>3427</v>
+        <v>3425</v>
       </c>
       <c r="I230" s="7"/>
       <c r="J230" s="7" t="s">
-        <v>3428</v>
+        <v>3426</v>
       </c>
       <c r="K230" s="7" t="s">
-        <v>3429</v>
+        <v>3427</v>
       </c>
       <c r="L230" s="57" t="s">
-        <v>3645</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.15">
@@ -45465,23 +45483,23 @@
         <v>E5</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>3430</v>
+        <v>3428</v>
       </c>
       <c r="E231" s="7" t="s">
         <v>373</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>3431</v>
+        <v>3429</v>
       </c>
       <c r="I231" s="7"/>
       <c r="J231" s="7" t="s">
-        <v>3432</v>
+        <v>3430</v>
       </c>
       <c r="K231" s="7" t="s">
-        <v>3433</v>
+        <v>3431</v>
       </c>
       <c r="L231" s="57" t="s">
-        <v>3622</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.15">
@@ -45499,16 +45517,16 @@
         <v>376</v>
       </c>
       <c r="F232" t="s">
-        <v>3434</v>
+        <v>3432</v>
       </c>
       <c r="J232" s="3" t="s">
         <v>376</v>
       </c>
       <c r="K232" s="3" t="s">
-        <v>3435</v>
-      </c>
-      <c r="L232" s="21" t="s">
-        <v>2923</v>
+        <v>3433</v>
+      </c>
+      <c r="L232" s="57" t="s">
+        <v>3646</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.15">
@@ -45520,23 +45538,23 @@
         <v>E7</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>3436</v>
+        <v>3434</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>1473</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>3437</v>
+        <v>3435</v>
       </c>
       <c r="I233" s="2"/>
       <c r="J233" s="3" t="s">
-        <v>3438</v>
+        <v>3436</v>
       </c>
       <c r="K233" s="3" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
       <c r="L233" s="57" t="s">
-        <v>3581</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.15">
@@ -45548,22 +45566,22 @@
         <v>E8</v>
       </c>
       <c r="D234" s="3" t="s">
+        <v>3438</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>3439</v>
+      </c>
+      <c r="F234" s="2" t="s">
         <v>3440</v>
       </c>
-      <c r="E234" s="3" t="s">
+      <c r="J234" s="3" t="s">
         <v>3441</v>
       </c>
-      <c r="F234" s="2" t="s">
-        <v>3442</v>
-      </c>
-      <c r="J234" s="3" t="s">
-        <v>3443</v>
-      </c>
       <c r="K234" s="3" t="s">
-        <v>3077</v>
+        <v>3075</v>
       </c>
       <c r="L234" s="57" t="s">
-        <v>3627</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.15">
@@ -45575,22 +45593,22 @@
         <v>E9</v>
       </c>
       <c r="D235" s="3" t="s">
+        <v>3442</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>3443</v>
+      </c>
+      <c r="F235" t="s">
         <v>3444</v>
       </c>
-      <c r="E235" s="3" t="s">
+      <c r="J235" s="3" t="s">
         <v>3445</v>
       </c>
-      <c r="F235" t="s">
+      <c r="K235" s="3" t="s">
         <v>3446</v>
       </c>
-      <c r="J235" s="3" t="s">
-        <v>3447</v>
-      </c>
-      <c r="K235" s="3" t="s">
-        <v>3448</v>
-      </c>
       <c r="L235" s="57" t="s">
-        <v>3642</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.15">
@@ -45602,22 +45620,22 @@
         <v>EA</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>3449</v>
+        <v>3447</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>3449</v>
+        <v>3447</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>3450</v>
+        <v>3448</v>
       </c>
       <c r="J236" s="3" t="s">
-        <v>3449</v>
+        <v>3447</v>
       </c>
       <c r="K236" s="3" t="s">
-        <v>3449</v>
+        <v>3447</v>
       </c>
       <c r="L236" s="56" t="s">
-        <v>3663</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.15">
@@ -45629,25 +45647,25 @@
         <v>EB</v>
       </c>
       <c r="D237" s="3" t="s">
+        <v>3449</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>3450</v>
+      </c>
+      <c r="F237" s="2" t="s">
         <v>3451</v>
       </c>
-      <c r="E237" s="3" t="s">
+      <c r="I237" s="3" t="s">
         <v>3452</v>
       </c>
-      <c r="F237" s="2" t="s">
+      <c r="J237" s="3" t="s">
         <v>3453</v>
       </c>
-      <c r="I237" s="3" t="s">
+      <c r="K237" s="3" t="s">
         <v>3454</v>
       </c>
-      <c r="J237" s="3" t="s">
-        <v>3455</v>
-      </c>
-      <c r="K237" s="3" t="s">
-        <v>3456</v>
-      </c>
       <c r="L237" s="57" t="s">
-        <v>3580</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.15">
@@ -45659,25 +45677,25 @@
         <v>EC</v>
       </c>
       <c r="D238" s="3" t="s">
+        <v>3455</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>3456</v>
+      </c>
+      <c r="F238" s="2" t="s">
         <v>3457</v>
-      </c>
-      <c r="E238" s="3" t="s">
-        <v>3458</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>3459</v>
       </c>
       <c r="I238" s="3" t="s">
         <v>190</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>3460</v>
+        <v>3458</v>
       </c>
       <c r="K238" s="3" t="s">
-        <v>3380</v>
+        <v>3378</v>
       </c>
       <c r="L238" s="21" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="N238"/>
     </row>
@@ -45690,22 +45708,22 @@
         <v>ED</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>3455</v>
+        <v>3453</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>563</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
       <c r="L239" s="57" t="s">
-        <v>3620</v>
+        <v>3657</v>
       </c>
       <c r="N239"/>
     </row>
@@ -45718,22 +45736,22 @@
         <v>EE</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>3465</v>
+        <v>3463</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>532</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
       <c r="J240" s="3" t="s">
-        <v>3467</v>
+        <v>3465</v>
       </c>
       <c r="L240" s="57" t="s">
-        <v>3619</v>
+        <v>3607</v>
       </c>
       <c r="N240"/>
     </row>
@@ -45746,23 +45764,23 @@
         <v>EF</v>
       </c>
       <c r="D241" s="13" t="s">
+        <v>3466</v>
+      </c>
+      <c r="E241" s="13" t="s">
+        <v>3467</v>
+      </c>
+      <c r="F241" s="2" t="s">
         <v>3468</v>
-      </c>
-      <c r="E241" s="13" t="s">
-        <v>3469</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>3470</v>
       </c>
       <c r="G241" s="15"/>
       <c r="I241" s="13" t="s">
         <v>173</v>
       </c>
       <c r="J241" s="13" t="s">
-        <v>3471</v>
+        <v>3469</v>
       </c>
       <c r="L241" s="57" t="s">
-        <v>3616</v>
+        <v>3604</v>
       </c>
       <c r="N241"/>
     </row>
@@ -45775,23 +45793,23 @@
         <v>F0</v>
       </c>
       <c r="D242" s="16" t="s">
+        <v>3470</v>
+      </c>
+      <c r="E242" s="16" t="s">
+        <v>3471</v>
+      </c>
+      <c r="F242" s="2" t="s">
         <v>3472</v>
-      </c>
-      <c r="E242" s="16" t="s">
-        <v>3473</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>3474</v>
       </c>
       <c r="G242" s="17"/>
       <c r="I242" s="16" t="s">
-        <v>3475</v>
+        <v>3473</v>
       </c>
       <c r="J242" s="16" t="s">
-        <v>3476</v>
+        <v>3474</v>
       </c>
       <c r="L242" s="57" t="s">
-        <v>3579</v>
+        <v>3656</v>
       </c>
       <c r="N242"/>
     </row>
@@ -45804,10 +45822,10 @@
         <v>F1</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>3477</v>
+        <v>3475</v>
       </c>
       <c r="E243" s="7" t="s">
-        <v>3478</v>
+        <v>3476</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>554</v>
@@ -45817,38 +45835,38 @@
         <v>170</v>
       </c>
       <c r="J243" s="7" t="s">
-        <v>3479</v>
+        <v>3477</v>
       </c>
       <c r="L243" s="57" t="s">
-        <v>3578</v>
+        <v>3573</v>
       </c>
       <c r="N243"/>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A244" s="2" t="s">
-        <v>3480</v>
+        <v>3478</v>
       </c>
       <c r="B244" s="2" t="str">
         <f t="shared" si="3"/>
         <v>F2</v>
       </c>
       <c r="D244" s="3" t="s">
+        <v>3479</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>3480</v>
+      </c>
+      <c r="F244" s="2" t="s">
         <v>3481</v>
       </c>
-      <c r="E244" s="3" t="s">
+      <c r="I244" s="3" t="s">
         <v>3482</v>
       </c>
-      <c r="F244" s="2" t="s">
+      <c r="J244" s="3" t="s">
         <v>3483</v>
       </c>
-      <c r="I244" s="3" t="s">
-        <v>3484</v>
-      </c>
-      <c r="J244" s="3" t="s">
-        <v>3485</v>
-      </c>
       <c r="L244" s="57" t="s">
-        <v>3667</v>
+        <v>3645</v>
       </c>
       <c r="N244"/>
     </row>
@@ -45864,19 +45882,19 @@
         <v>1395</v>
       </c>
       <c r="E245" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>3485</v>
+      </c>
+      <c r="I245" s="3" t="s">
         <v>3486</v>
       </c>
-      <c r="F245" s="2" t="s">
+      <c r="J245" s="3" t="s">
         <v>3487</v>
       </c>
-      <c r="I245" s="3" t="s">
-        <v>3488</v>
-      </c>
-      <c r="J245" s="3" t="s">
-        <v>3489</v>
-      </c>
       <c r="L245" s="57" t="s">
-        <v>3666</v>
+        <v>3644</v>
       </c>
       <c r="N245"/>
     </row>
@@ -45889,22 +45907,22 @@
         <v>F4</v>
       </c>
       <c r="D246" s="3" t="s">
+        <v>3488</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>3489</v>
+      </c>
+      <c r="F246" s="2" t="s">
         <v>3490</v>
       </c>
-      <c r="E246" s="3" t="s">
+      <c r="I246" s="3" t="s">
+        <v>3304</v>
+      </c>
+      <c r="J246" s="3" t="s">
         <v>3491</v>
       </c>
-      <c r="F246" s="2" t="s">
-        <v>3492</v>
-      </c>
-      <c r="I246" s="3" t="s">
-        <v>3306</v>
-      </c>
-      <c r="J246" s="3" t="s">
-        <v>3493</v>
-      </c>
       <c r="L246" s="57" t="s">
-        <v>3665</v>
+        <v>3653</v>
       </c>
       <c r="N246"/>
     </row>
@@ -45917,22 +45935,22 @@
         <v>F5</v>
       </c>
       <c r="D247" s="3" t="s">
+        <v>3492</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>3493</v>
+      </c>
+      <c r="F247" s="2" t="s">
         <v>3494</v>
-      </c>
-      <c r="E247" s="3" t="s">
-        <v>3495</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>3496</v>
       </c>
       <c r="I247" s="3" t="s">
         <v>1098</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>3497</v>
+        <v>3495</v>
       </c>
       <c r="L247" s="57" t="s">
-        <v>3664</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.15">
@@ -45944,10 +45962,10 @@
         <v>F6</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>3498</v>
+        <v>3496</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>3499</v>
+        <v>3497</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>403</v>
@@ -45956,13 +45974,13 @@
         <v>1089</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>3500</v>
+        <v>3498</v>
       </c>
       <c r="K248" t="s">
         <v>2840</v>
       </c>
       <c r="L248" s="57" t="s">
-        <v>3637</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.15">
@@ -45977,22 +45995,22 @@
         <v>1388</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>3501</v>
+        <v>3499</v>
       </c>
       <c r="F249" s="18" t="s">
-        <v>3502</v>
+        <v>3500</v>
       </c>
       <c r="I249" s="3" t="s">
         <v>1104</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>3503</v>
+        <v>3501</v>
       </c>
       <c r="K249" t="s">
         <v>2811</v>
       </c>
       <c r="L249" s="57" t="s">
-        <v>3660</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.15">
@@ -46004,25 +46022,25 @@
         <v>F8</v>
       </c>
       <c r="D250" s="3" t="s">
+        <v>3502</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>3503</v>
+      </c>
+      <c r="F250" t="s">
         <v>3504</v>
-      </c>
-      <c r="E250" s="3" t="s">
-        <v>3505</v>
-      </c>
-      <c r="F250" t="s">
-        <v>3506</v>
       </c>
       <c r="I250" s="3" t="s">
         <v>1101</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>3507</v>
+        <v>3505</v>
       </c>
       <c r="K250" t="s">
         <v>2790</v>
       </c>
       <c r="L250" s="57" t="s">
-        <v>3659</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.15">
@@ -46034,25 +46052,25 @@
         <v>F9</v>
       </c>
       <c r="D251" s="3" t="s">
+        <v>3506</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>3507</v>
+      </c>
+      <c r="F251" t="s">
         <v>3508</v>
-      </c>
-      <c r="E251" s="3" t="s">
-        <v>3509</v>
-      </c>
-      <c r="F251" t="s">
-        <v>3510</v>
       </c>
       <c r="I251" s="3" t="s">
         <v>1086</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>3511</v>
+        <v>3509</v>
       </c>
       <c r="K251" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
       <c r="L251" s="57" t="s">
-        <v>3658</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.15">
@@ -46067,22 +46085,22 @@
         <v>468</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>3322</v>
+        <v>3320</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>3513</v>
+        <v>3511</v>
       </c>
       <c r="I252" t="s">
         <v>1095</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="K252" t="s">
         <v>2730</v>
       </c>
       <c r="L252" s="57" t="s">
-        <v>3657</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.15">
@@ -46094,10 +46112,10 @@
         <v>FB</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>3515</v>
+        <v>3513</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>3516</v>
+        <v>3514</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>552</v>
@@ -46106,13 +46124,13 @@
         <v>1083</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="K253" t="s">
         <v>2707</v>
       </c>
       <c r="L253" s="57" t="s">
-        <v>3656</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.15">
@@ -46120,13 +46138,13 @@
         <v>252</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>3516</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>3517</v>
+      </c>
+      <c r="E254" s="3" t="s">
         <v>3518</v>
-      </c>
-      <c r="D254" s="3" t="s">
-        <v>3519</v>
-      </c>
-      <c r="E254" s="3" t="s">
-        <v>3520</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>501</v>
@@ -46135,13 +46153,13 @@
         <v>1092</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>3521</v>
+        <v>3519</v>
       </c>
       <c r="K254" t="s">
         <v>2686</v>
       </c>
       <c r="L254" s="57" t="s">
-        <v>3655</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.15">
@@ -46152,25 +46170,25 @@
         <v>1132</v>
       </c>
       <c r="D255" s="3" t="s">
+        <v>3520</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>3521</v>
+      </c>
+      <c r="F255" s="2" t="s">
         <v>3522</v>
       </c>
-      <c r="E255" s="2" t="s">
+      <c r="I255" s="2" t="s">
         <v>3523</v>
       </c>
-      <c r="F255" s="2" t="s">
+      <c r="J255" s="3" t="s">
         <v>3524</v>
       </c>
-      <c r="I255" s="2" t="s">
+      <c r="K255" s="3" t="s">
         <v>3525</v>
       </c>
-      <c r="J255" s="3" t="s">
-        <v>3526</v>
-      </c>
-      <c r="K255" s="3" t="s">
-        <v>3527</v>
-      </c>
       <c r="L255" s="57" t="s">
-        <v>3654</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.15">
@@ -46178,28 +46196,28 @@
         <v>254</v>
       </c>
       <c r="B256" s="2" t="s">
+        <v>3526</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>3388</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>3388</v>
+      </c>
+      <c r="F256" t="s">
+        <v>3378</v>
+      </c>
+      <c r="I256" s="3" t="s">
+        <v>3527</v>
+      </c>
+      <c r="J256" s="3" t="s">
         <v>3528</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>3390</v>
-      </c>
-      <c r="E256" s="3" t="s">
-        <v>3390</v>
-      </c>
-      <c r="F256" t="s">
-        <v>3380</v>
-      </c>
-      <c r="I256" s="3" t="s">
-        <v>3529</v>
-      </c>
-      <c r="J256" s="3" t="s">
-        <v>3530</v>
       </c>
       <c r="K256" s="3" t="s">
         <v>2635</v>
       </c>
       <c r="L256" s="57" t="s">
-        <v>3653</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.15">
@@ -46207,26 +46225,26 @@
         <v>255</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>3531</v>
+        <v>3529</v>
       </c>
       <c r="C257" s="3"/>
       <c r="D257" s="3" t="s">
+        <v>3530</v>
+      </c>
+      <c r="E257" t="s">
+        <v>3531</v>
+      </c>
+      <c r="I257" t="s">
         <v>3532</v>
       </c>
-      <c r="E257" t="s">
+      <c r="J257" s="3" t="s">
         <v>3533</v>
       </c>
-      <c r="I257" t="s">
+      <c r="K257" s="3" t="s">
         <v>3534</v>
       </c>
-      <c r="J257" s="3" t="s">
-        <v>3535</v>
-      </c>
-      <c r="K257" s="3" t="s">
-        <v>3536</v>
-      </c>
       <c r="L257" s="56" t="s">
-        <v>3652</v>
+        <v>3631</v>
       </c>
     </row>
   </sheetData>

--- a/ra1/ra1字符串表.xlsx
+++ b/ra1/ra1字符串表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\cc\ra1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC30F58-CACE-4287-988C-A1D23968DBAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF61983B-5187-4E42-ADE8-F57F120B1521}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10770" yWindow="1575" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="界面字符串conquer.eng" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6288" uniqueCount="3671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6326" uniqueCount="3715">
   <si>
     <t>编号</t>
   </si>
@@ -8654,9 +8654,6 @@
     <t>他们不再是苏联人，是我们伟大帝国的敌人。</t>
   </si>
   <si>
-    <t>人,是我们伟大帝国的敌人.作为敌人,必须消灭</t>
-  </si>
-  <si>
     <t>3=enemies, they must be destroyed.@@Take Stalin's elite shock troopers and</t>
   </si>
   <si>
@@ -8669,18 +8666,12 @@
     <t>带着斯大林的精英电击兵，向他们展示苏军的铁腕。</t>
   </si>
   <si>
-    <t>带着斯大林的精英闪电兵,向他们展示苏军的铁</t>
-  </si>
-  <si>
     <t>5=seek help from the minute allied influence in the area.@@Whatever</t>
   </si>
   <si>
     <t>毫无疑问，叛徒将向该地贫弱的盟军寻求援助。</t>
   </si>
   <si>
-    <t>腕.毫无疑问,叛徒将向该地贫弱的盟军寻求援助</t>
-  </si>
-  <si>
     <t>6=pathetic support they can muster, it will not be enough. Crush them all</t>
   </si>
   <si>
@@ -8718,9 +8709,6 @@
   </si>
   <si>
     <t>这辆车能够扭曲周身光线，“反射”可见光。</t>
-  </si>
-  <si>
-    <t>军狗,它能够扭曲周围光线,"消失"在可见光中</t>
   </si>
   <si>
     <t>3="phasing" out of the visible spectrum.@@Take this vehicle, and infiltrate</t>
@@ -10667,10 +10655,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>用补给车给水源下毒,可以让任务更加容易.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>莫洛托夫兄弟是我们的重要军火商,但情报显示</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -10683,14 +10667,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>通敌,去撤离点,发送增援信号,和对所有叛徒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>一样,干掉他们.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>盟军逮捕了沃尔科夫,肯定会严加拷打,不能这样.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -10711,10 +10687,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>派遣武装,消灭反对者.据说当地平民拥有武装,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>螳臂挡车而已.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -10763,26 +10735,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>f5 00 00 00 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>f3 00 00 00 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>d7 00 00 00 00 00 00 00 00</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>d5 00 00 00 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>d4 00 00 00 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>d0 00 00 00 00 00 00 00 00</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -10791,42 +10747,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ec 2e 00 00 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>无论盟军能给以何种微弱援助,这都是不够的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>带回原型车,否则就不用回来了</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>研发设施,并把新玩具给斯大林带回来</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>岛上所有盟军痕迹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>俘获超时空传送仪,传送自走基地到对面岛屿</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用补给车给水源下毒,可以让任务更加容易</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>他们涉嫌与盟军交易</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>一样,干掉他们</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>支奴干撤离,并</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -10839,26 +10763,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>f2 2c 00 00 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>f1 2e 00 00 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>f0 2e 00 00 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>eb 2e 00 00 00 00 00 00 00</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>e7 2e 00 00 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>e6 2e 00 00 00 00 00 00 00</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -10867,42 +10775,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>e0 2e 00 00 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>df 2c 00 00 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>de 2e 00 00 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>da 2e 00 00 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>d8 2e 00 00 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>d6 2e 00 00 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>d3 2e 00 00 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>逮捕了沃尔科夫,肯定会严加拷打,不能这样</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 84 d2 2e 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>cf ea 84 2e 00 00 00 00 00</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -10919,46 +10791,14 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>斯大林希望实地测试新研制的原型车,以对抗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ef 15 00 00 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>84 ee 2e 00 00 00 00 00 00</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>狗,它能够扭曲周围光线,"消失"在可见光中</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在研发超时空武器,防御完备,进攻受挫</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 84 db 2e 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>中和完毕后摧毁盟军基地.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>让沃尔科夫俘获原型车,并确保盟军不能再造</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>e8 2e bb 00 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>bb dd 2c 00 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>中和完毕后</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -10979,10 +10819,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>该地区四个雷达站,重新定位追踪沃尔科夫</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>格伦耶夫省</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -10991,42 +10827,14 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>的居民反对苏军进入西欧,让他们闭嘴</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>f6 cd 2e 00 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>bb d1 2e 00 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>间谍报告了盟军的一项新技术,斯大林想得到</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>它</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>e9 c8 2e 00 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用了盟军卑劣的时空传送技术,可自行传送</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>盟军正在一个属于苏联帝国的岛上测试新武器.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>c8 e4 2e 00 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>余生</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -11075,18 +10883,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>一个边陲小镇一直在支持盟军.他们不再是苏联</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>带着斯大林的精英闪电兵,向他们展示苏军的铁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>腕.毫无疑问,叛徒将向该地贫弱的盟军寻求援助</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>不要辜负我们</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -11099,66 +10895,18 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>一旦泄露,全军覆灭</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>激进派打算用生物武器,对付盟军,但它极不稳定</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果盟军得到沃尔科夫的控制码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>武器</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>人,是我们伟大帝国的敌人.作为敌人,必须</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>f4 bb 2e 00 00 00 00 00 00</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>碾碎他们,势不可挡.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>碾碎他们,势不可挡</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用原型车,渗透盟军基地.测试项目为</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ed bb 15 84 00 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 84 e5 c7 2e 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 84 e3 c7 2e 00 00 00 00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在一个属于苏联帝国的岛上测试新</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>无论如何,岛都是我们的.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>无论如何,岛都是我们的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>有山脉屏障,别让它阻碍你,清除</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -11175,15 +10923,447 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ce 2c bb c8 2e 00 00 00 00</t>
+    <t>敌,去撤离点,发送增援信号,和对所有叛徒一样</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>猪研制除了一种叫"超时空坦克"的</t>
+    <t>让</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>海岛防御,让科学家去研究所中和生物</t>
+    <t>肯定会严加拷打,不能这样</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>逮捕了</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃尔科夫</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人,而是我们伟大帝国的敌人.作为敌人,必须</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻求援助</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无论</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望实地测试新研制的原型车,以对抗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>be ef 15 00 00 00 00 00 00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>带回来</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁腕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>能给以何种微弱援助,这都是不够</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>毫无疑问,叛徒将向该地贫弱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无论如何,岛都是我们</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时空</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>俘获</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>仪,传送自走基地到对面岛屿</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷达站</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>和科技中心,切断通讯后,援军将抵达</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯大林</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英闪电兵,向</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不再是苏联</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>碾碎</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>势不可挡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>真的通</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>闭嘴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>干掉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦克</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特工潜入基地,监视</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用原型车,渗透</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试项目为</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>间谍报告了</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>俘获原型车,并确保</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能再造</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用了</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>卑劣</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>岛上所有</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>激进派打算用生物武器对付</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉嫌与</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>设施,并把新玩具给</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>项新</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可自行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>极不稳定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>但</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位追踪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完备,进攻受挫</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>海岛</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>属于苏联帝国的岛上测试新</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>边陲小镇一直在支持</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>该地区四</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ed 15 84 b7 2e a8 bb 15 84</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>c5 c4 e8 15 84 a6 2e bb 00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗,它能扭曲周围光线,"消失"在可见光中</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>旦泄露,全军覆灭</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学家去研究所中和生物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>居民反对苏军进入西欧</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>他们</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人,而是我们伟大帝国的敌人.作为敌人,必须摧毁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>c5 be b6 bf 80 ad 16 84 bd 2e</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f3 86 f5 15 84 2e 80 c0 00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>让斯大林的精英闪电兵,向他们展示苏军的铁腕.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>毫无疑问,叛徒将向该地贫弱的盟军寻求援助,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f2 b6 15 84 bc 2c 00 00 00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ba 15 84 f1 b6 2e 00 00 00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f0 80 2c ac 21 00 00 00 00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>碾碎他们,势不可挡!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>军狗,它能扭曲周围光线,"消失"在可见光中</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>db e7 be b9 2e 00 00 00 00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>af ec 2e 00 00 00 00 00 00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 84 e5 22 b5 b4 22 b6 08 c7 2e</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪研制了一种叫</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>c8 e4 15 84 a4 b6 b5 b3 a0 2c b2 b3 2e</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 84 99 f3 86 e3 c7 2e 00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e0 15 84 2e 00 00 00 00 00 00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>df 15 84 2c 89 c8 a2 2c 00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb 88 87 2c c5 dd c7 2c 00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f3 de 2e 00 00 00 00 00 00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 84 99 db b5 c7 2c 87 b1 2e</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>da b5 b3 b0 2e 00 00 00 00 00 00 00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>d8 12 2e 00 00 00 00 00 00 00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用补给车给水源下毒,可以让任务更加</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用补给车给水源下毒,可以让任务更加简单.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">80 d6 15 84 a1 2e 00 00 00 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>c5 d5 80 b6 ab 2c c2 80 aa</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>通敌,去撤离点,发送增援信号,和对所有叛徒一样</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>干掉他们.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>d4 2c 00 00 00 00 00 00 00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>d3 80 2e 00 00 00 00 00 00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 84 c3 c4 2c d2 2e 00 00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb d1 86 af 2c 7f ae c4 2e</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>想</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>c2 15 84 c1 c4 b6 ce 2c bb c8 2e</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>e9 15 84 b6 f3 a7 a0 2c be b8 c1 c8 2e</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f6 cd 2c c5 80 a9 2c 00 00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>派遣武装,消灭反对者.据说当地平民拥有武器,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -11324,7 +11504,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11505,6 +11685,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22294,14 +22483,14 @@
         <v>865</v>
       </c>
       <c r="D322" s="55" t="s">
-        <v>3535</v>
+        <v>3531</v>
       </c>
       <c r="E322" s="29" t="str">
         <f>VLOOKUP(MID(D322,1,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D322,4,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D322,7,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D322,10,2),字库代码!B:I,8,TRUE)&amp;VLOOKUP(MID(D322,13,2),字库代码!B:I,8,TRUE)</f>
         <v>%s已退出游戏</v>
       </c>
       <c r="F322" s="55" t="s">
-        <v>3536</v>
+        <v>3532</v>
       </c>
       <c r="I322" t="s">
         <v>16</v>
@@ -34590,9 +34779,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J293"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G274" sqref="G274"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F289" sqref="F289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -37662,7 +37851,7 @@
         <v>2868</v>
       </c>
       <c r="G219" s="58" t="s">
-        <v>3565</v>
+        <v>3679</v>
       </c>
       <c r="H219" s="58" t="str">
         <f>VLOOKUP(MID(G219,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G219,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G219,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G219,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G219,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G219,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G219,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G219,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G219,25,2),字库代码!B:L,11,TRUE)</f>
@@ -37680,25 +37869,25 @@
         <v>2871</v>
       </c>
       <c r="F220" s="58" t="s">
-        <v>2872</v>
+        <v>3677</v>
       </c>
       <c r="G220" s="58" t="s">
-        <v>3654</v>
+        <v>3598</v>
       </c>
       <c r="H220" s="58" t="str">
         <f>VLOOKUP(MID(G220,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G220,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G220,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G220,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G220,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G220,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G220,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G220,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G220,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>人,是我们伟大帝国的敌人.作为敌人,必须摧毁.</v>
+        <v>人,而是我们伟大帝国的敌人.作为敌人,必须摧毁.</v>
       </c>
     </row>
     <row r="221" spans="1:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C221" s="58" t="s">
-        <v>3557</v>
+        <v>3549</v>
       </c>
       <c r="D221" s="58" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E221" s="58" t="s">
         <v>2873</v>
-      </c>
-      <c r="E221" s="58" t="s">
-        <v>2874</v>
       </c>
     </row>
     <row r="222" spans="1:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
@@ -37707,52 +37896,52 @@
         <v>(余生)苏军: 电击治疗</v>
       </c>
       <c r="D222" s="58" t="s">
+        <v>2874</v>
+      </c>
+      <c r="E222" s="58" t="s">
         <v>2875</v>
       </c>
-      <c r="E222" s="58" t="s">
-        <v>2876</v>
-      </c>
       <c r="F222" s="58" t="s">
-        <v>2877</v>
+        <v>3680</v>
       </c>
       <c r="G222" s="58" t="s">
-        <v>3566</v>
+        <v>3678</v>
       </c>
       <c r="H222" s="58" t="str">
-        <f>VLOOKUP(MID(G222,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G222,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G222,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G222,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G222,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G222,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G222,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G222,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G222,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>带着斯大林的精英闪电兵,向他们展示苏军的铁</v>
+        <f>VLOOKUP(MID(G222,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G222,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G222,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G222,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G222,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G222,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G222,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G222,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G222,25,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G222,28,2),字库代码!B:L,11,TRUE)</f>
+        <v>让斯大林的精英闪电兵,向他们展示苏军铁腕.</v>
       </c>
     </row>
     <row r="223" spans="1:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D223" s="58" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="E223" s="58" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="F223" s="58" t="s">
-        <v>2880</v>
+        <v>3681</v>
       </c>
       <c r="G223" s="58" t="s">
-        <v>3584</v>
+        <v>3682</v>
       </c>
       <c r="H223" s="58" t="str">
         <f>VLOOKUP(MID(G223,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G223,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G223,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G223,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G223,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G223,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G223,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G223,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G223,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>腕.毫无疑问,叛徒将向该地贫弱的盟军寻求援助,</v>
+        <v>毫无疑问,叛徒将向该地贫弱的盟军寻求援助,</v>
       </c>
     </row>
     <row r="224" spans="1:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D224" s="58" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="E224" s="58" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="F224" s="58" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="G224" s="58" t="s">
-        <v>3585</v>
+        <v>3683</v>
       </c>
       <c r="H224" s="58" t="str">
         <f>VLOOKUP(MID(G224,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G224,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G224,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G224,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G224,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G224,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G224,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G224,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G224,25,2),字库代码!B:L,11,TRUE)</f>
@@ -37761,41 +37950,41 @@
     </row>
     <row r="225" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D225" s="58" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="E225" s="58" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="F225" s="58" t="s">
-        <v>3655</v>
+        <v>3685</v>
       </c>
       <c r="G225" s="58" t="s">
-        <v>3586</v>
+        <v>3684</v>
       </c>
       <c r="H225" s="58" t="str">
         <f>VLOOKUP(MID(G225,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G225,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G225,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G225,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G225,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G225,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G225,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G225,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G225,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>碾碎他们,势不可挡.</v>
+        <v>碾碎他们,势不可挡!</v>
       </c>
     </row>
     <row r="226" spans="2:8" s="59" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="227" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B227" s="58" t="s">
+        <v>2883</v>
+      </c>
+      <c r="C227" s="58" t="s">
+        <v>2884</v>
+      </c>
+      <c r="D227" s="58" t="s">
+        <v>2885</v>
+      </c>
+      <c r="E227" s="58" t="s">
         <v>2886</v>
       </c>
-      <c r="C227" s="58" t="s">
+      <c r="F227" s="58" t="s">
         <v>2887</v>
       </c>
-      <c r="D227" s="58" t="s">
-        <v>2888</v>
-      </c>
-      <c r="E227" s="58" t="s">
-        <v>2889</v>
-      </c>
-      <c r="F227" s="58" t="s">
-        <v>2890</v>
-      </c>
       <c r="G227" s="58" t="s">
-        <v>3605</v>
+        <v>3615</v>
       </c>
       <c r="H227" s="58" t="str">
         <f>VLOOKUP(MID(G227,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G227,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G227,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G227,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G227,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G227,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G227,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G227,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G227,25,2),字库代码!B:L,11,TRUE)</f>
@@ -37804,34 +37993,34 @@
     </row>
     <row r="228" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C228" s="58" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="D228" s="58" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="E228" s="58" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="F228" s="58" t="s">
-        <v>2894</v>
+        <v>3686</v>
       </c>
       <c r="G228" s="58" t="s">
-        <v>3606</v>
+        <v>3571</v>
       </c>
       <c r="H228" s="58" t="str">
         <f>VLOOKUP(MID(G228,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G228,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G228,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G228,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G228,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G228,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G228,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G228,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G228,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>军狗,它能够扭曲周围光线,"消失"在可见光中.</v>
+        <v>军狗,它能扭曲周围光线,"消失"在可见光中.</v>
       </c>
     </row>
     <row r="229" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C229" s="58" t="s">
-        <v>3558</v>
+        <v>3550</v>
       </c>
       <c r="D229" s="58" t="s">
-        <v>2895</v>
+        <v>2891</v>
       </c>
       <c r="E229" s="58" t="s">
-        <v>2896</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="230" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
@@ -37840,16 +38029,16 @@
         <v>(余生)苏军: 试驾</v>
       </c>
       <c r="D230" s="58" t="s">
-        <v>2897</v>
+        <v>2893</v>
       </c>
       <c r="E230" s="58" t="s">
-        <v>2898</v>
+        <v>2894</v>
       </c>
       <c r="F230" s="58" t="s">
-        <v>2899</v>
+        <v>2895</v>
       </c>
       <c r="G230" s="58" t="s">
-        <v>3658</v>
+        <v>3670</v>
       </c>
       <c r="H230" s="58" t="str">
         <f>VLOOKUP(MID(G230,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G230,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G230,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G230,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G230,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G230,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G230,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G230,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G230,25,2),字库代码!B:L,11,TRUE)</f>
@@ -37858,16 +38047,16 @@
     </row>
     <row r="231" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D231" s="58" t="s">
-        <v>2900</v>
+        <v>2896</v>
       </c>
       <c r="E231" s="58" t="s">
-        <v>2901</v>
+        <v>2897</v>
       </c>
       <c r="F231" s="58" t="s">
-        <v>2902</v>
+        <v>2898</v>
       </c>
       <c r="G231" s="58" t="s">
-        <v>3572</v>
+        <v>3688</v>
       </c>
       <c r="H231" s="58" t="str">
         <f>VLOOKUP(MID(G231,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G231,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G231,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G231,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G231,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G231,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G231,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G231,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G231,25,2),字库代码!B:L,11,TRUE)</f>
@@ -37876,16 +38065,16 @@
     </row>
     <row r="232" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D232" s="58" t="s">
-        <v>2903</v>
+        <v>2899</v>
       </c>
       <c r="E232" s="58" t="s">
-        <v>2904</v>
+        <v>2900</v>
       </c>
       <c r="F232" s="58" t="s">
         <v>1363</v>
       </c>
       <c r="G232" s="58" t="s">
-        <v>3571</v>
+        <v>3559</v>
       </c>
       <c r="H232" s="58" t="str">
         <f>VLOOKUP(MID(G232,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G232,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G232,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G232,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G232,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G232,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G232,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G232,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G232,25,2),字库代码!B:L,11,TRUE)</f>
@@ -37894,15 +38083,15 @@
     </row>
     <row r="233" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D233" s="58" t="s">
-        <v>2905</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="234" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F234" s="58" t="s">
-        <v>2906</v>
+        <v>2902</v>
       </c>
       <c r="G234" s="58" t="s">
-        <v>3587</v>
+        <v>3564</v>
       </c>
       <c r="H234" s="58" t="str">
         <f>VLOOKUP(MID(G234,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G234,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G234,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G234,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G234,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G234,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G234,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G234,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G234,25,2),字库代码!B:L,11,TRUE)</f>
@@ -37912,54 +38101,54 @@
     <row r="235" spans="2:8" s="59" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="236" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B236" s="58" t="s">
+        <v>2903</v>
+      </c>
+      <c r="C236" s="58" t="s">
+        <v>2904</v>
+      </c>
+      <c r="D236" s="58" t="s">
+        <v>2905</v>
+      </c>
+      <c r="E236" s="58" t="s">
+        <v>2906</v>
+      </c>
+      <c r="F236" s="58" t="s">
         <v>2907</v>
       </c>
-      <c r="C236" s="58" t="s">
-        <v>2908</v>
-      </c>
-      <c r="D236" s="58" t="s">
-        <v>2909</v>
-      </c>
-      <c r="E236" s="58" t="s">
-        <v>2910</v>
-      </c>
-      <c r="F236" s="58" t="s">
-        <v>2911</v>
-      </c>
       <c r="G236" s="58" t="s">
-        <v>3627</v>
+        <v>3712</v>
       </c>
       <c r="H236" s="58" t="str">
-        <f>VLOOKUP(MID(G236,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G236,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G236,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G236,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G236,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G236,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G236,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G236,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G236,25,2),字库代码!B:L,11,TRUE)</f>
+        <f>VLOOKUP(MID(G236,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G236,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G236,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G236,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G236,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G236,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G236,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G236,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G236,25,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G236,28,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G236,31,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G236,34,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G236,37,2),字库代码!B:L,11,TRUE)</f>
         <v>间谍报告了盟军的一项新技术,斯大林想得到它.</v>
       </c>
     </row>
     <row r="237" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C237" s="58" t="s">
-        <v>2912</v>
+        <v>2908</v>
       </c>
       <c r="D237" s="58" t="s">
-        <v>2913</v>
+        <v>2909</v>
       </c>
       <c r="E237" s="58" t="s">
-        <v>2914</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="238" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C238" s="58" t="s">
-        <v>3559</v>
+        <v>3551</v>
       </c>
       <c r="D238" s="58" t="s">
-        <v>2915</v>
+        <v>2911</v>
       </c>
       <c r="E238" s="58" t="s">
-        <v>2916</v>
+        <v>2912</v>
       </c>
       <c r="F238" s="58" t="s">
-        <v>2917</v>
+        <v>2913</v>
       </c>
       <c r="G238" s="58" t="s">
-        <v>3612</v>
+        <v>3671</v>
       </c>
       <c r="H238" s="58" t="str">
         <f>VLOOKUP(MID(G238,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G238,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G238,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G238,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G238,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G238,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G238,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G238,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G238,25,2),字库代码!B:L,11,TRUE)</f>
@@ -37972,16 +38161,16 @@
         <v>(余生)苏军: 渗透行动</v>
       </c>
       <c r="D239" s="58" t="s">
-        <v>2918</v>
+        <v>2914</v>
       </c>
       <c r="E239" s="58" t="s">
-        <v>2919</v>
+        <v>2915</v>
       </c>
       <c r="F239" s="58" t="s">
-        <v>2920</v>
+        <v>2916</v>
       </c>
       <c r="G239" s="58" t="s">
-        <v>3588</v>
+        <v>3687</v>
       </c>
       <c r="H239" s="58" t="str">
         <f>VLOOKUP(MID(G239,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G239,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G239,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G239,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G239,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G239,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G239,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G239,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G239,25,2),字库代码!B:L,11,TRUE)</f>
@@ -37990,7 +38179,7 @@
     </row>
     <row r="240" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D240" s="58" t="s">
-        <v>2921</v>
+        <v>2917</v>
       </c>
       <c r="E240" s="58" t="s">
         <v>2628</v>
@@ -37998,10 +38187,10 @@
     </row>
     <row r="241" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F241" s="58" t="s">
-        <v>2922</v>
+        <v>2918</v>
       </c>
       <c r="G241" s="58" t="s">
-        <v>3589</v>
+        <v>3565</v>
       </c>
       <c r="H241" s="58" t="str">
         <f>VLOOKUP(MID(G241,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G241,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G241,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G241,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G241,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G241,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G241,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G241,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G241,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38011,58 +38200,58 @@
     <row r="242" spans="2:8" s="59" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="243" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B243" s="58" t="s">
+        <v>2919</v>
+      </c>
+      <c r="C243" s="58" t="s">
+        <v>2920</v>
+      </c>
+      <c r="D243" s="58" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E243" s="58" t="s">
+        <v>2922</v>
+      </c>
+      <c r="F243" s="58" t="s">
         <v>2923</v>
       </c>
-      <c r="C243" s="58" t="s">
-        <v>2924</v>
-      </c>
-      <c r="D243" s="58" t="s">
-        <v>2925</v>
-      </c>
-      <c r="E243" s="58" t="s">
-        <v>2926</v>
-      </c>
-      <c r="F243" s="58" t="s">
-        <v>2927</v>
-      </c>
       <c r="G243" s="58" t="s">
-        <v>3659</v>
+        <v>3689</v>
       </c>
       <c r="H243" s="58" t="str">
-        <f>VLOOKUP(MID(G243,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G243,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G243,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G243,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G243,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G243,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G243,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G243,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G243,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>盟军猪研制除了一种叫"超时空坦克"的武器.</v>
+        <f>VLOOKUP(MID(G243,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G243,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G243,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G243,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G243,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G243,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G243,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G243,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G243,25,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G243,28,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G243,31,2),字库代码!B:L,11,TRUE)</f>
+        <v>盟军猪研制了一种叫"超时空坦克"的新武器.</v>
       </c>
     </row>
     <row r="244" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C244" s="58" t="s">
-        <v>2928</v>
+        <v>2924</v>
       </c>
       <c r="D244" s="58" t="s">
-        <v>2929</v>
+        <v>2925</v>
       </c>
       <c r="E244" s="58" t="s">
-        <v>2930</v>
+        <v>2926</v>
       </c>
       <c r="F244" s="58" t="s">
-        <v>2931</v>
+        <v>2927</v>
       </c>
       <c r="G244" s="58" t="s">
-        <v>3630</v>
+        <v>3691</v>
       </c>
       <c r="H244" s="58" t="str">
-        <f>VLOOKUP(MID(G244,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G244,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G244,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G244,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G244,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G244,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G244,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G244,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G244,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>它使用了盟军卑劣的时空传送技术,可自行传送.</v>
+        <f>VLOOKUP(MID(G244,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G244,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G244,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G244,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G244,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G244,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G244,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G244,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G244,25,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G244,28,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G244,31,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G244,34,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G244,37,2),字库代码!B:L,11,TRUE)</f>
+        <v>它使用了盟军卑劣的超时空传送技术,可自行传送.</v>
       </c>
     </row>
     <row r="245" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C245" s="58" t="s">
-        <v>3560</v>
+        <v>3552</v>
       </c>
       <c r="D245" s="58" t="s">
-        <v>2932</v>
+        <v>2928</v>
       </c>
       <c r="E245" s="58" t="s">
-        <v>2933</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="246" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
@@ -38071,16 +38260,16 @@
         <v>(余生)苏军: 测试场</v>
       </c>
       <c r="D246" s="58" t="s">
-        <v>2934</v>
+        <v>2930</v>
       </c>
       <c r="E246" s="58" t="s">
-        <v>2935</v>
+        <v>2931</v>
       </c>
       <c r="F246" s="58" t="s">
-        <v>3629</v>
+        <v>3581</v>
       </c>
       <c r="G246" s="58" t="s">
-        <v>3660</v>
+        <v>3692</v>
       </c>
       <c r="H246" s="58" t="str">
         <f>VLOOKUP(MID(G246,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G246,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G246,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G246,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G246,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G246,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G246,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G246,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G246,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38089,39 +38278,39 @@
     </row>
     <row r="247" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D247" s="58" t="s">
-        <v>2936</v>
+        <v>2932</v>
       </c>
       <c r="E247" s="58" t="s">
-        <v>2937</v>
+        <v>2933</v>
       </c>
       <c r="F247" s="58" t="s">
-        <v>3662</v>
+        <v>3599</v>
       </c>
       <c r="G247" s="58" t="s">
-        <v>3590</v>
+        <v>3566</v>
       </c>
       <c r="H247" s="58" t="str">
         <f>VLOOKUP(MID(G247,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G247,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G247,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G247,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G247,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G247,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G247,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G247,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G247,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>无论如何,岛都是我们的.</v>
+        <v>无论如何,岛都是我们.</v>
       </c>
     </row>
     <row r="248" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D248" s="58" t="s">
-        <v>2938</v>
+        <v>2934</v>
       </c>
       <c r="E248" s="58" t="s">
-        <v>2939</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="249" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D249" s="58" t="s">
-        <v>2940</v>
+        <v>2936</v>
       </c>
       <c r="F249" s="58" t="s">
-        <v>2941</v>
+        <v>2937</v>
       </c>
       <c r="G249" s="58" t="s">
-        <v>3665</v>
+        <v>3601</v>
       </c>
       <c r="H249" s="58" t="str">
         <f>VLOOKUP(MID(G249,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G249,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G249,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G249,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G249,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G249,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G249,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G249,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G249,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38130,59 +38319,59 @@
     </row>
     <row r="250" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D250" s="58" t="s">
-        <v>2942</v>
+        <v>2938</v>
       </c>
       <c r="F250" s="58" t="s">
-        <v>2943</v>
+        <v>2939</v>
       </c>
       <c r="G250" s="58" t="s">
-        <v>3591</v>
+        <v>3693</v>
       </c>
       <c r="H250" s="58" t="str">
         <f>VLOOKUP(MID(G250,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G250,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G250,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G250,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G250,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G250,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G250,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G250,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G250,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>岛上所有盟军痕迹.</v>
+        <v>岛上所有盟军.</v>
       </c>
     </row>
     <row r="251" spans="2:8" s="59" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="252" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B252" s="58" t="s">
-        <v>2944</v>
+        <v>2940</v>
       </c>
       <c r="C252" s="58" t="s">
-        <v>2945</v>
+        <v>2941</v>
       </c>
       <c r="D252" s="58" t="s">
-        <v>2946</v>
+        <v>2942</v>
       </c>
       <c r="E252" s="58" t="s">
-        <v>2947</v>
+        <v>2943</v>
       </c>
       <c r="F252" s="58" t="s">
-        <v>3647</v>
+        <v>3595</v>
       </c>
       <c r="G252" s="58" t="s">
-        <v>3592</v>
+        <v>3694</v>
       </c>
       <c r="H252" s="58" t="str">
         <f>VLOOKUP(MID(G252,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G252,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G252,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G252,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G252,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G252,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G252,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G252,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G252,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>激进派打算用生物武器,对付盟军,但它极不稳定,</v>
+        <v>激进派打算用生物武器对付盟军,但它极不稳定,</v>
       </c>
     </row>
     <row r="253" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C253" s="58" t="s">
-        <v>2948</v>
+        <v>2944</v>
       </c>
       <c r="D253" s="58" t="s">
-        <v>2949</v>
+        <v>2945</v>
       </c>
       <c r="E253" s="58" t="s">
-        <v>2950</v>
+        <v>2946</v>
       </c>
       <c r="F253" s="58" t="s">
-        <v>3648</v>
+        <v>3596</v>
       </c>
       <c r="G253" s="58" t="s">
-        <v>3593</v>
+        <v>3696</v>
       </c>
       <c r="H253" s="58" t="str">
         <f>VLOOKUP(MID(G253,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G253,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G253,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G253,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G253,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G253,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G253,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G253,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G253,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38191,23 +38380,23 @@
     </row>
     <row r="254" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C254" s="58" t="s">
-        <v>3561</v>
+        <v>3553</v>
       </c>
       <c r="D254" s="58" t="s">
-        <v>2951</v>
+        <v>2947</v>
       </c>
       <c r="E254" s="58" t="s">
-        <v>2952</v>
+        <v>2948</v>
       </c>
       <c r="F254" s="58" t="s">
-        <v>3538</v>
+        <v>3534</v>
       </c>
       <c r="G254" s="58" t="s">
-        <v>3613</v>
+        <v>3695</v>
       </c>
       <c r="H254" s="58" t="str">
         <f>VLOOKUP(MID(G254,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G254,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G254,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G254,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G254,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G254,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G254,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G254,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G254,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>摧毁海岛防御,让科学家去研究所中和生物,</v>
+        <v>摧毁海岛防御,让科学家去研究所中和生物武器,</v>
       </c>
     </row>
     <row r="255" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
@@ -38216,16 +38405,16 @@
         <v>(余生)苏军: 十万火急</v>
       </c>
       <c r="D255" s="58" t="s">
-        <v>2953</v>
+        <v>2949</v>
       </c>
       <c r="E255" s="58" t="s">
-        <v>2954</v>
+        <v>2950</v>
       </c>
       <c r="F255" s="58" t="s">
-        <v>3610</v>
+        <v>3572</v>
       </c>
       <c r="G255" s="58" t="s">
-        <v>3615</v>
+        <v>3574</v>
       </c>
       <c r="H255" s="58" t="str">
         <f>VLOOKUP(MID(G255,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G255,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G255,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G255,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G255,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G255,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G255,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G255,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G255,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38234,73 +38423,73 @@
     </row>
     <row r="256" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D256" s="58" t="s">
-        <v>2955</v>
+        <v>2951</v>
       </c>
       <c r="E256" s="58" t="s">
-        <v>2956</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="257" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D257" s="58" t="s">
-        <v>2957</v>
+        <v>2953</v>
       </c>
       <c r="E257" s="58" t="s">
-        <v>2958</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="258" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D258" s="58" t="s">
-        <v>2959</v>
+        <v>2955</v>
       </c>
       <c r="E258" s="58" t="s">
-        <v>2960</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="259" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D259" s="58" t="s">
-        <v>2961</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="260" spans="2:8" s="59" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="261" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B261" s="58" t="s">
-        <v>2962</v>
+        <v>2958</v>
       </c>
       <c r="C261" s="58" t="s">
-        <v>2963</v>
+        <v>2959</v>
       </c>
       <c r="D261" s="58" t="s">
-        <v>2964</v>
+        <v>2960</v>
       </c>
       <c r="E261" s="58" t="s">
-        <v>2965</v>
+        <v>2961</v>
       </c>
       <c r="F261" s="58" t="s">
-        <v>3539</v>
+        <v>3535</v>
       </c>
       <c r="G261" s="58" t="s">
-        <v>3609</v>
+        <v>3697</v>
       </c>
       <c r="H261" s="58" t="str">
-        <f>VLOOKUP(MID(G261,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G261,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G261,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G261,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G261,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G261,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G261,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G261,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G261,25,2),字库代码!B:L,11,TRUE)</f>
+        <f>VLOOKUP(MID(G261,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G261,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G261,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G261,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G261,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G261,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G261,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G261,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G261,25,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G261,28,2),字库代码!B:L,11,TRUE)</f>
         <v>盟军正在研发超时空武器,防御完备,进攻受挫.</v>
       </c>
     </row>
     <row r="262" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C262" s="58" t="s">
-        <v>2966</v>
+        <v>2962</v>
       </c>
       <c r="D262" s="58" t="s">
-        <v>2967</v>
+        <v>2963</v>
       </c>
       <c r="E262" s="58" t="s">
-        <v>2968</v>
+        <v>2964</v>
       </c>
       <c r="F262" s="58" t="s">
-        <v>3540</v>
+        <v>3536</v>
       </c>
       <c r="G262" s="58" t="s">
-        <v>3594</v>
+        <v>3698</v>
       </c>
       <c r="H262" s="58" t="str">
         <f>VLOOKUP(MID(G262,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G262,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G262,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G262,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G262,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G262,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G262,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G262,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G262,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38309,19 +38498,19 @@
     </row>
     <row r="263" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C263" s="58" t="s">
-        <v>3562</v>
+        <v>3554</v>
       </c>
       <c r="D263" s="58" t="s">
-        <v>2969</v>
+        <v>2965</v>
       </c>
       <c r="E263" s="58" t="s">
-        <v>2970</v>
+        <v>2966</v>
       </c>
       <c r="F263" s="58" t="s">
-        <v>3617</v>
+        <v>3576</v>
       </c>
       <c r="G263" s="58" t="s">
-        <v>3618</v>
+        <v>3577</v>
       </c>
       <c r="H263" s="58" t="str">
         <f>VLOOKUP(MID(G263,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G263,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G263,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G263,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G263,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G263,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G263,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G263,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G263,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38334,70 +38523,70 @@
         <v>(余生)苏军: 别喝水</v>
       </c>
       <c r="D264" s="58" t="s">
-        <v>2971</v>
+        <v>2967</v>
       </c>
       <c r="E264" s="58" t="s">
-        <v>2972</v>
+        <v>2968</v>
       </c>
       <c r="F264" s="58" t="s">
-        <v>3541</v>
+        <v>3701</v>
       </c>
       <c r="G264" s="58" t="s">
-        <v>3595</v>
+        <v>3699</v>
       </c>
       <c r="H264" s="58" t="str">
         <f>VLOOKUP(MID(G264,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G264,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G264,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G264,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G264,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G264,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G264,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G264,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G264,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>用补给车给水源下毒,可以让任务更加容易.</v>
+        <v>用补给车给水源下毒,可以让任务更加简单.</v>
       </c>
     </row>
     <row r="265" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D265" s="58" t="s">
-        <v>2973</v>
+        <v>2969</v>
       </c>
       <c r="E265" s="58" t="s">
-        <v>2974</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="266" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D266" s="58" t="s">
-        <v>2975</v>
+        <v>2971</v>
       </c>
       <c r="E266" s="58" t="s">
-        <v>2976</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="267" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D267" s="58" t="s">
-        <v>2977</v>
+        <v>2973</v>
       </c>
       <c r="E267" s="58" t="s">
-        <v>2978</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="268" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D268" s="58" t="s">
-        <v>2979</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="269" spans="2:8" s="59" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="270" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B270" s="58" t="s">
-        <v>2980</v>
+        <v>2976</v>
       </c>
       <c r="C270" s="58" t="s">
-        <v>2981</v>
+        <v>2977</v>
       </c>
       <c r="D270" s="58" t="s">
-        <v>2982</v>
+        <v>2978</v>
       </c>
       <c r="E270" s="58" t="s">
-        <v>2983</v>
+        <v>2979</v>
       </c>
       <c r="F270" s="58" t="s">
-        <v>3542</v>
+        <v>3537</v>
       </c>
       <c r="G270" s="58" t="s">
-        <v>3567</v>
+        <v>3557</v>
       </c>
       <c r="H270" s="58" t="str">
         <f>VLOOKUP(MID(G270,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G270,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G270,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G270,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G270,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G270,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G270,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G270,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G270,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38406,19 +38595,19 @@
     </row>
     <row r="271" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C271" s="58" t="s">
-        <v>2984</v>
+        <v>2980</v>
       </c>
       <c r="D271" s="58" t="s">
-        <v>2985</v>
+        <v>2981</v>
       </c>
       <c r="E271" s="58" t="s">
-        <v>2986</v>
+        <v>2982</v>
       </c>
       <c r="F271" s="58" t="s">
-        <v>3543</v>
+        <v>3538</v>
       </c>
       <c r="G271" s="58" t="s">
-        <v>3596</v>
+        <v>3702</v>
       </c>
       <c r="H271" s="58" t="str">
         <f>VLOOKUP(MID(G271,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G271,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G271,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G271,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G271,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G271,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G271,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G271,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G271,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38427,23 +38616,23 @@
     </row>
     <row r="272" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C272" s="58" t="s">
-        <v>3563</v>
+        <v>3555</v>
       </c>
       <c r="D272" s="58" t="s">
-        <v>2987</v>
+        <v>2983</v>
       </c>
       <c r="E272" s="58" t="s">
-        <v>2988</v>
+        <v>2984</v>
       </c>
       <c r="F272" s="58" t="s">
-        <v>3544</v>
+        <v>3539</v>
       </c>
       <c r="G272" s="58" t="s">
-        <v>3568</v>
+        <v>3703</v>
       </c>
       <c r="H272" s="58" t="str">
         <f>VLOOKUP(MID(G272,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G272,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G272,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G272,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G272,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G272,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G272,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G272,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G272,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>让特工潜入基地,监视他们的活动,如他们真的</v>
+        <v>让特工潜入基地,监视他们的活动,如果他们真的通</v>
       </c>
     </row>
     <row r="273" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
@@ -38452,75 +38641,75 @@
         <v xml:space="preserve">(余生)苏军: 兄弟连 </v>
       </c>
       <c r="D273" s="58" t="s">
-        <v>2989</v>
+        <v>2985</v>
       </c>
       <c r="E273" s="58" t="s">
-        <v>2990</v>
+        <v>2986</v>
       </c>
       <c r="F273" s="58" t="s">
-        <v>3545</v>
+        <v>3704</v>
       </c>
       <c r="G273" s="58" t="s">
-        <v>3569</v>
+        <v>3706</v>
       </c>
       <c r="H273" s="58" t="str">
         <f>VLOOKUP(MID(G273,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G273,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G273,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G273,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G273,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G273,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G273,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G273,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G273,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>通敌,去撤离点,发送增援信号,和对所有叛徒</v>
+        <v>敌,去撤离点,发送增援信号,和对所有叛徒一样,</v>
       </c>
     </row>
     <row r="274" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D274" s="58" t="s">
-        <v>2991</v>
+        <v>2987</v>
       </c>
       <c r="E274" s="58" t="s">
-        <v>2992</v>
+        <v>2988</v>
       </c>
       <c r="F274" s="58" t="s">
-        <v>3546</v>
+        <v>3705</v>
       </c>
       <c r="G274" s="58" t="s">
-        <v>3597</v>
+        <v>3707</v>
       </c>
       <c r="H274" s="58" t="str">
         <f>VLOOKUP(MID(G274,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G274,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G274,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G274,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G274,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G274,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G274,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G274,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G274,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>一样,干掉他们.</v>
+        <v>干掉他们.</v>
       </c>
     </row>
     <row r="275" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D275" s="58" t="s">
-        <v>2993</v>
+        <v>2989</v>
       </c>
       <c r="E275" s="58" t="s">
-        <v>2994</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="276" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D276" s="58" t="s">
-        <v>2995</v>
+        <v>2991</v>
       </c>
       <c r="E276" s="58" t="s">
-        <v>2996</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="277" spans="2:8" s="59" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="278" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B278" s="58" t="s">
-        <v>2997</v>
+        <v>2993</v>
       </c>
       <c r="C278" s="58" t="s">
-        <v>2998</v>
+        <v>2994</v>
       </c>
       <c r="D278" s="58" t="s">
-        <v>2999</v>
+        <v>2995</v>
       </c>
       <c r="E278" s="58" t="s">
-        <v>3000</v>
+        <v>2996</v>
       </c>
       <c r="F278" s="58" t="s">
-        <v>3547</v>
+        <v>3540</v>
       </c>
       <c r="G278" s="58" t="s">
-        <v>3599</v>
+        <v>3708</v>
       </c>
       <c r="H278" s="58" t="str">
         <f>VLOOKUP(MID(G278,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G278,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G278,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G278,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G278,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G278,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G278,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G278,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G278,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38529,19 +38718,19 @@
     </row>
     <row r="279" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C279" s="58" t="s">
-        <v>3001</v>
+        <v>2997</v>
       </c>
       <c r="D279" s="58" t="s">
-        <v>3002</v>
+        <v>2998</v>
       </c>
       <c r="E279" s="58" t="s">
-        <v>3003</v>
+        <v>2999</v>
       </c>
       <c r="F279" s="58" t="s">
-        <v>3548</v>
+        <v>3541</v>
       </c>
       <c r="G279" s="58" t="s">
-        <v>3624</v>
+        <v>3709</v>
       </c>
       <c r="H279" s="58" t="str">
         <f>VLOOKUP(MID(G279,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G279,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G279,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G279,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G279,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G279,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G279,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G279,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G279,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38550,19 +38739,19 @@
     </row>
     <row r="280" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C280" s="58" t="s">
-        <v>3564</v>
+        <v>3556</v>
       </c>
       <c r="D280" s="58" t="s">
-        <v>3004</v>
+        <v>3000</v>
       </c>
       <c r="E280" s="58" t="s">
-        <v>3005</v>
+        <v>3001</v>
       </c>
       <c r="F280" s="58" t="s">
-        <v>3549</v>
+        <v>3542</v>
       </c>
       <c r="G280" s="58" t="s">
-        <v>3570</v>
+        <v>3558</v>
       </c>
       <c r="H280" s="58" t="str">
         <f>VLOOKUP(MID(G280,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G280,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G280,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G280,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G280,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G280,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G280,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G280,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G280,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38575,16 +38764,16 @@
         <v>(余生)苏军: 解救人质</v>
       </c>
       <c r="D281" s="58" t="s">
-        <v>3006</v>
+        <v>3002</v>
       </c>
       <c r="E281" s="58" t="s">
-        <v>3007</v>
+        <v>3003</v>
       </c>
       <c r="F281" s="58" t="s">
-        <v>3601</v>
+        <v>3568</v>
       </c>
       <c r="G281" s="58" t="s">
-        <v>3600</v>
+        <v>3567</v>
       </c>
       <c r="H281" s="58" t="str">
         <f>VLOOKUP(MID(G281,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G281,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G281,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G281,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G281,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G281,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G281,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G281,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G281,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38593,86 +38782,86 @@
     </row>
     <row r="282" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D282" s="58" t="s">
-        <v>3008</v>
+        <v>3004</v>
       </c>
       <c r="E282" s="58" t="s">
-        <v>3009</v>
+        <v>3005</v>
       </c>
       <c r="F282" s="58" t="s">
-        <v>3550</v>
+        <v>3543</v>
       </c>
       <c r="G282" s="58" t="s">
-        <v>3668</v>
+        <v>3711</v>
       </c>
       <c r="H282" s="58" t="str">
-        <f>VLOOKUP(MID(G282,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,25,2),字库代码!B:L,11,TRUE)</f>
+        <f>VLOOKUP(MID(G282,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,25,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,28,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,31,2),字库代码!B:L,11,TRUE)</f>
         <v>如果盟军得到沃尔科夫的控制码,摧毁它.</v>
       </c>
     </row>
     <row r="283" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D283" s="58" t="s">
-        <v>3010</v>
+        <v>3006</v>
       </c>
       <c r="E283" s="58" t="s">
-        <v>3011</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="284" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D284" s="58" t="s">
-        <v>3012</v>
+        <v>3008</v>
       </c>
       <c r="E284" s="58" t="s">
-        <v>3013</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="285" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D285" s="58" t="s">
-        <v>3014</v>
+        <v>3010</v>
       </c>
       <c r="E285" s="58" t="s">
-        <v>3015</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="286" spans="2:8" s="59" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="287" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B287" s="58" t="s">
-        <v>3016</v>
+        <v>3012</v>
       </c>
       <c r="C287" s="58" t="s">
-        <v>3017</v>
+        <v>3013</v>
       </c>
       <c r="D287" s="58" t="s">
-        <v>3018</v>
+        <v>3014</v>
       </c>
       <c r="E287" s="58" t="s">
-        <v>3019</v>
+        <v>3015</v>
       </c>
       <c r="F287" s="58" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="G287" s="58" t="s">
-        <v>3623</v>
+        <v>3713</v>
       </c>
       <c r="H287" s="58" t="str">
         <f>VLOOKUP(MID(G287,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G287,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G287,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G287,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G287,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G287,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G287,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G287,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G287,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>格伦耶夫省的居民反对苏军进入西欧,让他们闭嘴.</v>
+        <v>格伦耶夫省居民反对苏军进入西欧,让他们闭嘴,</v>
       </c>
     </row>
     <row r="288" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C288" s="58" t="s">
-        <v>3020</v>
+        <v>3016</v>
       </c>
       <c r="D288" s="58" t="s">
-        <v>3021</v>
+        <v>3017</v>
       </c>
       <c r="E288" s="58" t="s">
-        <v>3022</v>
+        <v>3018</v>
       </c>
       <c r="F288" s="58" t="s">
-        <v>3552</v>
+        <v>3714</v>
       </c>
       <c r="G288" s="58" t="s">
-        <v>3667</v>
+        <v>3603</v>
       </c>
       <c r="H288" s="58" t="str">
         <f>VLOOKUP(MID(G288,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G288,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G288,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G288,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G288,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G288,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G288,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G288,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G288,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38681,19 +38870,19 @@
     </row>
     <row r="289" spans="3:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C289" s="58" t="s">
-        <v>3621</v>
+        <v>3579</v>
       </c>
       <c r="D289" s="58" t="s">
-        <v>3023</v>
+        <v>3019</v>
       </c>
       <c r="E289" s="58" t="s">
-        <v>3024</v>
+        <v>3020</v>
       </c>
       <c r="F289" s="58" t="s">
-        <v>3553</v>
+        <v>3545</v>
       </c>
       <c r="G289" s="58" t="s">
-        <v>3602</v>
+        <v>3569</v>
       </c>
       <c r="H289" s="58" t="str">
         <f>VLOOKUP(MID(G289,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G289,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G289,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G289,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G289,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G289,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G289,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G289,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G289,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38706,16 +38895,16 @@
         <v>(余生)苏军: 格伦耶夫省革命</v>
       </c>
       <c r="D290" s="58" t="s">
-        <v>3025</v>
+        <v>3021</v>
       </c>
       <c r="E290" s="58" t="s">
-        <v>3026</v>
+        <v>3022</v>
       </c>
       <c r="F290" s="58" t="s">
-        <v>3554</v>
+        <v>3546</v>
       </c>
       <c r="G290" s="58" t="s">
-        <v>3603</v>
+        <v>3570</v>
       </c>
       <c r="H290" s="58" t="str">
         <f>VLOOKUP(MID(G290,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G290,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G290,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G290,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G290,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G290,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G290,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G290,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G290,25,2),字库代码!B:L,11,TRUE)</f>
@@ -38724,23 +38913,23 @@
     </row>
     <row r="291" spans="3:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D291" s="58" t="s">
-        <v>3027</v>
+        <v>3023</v>
       </c>
       <c r="E291" s="58" t="s">
-        <v>3028</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="292" spans="3:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D292" s="58" t="s">
-        <v>3029</v>
+        <v>3025</v>
       </c>
       <c r="E292" s="58" t="s">
-        <v>3030</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="293" spans="3:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E293" s="58" t="s">
-        <v>3031</v>
+        <v>3027</v>
       </c>
     </row>
   </sheetData>
@@ -38754,11 +38943,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L189" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="I131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L204" sqref="L204"/>
+      <selection pane="bottomRight" activeCell="L171" sqref="L171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -38786,37 +38975,37 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3028</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3029</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3030</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3031</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3032</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>3033</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>3034</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>3035</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>3036</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="56" t="s">
+        <v>3547</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>3037</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>3038</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>3039</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>3040</v>
-      </c>
-      <c r="L1" s="56" t="s">
-        <v>3555</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>3041</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -38835,7 +39024,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3042</v>
+        <v>3038</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>808</v>
@@ -38844,7 +39033,7 @@
         <v>808</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>3043</v>
+        <v>3039</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>808</v>
@@ -38864,7 +39053,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3044</v>
+        <v>3040</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>981</v>
@@ -38873,7 +39062,7 @@
         <v>981</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>3045</v>
+        <v>3041</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>981</v>
@@ -38893,28 +39082,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3046</v>
+        <v>3042</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>3047</v>
+        <v>3043</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>3047</v>
+        <v>3043</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>3048</v>
+        <v>3044</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>3047</v>
+        <v>3043</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>3047</v>
+        <v>3043</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>3047</v>
+        <v>3043</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>3047</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
@@ -38922,28 +39111,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3049</v>
+        <v>3045</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>3050</v>
+        <v>3046</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>3050</v>
+        <v>3046</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>3051</v>
+        <v>3047</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>3050</v>
+        <v>3046</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>3050</v>
+        <v>3046</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>3050</v>
+        <v>3046</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>3050</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
@@ -38951,7 +39140,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3052</v>
+        <v>3048</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>179</v>
@@ -38960,7 +39149,7 @@
         <v>179</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>3053</v>
+        <v>3049</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>179</v>
@@ -38977,28 +39166,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3054</v>
+        <v>3050</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>3055</v>
+        <v>3051</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>3055</v>
+        <v>3051</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>3056</v>
+        <v>3052</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>3055</v>
+        <v>3051</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>3055</v>
+        <v>3051</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>3055</v>
+        <v>3051</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>3055</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
@@ -39006,7 +39195,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3057</v>
+        <v>3053</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>199</v>
@@ -39015,7 +39204,7 @@
         <v>199</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>3058</v>
+        <v>3054</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>199</v>
@@ -39035,7 +39224,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3059</v>
+        <v>3055</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>802</v>
@@ -39044,7 +39233,7 @@
         <v>802</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>3060</v>
+        <v>3056</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>802</v>
@@ -39064,28 +39253,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3061</v>
+        <v>3057</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>3062</v>
+        <v>3058</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>3062</v>
+        <v>3058</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>720</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>3062</v>
+        <v>3058</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>3062</v>
+        <v>3058</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>3062</v>
+        <v>3058</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>3062</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
@@ -39093,28 +39282,28 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3063</v>
+        <v>3059</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>3062</v>
+        <v>3058</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3062</v>
+        <v>3058</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>3064</v>
+        <v>3060</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>3062</v>
+        <v>3058</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>3062</v>
+        <v>3058</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>3062</v>
+        <v>3058</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>3062</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
@@ -39122,28 +39311,28 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>3065</v>
+        <v>3061</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>3066</v>
+        <v>3062</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>3066</v>
+        <v>3062</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>3067</v>
+        <v>3063</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>3066</v>
+        <v>3062</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>3066</v>
+        <v>3062</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>3066</v>
+        <v>3062</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>3066</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
@@ -39151,48 +39340,46 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>3068</v>
+        <v>3064</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>3069</v>
+        <v>3065</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>3070</v>
+        <v>3066</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>3070</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3070</v>
-      </c>
+        <v>3066</v>
+      </c>
+      <c r="L14" s="56"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>3071</v>
+        <v>3067</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>3072</v>
+        <v>3068</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>3072</v>
+        <v>3068</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>3064</v>
+        <v>3060</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>3072</v>
+        <v>3068</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>3072</v>
+        <v>3068</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>3072</v>
+        <v>3068</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>3072</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
@@ -39200,28 +39387,28 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>3073</v>
+        <v>3069</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>3074</v>
+        <v>3070</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>3074</v>
+        <v>3070</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>3075</v>
+        <v>3071</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>3074</v>
+        <v>3070</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>3074</v>
+        <v>3070</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>3074</v>
+        <v>3070</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>3074</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
@@ -39229,28 +39416,28 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>3076</v>
+        <v>3072</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>3077</v>
+        <v>3073</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>3077</v>
+        <v>3073</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>3078</v>
+        <v>3074</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>3077</v>
+        <v>3073</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>3077</v>
+        <v>3073</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>3077</v>
+        <v>3073</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>3077</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
@@ -39262,25 +39449,25 @@
         <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>3079</v>
+        <v>3075</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>3079</v>
+        <v>3075</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>3080</v>
+        <v>3076</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>3079</v>
+        <v>3075</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>3079</v>
+        <v>3075</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>3079</v>
+        <v>3075</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>3079</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
@@ -39292,25 +39479,25 @@
         <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>3081</v>
+        <v>3077</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>3081</v>
+        <v>3077</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>3082</v>
+        <v>3078</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>3081</v>
+        <v>3077</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>3081</v>
+        <v>3077</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>3081</v>
+        <v>3077</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>3081</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
@@ -39328,7 +39515,7 @@
         <v>211</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>3083</v>
+        <v>3079</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>211</v>
@@ -39358,7 +39545,7 @@
         <v>217</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>3084</v>
+        <v>3080</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>217</v>
@@ -39388,7 +39575,7 @@
         <v>214</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>3085</v>
+        <v>3081</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>214</v>
@@ -39412,25 +39599,25 @@
         <v>15</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>3086</v>
+        <v>3082</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>3086</v>
+        <v>3082</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>3086</v>
+        <v>3082</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>3086</v>
+        <v>3082</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>3086</v>
+        <v>3082</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>3086</v>
+        <v>3082</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>3086</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
@@ -39438,28 +39625,28 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3087</v>
+        <v>3083</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>3088</v>
+        <v>3084</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>3088</v>
+        <v>3084</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>3088</v>
+        <v>3084</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>3088</v>
+        <v>3084</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>3088</v>
+        <v>3084</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>3088</v>
+        <v>3084</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>3088</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
@@ -39471,25 +39658,25 @@
         <v>17</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>3089</v>
+        <v>3085</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>3089</v>
+        <v>3085</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>3090</v>
+        <v>3086</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>3089</v>
+        <v>3085</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>3089</v>
+        <v>3085</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>3089</v>
+        <v>3085</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>3089</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
@@ -39501,25 +39688,25 @@
         <v>18</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>3091</v>
+        <v>3087</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>3091</v>
+        <v>3087</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>3092</v>
+        <v>3088</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>3091</v>
+        <v>3087</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>3091</v>
+        <v>3087</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>3091</v>
+        <v>3087</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>3091</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
@@ -39537,10 +39724,10 @@
         <v>37</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>3093</v>
+        <v>3089</v>
       </c>
       <c r="I27" s="56" t="s">
-        <v>3537</v>
+        <v>3533</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>37</v>
@@ -39567,7 +39754,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>3094</v>
+        <v>3090</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>18</v>
@@ -39600,7 +39787,7 @@
         <v>40</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>3095</v>
+        <v>3091</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>40</v>
@@ -39615,7 +39802,7 @@
         <v>40</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>3096</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
@@ -39633,7 +39820,7 @@
         <v>56</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>3097</v>
+        <v>3093</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>56</v>
@@ -39657,25 +39844,25 @@
         <v>1D</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>3098</v>
+        <v>3094</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>3098</v>
+        <v>3094</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>3099</v>
+        <v>3095</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>3098</v>
+        <v>3094</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>3098</v>
+        <v>3094</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>3098</v>
+        <v>3094</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>3098</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
@@ -39693,7 +39880,7 @@
         <v>59</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>3100</v>
+        <v>3096</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>59</v>
@@ -39717,25 +39904,25 @@
         <v>1F</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>3101</v>
+        <v>3097</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>3101</v>
+        <v>3097</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>3102</v>
+        <v>3098</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>3101</v>
+        <v>3097</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>3101</v>
+        <v>3097</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>3101</v>
+        <v>3097</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>3101</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
@@ -39747,22 +39934,22 @@
         <v>20</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>3103</v>
+        <v>3099</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>3103</v>
+        <v>3099</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>3103</v>
+        <v>3099</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>3103</v>
+        <v>3099</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>3104</v>
+        <v>3100</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>3104</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
@@ -39774,28 +39961,28 @@
         <v>21</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>3105</v>
+        <v>3101</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>3105</v>
+        <v>3101</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>3105</v>
+        <v>3101</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>3105</v>
+        <v>3101</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>3105</v>
+        <v>3101</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>3105</v>
+        <v>3101</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>3105</v>
+        <v>3101</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>3105</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
@@ -39807,28 +39994,28 @@
         <v>22</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>3106</v>
+        <v>3102</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>3106</v>
+        <v>3102</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>3106</v>
+        <v>3102</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>3106</v>
+        <v>3102</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>3106</v>
+        <v>3102</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>3106</v>
+        <v>3102</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>3106</v>
+        <v>3102</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>3106</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
@@ -39840,28 +40027,28 @@
         <v>23</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>3107</v>
+        <v>3103</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>3107</v>
+        <v>3103</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>3107</v>
+        <v>3103</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>3107</v>
+        <v>3103</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>3107</v>
+        <v>3103</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>3107</v>
+        <v>3103</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>3107</v>
+        <v>3103</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>3107</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
@@ -39873,28 +40060,28 @@
         <v>24</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>3108</v>
+        <v>3104</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>3108</v>
+        <v>3104</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>3108</v>
+        <v>3104</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>3108</v>
+        <v>3104</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>3108</v>
+        <v>3104</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>3108</v>
+        <v>3104</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>3108</v>
+        <v>3104</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>3108</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
@@ -39906,28 +40093,28 @@
         <v>25</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>3109</v>
+        <v>3105</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>3109</v>
+        <v>3105</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>3109</v>
+        <v>3105</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>3109</v>
+        <v>3105</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>3109</v>
+        <v>3105</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>3109</v>
+        <v>3105</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>3109</v>
+        <v>3105</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>3109</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
@@ -39939,28 +40126,28 @@
         <v>26</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
@@ -39972,28 +40159,28 @@
         <v>27</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>3111</v>
+        <v>3107</v>
       </c>
       <c r="D41" s="54" t="s">
-        <v>3111</v>
+        <v>3107</v>
       </c>
       <c r="E41" s="54" t="s">
-        <v>3111</v>
+        <v>3107</v>
       </c>
       <c r="G41" s="54" t="s">
-        <v>3111</v>
+        <v>3107</v>
       </c>
       <c r="I41" s="54" t="s">
-        <v>3111</v>
+        <v>3107</v>
       </c>
       <c r="J41" s="54" t="s">
-        <v>3111</v>
+        <v>3107</v>
       </c>
       <c r="K41" s="54" t="s">
-        <v>3111</v>
+        <v>3107</v>
       </c>
       <c r="L41" s="54" t="s">
-        <v>3111</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
@@ -40005,28 +40192,28 @@
         <v>28</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>3112</v>
+        <v>3108</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>3112</v>
+        <v>3108</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>3112</v>
+        <v>3108</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>3112</v>
+        <v>3108</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>3112</v>
+        <v>3108</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>3112</v>
+        <v>3108</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>3112</v>
+        <v>3108</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>3112</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
@@ -40038,28 +40225,28 @@
         <v>29</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>3113</v>
+        <v>3109</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>3113</v>
+        <v>3109</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>3113</v>
+        <v>3109</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>3113</v>
+        <v>3109</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>3113</v>
+        <v>3109</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>3113</v>
+        <v>3109</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>3113</v>
+        <v>3109</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>3113</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
@@ -40071,28 +40258,28 @@
         <v>2A</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>3114</v>
+        <v>3110</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>3114</v>
+        <v>3110</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>3114</v>
+        <v>3110</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>3114</v>
+        <v>3110</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>3114</v>
+        <v>3110</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>3114</v>
+        <v>3110</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>3114</v>
+        <v>3110</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>3114</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
@@ -40104,28 +40291,28 @@
         <v>2B</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>3115</v>
+        <v>3111</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>3115</v>
+        <v>3111</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>3115</v>
+        <v>3111</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>3115</v>
+        <v>3111</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>3115</v>
+        <v>3111</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>3115</v>
+        <v>3111</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>3115</v>
+        <v>3111</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>3115</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
@@ -40137,28 +40324,28 @@
         <v>2C</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>3116</v>
+        <v>3112</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>3116</v>
+        <v>3112</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>3116</v>
+        <v>3112</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>3116</v>
+        <v>3112</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>3116</v>
+        <v>3112</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>3116</v>
+        <v>3112</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>3116</v>
+        <v>3112</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>3116</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
@@ -40170,28 +40357,28 @@
         <v>2D</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>3117</v>
+        <v>3113</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>3117</v>
+        <v>3113</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>3117</v>
+        <v>3113</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>3117</v>
+        <v>3113</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>3117</v>
+        <v>3113</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>3117</v>
+        <v>3113</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>3117</v>
+        <v>3113</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>3117</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
@@ -40203,28 +40390,28 @@
         <v>2E</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>3118</v>
+        <v>3114</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>3118</v>
+        <v>3114</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>3118</v>
+        <v>3114</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>3118</v>
+        <v>3114</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>3118</v>
+        <v>3114</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>3118</v>
+        <v>3114</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>3118</v>
+        <v>3114</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>3118</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
@@ -40236,28 +40423,28 @@
         <v>2F</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>3119</v>
+        <v>3115</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>3119</v>
+        <v>3115</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>3119</v>
+        <v>3115</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>3119</v>
+        <v>3115</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>3119</v>
+        <v>3115</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>3119</v>
+        <v>3115</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>3119</v>
+        <v>3115</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>3119</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
@@ -40269,28 +40456,28 @@
         <v>30</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>3120</v>
+        <v>3116</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>3120</v>
+        <v>3116</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>3120</v>
+        <v>3116</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>3120</v>
+        <v>3116</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>3120</v>
+        <v>3116</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>3120</v>
+        <v>3116</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>3120</v>
+        <v>3116</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>3120</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.15">
@@ -40302,28 +40489,28 @@
         <v>31</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>3121</v>
+        <v>3117</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>3121</v>
+        <v>3117</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>3121</v>
+        <v>3117</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>3121</v>
+        <v>3117</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>3121</v>
+        <v>3117</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>3121</v>
+        <v>3117</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>3121</v>
+        <v>3117</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>3121</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
@@ -40335,28 +40522,28 @@
         <v>32</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>3122</v>
+        <v>3118</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>3122</v>
+        <v>3118</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>3122</v>
+        <v>3118</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>3122</v>
+        <v>3118</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>3122</v>
+        <v>3118</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>3122</v>
+        <v>3118</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>3122</v>
+        <v>3118</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>3122</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
@@ -40368,28 +40555,28 @@
         <v>33</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>3123</v>
+        <v>3119</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>3123</v>
+        <v>3119</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>3123</v>
+        <v>3119</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>3123</v>
+        <v>3119</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>3123</v>
+        <v>3119</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>3123</v>
+        <v>3119</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>3123</v>
+        <v>3119</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>3123</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
@@ -40401,28 +40588,28 @@
         <v>34</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>3124</v>
+        <v>3120</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>3124</v>
+        <v>3120</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>3124</v>
+        <v>3120</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>3124</v>
+        <v>3120</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>3124</v>
+        <v>3120</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>3124</v>
+        <v>3120</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>3124</v>
+        <v>3120</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>3124</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
@@ -40434,28 +40621,28 @@
         <v>35</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>3125</v>
+        <v>3121</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>3125</v>
+        <v>3121</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>3125</v>
+        <v>3121</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>3125</v>
+        <v>3121</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>3125</v>
+        <v>3121</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>3125</v>
+        <v>3121</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>3125</v>
+        <v>3121</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>3125</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
@@ -40467,28 +40654,28 @@
         <v>36</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>3126</v>
+        <v>3122</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>3126</v>
+        <v>3122</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>3126</v>
+        <v>3122</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>3126</v>
+        <v>3122</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>3126</v>
+        <v>3122</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>3126</v>
+        <v>3122</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>3126</v>
+        <v>3122</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>3126</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
@@ -40500,28 +40687,28 @@
         <v>37</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>3127</v>
+        <v>3123</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>3127</v>
+        <v>3123</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>3127</v>
+        <v>3123</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>3127</v>
+        <v>3123</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>3127</v>
+        <v>3123</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>3127</v>
+        <v>3123</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>3127</v>
+        <v>3123</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>3127</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
@@ -40533,28 +40720,28 @@
         <v>38</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>3128</v>
+        <v>3124</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>3128</v>
+        <v>3124</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>3128</v>
+        <v>3124</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>3128</v>
+        <v>3124</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>3128</v>
+        <v>3124</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>3128</v>
+        <v>3124</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>3128</v>
+        <v>3124</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>3128</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
@@ -40566,28 +40753,28 @@
         <v>39</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>3129</v>
+        <v>3125</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>3129</v>
+        <v>3125</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>3129</v>
+        <v>3125</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>3129</v>
+        <v>3125</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>3129</v>
+        <v>3125</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>3129</v>
+        <v>3125</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>3129</v>
+        <v>3125</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>3129</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
@@ -40599,28 +40786,28 @@
         <v>3A</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>3130</v>
+        <v>3126</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>3130</v>
+        <v>3126</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>3130</v>
+        <v>3126</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>3130</v>
+        <v>3126</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>3130</v>
+        <v>3126</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>3130</v>
+        <v>3126</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>3130</v>
+        <v>3126</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>3130</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
@@ -40632,28 +40819,28 @@
         <v>3B</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>3131</v>
+        <v>3127</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>3131</v>
+        <v>3127</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>3131</v>
+        <v>3127</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>3131</v>
+        <v>3127</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>3131</v>
+        <v>3127</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>3131</v>
+        <v>3127</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>3131</v>
+        <v>3127</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>3131</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
@@ -40665,28 +40852,28 @@
         <v>3C</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>3132</v>
+        <v>3128</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>3132</v>
+        <v>3128</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>3132</v>
+        <v>3128</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>3132</v>
+        <v>3128</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>3132</v>
+        <v>3128</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>3132</v>
+        <v>3128</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>3132</v>
+        <v>3128</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>3132</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.15">
@@ -40698,28 +40885,28 @@
         <v>3D</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>3133</v>
+        <v>3129</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>3133</v>
+        <v>3129</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>3133</v>
+        <v>3129</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>3133</v>
+        <v>3129</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>3133</v>
+        <v>3129</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>3133</v>
+        <v>3129</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>3133</v>
+        <v>3129</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>3133</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.15">
@@ -40731,28 +40918,28 @@
         <v>3E</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>3134</v>
+        <v>3130</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>3134</v>
+        <v>3130</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>3134</v>
+        <v>3130</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>3134</v>
+        <v>3130</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>3134</v>
+        <v>3130</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>3134</v>
+        <v>3130</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>3134</v>
+        <v>3130</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>3134</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.15">
@@ -40764,28 +40951,28 @@
         <v>3F</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>3135</v>
+        <v>3131</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>3135</v>
+        <v>3131</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>3135</v>
+        <v>3131</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>3135</v>
+        <v>3131</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>3135</v>
+        <v>3131</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>3135</v>
+        <v>3131</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>3135</v>
+        <v>3131</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>3135</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
@@ -40797,28 +40984,28 @@
         <v>40</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>3136</v>
+        <v>3132</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>3136</v>
+        <v>3132</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>3136</v>
+        <v>3132</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>3136</v>
+        <v>3132</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>3136</v>
+        <v>3132</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>3136</v>
+        <v>3132</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>3136</v>
+        <v>3132</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>3136</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.15">
@@ -40830,28 +41017,28 @@
         <v>41</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>3137</v>
+        <v>3133</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>3137</v>
+        <v>3133</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>3137</v>
+        <v>3133</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>3137</v>
+        <v>3133</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>3137</v>
+        <v>3133</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>3137</v>
+        <v>3133</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>3137</v>
+        <v>3133</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>3137</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.15">
@@ -40863,28 +41050,28 @@
         <v>42</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>3138</v>
+        <v>3134</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>3138</v>
+        <v>3134</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>3138</v>
+        <v>3134</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>3138</v>
+        <v>3134</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>3138</v>
+        <v>3134</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>3138</v>
+        <v>3134</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>3138</v>
+        <v>3134</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>3138</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
@@ -40896,28 +41083,28 @@
         <v>43</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>3139</v>
+        <v>3135</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>3139</v>
+        <v>3135</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>3139</v>
+        <v>3135</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>3139</v>
+        <v>3135</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>3139</v>
+        <v>3135</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>3139</v>
+        <v>3135</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>3139</v>
+        <v>3135</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>3139</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
@@ -40929,28 +41116,28 @@
         <v>44</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>3140</v>
+        <v>3136</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>3140</v>
+        <v>3136</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>3140</v>
+        <v>3136</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>3140</v>
+        <v>3136</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>3140</v>
+        <v>3136</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>3140</v>
+        <v>3136</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>3140</v>
+        <v>3136</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>3140</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
@@ -40962,28 +41149,28 @@
         <v>45</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>3141</v>
+        <v>3137</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>3141</v>
+        <v>3137</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>3141</v>
+        <v>3137</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>3141</v>
+        <v>3137</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>3141</v>
+        <v>3137</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>3141</v>
+        <v>3137</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>3141</v>
+        <v>3137</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>3141</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
@@ -40995,28 +41182,28 @@
         <v>46</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>3142</v>
+        <v>3138</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>3142</v>
+        <v>3138</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>3142</v>
+        <v>3138</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>3142</v>
+        <v>3138</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>3142</v>
+        <v>3138</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>3142</v>
+        <v>3138</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>3142</v>
+        <v>3138</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>3142</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
@@ -41028,28 +41215,28 @@
         <v>47</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>3143</v>
+        <v>3139</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>3143</v>
+        <v>3139</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>3143</v>
+        <v>3139</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>3143</v>
+        <v>3139</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>3143</v>
+        <v>3139</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>3143</v>
+        <v>3139</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>3143</v>
+        <v>3139</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>3143</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.15">
@@ -41061,28 +41248,28 @@
         <v>48</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>3144</v>
+        <v>3140</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>3144</v>
+        <v>3140</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>3144</v>
+        <v>3140</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>3144</v>
+        <v>3140</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>3144</v>
+        <v>3140</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>3144</v>
+        <v>3140</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>3144</v>
+        <v>3140</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>3144</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
@@ -41094,28 +41281,28 @@
         <v>49</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>3145</v>
+        <v>3141</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>3145</v>
+        <v>3141</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>3145</v>
+        <v>3141</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>3145</v>
+        <v>3141</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>3145</v>
+        <v>3141</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>3145</v>
+        <v>3141</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>3145</v>
+        <v>3141</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>3145</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.15">
@@ -41127,28 +41314,28 @@
         <v>4A</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>3146</v>
+        <v>3142</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>3146</v>
+        <v>3142</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>3146</v>
+        <v>3142</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>3146</v>
+        <v>3142</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>3146</v>
+        <v>3142</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>3146</v>
+        <v>3142</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>3146</v>
+        <v>3142</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>3146</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.15">
@@ -41160,28 +41347,28 @@
         <v>4B</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>3147</v>
+        <v>3143</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>3147</v>
+        <v>3143</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>3147</v>
+        <v>3143</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>3147</v>
+        <v>3143</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>3147</v>
+        <v>3143</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>3147</v>
+        <v>3143</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>3147</v>
+        <v>3143</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>3147</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.15">
@@ -41193,28 +41380,28 @@
         <v>4C</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>3148</v>
+        <v>3144</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>3148</v>
+        <v>3144</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>3148</v>
+        <v>3144</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>3148</v>
+        <v>3144</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>3148</v>
+        <v>3144</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>3148</v>
+        <v>3144</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>3148</v>
+        <v>3144</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>3148</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.15">
@@ -41226,28 +41413,28 @@
         <v>4D</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>3149</v>
+        <v>3145</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>3149</v>
+        <v>3145</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>3149</v>
+        <v>3145</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>3149</v>
+        <v>3145</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>3149</v>
+        <v>3145</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>3149</v>
+        <v>3145</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>3149</v>
+        <v>3145</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>3149</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.15">
@@ -41259,28 +41446,28 @@
         <v>4E</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>3150</v>
+        <v>3146</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>3150</v>
+        <v>3146</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>3150</v>
+        <v>3146</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>3150</v>
+        <v>3146</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>3150</v>
+        <v>3146</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>3150</v>
+        <v>3146</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>3150</v>
+        <v>3146</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>3150</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.15">
@@ -41292,28 +41479,28 @@
         <v>4F</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>3151</v>
+        <v>3147</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>3151</v>
+        <v>3147</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>3151</v>
+        <v>3147</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>3151</v>
+        <v>3147</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>3151</v>
+        <v>3147</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>3151</v>
+        <v>3147</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>3151</v>
+        <v>3147</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>3151</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.15">
@@ -41325,28 +41512,28 @@
         <v>50</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>3152</v>
+        <v>3148</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>3152</v>
+        <v>3148</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>3152</v>
+        <v>3148</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>3152</v>
+        <v>3148</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>3152</v>
+        <v>3148</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>3152</v>
+        <v>3148</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>3152</v>
+        <v>3148</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>3152</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.15">
@@ -41358,28 +41545,28 @@
         <v>51</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>3153</v>
+        <v>3149</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>3153</v>
+        <v>3149</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>3153</v>
+        <v>3149</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>3153</v>
+        <v>3149</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>3153</v>
+        <v>3149</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>3153</v>
+        <v>3149</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>3153</v>
+        <v>3149</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>3153</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.15">
@@ -41391,28 +41578,28 @@
         <v>52</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>3154</v>
+        <v>3150</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>3154</v>
+        <v>3150</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>3154</v>
+        <v>3150</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>3154</v>
+        <v>3150</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>3154</v>
+        <v>3150</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>3154</v>
+        <v>3150</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>3154</v>
+        <v>3150</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>3154</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.15">
@@ -41424,28 +41611,28 @@
         <v>53</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>3155</v>
+        <v>3151</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>3155</v>
+        <v>3151</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>3155</v>
+        <v>3151</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>3155</v>
+        <v>3151</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>3155</v>
+        <v>3151</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>3155</v>
+        <v>3151</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>3155</v>
+        <v>3151</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>3155</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.15">
@@ -41457,28 +41644,28 @@
         <v>54</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>3156</v>
+        <v>3152</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>3156</v>
+        <v>3152</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>3156</v>
+        <v>3152</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>3156</v>
+        <v>3152</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>3156</v>
+        <v>3152</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>3156</v>
+        <v>3152</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>3156</v>
+        <v>3152</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>3156</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.15">
@@ -41490,28 +41677,28 @@
         <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>3157</v>
+        <v>3153</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>3157</v>
+        <v>3153</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>3157</v>
+        <v>3153</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>3157</v>
+        <v>3153</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>3157</v>
+        <v>3153</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>3157</v>
+        <v>3153</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>3157</v>
+        <v>3153</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>3157</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.15">
@@ -41523,28 +41710,28 @@
         <v>56</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>3158</v>
+        <v>3154</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>3158</v>
+        <v>3154</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>3158</v>
+        <v>3154</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>3158</v>
+        <v>3154</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>3158</v>
+        <v>3154</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>3158</v>
+        <v>3154</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>3158</v>
+        <v>3154</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>3158</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.15">
@@ -41556,28 +41743,28 @@
         <v>57</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>3159</v>
+        <v>3155</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>3159</v>
+        <v>3155</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>3159</v>
+        <v>3155</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>3159</v>
+        <v>3155</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>3159</v>
+        <v>3155</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>3159</v>
+        <v>3155</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>3159</v>
+        <v>3155</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>3159</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.15">
@@ -41589,28 +41776,28 @@
         <v>58</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>3160</v>
+        <v>3156</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>3160</v>
+        <v>3156</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>3160</v>
+        <v>3156</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>3160</v>
+        <v>3156</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>3160</v>
+        <v>3156</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>3160</v>
+        <v>3156</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>3160</v>
+        <v>3156</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>3160</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.15">
@@ -41622,28 +41809,28 @@
         <v>59</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>3161</v>
+        <v>3157</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>3161</v>
+        <v>3157</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>3161</v>
+        <v>3157</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>3161</v>
+        <v>3157</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>3161</v>
+        <v>3157</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>3161</v>
+        <v>3157</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>3161</v>
+        <v>3157</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>3161</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.15">
@@ -41655,28 +41842,28 @@
         <v>5A</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>3162</v>
+        <v>3158</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>3162</v>
+        <v>3158</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>3162</v>
+        <v>3158</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>3162</v>
+        <v>3158</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>3162</v>
+        <v>3158</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>3162</v>
+        <v>3158</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>3162</v>
+        <v>3158</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>3162</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.15">
@@ -41688,28 +41875,28 @@
         <v>5B</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>3163</v>
+        <v>3159</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>3163</v>
+        <v>3159</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>3163</v>
+        <v>3159</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>3163</v>
+        <v>3159</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>3163</v>
+        <v>3159</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>3163</v>
+        <v>3159</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>3163</v>
+        <v>3159</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>3163</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.15">
@@ -41721,28 +41908,28 @@
         <v>5C</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>3164</v>
+        <v>3160</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>3164</v>
+        <v>3160</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>3164</v>
+        <v>3160</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>3164</v>
+        <v>3160</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>3164</v>
+        <v>3160</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>3164</v>
+        <v>3160</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>3164</v>
+        <v>3160</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>3164</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.15">
@@ -41754,28 +41941,28 @@
         <v>5D</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>3165</v>
+        <v>3161</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>3165</v>
+        <v>3161</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>3165</v>
+        <v>3161</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>3165</v>
+        <v>3161</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>3165</v>
+        <v>3161</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>3165</v>
+        <v>3161</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>3165</v>
+        <v>3161</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>3165</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.15">
@@ -41787,28 +41974,28 @@
         <v>5E</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>3166</v>
+        <v>3162</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>3166</v>
+        <v>3162</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>3166</v>
+        <v>3162</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>3166</v>
+        <v>3162</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>3166</v>
+        <v>3162</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>3166</v>
+        <v>3162</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>3166</v>
+        <v>3162</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>3166</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.15">
@@ -41820,28 +42007,28 @@
         <v>5F</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>3167</v>
+        <v>3163</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>3167</v>
+        <v>3163</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>3167</v>
+        <v>3163</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>3167</v>
+        <v>3163</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>3167</v>
+        <v>3163</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>3167</v>
+        <v>3163</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>3167</v>
+        <v>3163</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>3167</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.15">
@@ -41853,28 +42040,28 @@
         <v>60</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>3168</v>
+        <v>3164</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>3168</v>
+        <v>3164</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>3168</v>
+        <v>3164</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>3168</v>
+        <v>3164</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>3168</v>
+        <v>3164</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>3168</v>
+        <v>3164</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>3168</v>
+        <v>3164</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>3168</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.15">
@@ -41886,28 +42073,28 @@
         <v>61</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>3169</v>
+        <v>3165</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>3169</v>
+        <v>3165</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>3169</v>
+        <v>3165</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>3169</v>
+        <v>3165</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>3169</v>
+        <v>3165</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>3169</v>
+        <v>3165</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>3169</v>
+        <v>3165</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>3169</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.15">
@@ -41919,28 +42106,28 @@
         <v>62</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>3170</v>
+        <v>3166</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>3170</v>
+        <v>3166</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>3170</v>
+        <v>3166</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>3170</v>
+        <v>3166</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>3170</v>
+        <v>3166</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>3170</v>
+        <v>3166</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>3170</v>
+        <v>3166</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>3170</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.15">
@@ -41952,28 +42139,28 @@
         <v>63</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>3171</v>
+        <v>3167</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>3171</v>
+        <v>3167</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>3171</v>
+        <v>3167</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>3171</v>
+        <v>3167</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>3171</v>
+        <v>3167</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>3171</v>
+        <v>3167</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>3171</v>
+        <v>3167</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>3171</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.15">
@@ -41985,28 +42172,28 @@
         <v>64</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>3172</v>
+        <v>3168</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>3172</v>
+        <v>3168</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>3172</v>
+        <v>3168</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>3172</v>
+        <v>3168</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>3172</v>
+        <v>3168</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>3172</v>
+        <v>3168</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>3172</v>
+        <v>3168</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>3172</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.15">
@@ -42018,28 +42205,28 @@
         <v>65</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>3173</v>
+        <v>3169</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>3173</v>
+        <v>3169</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>3173</v>
+        <v>3169</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>3173</v>
+        <v>3169</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>3173</v>
+        <v>3169</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>3173</v>
+        <v>3169</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>3173</v>
+        <v>3169</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>3173</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.15">
@@ -42051,28 +42238,28 @@
         <v>66</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>3174</v>
+        <v>3170</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>3174</v>
+        <v>3170</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>3174</v>
+        <v>3170</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>3174</v>
+        <v>3170</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>3174</v>
+        <v>3170</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>3174</v>
+        <v>3170</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>3174</v>
+        <v>3170</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>3174</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.15">
@@ -42084,28 +42271,28 @@
         <v>67</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>3175</v>
+        <v>3171</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>3175</v>
+        <v>3171</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>3175</v>
+        <v>3171</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>3175</v>
+        <v>3171</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>3175</v>
+        <v>3171</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>3175</v>
+        <v>3171</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>3175</v>
+        <v>3171</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>3175</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.15">
@@ -42117,28 +42304,28 @@
         <v>68</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>3176</v>
+        <v>3172</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>3176</v>
+        <v>3172</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>3176</v>
+        <v>3172</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>3176</v>
+        <v>3172</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>3176</v>
+        <v>3172</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>3176</v>
+        <v>3172</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>3176</v>
+        <v>3172</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>3176</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.15">
@@ -42150,28 +42337,28 @@
         <v>69</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>3177</v>
+        <v>3173</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>3177</v>
+        <v>3173</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>3177</v>
+        <v>3173</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>3177</v>
+        <v>3173</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>3177</v>
+        <v>3173</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>3177</v>
+        <v>3173</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>3177</v>
+        <v>3173</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>3177</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.15">
@@ -42183,28 +42370,28 @@
         <v>6A</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>3178</v>
+        <v>3174</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>3178</v>
+        <v>3174</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>3178</v>
+        <v>3174</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>3178</v>
+        <v>3174</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>3178</v>
+        <v>3174</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>3178</v>
+        <v>3174</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>3178</v>
+        <v>3174</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>3178</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.15">
@@ -42216,28 +42403,28 @@
         <v>6B</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>3179</v>
+        <v>3175</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>3179</v>
+        <v>3175</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>3179</v>
+        <v>3175</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>3179</v>
+        <v>3175</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>3179</v>
+        <v>3175</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>3179</v>
+        <v>3175</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>3179</v>
+        <v>3175</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>3179</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.15">
@@ -42249,28 +42436,28 @@
         <v>6C</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.15">
@@ -42282,28 +42469,28 @@
         <v>6D</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>3181</v>
+        <v>3177</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>3181</v>
+        <v>3177</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>3181</v>
+        <v>3177</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>3181</v>
+        <v>3177</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>3181</v>
+        <v>3177</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>3181</v>
+        <v>3177</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>3181</v>
+        <v>3177</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>3181</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.15">
@@ -42315,28 +42502,28 @@
         <v>6E</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>3182</v>
+        <v>3178</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>3182</v>
+        <v>3178</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>3182</v>
+        <v>3178</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>3182</v>
+        <v>3178</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>3182</v>
+        <v>3178</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>3182</v>
+        <v>3178</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>3182</v>
+        <v>3178</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>3182</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.15">
@@ -42348,28 +42535,28 @@
         <v>6F</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>3183</v>
+        <v>3179</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>3183</v>
+        <v>3179</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>3183</v>
+        <v>3179</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>3183</v>
+        <v>3179</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>3183</v>
+        <v>3179</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>3183</v>
+        <v>3179</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>3183</v>
+        <v>3179</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>3183</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.15">
@@ -42381,28 +42568,28 @@
         <v>70</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>3184</v>
+        <v>3180</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>3184</v>
+        <v>3180</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>3184</v>
+        <v>3180</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>3184</v>
+        <v>3180</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>3184</v>
+        <v>3180</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>3184</v>
+        <v>3180</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>3184</v>
+        <v>3180</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>3184</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.15">
@@ -42414,28 +42601,28 @@
         <v>71</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>3185</v>
+        <v>3181</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>3185</v>
+        <v>3181</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>3185</v>
+        <v>3181</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>3185</v>
+        <v>3181</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>3185</v>
+        <v>3181</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>3185</v>
+        <v>3181</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>3185</v>
+        <v>3181</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>3185</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.15">
@@ -42447,28 +42634,28 @@
         <v>72</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>3186</v>
+        <v>3182</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>3186</v>
+        <v>3182</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>3186</v>
+        <v>3182</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>3186</v>
+        <v>3182</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>3186</v>
+        <v>3182</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>3186</v>
+        <v>3182</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>3186</v>
+        <v>3182</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>3186</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.15">
@@ -42480,28 +42667,28 @@
         <v>73</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>3187</v>
+        <v>3183</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>3187</v>
+        <v>3183</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>3187</v>
+        <v>3183</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>3187</v>
+        <v>3183</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>3187</v>
+        <v>3183</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>3187</v>
+        <v>3183</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>3187</v>
+        <v>3183</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>3187</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.15">
@@ -42513,28 +42700,28 @@
         <v>74</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>3188</v>
+        <v>3184</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>3188</v>
+        <v>3184</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>3188</v>
+        <v>3184</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>3188</v>
+        <v>3184</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>3188</v>
+        <v>3184</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>3188</v>
+        <v>3184</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>3188</v>
+        <v>3184</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>3188</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.15">
@@ -42546,28 +42733,28 @@
         <v>75</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>3189</v>
+        <v>3185</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>3189</v>
+        <v>3185</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>3189</v>
+        <v>3185</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>3189</v>
+        <v>3185</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>3189</v>
+        <v>3185</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>3189</v>
+        <v>3185</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>3189</v>
+        <v>3185</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>3189</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.15">
@@ -42579,28 +42766,28 @@
         <v>76</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>3190</v>
+        <v>3186</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>3190</v>
+        <v>3186</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>3190</v>
+        <v>3186</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>3190</v>
+        <v>3186</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>3190</v>
+        <v>3186</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>3190</v>
+        <v>3186</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>3190</v>
+        <v>3186</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>3190</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.15">
@@ -42612,28 +42799,28 @@
         <v>77</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>3191</v>
+        <v>3187</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>3191</v>
+        <v>3187</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>3191</v>
+        <v>3187</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>3191</v>
+        <v>3187</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>3191</v>
+        <v>3187</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>3191</v>
+        <v>3187</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>3191</v>
+        <v>3187</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>3191</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.15">
@@ -42645,28 +42832,28 @@
         <v>78</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>3192</v>
+        <v>3188</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>3192</v>
+        <v>3188</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>3192</v>
+        <v>3188</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>3192</v>
+        <v>3188</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>3192</v>
+        <v>3188</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>3192</v>
+        <v>3188</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>3192</v>
+        <v>3188</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>3192</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.15">
@@ -42678,28 +42865,28 @@
         <v>79</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>3193</v>
+        <v>3189</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>3193</v>
+        <v>3189</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>3193</v>
+        <v>3189</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>3193</v>
+        <v>3189</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>3193</v>
+        <v>3189</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>3193</v>
+        <v>3189</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>3193</v>
+        <v>3189</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>3193</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.15">
@@ -42711,28 +42898,28 @@
         <v>7A</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>3194</v>
+        <v>3190</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>3194</v>
+        <v>3190</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>3194</v>
+        <v>3190</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>3194</v>
+        <v>3190</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>3194</v>
+        <v>3190</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>3194</v>
+        <v>3190</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>3194</v>
+        <v>3190</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>3194</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.15">
@@ -42744,28 +42931,28 @@
         <v>7B</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>3195</v>
+        <v>3191</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>3195</v>
+        <v>3191</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>3195</v>
+        <v>3191</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>3195</v>
+        <v>3191</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>3195</v>
+        <v>3191</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>3195</v>
+        <v>3191</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>3195</v>
+        <v>3191</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>3195</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.15">
@@ -42777,28 +42964,28 @@
         <v>7C</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>3196</v>
+        <v>3192</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>3196</v>
+        <v>3192</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>3196</v>
+        <v>3192</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>3196</v>
+        <v>3192</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>3196</v>
+        <v>3192</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>3196</v>
+        <v>3192</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>3196</v>
+        <v>3192</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>3196</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.15">
@@ -42810,28 +42997,28 @@
         <v>7D</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>3197</v>
+        <v>3193</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>3197</v>
+        <v>3193</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>3197</v>
+        <v>3193</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>3197</v>
+        <v>3193</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>3197</v>
+        <v>3193</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>3197</v>
+        <v>3193</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>3197</v>
+        <v>3193</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>3197</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.15">
@@ -42843,28 +43030,28 @@
         <v>7E</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>3198</v>
+        <v>3194</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>3198</v>
+        <v>3194</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>3198</v>
+        <v>3194</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>3198</v>
+        <v>3194</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>3198</v>
+        <v>3194</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>3198</v>
+        <v>3194</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>3198</v>
+        <v>3194</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>3198</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.15">
@@ -42890,8 +43077,8 @@
       <c r="K129" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="L129" s="3" t="s">
-        <v>202</v>
+      <c r="L129" s="56" t="s">
+        <v>3659</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.15">
@@ -42903,22 +43090,25 @@
         <v>80</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>3199</v>
+        <v>3195</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>3199</v>
+        <v>3195</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>250</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>3200</v>
+        <v>3196</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>3201</v>
+        <v>3197</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>3201</v>
+        <v>3197</v>
+      </c>
+      <c r="L130" s="56" t="s">
+        <v>3676</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.15">
@@ -42939,10 +43129,10 @@
         <v>253</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>3202</v>
+        <v>3198</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>3203</v>
+        <v>3199</v>
       </c>
       <c r="I131" s="3" t="s">
         <v>26</v>
@@ -42975,7 +43165,7 @@
         <v>256</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>3204</v>
+        <v>3200</v>
       </c>
       <c r="I132" s="3" t="s">
         <v>53</v>
@@ -43006,7 +43196,7 @@
       </c>
       <c r="F133" s="1"/>
       <c r="H133" s="2" t="s">
-        <v>3205</v>
+        <v>3201</v>
       </c>
       <c r="I133" s="3" t="s">
         <v>970</v>
@@ -43030,29 +43220,29 @@
         <v>84</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>3067</v>
+        <v>3063</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>3067</v>
+        <v>3063</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="2" t="s">
-        <v>3203</v>
+        <v>3199</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>3206</v>
+        <v>3202</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>3067</v>
+        <v>3063</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>3067</v>
+        <v>3063</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>3067</v>
+        <v>3063</v>
       </c>
       <c r="L134" s="3" t="s">
-        <v>3067</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.15">
@@ -43064,31 +43254,31 @@
         <v>85</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>3207</v>
+        <v>3203</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>3207</v>
+        <v>3203</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>259</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>3208</v>
+        <v>3204</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>3209</v>
+        <v>3205</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>3207</v>
+        <v>3203</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>3207</v>
+        <v>3203</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>3207</v>
+        <v>3203</v>
       </c>
       <c r="L135" s="3" t="s">
-        <v>3207</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.15">
@@ -43103,16 +43293,19 @@
         <v>265</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>3210</v>
+        <v>3206</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>3211</v>
+        <v>3207</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>3212</v>
+        <v>3208</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>3213</v>
+        <v>3209</v>
+      </c>
+      <c r="L136" s="56" t="s">
+        <v>3669</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.15">
@@ -43127,10 +43320,13 @@
         <v>268</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>3214</v>
+        <v>3210</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>3215</v>
+        <v>3211</v>
+      </c>
+      <c r="L137" s="56" t="s">
+        <v>3665</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.15">
@@ -43143,10 +43339,13 @@
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="2" t="s">
-        <v>3216</v>
+        <v>3212</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>3217</v>
+        <v>3213</v>
+      </c>
+      <c r="L138" s="56" t="s">
+        <v>3664</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.15">
@@ -43158,10 +43357,13 @@
         <v>89</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>3218</v>
+        <v>3214</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>3202</v>
+        <v>3198</v>
+      </c>
+      <c r="L139" s="56" t="s">
+        <v>3661</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.15">
@@ -43173,23 +43375,23 @@
         <v>8A</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>3219</v>
+        <v>3215</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>3219</v>
+        <v>3215</v>
       </c>
       <c r="F140" s="1"/>
       <c r="I140" s="3" t="s">
-        <v>3219</v>
+        <v>3215</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>3219</v>
+        <v>3215</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>3219</v>
+        <v>3215</v>
       </c>
       <c r="L140" s="3" t="s">
-        <v>3219</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.15">
@@ -43201,23 +43403,23 @@
         <v>8B</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>3220</v>
+        <v>3216</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>3220</v>
+        <v>3216</v>
       </c>
       <c r="F141" s="1"/>
       <c r="I141" s="3" t="s">
-        <v>3220</v>
+        <v>3216</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>3220</v>
+        <v>3216</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>3220</v>
+        <v>3216</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>3220</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.15">
@@ -43285,25 +43487,25 @@
         <v>8E</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>3221</v>
+        <v>3217</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>3221</v>
+        <v>3217</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>3222</v>
+        <v>3218</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>3221</v>
+        <v>3217</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>3221</v>
+        <v>3217</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>3221</v>
+        <v>3217</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>3221</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.15">
@@ -43315,23 +43517,23 @@
         <v>8F</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>3223</v>
+        <v>3219</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>3223</v>
+        <v>3219</v>
       </c>
       <c r="F145" s="1"/>
       <c r="I145" s="3" t="s">
-        <v>3223</v>
+        <v>3219</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>3223</v>
+        <v>3219</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>3223</v>
+        <v>3219</v>
       </c>
       <c r="L145" s="3" t="s">
-        <v>3223</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.15">
@@ -43371,25 +43573,25 @@
         <v>91</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>3224</v>
+        <v>3220</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>3224</v>
+        <v>3220</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>281</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>3224</v>
+        <v>3220</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>3224</v>
+        <v>3220</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>3224</v>
+        <v>3220</v>
       </c>
       <c r="L147" s="3" t="s">
-        <v>3224</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.15">
@@ -43401,25 +43603,25 @@
         <v>92</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>3225</v>
+        <v>3221</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>3225</v>
+        <v>3221</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>284</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>3225</v>
+        <v>3221</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>3225</v>
+        <v>3221</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>3225</v>
+        <v>3221</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>3225</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.15">
@@ -43431,23 +43633,23 @@
         <v>93</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>3226</v>
+        <v>3222</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>3226</v>
+        <v>3222</v>
       </c>
       <c r="F149" s="1"/>
       <c r="I149" s="3" t="s">
-        <v>3226</v>
+        <v>3222</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>3226</v>
+        <v>3222</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>3226</v>
+        <v>3222</v>
       </c>
       <c r="L149" s="3" t="s">
-        <v>3226</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.15">
@@ -43495,7 +43697,7 @@
         <v>120</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>3227</v>
+        <v>3223</v>
       </c>
       <c r="I151" s="3" t="s">
         <v>120</v>
@@ -43555,7 +43757,7 @@
         <v>114</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>3228</v>
+        <v>3224</v>
       </c>
       <c r="I153" s="3" t="s">
         <v>114</v>
@@ -43608,13 +43810,13 @@
       </c>
       <c r="F155" s="1"/>
       <c r="J155" s="3" t="s">
-        <v>3229</v>
+        <v>3225</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>3229</v>
+        <v>3225</v>
       </c>
       <c r="L155" s="3" t="s">
-        <v>3229</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.15">
@@ -43626,23 +43828,23 @@
         <v>9A</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>3230</v>
+        <v>3226</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>3230</v>
+        <v>3226</v>
       </c>
       <c r="F156" s="1"/>
       <c r="I156" s="3" t="s">
-        <v>3230</v>
+        <v>3226</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>3230</v>
+        <v>3226</v>
       </c>
       <c r="K156" s="3" t="s">
-        <v>3230</v>
+        <v>3226</v>
       </c>
       <c r="L156" s="3" t="s">
-        <v>3230</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.15">
@@ -43684,22 +43886,22 @@
         <v>9C</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>3231</v>
+        <v>3227</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>3231</v>
+        <v>3227</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>305</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>3231</v>
+        <v>3227</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>3231</v>
+        <v>3227</v>
       </c>
       <c r="L158" s="3" t="s">
-        <v>3231</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.15">
@@ -43711,22 +43913,22 @@
         <v>9D</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>3232</v>
+        <v>3228</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>3232</v>
+        <v>3228</v>
       </c>
       <c r="F159" s="3" t="s">
         <v>308</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>3232</v>
+        <v>3228</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>3232</v>
+        <v>3228</v>
       </c>
       <c r="L159" s="3" t="s">
-        <v>3232</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.15">
@@ -43738,22 +43940,22 @@
         <v>9E</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>3233</v>
+        <v>3229</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>3233</v>
+        <v>3229</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>3234</v>
+        <v>3230</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>3233</v>
+        <v>3229</v>
       </c>
       <c r="K160" s="3" t="s">
-        <v>3233</v>
+        <v>3229</v>
       </c>
       <c r="L160" s="3" t="s">
-        <v>3233</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.15">
@@ -43793,16 +43995,19 @@
         <v>A0</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>3235</v>
+        <v>3231</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>3236</v>
+        <v>3232</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>3236</v>
+        <v>3232</v>
       </c>
       <c r="J162" s="3" t="s">
-        <v>3237</v>
+        <v>3233</v>
+      </c>
+      <c r="L162" s="56" t="s">
+        <v>3657</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.15">
@@ -43815,13 +44020,16 @@
       </c>
       <c r="F163" s="1"/>
       <c r="G163" s="2" t="s">
-        <v>3238</v>
+        <v>3234</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>3238</v>
+        <v>3234</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>3239</v>
+        <v>3235</v>
+      </c>
+      <c r="L163" s="56" t="s">
+        <v>3651</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.15">
@@ -43833,10 +44041,13 @@
         <v>A2</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>3240</v>
+        <v>3236</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>3241</v>
+        <v>3237</v>
+      </c>
+      <c r="L164" s="56" t="s">
+        <v>3660</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.15">
@@ -43853,6 +44064,7 @@
       <c r="J165" s="3" t="s">
         <v>412</v>
       </c>
+      <c r="L165" s="56"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A166" s="2">
@@ -43866,7 +44078,10 @@
         <v>331</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>3242</v>
+        <v>3238</v>
+      </c>
+      <c r="L166" s="56" t="s">
+        <v>3647</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.15">
@@ -43878,16 +44093,16 @@
         <v>A5</v>
       </c>
       <c r="F167" t="s">
-        <v>3243</v>
+        <v>3239</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>3244</v>
+        <v>3240</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>3244</v>
+        <v>3240</v>
       </c>
       <c r="L167" s="3" t="s">
-        <v>3244</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.15">
@@ -43902,7 +44117,10 @@
         <v>337</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>3245</v>
+        <v>3241</v>
+      </c>
+      <c r="L168" s="56" t="s">
+        <v>3645</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.15">
@@ -43917,7 +44135,10 @@
         <v>428</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>3246</v>
+        <v>3242</v>
+      </c>
+      <c r="L169" s="56" t="s">
+        <v>3655</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.15">
@@ -43932,10 +44153,12 @@
         <v>340</v>
       </c>
       <c r="J170" t="s">
-        <v>3247</v>
+        <v>3243</v>
       </c>
       <c r="K170"/>
-      <c r="L170"/>
+      <c r="L170" s="55" t="s">
+        <v>3642</v>
+      </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A171" s="2">
@@ -43947,7 +44170,10 @@
       </c>
       <c r="F171" s="1"/>
       <c r="J171" s="3" t="s">
-        <v>3248</v>
+        <v>3244</v>
+      </c>
+      <c r="L171" s="56" t="s">
+        <v>3637</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.15">
@@ -43964,6 +44190,9 @@
       <c r="J172" s="3" t="s">
         <v>2576</v>
       </c>
+      <c r="L172" s="56" t="s">
+        <v>3636</v>
+      </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A173" s="2">
@@ -43979,6 +44208,9 @@
       <c r="J173" s="3" t="s">
         <v>2571</v>
       </c>
+      <c r="L173" s="56" t="s">
+        <v>3658</v>
+      </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A174" s="2">
@@ -43992,10 +44224,13 @@
         <v>349</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>3249</v>
+        <v>3245</v>
       </c>
       <c r="K174" s="3" t="s">
-        <v>3250</v>
+        <v>3246</v>
+      </c>
+      <c r="L174" s="56" t="s">
+        <v>3635</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.15">
@@ -44010,12 +44245,14 @@
         <v>352</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>3251</v>
+        <v>3247</v>
       </c>
       <c r="K175" t="s">
-        <v>3252</v>
-      </c>
-      <c r="L175"/>
+        <v>3248</v>
+      </c>
+      <c r="L175" s="55" t="s">
+        <v>3632</v>
+      </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A176" s="2">
@@ -44029,12 +44266,14 @@
         <v>461</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>3253</v>
+        <v>3249</v>
       </c>
       <c r="K176" t="s">
-        <v>3254</v>
-      </c>
-      <c r="L176"/>
+        <v>3250</v>
+      </c>
+      <c r="L176" s="55" t="s">
+        <v>3662</v>
+      </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A177" s="2">
@@ -44048,12 +44287,14 @@
         <v>355</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>3255</v>
+        <v>3251</v>
       </c>
       <c r="K177" t="s">
-        <v>3256</v>
-      </c>
-      <c r="L177"/>
+        <v>3252</v>
+      </c>
+      <c r="L177" s="55" t="s">
+        <v>3628</v>
+      </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A178" s="2">
@@ -44064,15 +44305,17 @@
         <v>B0</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>3257</v>
+        <v>3253</v>
       </c>
       <c r="J178" t="s">
-        <v>3258</v>
+        <v>3254</v>
       </c>
       <c r="K178" t="s">
-        <v>3259</v>
-      </c>
-      <c r="L178"/>
+        <v>3255</v>
+      </c>
+      <c r="L178" s="55" t="s">
+        <v>3626</v>
+      </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A179" s="2">
@@ -44084,12 +44327,14 @@
       </c>
       <c r="F179" s="1"/>
       <c r="J179" s="3" t="s">
-        <v>3260</v>
+        <v>3256</v>
       </c>
       <c r="K179" t="s">
-        <v>3261</v>
-      </c>
-      <c r="L179"/>
+        <v>3257</v>
+      </c>
+      <c r="L179" s="55" t="s">
+        <v>3663</v>
+      </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A180" s="2">
@@ -44103,15 +44348,17 @@
         <v>358</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>3262</v>
+        <v>3258</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>3263</v>
+        <v>3259</v>
       </c>
       <c r="K180" s="11" t="s">
-        <v>3264</v>
-      </c>
-      <c r="L180" s="11"/>
+        <v>3260</v>
+      </c>
+      <c r="L180" s="62" t="s">
+        <v>3656</v>
+      </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A181" s="2">
@@ -44122,22 +44369,24 @@
         <v>B3</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>3265</v>
+        <v>3261</v>
       </c>
       <c r="E181" s="8"/>
       <c r="F181" s="3" t="s">
-        <v>3266</v>
+        <v>3262</v>
       </c>
       <c r="I181" s="8" t="s">
-        <v>3267</v>
+        <v>3263</v>
       </c>
       <c r="J181" s="8" t="s">
-        <v>3268</v>
+        <v>3264</v>
       </c>
       <c r="K181" t="s">
-        <v>3268</v>
-      </c>
-      <c r="L181"/>
+        <v>3264</v>
+      </c>
+      <c r="L181" s="55" t="s">
+        <v>3624</v>
+      </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A182" s="2">
@@ -44148,18 +44397,21 @@
         <v>B4</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>3201</v>
+        <v>3197</v>
       </c>
       <c r="E182" s="8"/>
       <c r="F182" s="1"/>
       <c r="I182" s="8" t="s">
-        <v>3269</v>
+        <v>3265</v>
       </c>
       <c r="J182" s="8" t="s">
-        <v>3270</v>
+        <v>3266</v>
       </c>
       <c r="K182" s="3" t="s">
-        <v>3271</v>
+        <v>3267</v>
+      </c>
+      <c r="L182" s="56" t="s">
+        <v>3639</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.15">
@@ -44171,22 +44423,24 @@
         <v>B5</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>3272</v>
+        <v>3268</v>
       </c>
       <c r="E183" s="9"/>
       <c r="F183" s="3" t="s">
-        <v>3273</v>
+        <v>3269</v>
       </c>
       <c r="I183" s="9" t="s">
-        <v>3272</v>
+        <v>3268</v>
       </c>
       <c r="J183" s="9" t="s">
-        <v>3274</v>
+        <v>3270</v>
       </c>
       <c r="K183" s="9" t="s">
-        <v>3275</v>
-      </c>
-      <c r="L183" s="9"/>
+        <v>3271</v>
+      </c>
+      <c r="L183" s="61" t="s">
+        <v>3623</v>
+      </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A184" s="2">
@@ -44197,17 +44451,20 @@
         <v>B6</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>3276</v>
+        <v>3272</v>
       </c>
       <c r="F184" s="1"/>
       <c r="I184" s="3" t="s">
-        <v>3277</v>
+        <v>3273</v>
       </c>
       <c r="J184" s="3" t="s">
-        <v>3278</v>
+        <v>3274</v>
       </c>
       <c r="K184" s="3" t="s">
-        <v>3279</v>
+        <v>3275</v>
+      </c>
+      <c r="L184" s="56" t="s">
+        <v>3617</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.15">
@@ -44226,16 +44483,16 @@
       </c>
       <c r="F185" s="1"/>
       <c r="I185" s="3" t="s">
-        <v>3280</v>
+        <v>3276</v>
       </c>
       <c r="J185" s="3" t="s">
         <v>170</v>
       </c>
       <c r="K185" s="56" t="s">
-        <v>3556</v>
+        <v>3548</v>
       </c>
       <c r="L185" s="56" t="s">
-        <v>3556</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.15">
@@ -44247,19 +44504,22 @@
         <v>B8</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>3281</v>
+        <v>3277</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>367</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>3282</v>
+        <v>3278</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>3283</v>
+        <v>3279</v>
       </c>
       <c r="K186" s="3" t="s">
-        <v>3237</v>
+        <v>3233</v>
+      </c>
+      <c r="L186" s="56" t="s">
+        <v>3710</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.15">
@@ -44271,22 +44531,25 @@
         <v>B9</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>3284</v>
+        <v>3280</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>3285</v>
+        <v>3281</v>
       </c>
       <c r="F187" s="3" t="s">
         <v>468</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>3286</v>
+        <v>3282</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>3285</v>
+        <v>3281</v>
       </c>
       <c r="K187" s="3" t="s">
-        <v>3287</v>
+        <v>3283</v>
+      </c>
+      <c r="L187" s="56" t="s">
+        <v>3616</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.15">
@@ -44298,22 +44561,24 @@
         <v>BA</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>3288</v>
+        <v>3284</v>
       </c>
       <c r="E188" s="10" t="s">
         <v>501</v>
       </c>
       <c r="F188" s="1"/>
       <c r="I188" s="10" t="s">
-        <v>3289</v>
+        <v>3285</v>
       </c>
       <c r="J188" s="10" t="s">
-        <v>3290</v>
+        <v>3286</v>
       </c>
       <c r="K188" s="10" t="s">
-        <v>3291</v>
-      </c>
-      <c r="L188" s="10"/>
+        <v>3287</v>
+      </c>
+      <c r="L188" s="60" t="s">
+        <v>3613</v>
+      </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A189" s="2">
@@ -44324,25 +44589,25 @@
         <v>BB</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>3292</v>
+        <v>3288</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>3292</v>
+        <v>3288</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>373</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>3229</v>
+        <v>3225</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>3292</v>
+        <v>3288</v>
       </c>
       <c r="K189" s="3" t="s">
-        <v>3292</v>
+        <v>3288</v>
       </c>
       <c r="L189" s="56" t="s">
-        <v>3641</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.15">
@@ -44354,20 +44619,23 @@
         <v>BC</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>3293</v>
+        <v>3289</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>3293</v>
+        <v>3289</v>
       </c>
       <c r="F190" s="1"/>
       <c r="I190" s="3" t="s">
-        <v>3293</v>
+        <v>3289</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>3294</v>
+        <v>3290</v>
       </c>
       <c r="K190" s="3" t="s">
-        <v>3295</v>
+        <v>3291</v>
+      </c>
+      <c r="L190" s="56" t="s">
+        <v>3612</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.15">
@@ -44379,17 +44647,20 @@
         <v>BD</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>3296</v>
+        <v>3292</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>3296</v>
+        <v>3292</v>
       </c>
       <c r="F191" s="1"/>
       <c r="J191" s="3" t="s">
-        <v>3296</v>
+        <v>3292</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>3296</v>
+        <v>3292</v>
+      </c>
+      <c r="L191" s="56" t="s">
+        <v>3618</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.15">
@@ -44401,7 +44672,7 @@
         <v>BE</v>
       </c>
       <c r="D192" t="s">
-        <v>3297</v>
+        <v>3293</v>
       </c>
       <c r="E192" t="s">
         <v>2248</v>
@@ -44411,10 +44682,13 @@
       </c>
       <c r="I192"/>
       <c r="J192" t="s">
-        <v>3298</v>
+        <v>3294</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>3299</v>
+        <v>3295</v>
+      </c>
+      <c r="L192" s="56" t="s">
+        <v>3630</v>
       </c>
       <c r="O192"/>
     </row>
@@ -44427,7 +44701,7 @@
         <v>BF</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>3300</v>
+        <v>3296</v>
       </c>
       <c r="E193" t="s">
         <v>2245</v>
@@ -44435,10 +44709,13 @@
       <c r="F193" s="1"/>
       <c r="I193"/>
       <c r="J193" s="3" t="s">
-        <v>3301</v>
+        <v>3297</v>
       </c>
       <c r="K193" s="3" t="s">
-        <v>3302</v>
+        <v>3298</v>
+      </c>
+      <c r="L193" s="56" t="s">
+        <v>3631</v>
       </c>
       <c r="O193" s="3"/>
     </row>
@@ -44459,10 +44736,13 @@
       <c r="F194" s="1"/>
       <c r="I194"/>
       <c r="J194" s="3" t="s">
-        <v>3303</v>
+        <v>3299</v>
       </c>
       <c r="K194" s="3" t="s">
-        <v>3304</v>
+        <v>3300</v>
+      </c>
+      <c r="L194" s="56" t="s">
+        <v>3633</v>
       </c>
       <c r="O194"/>
     </row>
@@ -44475,21 +44755,23 @@
         <v>C1</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>3305</v>
+        <v>3301</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>3306</v>
+        <v>3302</v>
       </c>
       <c r="F195" s="9" t="s">
-        <v>3307</v>
+        <v>3303</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>3305</v>
+        <v>3301</v>
       </c>
       <c r="K195" t="s">
-        <v>3308</v>
-      </c>
-      <c r="L195"/>
+        <v>3304</v>
+      </c>
+      <c r="L195" s="55" t="s">
+        <v>3610</v>
+      </c>
       <c r="O195"/>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.15">
@@ -44501,21 +44783,23 @@
         <v>C2</v>
       </c>
       <c r="D196" s="3" t="s">
+        <v>3305</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>3306</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>3307</v>
+      </c>
+      <c r="J196" s="3" t="s">
+        <v>3308</v>
+      </c>
+      <c r="K196" t="s">
         <v>3309</v>
       </c>
-      <c r="E196" s="3" t="s">
-        <v>3310</v>
-      </c>
-      <c r="F196" s="3" t="s">
-        <v>3311</v>
-      </c>
-      <c r="J196" s="3" t="s">
-        <v>3312</v>
-      </c>
-      <c r="K196" t="s">
-        <v>3313</v>
-      </c>
-      <c r="L196"/>
+      <c r="L196" s="55" t="s">
+        <v>3609</v>
+      </c>
       <c r="O196"/>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.15">
@@ -44527,21 +44811,23 @@
         <v>C3</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>3314</v>
+        <v>3310</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>3315</v>
+        <v>3311</v>
       </c>
       <c r="F197" s="3" t="s">
         <v>246</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>3316</v>
+        <v>3312</v>
       </c>
       <c r="K197" t="s">
-        <v>3317</v>
-      </c>
-      <c r="L197"/>
+        <v>3313</v>
+      </c>
+      <c r="L197" s="55" t="s">
+        <v>3607</v>
+      </c>
       <c r="O197"/>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.15">
@@ -44553,21 +44839,23 @@
         <v>C4</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>3318</v>
+        <v>3314</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>3263</v>
+        <v>3259</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>3319</v>
+        <v>3315</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>3320</v>
+        <v>3316</v>
       </c>
       <c r="K198" t="s">
         <v>2825</v>
       </c>
-      <c r="L198"/>
+      <c r="L198" s="56" t="s">
+        <v>3608</v>
+      </c>
       <c r="O198"/>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.15">
@@ -44579,21 +44867,23 @@
         <v>C5</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>3321</v>
+        <v>3317</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>3274</v>
+        <v>3270</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>3322</v>
+        <v>3318</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>3323</v>
+        <v>3319</v>
       </c>
       <c r="K199" t="s">
-        <v>3324</v>
-      </c>
-      <c r="L199"/>
+        <v>3320</v>
+      </c>
+      <c r="L199" s="55" t="s">
+        <v>3605</v>
+      </c>
       <c r="O199"/>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.15">
@@ -44605,23 +44895,23 @@
         <v>C6</v>
       </c>
       <c r="D200" s="12" t="s">
-        <v>3325</v>
+        <v>3321</v>
       </c>
       <c r="E200" s="12" t="s">
-        <v>3326</v>
+        <v>3322</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>535</v>
       </c>
       <c r="I200" s="12"/>
       <c r="J200" s="12" t="s">
-        <v>3327</v>
+        <v>3323</v>
       </c>
       <c r="K200" t="s">
         <v>2788</v>
       </c>
-      <c r="L200" t="s">
-        <v>3405</v>
+      <c r="L200" s="55" t="s">
+        <v>3627</v>
       </c>
       <c r="O200"/>
     </row>
@@ -44637,20 +44927,20 @@
         <v>1446</v>
       </c>
       <c r="E201" s="12" t="s">
-        <v>3328</v>
+        <v>3324</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>477</v>
       </c>
       <c r="I201" s="12"/>
       <c r="J201" s="12" t="s">
-        <v>3329</v>
+        <v>3325</v>
       </c>
       <c r="K201" t="s">
         <v>2793</v>
       </c>
       <c r="L201" s="55" t="s">
-        <v>3652</v>
+        <v>3597</v>
       </c>
       <c r="O201"/>
     </row>
@@ -44663,23 +44953,23 @@
         <v>C8</v>
       </c>
       <c r="D202" s="12" t="s">
-        <v>3330</v>
+        <v>3326</v>
       </c>
       <c r="E202" s="12" t="s">
-        <v>3331</v>
+        <v>3327</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>471</v>
       </c>
       <c r="I202" s="12"/>
       <c r="J202" s="12" t="s">
-        <v>3330</v>
+        <v>3326</v>
       </c>
       <c r="K202" t="s">
         <v>2800</v>
       </c>
       <c r="L202" s="55" t="s">
-        <v>3626</v>
+        <v>3580</v>
       </c>
       <c r="O202"/>
     </row>
@@ -44692,10 +44982,10 @@
         <v>C9</v>
       </c>
       <c r="D203" s="12" t="s">
-        <v>3332</v>
+        <v>3328</v>
       </c>
       <c r="E203" s="12" t="s">
-        <v>3333</v>
+        <v>3329</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>406</v>
@@ -44705,10 +44995,10 @@
         <v>376</v>
       </c>
       <c r="K203" t="s">
-        <v>3334</v>
+        <v>3330</v>
       </c>
       <c r="L203" s="55" t="s">
-        <v>3640</v>
+        <v>3591</v>
       </c>
       <c r="O203" s="3"/>
     </row>
@@ -44721,23 +45011,23 @@
         <v>CA</v>
       </c>
       <c r="D204" s="12" t="s">
-        <v>3335</v>
+        <v>3331</v>
       </c>
       <c r="E204" s="12" t="s">
-        <v>3336</v>
+        <v>3332</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>3337</v>
+        <v>3333</v>
       </c>
       <c r="I204" s="12"/>
       <c r="J204" s="12" t="s">
-        <v>3338</v>
+        <v>3334</v>
       </c>
       <c r="K204" t="s">
-        <v>3339</v>
+        <v>3335</v>
       </c>
       <c r="L204" s="57" t="s">
-        <v>3583</v>
+        <v>3563</v>
       </c>
       <c r="O204"/>
     </row>
@@ -44750,23 +45040,23 @@
         <v>CB</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>3340</v>
+        <v>3336</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>3341</v>
+        <v>3337</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>464</v>
       </c>
       <c r="I205" s="7"/>
       <c r="J205" s="7" t="s">
-        <v>3342</v>
+        <v>3338</v>
       </c>
       <c r="K205" t="s">
-        <v>3343</v>
+        <v>3339</v>
       </c>
       <c r="L205" s="57" t="s">
-        <v>3582</v>
+        <v>3562</v>
       </c>
       <c r="O205"/>
     </row>
@@ -44782,20 +45072,20 @@
         <v>373</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>3344</v>
+        <v>3340</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>523</v>
       </c>
       <c r="I206" s="7"/>
       <c r="J206" s="7" t="s">
-        <v>3345</v>
+        <v>3341</v>
       </c>
       <c r="K206" t="s">
-        <v>3346</v>
+        <v>3342</v>
       </c>
       <c r="L206" s="57" t="s">
-        <v>3666</v>
+        <v>3602</v>
       </c>
       <c r="O206"/>
     </row>
@@ -44808,22 +45098,22 @@
         <v>CD</v>
       </c>
       <c r="D207" t="s">
-        <v>3347</v>
+        <v>3343</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>3348</v>
+        <v>3344</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>275</v>
       </c>
       <c r="J207" t="s">
-        <v>3349</v>
+        <v>3345</v>
       </c>
       <c r="K207" t="s">
-        <v>3350</v>
+        <v>3346</v>
       </c>
       <c r="L207" s="57" t="s">
-        <v>3622</v>
+        <v>3675</v>
       </c>
       <c r="O207"/>
     </row>
@@ -44836,22 +45126,22 @@
         <v>CE</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>3351</v>
+        <v>3347</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>3351</v>
+        <v>3347</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>243</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>3352</v>
+        <v>3348</v>
       </c>
       <c r="K208" t="s">
         <v>2780</v>
       </c>
       <c r="L208" s="57" t="s">
-        <v>3651</v>
+        <v>3619</v>
       </c>
       <c r="O208"/>
     </row>
@@ -44864,10 +45154,10 @@
         <v>CF</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>3353</v>
+        <v>3349</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>3354</v>
+        <v>3350</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>504</v>
@@ -44876,10 +45166,10 @@
         <v>2431</v>
       </c>
       <c r="K209" t="s">
-        <v>3355</v>
+        <v>3351</v>
       </c>
       <c r="L209" s="57" t="s">
-        <v>3581</v>
+        <v>3561</v>
       </c>
       <c r="O209"/>
     </row>
@@ -44892,22 +45182,22 @@
         <v>D0</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>3356</v>
+        <v>3352</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>3357</v>
+        <v>3353</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>315</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>3358</v>
+        <v>3354</v>
       </c>
       <c r="K210" t="s">
-        <v>3359</v>
+        <v>3355</v>
       </c>
       <c r="L210" s="57" t="s">
-        <v>3549</v>
+        <v>3542</v>
       </c>
       <c r="O210"/>
     </row>
@@ -44920,22 +45210,22 @@
         <v>D1</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>3360</v>
+        <v>3356</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>3361</v>
+        <v>3357</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>385</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>3362</v>
+        <v>3358</v>
       </c>
       <c r="K211" t="s">
-        <v>3363</v>
+        <v>3359</v>
       </c>
       <c r="L211" s="57" t="s">
-        <v>3619</v>
+        <v>3668</v>
       </c>
       <c r="O211"/>
     </row>
@@ -44948,23 +45238,23 @@
         <v>D2</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>3364</v>
+        <v>3360</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>3365</v>
+        <v>3361</v>
       </c>
       <c r="F212" s="12" t="s">
         <v>376</v>
       </c>
       <c r="I212" s="7"/>
       <c r="J212" s="7" t="s">
-        <v>3366</v>
+        <v>3362</v>
       </c>
       <c r="K212" t="s">
-        <v>3367</v>
+        <v>3363</v>
       </c>
       <c r="L212" s="57" t="s">
-        <v>3598</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.15">
@@ -44979,20 +45269,20 @@
         <v>2014</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>3368</v>
+        <v>3364</v>
       </c>
       <c r="F213" s="12" t="s">
         <v>425</v>
       </c>
       <c r="I213" s="7"/>
       <c r="J213" s="7" t="s">
-        <v>3369</v>
+        <v>3365</v>
       </c>
       <c r="K213" t="s">
         <v>2742</v>
       </c>
       <c r="L213" s="57" t="s">
-        <v>3580</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.15">
@@ -45004,23 +45294,23 @@
         <v>D4</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>3370</v>
+        <v>3366</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>3371</v>
+        <v>3367</v>
       </c>
       <c r="F214" s="12" t="s">
         <v>416</v>
       </c>
       <c r="I214" s="7"/>
       <c r="J214" s="7" t="s">
-        <v>3372</v>
+        <v>3368</v>
       </c>
       <c r="K214" t="s">
         <v>2746</v>
       </c>
       <c r="L214" s="57" t="s">
-        <v>3545</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.15">
@@ -45032,10 +45322,10 @@
         <v>D5</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>3373</v>
+        <v>3369</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>3374</v>
+        <v>3370</v>
       </c>
       <c r="F215" s="12" t="s">
         <v>480</v>
@@ -45045,10 +45335,10 @@
         <v>246</v>
       </c>
       <c r="K215" t="s">
-        <v>3375</v>
+        <v>3371</v>
       </c>
       <c r="L215" s="57" t="s">
-        <v>3544</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.15">
@@ -45060,23 +45350,23 @@
         <v>D6</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>3376</v>
+        <v>3372</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>3377</v>
+        <v>3373</v>
       </c>
       <c r="F216" s="12" t="s">
         <v>486</v>
       </c>
       <c r="I216" s="7"/>
       <c r="J216" t="s">
-        <v>3378</v>
+        <v>3374</v>
       </c>
       <c r="K216" t="s">
-        <v>3379</v>
+        <v>3375</v>
       </c>
       <c r="L216" s="57" t="s">
-        <v>3579</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.15">
@@ -45088,23 +45378,23 @@
         <v>D7</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>3380</v>
+        <v>3376</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>3381</v>
+        <v>3377</v>
       </c>
       <c r="F217" s="12" t="s">
         <v>262</v>
       </c>
       <c r="I217" s="7"/>
       <c r="J217" s="7" t="s">
-        <v>3382</v>
+        <v>3378</v>
       </c>
       <c r="K217" s="7" t="s">
-        <v>3383</v>
+        <v>3379</v>
       </c>
       <c r="L217" s="57" t="s">
-        <v>3542</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.15">
@@ -45116,23 +45406,23 @@
         <v>D8</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>3384</v>
+        <v>3380</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>3385</v>
+        <v>3381</v>
       </c>
       <c r="F218" t="s">
-        <v>3386</v>
+        <v>3382</v>
       </c>
       <c r="I218" s="7"/>
       <c r="J218" s="7" t="s">
-        <v>3387</v>
+        <v>3383</v>
       </c>
       <c r="K218" s="7" t="s">
-        <v>3388</v>
+        <v>3384</v>
       </c>
       <c r="L218" s="57" t="s">
-        <v>3578</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.15">
@@ -45144,23 +45434,23 @@
         <v>D9</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>3389</v>
+        <v>3385</v>
       </c>
       <c r="E219" s="7" t="s">
         <v>1485</v>
       </c>
       <c r="F219" t="s">
-        <v>3390</v>
+        <v>3386</v>
       </c>
       <c r="I219" s="7"/>
       <c r="J219" s="7" t="s">
         <v>343</v>
       </c>
       <c r="K219" t="s">
-        <v>3391</v>
+        <v>3387</v>
       </c>
       <c r="L219" s="57" t="s">
-        <v>3616</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.15">
@@ -45175,20 +45465,20 @@
         <v>1422</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>3392</v>
+        <v>3388</v>
       </c>
       <c r="F220" s="12" t="s">
         <v>439</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7" t="s">
-        <v>3393</v>
+        <v>3389</v>
       </c>
       <c r="K220" s="7" t="s">
         <v>468</v>
       </c>
       <c r="L220" s="57" t="s">
-        <v>3577</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.15">
@@ -45203,20 +45493,20 @@
         <v>480</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>3394</v>
+        <v>3390</v>
       </c>
       <c r="F221" s="12" t="s">
         <v>445</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="7" t="s">
-        <v>3395</v>
+        <v>3391</v>
       </c>
       <c r="K221" t="s">
-        <v>3396</v>
+        <v>3392</v>
       </c>
       <c r="L221" s="57" t="s">
-        <v>3608</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.15">
@@ -45241,10 +45531,10 @@
         <v>315</v>
       </c>
       <c r="K222" s="7" t="s">
-        <v>3274</v>
+        <v>3270</v>
       </c>
       <c r="L222" s="57" t="s">
-        <v>3614</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.15">
@@ -45256,23 +45546,23 @@
         <v>DD</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>3397</v>
+        <v>3393</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>3398</v>
+        <v>3394</v>
       </c>
       <c r="F223" s="12" t="s">
         <v>442</v>
       </c>
       <c r="I223" s="7"/>
       <c r="J223" s="7" t="s">
-        <v>3399</v>
+        <v>3395</v>
       </c>
       <c r="K223" t="s">
-        <v>3400</v>
+        <v>3396</v>
       </c>
       <c r="L223" s="57" t="s">
-        <v>3670</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.15">
@@ -45284,23 +45574,23 @@
         <v>DE</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>3401</v>
+        <v>3397</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>3402</v>
+        <v>3398</v>
       </c>
       <c r="F224" s="12" t="s">
         <v>541</v>
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7" t="s">
-        <v>3403</v>
+        <v>3399</v>
       </c>
       <c r="K224" t="s">
-        <v>3404</v>
+        <v>3400</v>
       </c>
       <c r="L224" s="57" t="s">
-        <v>3649</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.15">
@@ -45312,23 +45602,23 @@
         <v>DF</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>3405</v>
+        <v>3401</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>3405</v>
+        <v>3401</v>
       </c>
       <c r="F225" s="12" t="s">
         <v>419</v>
       </c>
       <c r="I225" s="7"/>
       <c r="J225" s="7" t="s">
-        <v>3406</v>
+        <v>3402</v>
       </c>
       <c r="K225" t="s">
         <v>2638</v>
       </c>
       <c r="L225" s="57" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.15">
@@ -45340,25 +45630,25 @@
         <v>E0</v>
       </c>
       <c r="D226" s="7" t="s">
+        <v>3403</v>
+      </c>
+      <c r="E226" s="7" t="s">
+        <v>3404</v>
+      </c>
+      <c r="F226" s="12" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I226" s="7" t="s">
+        <v>3406</v>
+      </c>
+      <c r="J226" s="7" t="s">
         <v>3407</v>
-      </c>
-      <c r="E226" s="7" t="s">
-        <v>3408</v>
-      </c>
-      <c r="F226" s="12" t="s">
-        <v>3409</v>
-      </c>
-      <c r="I226" s="7" t="s">
-        <v>3410</v>
-      </c>
-      <c r="J226" s="7" t="s">
-        <v>3411</v>
       </c>
       <c r="K226" t="s">
         <v>2633</v>
       </c>
       <c r="L226" s="57" t="s">
-        <v>3576</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.15">
@@ -45370,23 +45660,23 @@
         <v>E1</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>3412</v>
+        <v>3408</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>3413</v>
+        <v>3409</v>
       </c>
       <c r="F227" s="12" t="s">
-        <v>3414</v>
+        <v>3410</v>
       </c>
       <c r="I227" s="7"/>
       <c r="J227" s="7" t="s">
-        <v>3415</v>
+        <v>3411</v>
       </c>
       <c r="K227" s="7" t="s">
-        <v>3416</v>
+        <v>3412</v>
       </c>
       <c r="L227" s="57" t="s">
-        <v>3664</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.15">
@@ -45398,23 +45688,23 @@
         <v>E2</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>3417</v>
+        <v>3413</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>3418</v>
+        <v>3414</v>
       </c>
       <c r="F228" t="s">
         <v>422</v>
       </c>
       <c r="I228" s="7"/>
       <c r="J228" t="s">
-        <v>3419</v>
+        <v>3415</v>
       </c>
       <c r="K228" t="s">
-        <v>3420</v>
+        <v>3416</v>
       </c>
       <c r="L228" s="57" t="s">
-        <v>3663</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="229" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -45426,10 +45716,10 @@
         <v>E3</v>
       </c>
       <c r="D229" s="13" t="s">
-        <v>3421</v>
+        <v>3417</v>
       </c>
       <c r="E229" s="13" t="s">
-        <v>3422</v>
+        <v>3418</v>
       </c>
       <c r="F229" s="12" t="s">
         <v>432</v>
@@ -45440,10 +45730,10 @@
         <v>1618</v>
       </c>
       <c r="K229" s="13" t="s">
-        <v>3423</v>
+        <v>3419</v>
       </c>
       <c r="L229" s="57" t="s">
-        <v>3661</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.15">
@@ -45455,23 +45745,23 @@
         <v>E4</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>3218</v>
+        <v>3214</v>
       </c>
       <c r="E230" s="7" t="s">
-        <v>3424</v>
+        <v>3420</v>
       </c>
       <c r="F230" s="12" t="s">
-        <v>3425</v>
+        <v>3421</v>
       </c>
       <c r="I230" s="7"/>
       <c r="J230" s="7" t="s">
-        <v>3426</v>
+        <v>3422</v>
       </c>
       <c r="K230" s="7" t="s">
-        <v>3427</v>
+        <v>3423</v>
       </c>
       <c r="L230" s="57" t="s">
-        <v>3628</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.15">
@@ -45483,23 +45773,23 @@
         <v>E5</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>3428</v>
+        <v>3424</v>
       </c>
       <c r="E231" s="7" t="s">
         <v>373</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>3429</v>
+        <v>3425</v>
       </c>
       <c r="I231" s="7"/>
       <c r="J231" s="7" t="s">
-        <v>3430</v>
+        <v>3426</v>
       </c>
       <c r="K231" s="7" t="s">
-        <v>3431</v>
+        <v>3427</v>
       </c>
       <c r="L231" s="57" t="s">
-        <v>3669</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.15">
@@ -45517,16 +45807,16 @@
         <v>376</v>
       </c>
       <c r="F232" t="s">
-        <v>3432</v>
+        <v>3428</v>
       </c>
       <c r="J232" s="3" t="s">
         <v>376</v>
       </c>
       <c r="K232" s="3" t="s">
-        <v>3433</v>
+        <v>3429</v>
       </c>
       <c r="L232" s="57" t="s">
-        <v>3646</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.15">
@@ -45538,23 +45828,23 @@
         <v>E7</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>3434</v>
+        <v>3430</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>1473</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>3435</v>
+        <v>3431</v>
       </c>
       <c r="I233" s="2"/>
       <c r="J233" s="3" t="s">
-        <v>3436</v>
+        <v>3432</v>
       </c>
       <c r="K233" s="3" t="s">
-        <v>3437</v>
+        <v>3433</v>
       </c>
       <c r="L233" s="57" t="s">
-        <v>3575</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.15">
@@ -45566,22 +45856,22 @@
         <v>E8</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>3438</v>
+        <v>3434</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>3439</v>
+        <v>3435</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>3440</v>
+        <v>3436</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>3441</v>
+        <v>3437</v>
       </c>
       <c r="K234" s="3" t="s">
-        <v>3075</v>
+        <v>3071</v>
       </c>
       <c r="L234" s="57" t="s">
-        <v>3611</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.15">
@@ -45593,22 +45883,22 @@
         <v>E9</v>
       </c>
       <c r="D235" s="3" t="s">
+        <v>3438</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>3439</v>
+      </c>
+      <c r="F235" t="s">
+        <v>3440</v>
+      </c>
+      <c r="J235" s="3" t="s">
+        <v>3441</v>
+      </c>
+      <c r="K235" s="3" t="s">
         <v>3442</v>
       </c>
-      <c r="E235" s="3" t="s">
-        <v>3443</v>
-      </c>
-      <c r="F235" t="s">
-        <v>3444</v>
-      </c>
-      <c r="J235" s="3" t="s">
-        <v>3445</v>
-      </c>
-      <c r="K235" s="3" t="s">
-        <v>3446</v>
-      </c>
       <c r="L235" s="57" t="s">
-        <v>3625</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.15">
@@ -45620,22 +45910,22 @@
         <v>EA</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>3447</v>
+        <v>3443</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>3447</v>
+        <v>3443</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>3448</v>
+        <v>3444</v>
       </c>
       <c r="J236" s="3" t="s">
-        <v>3447</v>
+        <v>3443</v>
       </c>
       <c r="K236" s="3" t="s">
-        <v>3447</v>
+        <v>3443</v>
       </c>
       <c r="L236" s="56" t="s">
-        <v>3642</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.15">
@@ -45647,25 +45937,25 @@
         <v>EB</v>
       </c>
       <c r="D237" s="3" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>3446</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>3447</v>
+      </c>
+      <c r="I237" s="3" t="s">
+        <v>3448</v>
+      </c>
+      <c r="J237" s="3" t="s">
         <v>3449</v>
       </c>
-      <c r="E237" s="3" t="s">
+      <c r="K237" s="3" t="s">
         <v>3450</v>
       </c>
-      <c r="F237" s="2" t="s">
-        <v>3451</v>
-      </c>
-      <c r="I237" s="3" t="s">
-        <v>3452</v>
-      </c>
-      <c r="J237" s="3" t="s">
-        <v>3453</v>
-      </c>
-      <c r="K237" s="3" t="s">
-        <v>3454</v>
-      </c>
       <c r="L237" s="57" t="s">
-        <v>3574</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.15">
@@ -45677,25 +45967,25 @@
         <v>EC</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>3455</v>
+        <v>3451</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>3456</v>
+        <v>3452</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>3457</v>
+        <v>3453</v>
       </c>
       <c r="I238" s="3" t="s">
         <v>190</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>3458</v>
+        <v>3454</v>
       </c>
       <c r="K238" s="3" t="s">
-        <v>3378</v>
-      </c>
-      <c r="L238" s="21" t="s">
-        <v>2902</v>
+        <v>3374</v>
+      </c>
+      <c r="L238" s="57" t="s">
+        <v>3629</v>
       </c>
       <c r="N238"/>
     </row>
@@ -45708,22 +45998,22 @@
         <v>ED</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>3459</v>
+        <v>3455</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>3453</v>
+        <v>3449</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>563</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>3460</v>
+        <v>3456</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>3461</v>
+        <v>3457</v>
       </c>
       <c r="L239" s="57" t="s">
-        <v>3657</v>
+        <v>3641</v>
       </c>
       <c r="N239"/>
     </row>
@@ -45736,22 +46026,22 @@
         <v>EE</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>3462</v>
+        <v>3458</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>3463</v>
+        <v>3459</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>532</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>3464</v>
+        <v>3460</v>
       </c>
       <c r="J240" s="3" t="s">
-        <v>3465</v>
+        <v>3461</v>
       </c>
       <c r="L240" s="57" t="s">
-        <v>3607</v>
+        <v>3672</v>
       </c>
       <c r="N240"/>
     </row>
@@ -45764,23 +46054,23 @@
         <v>EF</v>
       </c>
       <c r="D241" s="13" t="s">
-        <v>3466</v>
+        <v>3462</v>
       </c>
       <c r="E241" s="13" t="s">
-        <v>3467</v>
+        <v>3463</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>3468</v>
+        <v>3464</v>
       </c>
       <c r="G241" s="15"/>
       <c r="I241" s="13" t="s">
         <v>173</v>
       </c>
       <c r="J241" s="13" t="s">
-        <v>3469</v>
+        <v>3465</v>
       </c>
       <c r="L241" s="57" t="s">
-        <v>3604</v>
+        <v>3614</v>
       </c>
       <c r="N241"/>
     </row>
@@ -45793,23 +46083,23 @@
         <v>F0</v>
       </c>
       <c r="D242" s="16" t="s">
-        <v>3470</v>
+        <v>3466</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>3471</v>
+        <v>3467</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>3472</v>
+        <v>3468</v>
       </c>
       <c r="G242" s="17"/>
       <c r="I242" s="16" t="s">
-        <v>3473</v>
+        <v>3469</v>
       </c>
       <c r="J242" s="16" t="s">
-        <v>3474</v>
+        <v>3470</v>
       </c>
       <c r="L242" s="57" t="s">
-        <v>3656</v>
+        <v>3634</v>
       </c>
       <c r="N242"/>
     </row>
@@ -45822,10 +46112,10 @@
         <v>F1</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>3475</v>
+        <v>3471</v>
       </c>
       <c r="E243" s="7" t="s">
-        <v>3476</v>
+        <v>3472</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>554</v>
@@ -45835,38 +46125,38 @@
         <v>170</v>
       </c>
       <c r="J243" s="7" t="s">
-        <v>3477</v>
+        <v>3473</v>
       </c>
       <c r="L243" s="57" t="s">
-        <v>3573</v>
+        <v>3620</v>
       </c>
       <c r="N243"/>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A244" s="2" t="s">
-        <v>3478</v>
+        <v>3474</v>
       </c>
       <c r="B244" s="2" t="str">
         <f t="shared" si="3"/>
         <v>F2</v>
       </c>
       <c r="D244" s="3" t="s">
+        <v>3475</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>3476</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>3477</v>
+      </c>
+      <c r="I244" s="3" t="s">
+        <v>3478</v>
+      </c>
+      <c r="J244" s="3" t="s">
         <v>3479</v>
       </c>
-      <c r="E244" s="3" t="s">
-        <v>3480</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>3481</v>
-      </c>
-      <c r="I244" s="3" t="s">
-        <v>3482</v>
-      </c>
-      <c r="J244" s="3" t="s">
-        <v>3483</v>
-      </c>
       <c r="L244" s="57" t="s">
-        <v>3645</v>
+        <v>3621</v>
       </c>
       <c r="N244"/>
     </row>
@@ -45882,19 +46172,19 @@
         <v>1395</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>3484</v>
+        <v>3480</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>3485</v>
+        <v>3481</v>
       </c>
       <c r="I245" s="3" t="s">
-        <v>3486</v>
+        <v>3482</v>
       </c>
       <c r="J245" s="3" t="s">
-        <v>3487</v>
+        <v>3483</v>
       </c>
       <c r="L245" s="57" t="s">
-        <v>3644</v>
+        <v>3654</v>
       </c>
       <c r="N245"/>
     </row>
@@ -45907,22 +46197,22 @@
         <v>F4</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>3488</v>
+        <v>3484</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>3489</v>
+        <v>3485</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>3490</v>
+        <v>3486</v>
       </c>
       <c r="I246" s="3" t="s">
-        <v>3304</v>
+        <v>3300</v>
       </c>
       <c r="J246" s="3" t="s">
-        <v>3491</v>
+        <v>3487</v>
       </c>
       <c r="L246" s="57" t="s">
-        <v>3653</v>
+        <v>3611</v>
       </c>
       <c r="N246"/>
     </row>
@@ -45935,22 +46225,22 @@
         <v>F5</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>3492</v>
+        <v>3488</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>3493</v>
+        <v>3489</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>3494</v>
+        <v>3490</v>
       </c>
       <c r="I247" s="3" t="s">
         <v>1098</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>3495</v>
+        <v>3491</v>
       </c>
       <c r="L247" s="57" t="s">
-        <v>3643</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.15">
@@ -45962,10 +46252,10 @@
         <v>F6</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>3496</v>
+        <v>3492</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>3497</v>
+        <v>3493</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>403</v>
@@ -45974,13 +46264,13 @@
         <v>1089</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>3498</v>
+        <v>3494</v>
       </c>
       <c r="K248" t="s">
         <v>2840</v>
       </c>
       <c r="L248" s="57" t="s">
-        <v>3620</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.15">
@@ -45995,22 +46285,22 @@
         <v>1388</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>3499</v>
+        <v>3495</v>
       </c>
       <c r="F249" s="18" t="s">
-        <v>3500</v>
+        <v>3496</v>
       </c>
       <c r="I249" s="3" t="s">
         <v>1104</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>3501</v>
+        <v>3497</v>
       </c>
       <c r="K249" t="s">
         <v>2811</v>
       </c>
       <c r="L249" s="57" t="s">
-        <v>3639</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.15">
@@ -46022,25 +46312,25 @@
         <v>F8</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>3502</v>
+        <v>3498</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>3503</v>
+        <v>3499</v>
       </c>
       <c r="F250" t="s">
-        <v>3504</v>
+        <v>3500</v>
       </c>
       <c r="I250" s="3" t="s">
         <v>1101</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>3505</v>
+        <v>3501</v>
       </c>
       <c r="K250" t="s">
         <v>2790</v>
       </c>
       <c r="L250" s="57" t="s">
-        <v>3638</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.15">
@@ -46052,25 +46342,25 @@
         <v>F9</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>3506</v>
+        <v>3502</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>3507</v>
+        <v>3503</v>
       </c>
       <c r="F251" t="s">
-        <v>3508</v>
+        <v>3504</v>
       </c>
       <c r="I251" s="3" t="s">
         <v>1086</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>3509</v>
+        <v>3505</v>
       </c>
       <c r="K251" t="s">
-        <v>3510</v>
+        <v>3506</v>
       </c>
       <c r="L251" s="57" t="s">
-        <v>3637</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.15">
@@ -46085,22 +46375,22 @@
         <v>468</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>3320</v>
+        <v>3316</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>3511</v>
+        <v>3507</v>
       </c>
       <c r="I252" t="s">
         <v>1095</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>3512</v>
+        <v>3508</v>
       </c>
       <c r="K252" t="s">
         <v>2730</v>
       </c>
       <c r="L252" s="57" t="s">
-        <v>3636</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.15">
@@ -46112,10 +46402,10 @@
         <v>FB</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>3513</v>
+        <v>3509</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>3514</v>
+        <v>3510</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>552</v>
@@ -46124,13 +46414,13 @@
         <v>1083</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>3515</v>
+        <v>3511</v>
       </c>
       <c r="K253" t="s">
         <v>2707</v>
       </c>
       <c r="L253" s="57" t="s">
-        <v>3635</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.15">
@@ -46138,13 +46428,13 @@
         <v>252</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>3516</v>
+        <v>3512</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>3517</v>
+        <v>3513</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>3518</v>
+        <v>3514</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>501</v>
@@ -46153,13 +46443,13 @@
         <v>1092</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>3519</v>
+        <v>3515</v>
       </c>
       <c r="K254" t="s">
         <v>2686</v>
       </c>
       <c r="L254" s="57" t="s">
-        <v>3634</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.15">
@@ -46170,25 +46460,25 @@
         <v>1132</v>
       </c>
       <c r="D255" s="3" t="s">
+        <v>3516</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>3517</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>3518</v>
+      </c>
+      <c r="I255" s="2" t="s">
+        <v>3519</v>
+      </c>
+      <c r="J255" s="3" t="s">
         <v>3520</v>
       </c>
-      <c r="E255" s="2" t="s">
+      <c r="K255" s="3" t="s">
         <v>3521</v>
       </c>
-      <c r="F255" s="2" t="s">
-        <v>3522</v>
-      </c>
-      <c r="I255" s="2" t="s">
-        <v>3523</v>
-      </c>
-      <c r="J255" s="3" t="s">
-        <v>3524</v>
-      </c>
-      <c r="K255" s="3" t="s">
-        <v>3525</v>
-      </c>
       <c r="L255" s="57" t="s">
-        <v>3633</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.15">
@@ -46196,28 +46486,28 @@
         <v>254</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>3526</v>
+        <v>3522</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>3388</v>
+        <v>3384</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>3388</v>
+        <v>3384</v>
       </c>
       <c r="F256" t="s">
-        <v>3378</v>
+        <v>3374</v>
       </c>
       <c r="I256" s="3" t="s">
-        <v>3527</v>
+        <v>3523</v>
       </c>
       <c r="J256" s="3" t="s">
-        <v>3528</v>
+        <v>3524</v>
       </c>
       <c r="K256" s="3" t="s">
         <v>2635</v>
       </c>
       <c r="L256" s="57" t="s">
-        <v>3632</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.15">
@@ -46225,26 +46515,26 @@
         <v>255</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>3529</v>
+        <v>3525</v>
       </c>
       <c r="C257" s="3"/>
       <c r="D257" s="3" t="s">
+        <v>3526</v>
+      </c>
+      <c r="E257" t="s">
+        <v>3527</v>
+      </c>
+      <c r="I257" t="s">
+        <v>3528</v>
+      </c>
+      <c r="J257" s="3" t="s">
+        <v>3529</v>
+      </c>
+      <c r="K257" s="3" t="s">
         <v>3530</v>
       </c>
-      <c r="E257" t="s">
-        <v>3531</v>
-      </c>
-      <c r="I257" t="s">
-        <v>3532</v>
-      </c>
-      <c r="J257" s="3" t="s">
-        <v>3533</v>
-      </c>
-      <c r="K257" s="3" t="s">
-        <v>3534</v>
-      </c>
       <c r="L257" s="56" t="s">
-        <v>3631</v>
+        <v>3582</v>
       </c>
     </row>
   </sheetData>

--- a/ra1/ra1字符串表.xlsx
+++ b/ra1/ra1字符串表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\cc\ra1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF61983B-5187-4E42-ADE8-F57F120B1521}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18926288-6293-4543-AE1A-12EE4237C0D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1575" windowWidth="9600" windowHeight="5025" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="界面字符串conquer.eng" sheetId="1" r:id="rId1"/>
@@ -15008,10 +15008,10 @@
   <dimension ref="A1:Q555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -34779,9 +34779,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F289" sqref="F289"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G287" sqref="G287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -38388,16 +38388,6 @@
       <c r="E254" s="58" t="s">
         <v>2948</v>
       </c>
-      <c r="F254" s="58" t="s">
-        <v>3534</v>
-      </c>
-      <c r="G254" s="58" t="s">
-        <v>3695</v>
-      </c>
-      <c r="H254" s="58" t="str">
-        <f>VLOOKUP(MID(G254,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G254,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G254,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G254,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G254,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G254,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G254,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G254,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G254,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>摧毁海岛防御,让科学家去研究所中和生物武器,</v>
-      </c>
     </row>
     <row r="255" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C255" s="58" t="str">
@@ -38411,14 +38401,14 @@
         <v>2950</v>
       </c>
       <c r="F255" s="58" t="s">
-        <v>3572</v>
+        <v>3534</v>
       </c>
       <c r="G255" s="58" t="s">
-        <v>3574</v>
+        <v>3695</v>
       </c>
       <c r="H255" s="58" t="str">
         <f>VLOOKUP(MID(G255,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G255,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G255,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G255,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G255,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G255,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G255,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G255,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G255,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>中和完毕后摧毁盟军基地.</v>
+        <v>摧毁海岛防御,让科学家去研究所中和生物武器,</v>
       </c>
     </row>
     <row r="256" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
@@ -38435,6 +38425,16 @@
       </c>
       <c r="E257" s="58" t="s">
         <v>2954</v>
+      </c>
+      <c r="F257" s="58" t="s">
+        <v>3572</v>
+      </c>
+      <c r="G257" s="58" t="s">
+        <v>3574</v>
+      </c>
+      <c r="H257" s="58" t="str">
+        <f>VLOOKUP(MID(G257,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G257,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G257,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G257,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G257,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G257,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G257,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G257,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G257,25,2),字库代码!B:L,11,TRUE)</f>
+        <v>中和完毕后摧毁盟军基地.</v>
       </c>
     </row>
     <row r="258" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
@@ -38485,16 +38485,6 @@
       <c r="E262" s="58" t="s">
         <v>2964</v>
       </c>
-      <c r="F262" s="58" t="s">
-        <v>3536</v>
-      </c>
-      <c r="G262" s="58" t="s">
-        <v>3698</v>
-      </c>
-      <c r="H262" s="58" t="str">
-        <f>VLOOKUP(MID(G262,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G262,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G262,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G262,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G262,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G262,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G262,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G262,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G262,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>俘获超时空传送仪,传送自走基地到对面岛屿.</v>
-      </c>
     </row>
     <row r="263" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C263" s="58" t="s">
@@ -38507,14 +38497,14 @@
         <v>2966</v>
       </c>
       <c r="F263" s="58" t="s">
-        <v>3576</v>
+        <v>3536</v>
       </c>
       <c r="G263" s="58" t="s">
-        <v>3577</v>
+        <v>3698</v>
       </c>
       <c r="H263" s="58" t="str">
         <f>VLOOKUP(MID(G263,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G263,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G263,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G263,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G263,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G263,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G263,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G263,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G263,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>占领研究设施,摧毁盟军基地.</v>
+        <v>俘获超时空传送仪,传送自走基地到对面岛屿.</v>
       </c>
     </row>
     <row r="264" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
@@ -38529,14 +38519,14 @@
         <v>2968</v>
       </c>
       <c r="F264" s="58" t="s">
-        <v>3701</v>
+        <v>3576</v>
       </c>
       <c r="G264" s="58" t="s">
-        <v>3699</v>
+        <v>3577</v>
       </c>
       <c r="H264" s="58" t="str">
         <f>VLOOKUP(MID(G264,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G264,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G264,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G264,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G264,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G264,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G264,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G264,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G264,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>用补给车给水源下毒,可以让任务更加简单.</v>
+        <v>占领研究设施,摧毁盟军基地.</v>
       </c>
     </row>
     <row r="265" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
@@ -38553,6 +38543,16 @@
       </c>
       <c r="E266" s="58" t="s">
         <v>2972</v>
+      </c>
+      <c r="F266" s="58" t="s">
+        <v>3701</v>
+      </c>
+      <c r="G266" s="58" t="s">
+        <v>3699</v>
+      </c>
+      <c r="H266" s="58" t="str">
+        <f>VLOOKUP(MID(G266,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G266,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G266,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G266,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G266,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G266,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G266,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G266,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G266,25,2),字库代码!B:L,11,TRUE)</f>
+        <v>用补给车给水源下毒,可以让任务更加简单.</v>
       </c>
     </row>
     <row r="267" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
@@ -38624,16 +38624,6 @@
       <c r="E272" s="58" t="s">
         <v>2984</v>
       </c>
-      <c r="F272" s="58" t="s">
-        <v>3539</v>
-      </c>
-      <c r="G272" s="58" t="s">
-        <v>3703</v>
-      </c>
-      <c r="H272" s="58" t="str">
-        <f>VLOOKUP(MID(G272,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G272,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G272,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G272,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G272,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G272,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G272,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G272,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G272,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>让特工潜入基地,监视他们的活动,如果他们真的通</v>
-      </c>
     </row>
     <row r="273" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C273" s="58" t="str">
@@ -38647,14 +38637,14 @@
         <v>2986</v>
       </c>
       <c r="F273" s="58" t="s">
-        <v>3704</v>
+        <v>3539</v>
       </c>
       <c r="G273" s="58" t="s">
-        <v>3706</v>
+        <v>3703</v>
       </c>
       <c r="H273" s="58" t="str">
         <f>VLOOKUP(MID(G273,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G273,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G273,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G273,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G273,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G273,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G273,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G273,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G273,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>敌,去撤离点,发送增援信号,和对所有叛徒一样,</v>
+        <v>让特工潜入基地,监视他们的活动,如果他们真的通</v>
       </c>
     </row>
     <row r="274" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
@@ -38665,14 +38655,14 @@
         <v>2988</v>
       </c>
       <c r="F274" s="58" t="s">
-        <v>3705</v>
+        <v>3704</v>
       </c>
       <c r="G274" s="58" t="s">
-        <v>3707</v>
+        <v>3706</v>
       </c>
       <c r="H274" s="58" t="str">
         <f>VLOOKUP(MID(G274,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G274,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G274,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G274,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G274,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G274,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G274,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G274,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G274,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>干掉他们.</v>
+        <v>敌,去撤离点,发送增援信号,和对所有叛徒一样,</v>
       </c>
     </row>
     <row r="275" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
@@ -38681,6 +38671,16 @@
       </c>
       <c r="E275" s="58" t="s">
         <v>2990</v>
+      </c>
+      <c r="F275" s="58" t="s">
+        <v>3705</v>
+      </c>
+      <c r="G275" s="58" t="s">
+        <v>3707</v>
+      </c>
+      <c r="H275" s="58" t="str">
+        <f>VLOOKUP(MID(G275,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G275,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G275,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G275,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G275,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G275,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G275,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G275,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G275,25,2),字库代码!B:L,11,TRUE)</f>
+        <v>干掉他们.</v>
       </c>
     </row>
     <row r="276" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
@@ -38726,16 +38726,6 @@
       <c r="E279" s="58" t="s">
         <v>2999</v>
       </c>
-      <c r="F279" s="58" t="s">
-        <v>3541</v>
-      </c>
-      <c r="G279" s="58" t="s">
-        <v>3709</v>
-      </c>
-      <c r="H279" s="58" t="str">
-        <f>VLOOKUP(MID(G279,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G279,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G279,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G279,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G279,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G279,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G279,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G279,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G279,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>摧毁该地区四个雷达站,重新定位追踪沃尔科夫.</v>
-      </c>
     </row>
     <row r="280" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C280" s="58" t="s">
@@ -38748,14 +38738,14 @@
         <v>3001</v>
       </c>
       <c r="F280" s="58" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="G280" s="58" t="s">
-        <v>3558</v>
+        <v>3709</v>
       </c>
       <c r="H280" s="58" t="str">
         <f>VLOOKUP(MID(G280,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G280,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G280,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G280,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G280,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G280,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G280,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G280,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G280,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>然后派科学家进入设施重新激活他,并让他搭乘</v>
+        <v>摧毁该地区四个雷达站,重新定位追踪沃尔科夫.</v>
       </c>
     </row>
     <row r="281" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
@@ -38770,14 +38760,14 @@
         <v>3003</v>
       </c>
       <c r="F281" s="58" t="s">
-        <v>3568</v>
+        <v>3542</v>
       </c>
       <c r="G281" s="58" t="s">
-        <v>3567</v>
+        <v>3558</v>
       </c>
       <c r="H281" s="58" t="str">
         <f>VLOOKUP(MID(G281,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G281,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G281,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G281,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G281,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G281,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G281,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G281,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G281,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>支奴干撤离,并全歼敌军.</v>
+        <v>然后派科学家进入设施重新激活他,并让他搭乘</v>
       </c>
     </row>
     <row r="282" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
@@ -38788,14 +38778,14 @@
         <v>3005</v>
       </c>
       <c r="F282" s="58" t="s">
-        <v>3543</v>
+        <v>3568</v>
       </c>
       <c r="G282" s="58" t="s">
-        <v>3711</v>
+        <v>3567</v>
       </c>
       <c r="H282" s="58" t="str">
-        <f>VLOOKUP(MID(G282,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,25,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,28,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,31,2),字库代码!B:L,11,TRUE)</f>
-        <v>如果盟军得到沃尔科夫的控制码,摧毁它.</v>
+        <f>VLOOKUP(MID(G282,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G282,25,2),字库代码!B:L,11,TRUE)</f>
+        <v>支奴干撤离,并全歼敌军.</v>
       </c>
     </row>
     <row r="283" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
@@ -38812,6 +38802,16 @@
       </c>
       <c r="E284" s="58" t="s">
         <v>3009</v>
+      </c>
+      <c r="F284" s="58" t="s">
+        <v>3543</v>
+      </c>
+      <c r="G284" s="58" t="s">
+        <v>3711</v>
+      </c>
+      <c r="H284" s="58" t="str">
+        <f>VLOOKUP(MID(G284,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G284,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G284,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G284,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G284,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G284,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G284,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G284,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G284,25,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G284,28,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G284,31,2),字库代码!B:L,11,TRUE)</f>
+        <v>如果盟军得到沃尔科夫的控制码,摧毁它.</v>
       </c>
     </row>
     <row r="285" spans="2:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
@@ -38857,16 +38857,6 @@
       <c r="E288" s="58" t="s">
         <v>3018</v>
       </c>
-      <c r="F288" s="58" t="s">
-        <v>3714</v>
-      </c>
-      <c r="G288" s="58" t="s">
-        <v>3603</v>
-      </c>
-      <c r="H288" s="58" t="str">
-        <f>VLOOKUP(MID(G288,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G288,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G288,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G288,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G288,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G288,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G288,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G288,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G288,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>派遣武装,消灭反对者.据说当地平民拥有武器,</v>
-      </c>
     </row>
     <row r="289" spans="3:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C289" s="58" t="s">
@@ -38879,14 +38869,14 @@
         <v>3020</v>
       </c>
       <c r="F289" s="58" t="s">
-        <v>3545</v>
+        <v>3714</v>
       </c>
       <c r="G289" s="58" t="s">
-        <v>3569</v>
+        <v>3603</v>
       </c>
       <c r="H289" s="58" t="str">
         <f>VLOOKUP(MID(G289,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G289,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G289,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G289,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G289,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G289,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G289,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G289,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G289,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>螳臂挡车而已.</v>
+        <v>派遣武装,消灭反对者.据说当地平民拥有武器,</v>
       </c>
     </row>
     <row r="290" spans="3:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
@@ -38901,14 +38891,14 @@
         <v>3022</v>
       </c>
       <c r="F290" s="58" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="G290" s="58" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="H290" s="58" t="str">
         <f>VLOOKUP(MID(G290,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G290,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G290,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G290,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G290,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G290,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G290,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G290,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G290,25,2),字库代码!B:L,11,TRUE)</f>
-        <v>杀鸡儆猴,全部肃清--男人,女人,孩子.</v>
+        <v>螳臂挡车而已.</v>
       </c>
     </row>
     <row r="291" spans="3:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
@@ -38925,6 +38915,16 @@
       </c>
       <c r="E292" s="58" t="s">
         <v>3026</v>
+      </c>
+      <c r="F292" s="58" t="s">
+        <v>3546</v>
+      </c>
+      <c r="G292" s="58" t="s">
+        <v>3570</v>
+      </c>
+      <c r="H292" s="58" t="str">
+        <f>VLOOKUP(MID(G292,1,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G292,4,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G292,7,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G292,10,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G292,13,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G292,16,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G292,19,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G292,22,2),字库代码!B:L,11,TRUE)&amp;VLOOKUP(MID(G292,25,2),字库代码!B:L,11,TRUE)</f>
+        <v>杀鸡儆猴,全部肃清--男人,女人,孩子.</v>
       </c>
     </row>
     <row r="293" spans="3:8" s="58" customFormat="1" x14ac:dyDescent="0.15">
@@ -38944,10 +38944,10 @@
   <dimension ref="A1:O257"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L171" sqref="L171"/>
+      <selection pane="bottomRight" activeCell="L155" sqref="L155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/ra1/ra1字符串表.xlsx
+++ b/ra1/ra1字符串表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="界面字符串conquer.eng" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">界面字符串conquer.eng!$A$1:$Q$555</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3690">
   <si>
     <t>编号</t>
   </si>
@@ -10423,7 +10423,7 @@
     <t>派遣武装,消灭反对者.据说当地平民拥有</t>
   </si>
   <si>
-    <t>柯西金</t>
+    <t>科西金</t>
   </si>
   <si>
     <t>海军</t>
@@ -10499,6 +10499,9 @@
   </si>
   <si>
     <t>肯定会严加拷打,不能这样</t>
+  </si>
+  <si>
+    <t>斯大林的顶尖原子能战略家之一.弗拉基米尔.科</t>
   </si>
   <si>
     <t>特斯拉线圈离线</t>
@@ -11097,9 +11100,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -11152,16 +11155,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11169,35 +11164,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11212,38 +11178,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11265,6 +11207,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -11275,7 +11231,54 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11328,19 +11331,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11352,115 +11355,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11478,7 +11373,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11490,7 +11469,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11537,17 +11540,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11567,37 +11590,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11624,10 +11627,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11636,7 +11639,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11645,124 +11648,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14573,7 +14576,7 @@
   <sheetPr/>
   <dimension ref="A1:Q555"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C245" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -28054,7 +28057,7 @@
       </c>
       <c r="E72" s="30" t="str">
         <f>VLOOKUP(MID(D72,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(D72,4,2),字库代码!B:D,3,TRUE)</f>
-        <v>柯西金死亡</v>
+        <v>科西金死亡</v>
       </c>
       <c r="F72" s="30" t="s">
         <v>1355</v>
@@ -30990,10 +30993,10 @@
   <sheetPr/>
   <dimension ref="A1:F317"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -32122,7 +32125,7 @@
       </c>
       <c r="D94" t="str">
         <f>VLOOKUP(MID(C94,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(C94,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(C94,7,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(C94,10,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(C94,13,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(C94,16,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(C94,19,2),字库代码!B:D,3,TRUE)</f>
-        <v>斯大林的顶尖原子能战略家之一.弗拉基米尔.柯</v>
+        <v>斯大林的顶尖原子能战略家之一.弗拉基米尔.科</v>
       </c>
       <c r="F94" t="s">
         <v>1352</v>
@@ -32229,7 +32232,7 @@
       </c>
       <c r="D102" t="str">
         <f>VLOOKUP(MID(C102,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(C102,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(C102,7,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(C102,10,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(C102,13,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(C102,16,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(C102,19,2),字库代码!B:D,3,TRUE)</f>
-        <v>斯大林的顶尖原子能战略家之一.弗拉基米尔.柯</v>
+        <v>斯大林的顶尖原子能战略家之一.弗拉基米尔.科</v>
       </c>
       <c r="F102" t="s">
         <v>1352</v>
@@ -32336,7 +32339,7 @@
       </c>
       <c r="D110" t="str">
         <f>VLOOKUP(MID(C110,1,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(C110,4,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(C110,7,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(C110,10,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(C110,13,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(C110,16,2),字库代码!B:D,3,TRUE)&amp;VLOOKUP(MID(C110,19,2),字库代码!B:D,3,TRUE)</f>
-        <v>柯西金表示,这里是核武器工厂所在地.在接近苏军基地</v>
+        <v>科西金表示,这里是核武器工厂所在地.在接近苏军基地</v>
       </c>
       <c r="F110" t="s">
         <v>1352</v>
@@ -38525,11 +38528,11 @@
   <dimension ref="A1:O257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C186" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C200" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F194" sqref="F194"/>
+      <selection pane="bottomRight" activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -44851,23 +44854,23 @@
         <v>D3</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>2016</v>
+        <v>3492</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>3492</v>
+        <v>3493</v>
       </c>
       <c r="F213" s="15" t="s">
         <v>425</v>
       </c>
       <c r="I213" s="7"/>
       <c r="J213" s="7" t="s">
-        <v>3493</v>
+        <v>3494</v>
       </c>
       <c r="K213" t="s">
         <v>2743</v>
       </c>
       <c r="L213" s="21" t="s">
-        <v>3494</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -44879,23 +44882,23 @@
         <v>D4</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>3495</v>
+        <v>3496</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>3496</v>
+        <v>3497</v>
       </c>
       <c r="F214" s="15" t="s">
         <v>416</v>
       </c>
       <c r="I214" s="7"/>
       <c r="J214" s="7" t="s">
-        <v>3497</v>
+        <v>3498</v>
       </c>
       <c r="K214" t="s">
         <v>2747</v>
       </c>
       <c r="L214" s="21" t="s">
-        <v>3498</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -44907,10 +44910,10 @@
         <v>D5</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>3499</v>
+        <v>3500</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>3500</v>
+        <v>3501</v>
       </c>
       <c r="F215" s="15" t="s">
         <v>480</v>
@@ -44920,10 +44923,10 @@
         <v>246</v>
       </c>
       <c r="K215" t="s">
-        <v>3501</v>
+        <v>3502</v>
       </c>
       <c r="L215" s="21" t="s">
-        <v>3502</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -44935,23 +44938,23 @@
         <v>D6</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>3503</v>
+        <v>3504</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>3504</v>
+        <v>3505</v>
       </c>
       <c r="F216" s="15" t="s">
         <v>486</v>
       </c>
       <c r="I216" s="7"/>
       <c r="J216" t="s">
-        <v>3505</v>
+        <v>3506</v>
       </c>
       <c r="K216" t="s">
-        <v>3506</v>
+        <v>3507</v>
       </c>
       <c r="L216" s="21" t="s">
-        <v>3507</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -44963,20 +44966,20 @@
         <v>D7</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>3508</v>
+        <v>3509</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>3509</v>
+        <v>3510</v>
       </c>
       <c r="F217" s="15" t="s">
         <v>262</v>
       </c>
       <c r="I217" s="7"/>
       <c r="J217" s="7" t="s">
-        <v>3510</v>
+        <v>3511</v>
       </c>
       <c r="K217" s="7" t="s">
-        <v>3511</v>
+        <v>3512</v>
       </c>
       <c r="L217" s="21" t="s">
         <v>3030</v>
@@ -44991,23 +44994,23 @@
         <v>D8</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>3512</v>
+        <v>3513</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>3513</v>
+        <v>3514</v>
       </c>
       <c r="F218" t="s">
-        <v>3514</v>
+        <v>3515</v>
       </c>
       <c r="I218" s="7"/>
       <c r="J218" s="7" t="s">
-        <v>3515</v>
+        <v>3516</v>
       </c>
       <c r="K218" s="7" t="s">
         <v>3438</v>
       </c>
       <c r="L218" s="21" t="s">
-        <v>3516</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -45019,23 +45022,23 @@
         <v>D9</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>3517</v>
+        <v>3518</v>
       </c>
       <c r="E219" s="7" t="s">
         <v>1487</v>
       </c>
       <c r="F219" t="s">
-        <v>3518</v>
+        <v>3519</v>
       </c>
       <c r="I219" s="7"/>
       <c r="J219" s="7" t="s">
         <v>343</v>
       </c>
       <c r="K219" t="s">
-        <v>3519</v>
+        <v>3520</v>
       </c>
       <c r="L219" s="21" t="s">
-        <v>3520</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -45050,20 +45053,20 @@
         <v>1424</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>3521</v>
+        <v>3522</v>
       </c>
       <c r="F220" s="15" t="s">
         <v>439</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7" t="s">
-        <v>3522</v>
+        <v>3523</v>
       </c>
       <c r="K220" s="7" t="s">
         <v>468</v>
       </c>
       <c r="L220" s="21" t="s">
-        <v>3523</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -45078,20 +45081,20 @@
         <v>480</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>3524</v>
+        <v>3525</v>
       </c>
       <c r="F221" s="15" t="s">
         <v>445</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="7" t="s">
-        <v>3525</v>
+        <v>3526</v>
       </c>
       <c r="K221" t="s">
-        <v>3526</v>
+        <v>3527</v>
       </c>
       <c r="L221" s="21" t="s">
-        <v>3527</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -45119,7 +45122,7 @@
         <v>3374</v>
       </c>
       <c r="L222" s="21" t="s">
-        <v>3528</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -45131,23 +45134,23 @@
         <v>DD</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>3529</v>
+        <v>3530</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>3530</v>
+        <v>3531</v>
       </c>
       <c r="F223" s="15" t="s">
         <v>442</v>
       </c>
       <c r="I223" s="7"/>
       <c r="J223" s="7" t="s">
-        <v>3531</v>
+        <v>3532</v>
       </c>
       <c r="K223" t="s">
-        <v>3532</v>
+        <v>3533</v>
       </c>
       <c r="L223" s="21" t="s">
-        <v>3533</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -45159,23 +45162,23 @@
         <v>DE</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>3534</v>
+        <v>3535</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>3535</v>
+        <v>3536</v>
       </c>
       <c r="F224" s="15" t="s">
         <v>541</v>
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7" t="s">
-        <v>3536</v>
+        <v>3537</v>
       </c>
       <c r="K224" t="s">
-        <v>3537</v>
+        <v>3538</v>
       </c>
       <c r="L224" s="21" t="s">
-        <v>3538</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -45203,7 +45206,7 @@
         <v>2639</v>
       </c>
       <c r="L225" s="21" t="s">
-        <v>3539</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -45215,28 +45218,28 @@
         <v>E0</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>3540</v>
+        <v>3541</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>3541</v>
+        <v>3542</v>
       </c>
       <c r="F226" s="15" t="s">
-        <v>3542</v>
+        <v>3543</v>
       </c>
       <c r="I226" s="7" t="s">
-        <v>3543</v>
+        <v>3544</v>
       </c>
       <c r="J226" s="7" t="s">
-        <v>3544</v>
+        <v>3545</v>
       </c>
       <c r="K226" t="s">
         <v>2634</v>
       </c>
       <c r="L226" s="21" t="s">
-        <v>3545</v>
+        <v>3546</v>
       </c>
       <c r="N226" s="2" t="s">
-        <v>3546</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -45248,23 +45251,23 @@
         <v>E1</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>3547</v>
+        <v>3548</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>3548</v>
+        <v>3549</v>
       </c>
       <c r="F227" s="15" t="s">
-        <v>3549</v>
+        <v>3550</v>
       </c>
       <c r="I227" s="7"/>
       <c r="J227" s="7" t="s">
-        <v>3550</v>
+        <v>3551</v>
       </c>
       <c r="K227" s="7" t="s">
-        <v>3551</v>
+        <v>3552</v>
       </c>
       <c r="L227" s="21" t="s">
-        <v>3552</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -45276,23 +45279,23 @@
         <v>E2</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>3553</v>
+        <v>3554</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>3554</v>
+        <v>3555</v>
       </c>
       <c r="F228" t="s">
         <v>422</v>
       </c>
       <c r="I228" s="7"/>
       <c r="J228" t="s">
-        <v>3555</v>
+        <v>3556</v>
       </c>
       <c r="K228" t="s">
-        <v>3556</v>
+        <v>3557</v>
       </c>
       <c r="L228" s="21" t="s">
-        <v>3557</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="229" ht="17.1" customHeight="1" spans="1:12">
@@ -45304,10 +45307,10 @@
         <v>E3</v>
       </c>
       <c r="D229" s="16" t="s">
-        <v>3558</v>
+        <v>3559</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>3559</v>
+        <v>3560</v>
       </c>
       <c r="F229" s="15" t="s">
         <v>432</v>
@@ -45318,10 +45321,10 @@
         <v>1620</v>
       </c>
       <c r="K229" s="16" t="s">
-        <v>3560</v>
+        <v>3561</v>
       </c>
       <c r="L229" s="21" t="s">
-        <v>3561</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -45336,20 +45339,20 @@
         <v>3302</v>
       </c>
       <c r="E230" s="7" t="s">
-        <v>3562</v>
+        <v>3563</v>
       </c>
       <c r="F230" s="15" t="s">
-        <v>3563</v>
+        <v>3564</v>
       </c>
       <c r="I230" s="7"/>
       <c r="J230" s="7" t="s">
-        <v>3564</v>
+        <v>3565</v>
       </c>
       <c r="K230" s="7" t="s">
-        <v>3565</v>
+        <v>3566</v>
       </c>
       <c r="L230" s="21" t="s">
-        <v>3566</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -45361,23 +45364,23 @@
         <v>E5</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>3567</v>
+        <v>3568</v>
       </c>
       <c r="E231" s="7" t="s">
         <v>373</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>3568</v>
+        <v>3569</v>
       </c>
       <c r="I231" s="7"/>
       <c r="J231" s="7" t="s">
-        <v>3569</v>
+        <v>3570</v>
       </c>
       <c r="K231" s="7" t="s">
-        <v>3570</v>
+        <v>3571</v>
       </c>
       <c r="L231" s="21" t="s">
-        <v>3571</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -45395,13 +45398,13 @@
         <v>376</v>
       </c>
       <c r="F232" t="s">
-        <v>3572</v>
+        <v>3573</v>
       </c>
       <c r="J232" s="3" t="s">
         <v>376</v>
       </c>
       <c r="K232" s="3" t="s">
-        <v>3573</v>
+        <v>3574</v>
       </c>
       <c r="L232" s="21" t="s">
         <v>2941</v>
@@ -45416,23 +45419,23 @@
         <v>E7</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>1475</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>3575</v>
+        <v>3576</v>
       </c>
       <c r="I233" s="2"/>
       <c r="J233" s="3" t="s">
-        <v>3576</v>
+        <v>3577</v>
       </c>
       <c r="K233" s="3" t="s">
-        <v>3577</v>
+        <v>3578</v>
       </c>
       <c r="L233" s="21" t="s">
-        <v>3578</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -45444,22 +45447,22 @@
         <v>E8</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>3580</v>
+        <v>3581</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>3581</v>
+        <v>3582</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="K234" s="3" t="s">
         <v>3154</v>
       </c>
       <c r="L234" s="21" t="s">
-        <v>3583</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -45471,22 +45474,22 @@
         <v>E9</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>3584</v>
+        <v>3585</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>3585</v>
+        <v>3586</v>
       </c>
       <c r="F235" t="s">
-        <v>3586</v>
+        <v>3587</v>
       </c>
       <c r="J235" s="3" t="s">
-        <v>3587</v>
+        <v>3588</v>
       </c>
       <c r="K235" s="3" t="s">
-        <v>3588</v>
+        <v>3589</v>
       </c>
       <c r="L235" s="21" t="s">
-        <v>3589</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -45498,22 +45501,22 @@
         <v>EA</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>3590</v>
+        <v>3591</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>3590</v>
+        <v>3591</v>
       </c>
       <c r="F236" s="2" t="s">
+        <v>3592</v>
+      </c>
+      <c r="J236" s="3" t="s">
         <v>3591</v>
       </c>
-      <c r="J236" s="3" t="s">
-        <v>3590</v>
-      </c>
       <c r="K236" s="3" t="s">
-        <v>3590</v>
+        <v>3591</v>
       </c>
       <c r="L236" s="3" t="s">
-        <v>3590</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -45525,25 +45528,25 @@
         <v>EB</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>3592</v>
+        <v>3593</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>3594</v>
+        <v>3595</v>
       </c>
       <c r="I237" s="3" t="s">
-        <v>3595</v>
+        <v>3596</v>
       </c>
       <c r="J237" s="3" t="s">
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="K237" s="3" t="s">
-        <v>3597</v>
+        <v>3598</v>
       </c>
       <c r="L237" s="21" t="s">
-        <v>3598</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="238" spans="1:14">
@@ -45555,25 +45558,25 @@
         <v>EC</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>3599</v>
+        <v>3600</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>3600</v>
+        <v>3601</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>3601</v>
+        <v>3602</v>
       </c>
       <c r="I238" s="3" t="s">
         <v>190</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>3602</v>
+        <v>3603</v>
       </c>
       <c r="K238" s="3" t="s">
-        <v>3505</v>
+        <v>3506</v>
       </c>
       <c r="L238" s="21" t="s">
-        <v>3603</v>
+        <v>3604</v>
       </c>
       <c r="N238"/>
     </row>
@@ -45586,22 +45589,22 @@
         <v>ED</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>3604</v>
+        <v>3605</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>563</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>3605</v>
+        <v>3606</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>3606</v>
+        <v>3607</v>
       </c>
       <c r="L239" s="21" t="s">
-        <v>3607</v>
+        <v>3608</v>
       </c>
       <c r="N239"/>
     </row>
@@ -45614,22 +45617,22 @@
         <v>EE</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>3608</v>
+        <v>3609</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>3609</v>
+        <v>3610</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>532</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>3610</v>
+        <v>3611</v>
       </c>
       <c r="J240" s="3" t="s">
-        <v>3611</v>
+        <v>3612</v>
       </c>
       <c r="L240" s="21" t="s">
-        <v>3612</v>
+        <v>3613</v>
       </c>
       <c r="N240"/>
     </row>
@@ -45642,23 +45645,23 @@
         <v>EF</v>
       </c>
       <c r="D241" s="16" t="s">
-        <v>3613</v>
+        <v>3614</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>3614</v>
+        <v>3615</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>3615</v>
+        <v>3616</v>
       </c>
       <c r="G241" s="18"/>
       <c r="I241" s="16" t="s">
         <v>173</v>
       </c>
       <c r="J241" s="16" t="s">
-        <v>3616</v>
+        <v>3617</v>
       </c>
       <c r="L241" s="21" t="s">
-        <v>3617</v>
+        <v>3618</v>
       </c>
       <c r="N241"/>
     </row>
@@ -45671,20 +45674,20 @@
         <v>F0</v>
       </c>
       <c r="D242" s="19" t="s">
-        <v>3618</v>
+        <v>3619</v>
       </c>
       <c r="E242" s="19" t="s">
-        <v>3619</v>
+        <v>3620</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>3620</v>
+        <v>3621</v>
       </c>
       <c r="G242" s="20"/>
       <c r="I242" s="19" t="s">
-        <v>3621</v>
+        <v>3622</v>
       </c>
       <c r="J242" s="19" t="s">
-        <v>3622</v>
+        <v>3623</v>
       </c>
       <c r="L242" s="21" t="s">
         <v>1169</v>
@@ -45700,10 +45703,10 @@
         <v>F1</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>3623</v>
+        <v>3624</v>
       </c>
       <c r="E243" s="7" t="s">
-        <v>3624</v>
+        <v>3625</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>554</v>
@@ -45713,38 +45716,38 @@
         <v>170</v>
       </c>
       <c r="J243" s="7" t="s">
-        <v>3625</v>
+        <v>3626</v>
       </c>
       <c r="L243" s="21" t="s">
-        <v>3626</v>
+        <v>3627</v>
       </c>
       <c r="N243"/>
     </row>
     <row r="244" spans="1:14">
       <c r="A244" s="2" t="s">
-        <v>3627</v>
+        <v>3628</v>
       </c>
       <c r="B244" s="2" t="str">
         <f t="shared" si="3"/>
         <v>F2</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>3628</v>
+        <v>3629</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>3629</v>
+        <v>3630</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>3630</v>
+        <v>3631</v>
       </c>
       <c r="I244" s="3" t="s">
-        <v>3631</v>
+        <v>3632</v>
       </c>
       <c r="J244" s="3" t="s">
-        <v>3632</v>
+        <v>3633</v>
       </c>
       <c r="L244" s="21" t="s">
-        <v>3633</v>
+        <v>3634</v>
       </c>
       <c r="N244"/>
     </row>
@@ -45760,19 +45763,19 @@
         <v>1397</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>3634</v>
+        <v>3635</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>3635</v>
+        <v>3636</v>
       </c>
       <c r="I245" s="3" t="s">
-        <v>3636</v>
+        <v>3637</v>
       </c>
       <c r="J245" s="3" t="s">
-        <v>3637</v>
+        <v>3638</v>
       </c>
       <c r="L245" s="21" t="s">
-        <v>3638</v>
+        <v>3639</v>
       </c>
       <c r="N245"/>
     </row>
@@ -45785,22 +45788,22 @@
         <v>F4</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>3639</v>
+        <v>3640</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>3640</v>
+        <v>3641</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>3641</v>
+        <v>3642</v>
       </c>
       <c r="I246" s="3" t="s">
         <v>3413</v>
       </c>
       <c r="J246" s="3" t="s">
-        <v>3642</v>
+        <v>3643</v>
       </c>
       <c r="L246" s="21" t="s">
-        <v>3643</v>
+        <v>3644</v>
       </c>
       <c r="N246"/>
     </row>
@@ -45813,22 +45816,22 @@
         <v>F5</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>3644</v>
+        <v>3645</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>3645</v>
+        <v>3646</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>3646</v>
+        <v>3647</v>
       </c>
       <c r="I247" s="3" t="s">
         <v>1100</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>3647</v>
+        <v>3648</v>
       </c>
       <c r="L247" s="21" t="s">
-        <v>3648</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -45840,10 +45843,10 @@
         <v>F6</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>3650</v>
+        <v>3651</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>403</v>
@@ -45852,13 +45855,13 @@
         <v>1091</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>3651</v>
+        <v>3652</v>
       </c>
       <c r="K248" t="s">
         <v>2841</v>
       </c>
       <c r="L248" s="21" t="s">
-        <v>3652</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -45873,16 +45876,16 @@
         <v>1390</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>3653</v>
+        <v>3654</v>
       </c>
       <c r="F249" s="11" t="s">
-        <v>3654</v>
+        <v>3655</v>
       </c>
       <c r="I249" s="3" t="s">
         <v>1106</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>3655</v>
+        <v>3656</v>
       </c>
       <c r="K249" t="s">
         <v>2812</v>
@@ -45900,19 +45903,19 @@
         <v>F8</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>3656</v>
+        <v>3657</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="F250" t="s">
-        <v>3658</v>
+        <v>3659</v>
       </c>
       <c r="I250" s="3" t="s">
         <v>1103</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>3659</v>
+        <v>3660</v>
       </c>
       <c r="K250" t="s">
         <v>2791</v>
@@ -45930,22 +45933,22 @@
         <v>F9</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>3660</v>
+        <v>3661</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>3661</v>
+        <v>3662</v>
       </c>
       <c r="F251" t="s">
-        <v>3662</v>
+        <v>3663</v>
       </c>
       <c r="I251" s="3" t="s">
         <v>1088</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>3663</v>
+        <v>3664</v>
       </c>
       <c r="K251" t="s">
-        <v>3664</v>
+        <v>3665</v>
       </c>
       <c r="L251" s="21" t="s">
         <v>3005</v>
@@ -45966,13 +45969,13 @@
         <v>3433</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>3665</v>
+        <v>3666</v>
       </c>
       <c r="I252" t="s">
         <v>1097</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>3666</v>
+        <v>3667</v>
       </c>
       <c r="K252" t="s">
         <v>2731</v>
@@ -45990,10 +45993,10 @@
         <v>FB</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>3667</v>
+        <v>3668</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>3668</v>
+        <v>3669</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>552</v>
@@ -46002,7 +46005,7 @@
         <v>1085</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>3669</v>
+        <v>3670</v>
       </c>
       <c r="K253" t="s">
         <v>2708</v>
@@ -46016,13 +46019,13 @@
         <v>252</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>3670</v>
+        <v>3671</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>3671</v>
+        <v>3672</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>3672</v>
+        <v>3673</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>501</v>
@@ -46031,7 +46034,7 @@
         <v>1094</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>3673</v>
+        <v>3674</v>
       </c>
       <c r="K254" t="s">
         <v>2687</v>
@@ -46048,22 +46051,22 @@
         <v>1134</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>3674</v>
+        <v>3675</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>3675</v>
+        <v>3676</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>3676</v>
+        <v>3677</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>3677</v>
+        <v>3678</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>3678</v>
+        <v>3679</v>
       </c>
       <c r="K255" s="3" t="s">
-        <v>3679</v>
+        <v>3680</v>
       </c>
       <c r="L255" s="21" t="s">
         <v>2901</v>
@@ -46074,7 +46077,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>3680</v>
+        <v>3681</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>3438</v>
@@ -46083,13 +46086,13 @@
         <v>3438</v>
       </c>
       <c r="F256" t="s">
-        <v>3505</v>
+        <v>3506</v>
       </c>
       <c r="I256" s="3" t="s">
-        <v>3681</v>
+        <v>3682</v>
       </c>
       <c r="J256" s="3" t="s">
-        <v>3682</v>
+        <v>3683</v>
       </c>
       <c r="K256" s="3" t="s">
         <v>2636</v>
@@ -46103,26 +46106,26 @@
         <v>255</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>3683</v>
+        <v>3684</v>
       </c>
       <c r="C257" s="3"/>
       <c r="D257" s="3" t="s">
-        <v>3684</v>
+        <v>3685</v>
       </c>
       <c r="E257" t="s">
-        <v>3685</v>
+        <v>3686</v>
       </c>
       <c r="I257" t="s">
-        <v>3686</v>
+        <v>3687</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>3687</v>
+        <v>3688</v>
       </c>
       <c r="K257" s="3" t="s">
-        <v>3688</v>
+        <v>3689</v>
       </c>
       <c r="L257" s="3" t="s">
-        <v>3688</v>
+        <v>3689</v>
       </c>
     </row>
   </sheetData>
